--- a/datasets/gist-960-euclidean-true-labels.xlsx
+++ b/datasets/gist-960-euclidean-true-labels.xlsx
@@ -491,7 +491,7 @@
  226731 949019 310734 973655 976869 227849 414454 132287  92231 957042
  906838   8699 539511 487380 966465 758836 456019 787403 814298 627368
    8719 194539 771115  17197 368274 200301 222664 837622 118904 288285
- 487415 377431 905024 928816 169826 590002 700405  91126 426896 517053
+ 487415 377431 905024 928816 169826 700405 590002  91126 426896 517053
  644550 392423 276450 984648 591280 161893 516068 962211    152 254420
  922807  98964 939932 457981 569583 860398 534543 649520 719420 152063]</t>
         </is>
@@ -588,7 +588,7 @@
  170722 839904 988305 613865 893255 503971 489018 824663 332196 895139
   96193 152346  10226  54595 226604  58929 808359 357285 941855 875570
  137627 932723 911998 971702 838623 837461 977640 302605 636180 369807
- 161685 141958 115785 305154 765983 348037 422153 970025 415559 109157
+ 161685 141958 305154 115785 765983 348037 422153 970025 415559 109157
  519926 565552 113090  76053 501926 940357  88814 517037 646047 975498
  662494 425087 243111 109178 935958 836558 833625   7847 878450 502578
   69368 130334 289354 145600 627712 343164 721004 563330 318443 857138
@@ -650,7 +650,7 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>[587973 181475  66798 276593 882708 579177 954714 565861 213335 276563
- 303325 663057 655618 831240 437118 831247    454 954000 795404 795421
+ 303325 663057 655618 831240 437118 831247    454 954000 795421 795404
   78616 855634 840255 440768 491343 237693  92301 950236 993650 458009
  196122 279622  49986 209758 516916 250513 132066 225555 675618 761176
  623499 468715 427880 236199 390134  55791  90862 212590 575789 204663
@@ -682,9 +682,9 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[ 88024 789304   6297 976825  13773  19006 222412 593909 881557 111856
- 593912 670095 881552 167990 296757 470721 946247 142740 823455 161585
- 161615 834552 126761 908744 229082 448384 433545 637136 149389 936458
+          <t>[ 88024 789304   6297 976825  13773  19006 222412 881557 593909 111856
+ 593912 670095 881552 167990 296757 470721 946247 142740 823455 161615
+ 161585 834552 126761 908744 229082 448384 433545 637136 149389 936458
  904398  17628 555592 854272 305423 801161 617868 620895 968907 517589
  684220 955134 281313 666589 713659 210016 635236 742271 622775 141027
  703938 585516 356308 309796 897833 710224 827280 942676  44232 785342
@@ -816,14 +816,14 @@
         <is>
           <t>[876639 236446 532069 643565 327805 647499  98457 248524 308156 564075
  216961 701175 868081  26538 336238 584639 308129 301973 217098 871874
- 735092 974436 224863  52249 974463 974487 913808  95009 801917 511619
+ 735092 974436 224863 974463  52249 974487 913808  95009 801917 511619
  293577 754662 327895 945417 552477 192209 133744 118181  11333 432440
  350912   7388 363175 112348 851027 555687 155310 785425 336222 706417
   94437 711836 897653 705743   7379 459633 313235 606532 866358 447206
  804612 153583 777188 621132 720172   7400 243230  55579  95428 153124
  189352 641173 905339 378914 627087 905178  98574  19740 259363 144007
- 711833  88839 174800 396272 456861 486560 638611 706349 752759 833880
- 859325 881272 980226   9413 572210 572717 175287 153135 696392 866378]</t>
+ 711833 706349 881272  88839 486560 456861 752759 174800 980226 833880
+ 859325 638611 396272   9413 572210 572717 175287 153135 696392 866378]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -887,7 +887,7 @@
  461857 704707 391419  54509 431581 762588 633241 867269 534886 757832
   92040 639901 240699 998181 688565 181515 400507 228616 300979 301007
  727050 983237 585045 809630 607116 317597 219567 354738 634510 576565
- 219619 164441 256020 855649  97726 731008 708067 991063 787515 900748
+ 219619 256020 164441 855649  97726 731008 708067 991063 787515 900748
  675179  59812 147652 914884  83629 102785 397844 588085 704369 128943
  590564 762684 796222 614540 336629 625349 739339 178602 830220 656836]</t>
         </is>
@@ -1012,10 +1012,10 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[800179 505100 806431 663698 649218 779609 779762 761972 845861 332203
+          <t>[800179 505100 806431 663698 649218 779762 779609 761972 845861 332203
  571448 494560 215907 482691 712915 566984 928834 254972 341062 194472
- 611395 925139 870657 580196 969553 115803  90758  43917 923667 352861
- 922845 478595 620663 813530 754986 477880 697968  79462 991144 750844
+ 611395 925139 870657 580196 969553 115803  90758  43917 923667 922845
+ 352861 478595 620663 813530 754986 477880 697968  79462 991144 750844
  751017 430562 615033 432792 828839 574404 127300  31255 560465 824944
  945846  80640  28955 821540 647617 741518 422186 487216 116447 821989
  891598 192989 681624 349950 330381 959683 963739 111356 871129 764180
@@ -1084,7 +1084,7 @@
  951900 829198 951640 849847 409650 244012  15657 459201  94899  89774
  824669 636239 686296 296278 302766 734819  64193 157222 526534 701324
  327013  45183 992122 896139 785939 118909 107412 865530 124008 481043
- 567465   3865 782400 839120 993598 727929 489639 784136 928797 804308
+ 567465   3865 782400 993598 839120 727929 489639 784136 928797 804308
  259696 466683 247082 548556 132465 212643 344552 177982 916663 960430
   87044 656979  86531 443587 563649 599990 888418 251535 421590 335113
  805321 189272 550735 143658 283653 140449 512457 722266 822884 715990]</t>
@@ -1145,13 +1145,13 @@
       <c r="B23" t="inlineStr">
         <is>
           <t>[742257 655187 225655 916296 329182 747799 780910 133048 812774 967706
- 762869 592921 125321 465393 639283 209159 915005 721808 584728 336917
+ 762869 592921 465393 639283 125321 209159 915005 721808 584728 336917
  250760 394743  28128 702142 775930 255236 946486 703448 580375 254730
  192060 838287 623753 403913 441565 509586 123686 761064 566839 898243
- 773305 423041 554613 454815 863528  21813 525031 207089 434148 465116
- 465245 465486 497569 513673 639380 961555 992665 558172 670535  20200
- 973732 121109  38803 115850 122367 465323 480024 513429 513716 639443
- 708761 708919 962290 557156 935653 647825 273687 214705 687279 870655
+ 773305 423041 554613 454815 863528  21813 525031 639380 497569 465116
+ 465245 465486 961555 513673 992665 207089 434148 558172 670535  20200
+ 973732 121109 122367 708761 708919 513429 465323 639443  38803 115850
+ 962290 513716 480024 557156 935653 647825 273687 214705 687279 870655
  184593 813798 176880 542958 738357 269019 845013 670850 104422 912272
  116811 111789 994473 724111 784674 464104 351987 351033 879654 861831]</t>
         </is>
@@ -1166,7 +1166,7 @@
  1.3007 1.3007 1.3007 1.3007 1.3007 1.3007 1.3007 1.3009 1.3009 1.301
  1.3019 1.3024 1.3025 1.3025 1.3025 1.3025 1.3025 1.3025 1.3025 1.3025
  1.3025 1.3025 1.3025 1.3026 1.303  1.3031 1.3035 1.3036 1.3038 1.3041
- 1.3042 1.3044 1.3045 1.3046 1.3047 1.3049 1.3053 1.3055 1.3056 1.3065
+ 1.3042 1.3044 1.3045 1.3046 1.3047 1.3049 1.3053 1.3055 1.3056 1.3064
  1.3068 1.3076 1.3076 1.3077 1.3077 1.3077 1.3079 1.3079 1.3083 1.3099]</t>
         </is>
       </c>
@@ -1179,7 +1179,7 @@
         <is>
           <t>[177679 418122 820450 624911 841321 927988  30767 570192 955318 310625
  851417 146818 151900  62655 493684 324794 793315 222903 686379 356611
- 427511 778957 781881 342849  63444 591098 388883 565692  15463 761931
+ 427511 778957 781881 342849  63444 591098 565692 388883  15463 761931
  155711 705875 406558 527877 868273 681052 295765 227384 292748 882654
  420977 982510 888523   7920 567033 465737 247634 732237 191145 172225
  410928 856090 627149 213741 549834 604028 433307 507560 125411 699539
@@ -1245,7 +1245,7 @@
         <is>
           <t>[623560  23669 581877 282954 702436 521187 339977 965040 931159 978867
  553635 306622 880921 384541 932911 482288 758141 898105 714095 279376
- 532275 376885 936300 814660 965646 737216 251348 204632     50    444
+ 532275 376885 936300 814660 965646 737216 251348 204632    444     50
  770255 735881 992931 574062 544502 988950 712388   9601 451705 204787
  650249  13231 334878 267725 570489 255990  84535 900731 361760 868395
  563089 169827  49963 721348  69462 805321 538437 809171 453839 636841
@@ -1285,7 +1285,7 @@
  451913 957668  25206 466703 274526 558720 398647 124353  45985 741727
  592344 595845 770377 310755 615907 952122 608002  19126 805537 352717
  995208 198177 943158 625415 313732 654709 545515 723166  90563 786000
- 280170 523219 760801 184395 554258 453540 864214 332222 709084 889997]</t>
+ 280170 523219 760801 554258 184395 453540 864214 332222 709084 889997]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1309,13 +1309,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[366520 750678 750715 254571 139764 209307 884463 118686 189259  98250
+          <t>[366520 750715 750678 254571 139764 209307 884463 118686 189259  98250
  676603  71748 814335 776558 363921 348039 922157 623256 234845 460691
  353799 319548  54883 228529 121491   5401 978688  11250 521304 905552
   51431 970224 918465 415031   3483 698831 700754 727416 150178 845629
  712829 882791 852646 593363 957085 455719 362960 291045 900925 995056
  635770 278396 430922 514210 795951 262923 267927 948023 891995 832496
- 464716 399329 186292 112866 206086 831939 387180 970250 237637 992540
+ 464716 399329 186292 206086 112866 831939 387180 970250 237637 992540
  279760 608739 453485 490669 813459 634144 751476 469677 366589 774810
   43713 312636 218661 532792 288930 294717 230232 633146 784605  73831
  910900 723810 856354 440076 690546 840564 736536 776356 815511 795937]</t>
@@ -1377,7 +1377,7 @@
         <is>
           <t>[870073 162581 359930 699731 701301 637343 340463 259569  94258 200957
  212722 425337 204526 295638 972287 753169 999427 565994 399219 436244
- 644448 832499 363657 999435 259576 498880 782190 174194 812829  58505
+ 644448 832499 363657 999435 259576 498880 782190 812829 174194  58505
  241271 905189 891163 776063 776019 687697 482096 697097 636525 925569
  576211 999438 760403 652364   4008 508098 971523 325524 347887 557677
  529428  31714 269118 851464 232399 380392 828147  85939 255117 955200
@@ -1412,7 +1412,7 @@
  897213  80178  27643 558079 136751 124803 780431 433739 742180 209177
  370266 688967 782048 708665 781117 120619 991231 900207 381732   5704
  615334  27640 575297 535353 115511 926354  20977 280347 989935 397866
- 666888 203046 990002 969275 678909 273035  41430 459198  24411 971484
+ 666888 203046 990002 969275 678909 273035  41430 459198 971484  24411
  730559 283188  57735 294358 929116 725294 147240  50363 795606 518675
  140234 273034 630486 628849 514626  41875 136755 553717 559108 438008
  167810 724829 289389  53891 946360 848558 589035 590708 795387  62334
@@ -1443,14 +1443,14 @@
         <is>
           <t>[807832 696965 926380 465036   4772 820783 549906 332267 994703 555473
  297692 668521 146519 663821  54592 565038 697103 205208  60400 150991
-  73919 708666 501541 994676 549585  63849 664285 188598 398716 665854
+  73919 708666 501541 994676 549585  63849 664285 398716 188598 665854
  884567 451521 915828 825262 867932 352150 190056 818647 510027 252838
  206535 864791 529158  63634 349155 265579 494702 627663 923135 850011
  671325 544161 631682 162852 438822 344578 702214 232511 205210 782633
  860245 907450 435467 637395 744094 282499  14189 199485 322782 510321
  790598 936095 209251 657586 649718 891055 284608 244059 257567 972309
   61946 873022 570821 473286 345145 825691  35541  65894 977110 348414
- 178818 166506  35850 144457 341250 835127  60387 707120   9010 970753]</t>
+ 178818 166506  35850 144457 341250 835127  60387 707120 970785 970753]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1512,7 +1512,7 @@
  968757 825957  13941 254757 109589 709320 450606 637112 158849 973951
   86378 950731  32920 222108 795103 952956 267026 132955 942868 604702
  842644 649460 889400 907232 840015  28278 378621 881639 257226 452884
- 155988 653881 855407  62740 209816 797201  77949 400663 582636 330280
+ 155988 653881 855407  62740 209816 797201  77949 582636 400663 330280
  527860  94373 361974 345807 100076 370227 613186 828157 828211 828195
  580375 411904 247870 499485 813397 609098 297926 720484  62358  89199
  305097 463690 326504 946661 284035 419580 231116 681129 837399 645814
@@ -1549,7 +1549,7 @@
  937399 409491 527681 700825   2907 256037  65781 375654 842202 821684
  701943 249024 375648 507573 236965 174019 547753 569110 886656 409480
  458851 310213 799973 211313 389399 953668 441873  70129 168504 660946
- 879949  81927 835613 464858 832460 118309 409415 189997 224025 314557]</t>
+ 879949  81927 835613 464858 832460 118309 409415 224025 189997 314557]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1644,9 +1644,9 @@
  100303 585723 462015 214794 998686 355066 408327 806804 797623 797642
  692638  56032 307384 451434 514693 562430 146458 934904 326553  73841
  745420 880021 988764 738287 751497 391672 564968 272146 526306 191215
- 405494 536857 685507 593553 707673 100689 410532 832631 553061  56775
- 737821 988831 245464 988791 432809 112898 409456 274238 211014 802361
- 802407 904762 932375 205335 441971 770837 568374 380508  96275   9302
+ 536857 405494 685507 593553 707673 100689 410532 832631 553061  56775
+ 737821 988831 245464 988791 432809 112898 409456 274238 211014 802407
+ 802361 904762 932375 205335 441971 770837 568374 380508  96275   9302
  926600 126926 100688  32398 520144 274320 176566 917586 117682 576068
  794047  59970 504193 238737 523019 336000 741855  35713 924272  83755]</t>
         </is>
@@ -1681,7 +1681,7 @@
  134009 907636 693958 133851 872103 319410 471161 211151 522265 699903
  637131 410158 260165 562535 602814 634562 211100 577264 393343 830084
  681251 510738 742666  91109 978936 414246 296514 585106 119580 323499
- 605211 605221 947942 786204 786538 274286 277333 115386  96121 904511]</t>
+ 605211 605221 947942 786538 786204 274286 277333 115386 904511  96121]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1714,7 +1714,7 @@
  541540 509505 373114 454442 221275  95115 678161 871529 454492 149672
  883603 476630  67567 948842 471378 466104 169906 281664 521033 726732
  981659 313194 407232  25586 238082 363906 725344 473629 844375 388228
- 440735 426987 498224 838250 164302 282586 269742  26923 870192 829599]</t>
+ 440735 426987 498224 838250 164302 282586 269742  26923 870192 926418]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1741,9 +1741,9 @@
           <t>[400639  82949  66478 327535 783089 898258  87239 731717 597468 961682
  534162 241328 327027  10971 148785  29701 450550 898608 937071 272923
  217923 267345 115696 830502 212336 924291 929538 885695 158075 882794
- 620515 665362 951202 962252 593380 643052 699693 597418 189987 400409
+ 620515 665362 951202 962252 643052 593380 699693 597418 189987 400409
  773058 971702 995040 547933 837873 904690 508099 830541 391753 731882
- 548133 266095 551799  66504 232072 106441 620974 962164 405693 673796
+ 548133 266095 551799 232072  66504 106441 620974 962164 405693 673796
  642697  56199 672758 664600 355787 301179 336337 276275 152616 173668
  160141 148173 510039 547061 704962 224353  11240 738651  52461 564462
  669096 741868 473972 348579 197332 686357 300551 318743 776754 193822
@@ -1772,10 +1772,10 @@
       <c r="B42" t="inlineStr">
         <is>
           <t>[782761 123766 690265 770255 712342 353689 157222 775319 365425 352806
-  21738 503047 548364 144150 425914 681525 141980 494033 251535 421590
+  21738 503047 548364 144150 425914 681525 141980 494033 421590 251535
  365338 205090 463775 932859 570489 890137 332316 358708 951207 985049
- 661821 525179 779074 804308 235651 235922 321588 393538 908952 548369
- 549625 697078 650130 426276 777680 589584 720066 981743 535723  70869
+ 661821 779074 525179 804308 235651 235922 321588 393538 908952 549625
+ 548369 697078 650130 426276 777680 589584 720066 981743 535723  70869
  779565 461048  31332 477386 925919 655848 653944 548556 283958 325584
  804864 978723 935282 501282  98616 837169 968215 779837 132014 655850
  452980  42412 815436  15614 875566 876573  69722 778533  88776  13231
@@ -1809,10 +1809,10 @@
  474358 750790 386837 119597 465181 366520  96019 589264 634343 901822
  122700 200843 907952 979297 818877 256038 747214 534188 963365  67421
  966859 523518 646404 621541 523510 676603 827140 419573 185122  73831
- 797831 803427 227714 372492 174446 902128 636130 636159 313563 299199
+ 797831 803427 227714 372492 174446 902128 636159 636130 313563 299199
  583990 419249 543040  82519  96036 646627 416182 416211 856072  56836
   38562 101107 874981 618203 723783 252012 611934 121491 451347 242105
- 825549 655148 582951 900541 489769 932536 388177 962330 933868 804073
+ 825549 655148 582951 900541 932536 489769 388177 962330 933868 804073
  708914 839253 388398 267533 593363 625678 258952 841576 213767 247665]</t>
         </is>
       </c>
@@ -2003,12 +2003,12 @@
       <c r="B49" t="inlineStr">
         <is>
           <t>[780765 621284 953149 548382  29884 738095 549751 796053 196548 547056
- 196570 109942 438359 438814 435656  85206 697080 398749 833016 537044
+ 196570 109942 438814 438359 435656  85206 697080 398749 833016 537044
  190883 203603 485271 222565 586100 457420 184758 990585 732028 236491
  942475 775952 222559 697104 548715 962874 541194 163857 499528 360846
  313452  63882  76026 843864 774111 237375  68519 588092 425290 773940
  649590 962977 910908 971131 558182 435225  67172 693626  66637 803613
- 957785   5878 160949 475267 743189 966501 658252 296131 835616 660928
+ 957785   5878 160949 743189 475267 966501 658252 296131 835616 660928
  927027 588013 698733 548365 960113 243902 820156 649490 163856 463253
  955657 577239 932347 203524 755487 242417 859902 160950 297539 837781
  143400 768101 171324 950830 442706 176222 301084 209867 549930 182561]</t>
@@ -2037,12 +2037,12 @@
         <is>
           <t>[ 54670 465973 351558 989740 994604 415063    273 970180 485321 194304
  213165 412913 968860 707748 101992 222593 342409 213150 635470 556011
- 417387 454003 628829 724456 276295 546218 536665 287227 409466 164952
- 426612 651903 489412  96113 635480 612539 108037 779403  88197  96163
+ 417387 628829 454003 724456 276295 546218 536665 287227 409466 164952
+ 426612 651903 489412  96113 635480 612539 108037 779403  96163  88197
  438026 612553 308088 845700 196426 110702 113092 661207 124624 589294
   93029 749938 840005 515013 996825 226055 937581 814003 946542 325121
- 593031 417178 218224 614880 559907 697243  64422 231324 937614 649728
- 649747 814359  71079 282818 738848  28855 520151 444252  65611 707376
+ 593031 417178 218224 614880 559907 697243  64422 231324 937614 649747
+ 649728 814359  71079 282818 738848  28855 520151 444252  65611 707376
  975277 250514 194680 391208 400717 552706 295782 188714 281105 472778
  228906 815623 223556 331726 755367 534121 993197 671856 214762 722052]</t>
         </is>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[414078 482693 853838 150707 150643 261800 150724 291962 850015 744088
+          <t>[414078 853838 482693 150707 150643 261800 150724 291962 850015 744088
  824705 629210 750569 929227 896520 338142 633974 991711 960878 742303
  412570  88536 672158 858507 560200 798566 867271  67299 668496 154612
  915700 612115  67620   9305 240321 320772 380486  63084 126996 776224
@@ -2077,7 +2077,7 @@
  774593  92036   1314 890852 549266  13544 623791 888512 623812 157018
  748890 377093 194910 414500 620728 166670 169260 396617 513891 601963
  817436 470323 370991 195770 849070 113366 497592 366396 293813 756214
- 732627 160119 744479 744451  86350 972813 134889 249640 907312 350145]</t>
+ 732627 160119 744479 744451 972813  86350 134889 249640 907312 350145]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2108,8 +2108,8 @@
  528203  97564 328254  84411 160104 591281 485162 942996 329239 771279
  979711 718905 289920 639744  65025 305086 214219 975590 554002 238424
  166581 136569 231581 548836 650955 784437 202328 354564 203979 253158
- 319430 147240 413190 432168 751338 391652 534336 241060 589035 754272
- 754904 755447 781231 695716 579233 404746 833083 922666   6948 923503
+ 319430 147240 413190 432168 751338 391652 534336 241060 589035 754904
+ 754272 755447 781231 695716 579233 404746 833083 922666   6948 923503
  307557 314062 666888 861837 855663 969275 371395 273036 630486 169211]</t>
         </is>
       </c>
@@ -2138,7 +2138,7 @@
  288544 314919 369452   3158 285328 762666 153076 119517 455017 732616
  299187 321567 610945 576658 576858 958846 954005  47216 437048  78233
  689114 708663 725573 793561 195736 430111 966434 772635 173849 305703
- 414557  67727 228763 728282 130222 222011 544646 966443  75342 240636
+ 414557  67727 228763 728282 130222 966443 222011 544646  75342 240636
  346993 748881 304694 576875 728296 356942 762651 412948 544631 689811
  314174 268587 708740 303197 534098 181822 647179 998886 504108 104852
  930890  68593 120929  67000 289700 854854 158267 206872  23650 855601
@@ -2209,7 +2209,7 @@
  322257 889338 987135 782737 437629 761379 144189 925445 322254 862001
  679771 598154  66767 190908 173706 603098 510250 300870 206066 163893
  228678 431204 743256 354797 573222 126871 605841 958296 986261 411384
- 650685 650708 483283 240505 940834 379658 351552 309530 518032 669394]</t>
+ 650708 650685 483283 240505 940834 379658 351552 309530 518032 669394]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2268,10 +2268,10 @@
         <is>
           <t>[833192 580312 475392 523061 159168 859015 624586 548627 968002 935667
  497976 392089 577144 241599 293389 603100  90193 665951 820527 524312
- 474993 129548 172907 791027 898056 914623 914644 847009 109101 414782
+ 474993 129548 172907 791027 898056 914644 914623 847009 109101 414782
   85862 919776 967996 426513 777681 822897 653959 161349 894508 599610
  703806 951249 241621 653623 165225 526376 337376 951332 909019 360841
- 972748 421446 661299 603089 540981 527600 779474 412755   7828  18631
+ 972748 421446 661299 603089 540981 779474 527600 412755   7828  18631
  179500  62948 193090 312877  90182 997039 101374 686330 675617 869658
  833193 686345   8767 181974 284162 325580 956128 327943 810900 621534
  172270 536715 813282 322624 813270 210573 488193 161940 244573   8956
@@ -2299,11 +2299,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[297534 549930  59283 205192 544153 837964 223177  52158  52183 916111
+          <t>[297534 549930  59283 205192 544153 837964 223177  52183  52158 916111
  789361 203603 607070 201432 356360 111187 649490 420635 783304 860528
  548715 587961  62236 118793 994979 721603 462364 101637 782903 588389
  548693 523762 353677 445464 425323 353676 860167 990582 425316 613253
- 671765 859902 810747 242417 825275  68333 697104 286187 308634  94150
+ 671765 859902 810747 242417 825275  68333 697104 308634 286187  94150
  746481 485515 782073 131672 654107 685033  14817 312960 712369 192590
  942475 933019 240353 548716 474108 345543 851146  29884 549283  88590
  671756 547056 991867 481959  28978 175825 128188 885698 542692 622960
@@ -2339,7 +2339,7 @@
  618654 480181  57567 155657 663821 708211 981473  63998 355634 745425
  216719 687542 752815 694729 280671 441594 232538  54592 438822  29715
  266066 354341 860092 400393  29798 786914 627663 307554 522013 733574
- 820783 178820 260681 113830  60336 759010  35541 860245 696979 730549
+ 820783 260681 178820 113830  60336 759010  35541 860245 696979 730549
  549794  60400 958902 190056  60342  71971 549946 100091 926452 714292
  415006 320297 182417 665858 664285 522957 510027 250789 365584 998600]</t>
         </is>
@@ -2366,15 +2366,15 @@
       <c r="B60" t="inlineStr">
         <is>
           <t>[841341 870948 791304 214914  42560 923590 739965 782778  36148 668124
- 205195 542129 723552 284319 615281 456594 990835 990870 697084 132284
- 910911 188982 592477  67204 489403 398760 548631 405510 848184 888315
+ 205195 542129 723552 284319 615281 456594 990870 990835 697084 132284
+ 910911 188982 592477  67204 489403 548631 398760 405510 848184 888315
  323029 211808 553013 364443 520944 384025 498899 146526 219939 515065
  551353 366371 160947 553717 953777 654142 455324 907210  91697 759552
  323028 170002 705034 128494 679183 256813 833492 154229 570480 696998
  821522  64785 296133 948338 140430 367521 101800 747104 588314 604472
  353882 648344 201356 661207 523163 278048 499460 926354 456376 750170
  249231 602573 995529 493517 820997 976916  82580 559108 199649 322757
- 542250 107704 647262 118510 418838 459681 756287 743694 780243 935309]</t>
+ 542250 107704 647262 118510 459681 756287 418838 743694 780243 935309]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2402,11 +2402,11 @@
  583569 343521 600649 851917  40701 203241 786906 621208 718956 544662
  133238 799257 452896 391768 133232 707430 409486 381021 277196 298450
  854103 133239 694180 976586 324802 567284 777275 328226 633199 544729
- 702014 564620 249679 544745 420658 329237 326205 114430 114555 331772
+ 702014 564620 249679 544745 420658 329237 326205 114555 114430 331772
  701749 625129 419532  74937 544665 544742 912424 806355 298502 278684
  298477 603946 405867 708111 812158 171323 903078 324386 133221 807013
  216759 895589 231710   5710 776234 391727 689808 263442  20423 286801
-  48446  65742 907496 543860 916036   5736 995011 627859 627890 170440
+  48446  65742 907496 543860 916036   5736 995011 627890 627859 170440
  324804 777276 454002 409476 932111 365579 504381 460060 491723 709072]</t>
         </is>
       </c>
@@ -2498,12 +2498,12 @@
       <c r="B64" t="inlineStr">
         <is>
           <t>[263849 458782 735801  91070 296238 587863 883132   9079 124097   9262
- 296224 435270 596152  77321 195016 435300 210486 719269 899730 959971
+ 296224 435270 596152  77321 195016 435300 210486 719269 959971 899730
  733163 987630 718308 483695 505365 209383   9081 526567 329770 906972
  683527 122338 314951 513051  80271  70173 715785 641195  28916  56565
  421322 947369 859193 277158 633503 240037 519495 709033 677862 400049
  960553  55220 510283  87632 208174 772249 296243 738992 742382 960278
- 837079 993832 282708 494607 934234 510264 917179 702513 823338 823818
+ 837079 993832 282708 494607 934234 510264 917179 702513 823818 823338
  565815 387701 425839  81277  73642 171430 565838 351105 593811 177793
  439716 164510 975436 554824 938402 539712 529843 223392 921476 667437
  992296  21372 701904 728753 131800 126371 895958 830330 237614 260056]</t>
@@ -2565,7 +2565,7 @@
         <is>
           <t>[178865 688605 757975 228594 674406 918695 390814   2117 382451 714360
  264704 129168 851467 599932 642687 155450 138000 777883 144053 908887
- 703945 659415 843727 351240 457606 564408 871860  78800 168047 160840
+ 703945 659415 843727 351240 564408 457606 871860  78800 168047 160840
  491965 185710 608717 555008 296757 583754 919656 372154 932443 672504
  747144 889604 788762 807262 991470 822252 558414 539514 351227 390161
  667994 372089 962039 448709 487642 508749 141404 813724  13773 108795
@@ -2604,7 +2604,7 @@
  991065  74785 417387 222593 273433  67662 619606 611618 718416 676835
  395934 745544 864261 137282 555253 838570 350829 137279 710709 700840
  473404 882956 559209 831610 742442 637199 225391 661207 919108 747477
- 431866 115508 530485 646229 373134 212180 934880 692937 829714 829739
+ 431866 115508 530485 646229 373134 212180 934880 692937 829739 829714
  291881 321768 263276 108037  65611 233554 342409 422969 295782  24645]</t>
         </is>
       </c>
@@ -2634,7 +2634,7 @@
  175789 189005 818034 866047 819490  66675  93362 427134 807895  17935
  559231  95472 922979 847363 871294 600619 775298  95464  95615  22938
  394435  95470 735455 839427 286565 639528 834571  95612 919382 189162
- 759576 702026 977411 977500 767957 935430 313766 977388 559218 180752
+ 759576 702026 977500 977411 767957 935430 313766 977388 559218 180752
  196197 151840 130922  95609 659352 186931 966303 311433  31413  95471
  349212 676644 923692 145033  76912 610407 480446 710037  10127 812622
  690015 451954 757795 757837 530192 126228 987343 230909 178146 300400
@@ -2669,7 +2669,7 @@
  416123 263570 106802  60887 629915 872799  17463 645887 846199 186775
  343400 614772 815025 571322 843727 621142 444446 225759  73538 130314
  200157 980205 303176 184401 934784 966291 852198 887012   6668 991470
- 542750 527918 454796  95728  95882  95916 286402 855537 294907 470222
+ 542750 527918 454796  95728  95916  95882 286402 855537 294907 470222
   19448 851462  47689 483903 483381 416400 154356 859425 184145 848717
  673506 184483 676606 942274 139167  43999 692844 684668 829935 918688]</t>
         </is>
@@ -2681,7 +2681,7 @@
  1.4282 1.4331 1.4333 1.4342 1.4343 1.4365 1.4369 1.4372 1.4372 1.4372
  1.4373 1.4385 1.44   1.44   1.4409 1.4425 1.4426 1.4426 1.4426 1.4427
  1.4439 1.4444 1.4452 1.4453 1.4457 1.446  1.4466 1.4468 1.4475 1.4479
- 1.4485 1.4501 1.4503 1.4507 1.4523 1.4529 1.4531 1.4532 1.4573 1.4576
+ 1.4485 1.4501 1.4503 1.4507 1.4523 1.4529 1.453  1.4532 1.4573 1.4576
  1.4578 1.4581 1.4581 1.459  1.4599 1.4601 1.4605 1.4609 1.4611 1.4613
  1.4613 1.4613 1.4618 1.4621 1.4621 1.4621 1.4627 1.4641 1.4642 1.4644
  1.4647 1.4656 1.4664 1.4675 1.4676 1.4682 1.4686 1.4689 1.4695 1.4698
@@ -2710,7 +2710,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t>[1.2022 1.2101 1.2139 1.2161 1.2216 1.2228 1.2243 1.2249 1.2251 1.2277
- 1.2279 1.2321 1.2387 1.241  1.2418 1.2431 1.2447 1.2449 1.2461 1.2474
+ 1.2279 1.2321 1.2387 1.241  1.2418 1.2431 1.2447 1.2449 1.2462 1.2474
  1.2521 1.2531 1.2536 1.2546 1.2555 1.2567 1.2573 1.2578 1.258  1.2589
  1.2597 1.2607 1.261  1.2618 1.2622 1.2631 1.2636 1.2637 1.2641 1.2643
  1.2647 1.2652 1.2654 1.2655 1.2659 1.266  1.2664 1.2666 1.267  1.2673
@@ -2736,7 +2736,7 @@
  129053  48849 592004 775836 379517  84601 548849 851942 656119 656105
  873652 782365 519300  33019 160577 933372  98805 390064 533865 395318
   79794 510470 607513 519062 498507  75613 690072 864294  74437 724798
- 170783 266903 639275 771540 448836 800324 508798 892291 886206  35767
+ 170783 266903 639275 771540 448836 800324 892291 508798 886206  35767
  550956 691176 672720  28736 572511 287548 801508  68385 678537 263403]</t>
         </is>
       </c>
@@ -2766,7 +2766,7 @@
  897981 641142  33930 966813 330878 558764 928329 410339 800433  96899
  737347 353304 919664 303043 383281 737916 551609 551732 360267 806157
  590888 793313 315494 331261 725552 728994 761338 376460 544665 138796
- 816756 265799 584280 661669  77652 410149 250098 436366  35707 778315
+ 816756 265799 584280 661669  77652 410149 250098 436366 778315  35707
   34585 485548  68322 670640 771095 343923 918596 771103 615463 493497
  378337 623928 790104 696870 775699 634467  72036 706933 864293 161841
  315438 491236 614430 418017 256575 391720 309435 256051 245950 314542
@@ -2802,8 +2802,8 @@
  887359 505293 822446 143080 862265 579610  17473 517659 460647 205751
  833035 329538 402346 978177 438132 612377 540488 822179 734463 852871
  292942 556727 912388 215460 816789 558629 832928 511280 520824 816983
- 932764 219143 291401 834578 501080 580159 380537 864670 943458 762277
- 762310 658726 820945 938012 776796 346866 718478 851465  36697 460762]</t>
+ 932764 219143 291401 834578 501080 580159 380537 864670 943458 762310
+ 762277 658726 820945 938012 776796 346866 718478 851465  36697 460762]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2828,7 +2828,7 @@
       <c r="B74" t="inlineStr">
         <is>
           <t>[639993 219510 832120 341004 611790 786258  82971  37930 222251 857618
- 577767 730708 210293 960733 724147 321524 676385   8371 895261 744518
+ 577767 730708 210293 960733 724147 676385 321524   8371 895261 744518
  886108 479165 123680 837147 503440 733163 877035 925305 395218  73642
  872372 461404 134241 408340 980588 589681 431240 209383 246783  70211
  514718 268705 554195 112658 375245 490934 126322 688224 715725 538353
@@ -2876,7 +2876,7 @@
         <is>
           <t>[0.8865 0.8908 0.9069 0.9096 0.917  0.9172 0.9191 0.9197 0.9209 0.9213
  0.9235 0.9255 0.9267 0.9286 0.9316 0.9324 0.9324 0.937  0.9371 0.9378
- 0.9392 0.9394 0.9395 0.94   0.9408 0.9414 0.9431 0.9433 0.9439 0.9444
+ 0.9392 0.9394 0.9395 0.94   0.9408 0.9414 0.9431 0.9432 0.9439 0.9444
  0.9444 0.9446 0.9448 0.9459 0.9483 0.9484 0.9498 0.9502 0.9505 0.9506
  0.9509 0.951  0.9511 0.9512 0.9518 0.9526 0.9529 0.9534 0.9539 0.9543
  0.9544 0.9546 0.9549 0.9552 0.9557 0.9563 0.9572 0.9572 0.9577 0.9579
@@ -2898,7 +2898,7 @@
  308197 372590 702412 224758 329760 768495 979647 554731 810353  22315
  940779  48797 413788 561634 910531 348477 699265 245737 997643 485819
  526296  48914 121206 241104 670971 245549 877201 606089  27793 245942
- 502022 470135 534548 146945 405874 790616 428160 428184 848051 318408
+ 502022 470135 534548 146945 405874 790616 428184 428160 848051 318408
  969485 845918 624063 881789 336845 215539 679992 163472 602583 939154
  648313 389882 585457 464401 604365 344354 960226 823024 409462 790969
  330352  46491 801447 406376 432287 776440 244741 889645 261547 644188
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[327026 511250 325799 602016 932778 210583 624822 151690 887281 941284
+          <t>[511250 327026 325799 932778 602016 210583 624822 151690 887281 941284
   32759 766606 353987 721666 368420 284959 805712 210476 934569 963851
  855418  15764 863769 610697 295308 656112 424054 644455 659286 329558
  495364 497187 134141 644905 963868 513996 379503 599521 771102 960769
@@ -3157,8 +3157,8 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[269394 369810  48913 640025 478058 451599 467744 148249 668998 148279
- 602179 260532 985577 415606 526796 360356 312777 197933 740893 863822
+          <t>[269394 369810  48913 640025 478058 451599 467744 148249 668998 602179
+ 148279 260532 985577 415606 526796 360356 312777 197933 740893 863822
  357926  30975  48700 486753 794518 517140 825593 934364 140107  86363
  860170  14680 505098 689086 948902   2859 109982 214583 921482 515762
  988786 929611 109112 395213 112650  96659 636747 373708 585363 463622
@@ -3191,13 +3191,13 @@
       <c r="B85" t="inlineStr">
         <is>
           <t>[544812 895022 544772 573652 766199 979147 348641 470721 940495 714360
- 672504 271544 271636 313062 134070  56293 483458 447120 919205 617748
+ 672504 313062 271636 271544 134070  56293 483458 447120 919205 617748
  670479 670111 391899 835534 281123 815241 264398 976051  17608 533308
  935339 581635 467581 310480 903447 306536 323922 735861 622387 613197
  850113 340708 113862 762362 671931 319719 647348 317210 904159 590119
  381937 799312 143080 973784  98383 572720 417300  51780 572363 940936
  152799 843078  10253 502165 256348 668874  25072 816984 168047 903862
- 684112 838111 378261 398639 345771 723919 595899 205751 817392 765035
+ 684112 838111 398639 378261 345771 723919 595899 205751 817392 765035
  762721 821197 502258 743166 229058 597484 491860 220305 841177  28736
  193274 932443 861935 647459 807953 259942 434789 663244 753400  42506]</t>
         </is>
@@ -3260,11 +3260,11 @@
    9039 274569 208405 727886  71809 764827 457231 385340 708146 459404
  359573  94885  43728 245967 280450 573298 112378 973531 180587 159001
  474762 940730 299700 232596 768321 371976  89493 743651 183658 807958
- 464829 387694 944208 677341 256409 546011 256440 273186 718639 739860
- 542721 937381  89396 270204 651054 956393 316999 576074 650890 291125
+ 464829 387694 944208 677341 256409 546011 256440 718639 273186 739860
+ 542721 937381  89396 651054 270204 956393 316999 576074 650890 291125
  198602 412250 124549 448892 850288 731449 664731 408414 615574  36378
  361015 711845 139079  67629 599137 683874  74645 934771 242577 373650
- 558983 532583 699584 762026 368614 559652 627285 290035 417370 871737
+ 558983 532583 699584 762026 368614 559652 627285 290035 871737 417370
  136283 684093 734172 413766 153761 730187 947552 574018 680514 857769]</t>
         </is>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[988375 916914  49485 234850 302898 519804 145734 580511 657818 279611
+          <t>[988375 916914  49485 234850 302898 519804 580511 145734 657818 279611
  676713 697653 753170 125557 248992 785369 250236 192664 337705 861875
  980487 902136 531724 184149 250223 556146 140260  74265 237738 922855
  237747  63792 422501 992009 108535 719014 905193 436985 175059 239207
@@ -3392,7 +3392,7 @@
  857442 504862  73105 326571 826283 288641 319469 636766 989247  14679
  854418 227073 923734 978203 819401 550325 126121 919376 387177 905071
  767506 753892 145281 591492 848461 813595 970151 911692 834375 597176
- 145274   5349 759962 174206 812839 260000 918541 546301 447964 623146
+ 145274   5349 759962 812839 174206 260000 918541 546301 447964 623146
  873555 326205 176563 580257 432333 699379 285246 905958  99938 683276
  784965 669748 258970 936187 790616 584887 391764 736158 186792 472511
  403514 319259 814399 338642 365510 423171 545244 393437 413282 229916
@@ -3440,7 +3440,7 @@
  1.003  1.0031 1.0035 1.0039 1.0043 1.0046 1.0051 1.0055 1.0057 1.0073
  1.0081 1.0091 1.0101 1.0102 1.0104 1.0106 1.0113 1.0146 1.0148 1.0154
  1.0155 1.0155 1.0157 1.0161 1.0161 1.0161 1.0178 1.0181 1.0182 1.0183
- 1.0193 1.0199 1.0205 1.0211 1.0214 1.0243 1.0243 1.0246 1.0248 1.0253
+ 1.0193 1.0199 1.0205 1.0211 1.0214 1.0243 1.0243 1.0246 1.0248 1.0252
  1.0254 1.0254 1.0256 1.0259 1.0265 1.0265 1.0266 1.0273 1.0285 1.0286
  1.0288 1.0292 1.0292 1.0301 1.0302 1.0306 1.0309 1.031  1.0313 1.0314
  1.0328 1.0333 1.0335 1.0339 1.0341 1.0343 1.0349 1.035  1.0351 1.0355
@@ -3461,7 +3461,7 @@
  751599 673552  81672 349443 525373 695921 751713 347248 168030  15841
  761976 992384 125198 364447  11876 777889 484864  58738 610380 340969
  538145 340110 103184 513667 757854 111114  71102 457593 876083   8754
- 313097  35202 192284 734797 808706 925378 595252 818662 830622  87423
+ 313097  35202 192284 734797 925378 808706 595252 818662 830622  87423
  747437 278970 976456 774080 392368 298007 986758 192303 747445 604034
  461557 508825  45464 475029 740747 722719 925695 769663 506280 755411]</t>
         </is>
@@ -3493,7 +3493,7 @@
  542856 586845 935777 153554 968369 918539 867382  55401 385911 598913
  274787 704368 352707 507244 552902  86038 889029 964161 586221 517081
  129134 285928 285906 605301 703772 910115 178269 525483 971748 556704
- 715046 182420 182443 511746 578363 577368 432899 575546 893554 282219
+ 715046 182443 182420 511746 578363 577368 432899 575546 893554 282219
  659352 912132 785471 802388 492130 784549 290512 679690 270722 191713
  555944 300056 638608   6137  86843 227193 843315 638987 738526 137277
  151866 251489 527834 891776 219119 833112 328738 663505 608821  68058]</t>
@@ -3594,7 +3594,7 @@
  856988 451208 876666 976257 979182  55014 454117 470440 915352 979483
  836865 849722 321036 681455 164566  58111 991577 454118 380683 407174
  683707 686855 454126 413659 321033 250252 752066 875207 669669 204178
- 350998 848406 420952 870682  87636 577402 577462 944583 934613 735274
+ 350998 848406 420952 870682  87636 577462 577402 944583 934613 735274
  860207 901992 533215 175490 257985 124942 791850 933481 511846 789005]</t>
         </is>
       </c>
@@ -3659,8 +3659,8 @@
  505068 940648 663290 978723 652807  15614 570735 139745 427694 284983
   64193 849847 608251 502262 169827 445520 639025 292800 463775  72207
  231983 254077 987129 701324 548364 626464 981743 287375 437147 913308
-  86312 549533 908952 122967 636253 730878 551419 746777 753662 251535
- 421590 260258   5995 888418  31332 763168 181972  83626 103049 890096
+  86312 549533 908952 122967 636253 730878 551419 746777 753662 421590
+ 251535 260258   5995 888418  31332 763168 181972  83626 103049 890096
  646245 669710 770748 211681 954065 717394 614334 946070 727929 528313]</t>
         </is>
       </c>
@@ -3686,12 +3686,12 @@
       <c r="B100" t="inlineStr">
         <is>
           <t>[227010 302574 605301 288982 939041 968369 880766  16222  81800 129134
- 269271 253486 982019 280071 300234 263214 464495 759916 814818 641567
- 974746 348803 517081 586845 274787 704368 348598 349737  21166 586221
+ 269271 982019 253486 280071 300234 263214 464495 759916 814818 641567
+ 974746 348803 517081 586845 704368 274787 348598 349737  21166 586221
  738526 833112 598913 212091 552902 414733  96404 453819 230323 514824
- 357630 482662 728565 986590 182420 182443 397375 752108 870111 926675
+ 728565 482662 357630 986590 182420 182443 397375 752108 926675 870111
   50934 273152 782365 351424 644974 276469 780373 942000 732363 835246
-  98894 238904 152655 154636 471044 585678 843315 306337 136112 622102
+  98894 238904 154636 152655 471044 585678 843315 306337 136112 622102
  223999 702637 881899 855158 816742 464073 257315 285906 649870   6137
  151905 935898 737066 154195  26992 326269 885996 979168 940608 697238
  112032 651310 912109  37047  62465 582650 544125 967179 546115 655192]</t>
@@ -3718,9 +3718,9 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[807859 981379 124623  74899 980565 663409 371927 373936 282270 198250
+          <t>[981379 807859 124623  74899 980565 663409 371927 373936 282270 198250
   32745 486625 301632 527590 294811 610684 766767 272067 450595 813735
- 318289 764363 764481 898955 618959 888950 457181 840467 787950  28736
+ 318289 764481 764363 898955 618959 888950 457181 840467 787950  28736
  147049 353170 712762 533158 224120 433915   2413 661279 774542 517481
  432701 200953    400 560244 346458 784960 810429 928195 373963 861214
  412495 354674 996453 989323 125560 905509 809743 325701 703582 184222
@@ -3825,7 +3825,7 @@
  670082 147275 530290 280448 531662 459588 168247 908715  38283 877898
  420044 437960 375442 138601 723180 103013  96389 286946 257210 699924
  178086 528878 574246 275683 816511 147294 670078 761127  67997 801776
- 635932 528663 584237 686339 920968 967989 593908 881558 107409 232010
+ 635932 528663 584237 686339 920968 967989 881558 593908 107409 232010
  648811 648809  85705 447135 475729 329613 967014 296050 363216 677447]</t>
         </is>
       </c>
@@ -3852,12 +3852,12 @@
         <is>
           <t>[ 12480 646766 769721 145471 844213 927174 847922 306912 972767 497343
   43496 300341 738306 231092  53035 401118 379924  25324 364675 163999
- 493902 316919 760533  52462 590426 770204 770207 318197 260524 421742
- 957147 858899 222581 318616 479508 700131  32681 222808 249467 828864
+ 493902 316919 760533 590426  52462 770204 770207 318197 260524 421742
+ 957147 858899 222581 318616 479508 700131  32681 222808 828864 249467
  456037 825351 765510 554823 923069 745915 387117 478629 233862 890672
  265919 493064 597631 641014 946253 165941 899175 746607 438111 702268
  560342 138215 784186  88688 318627 312323 885775 631610 565372  52473
- 590436 747784 706681 967677  47202 977106 954819 632119 343797 619869
+ 747784 590436 706681 967677  47202 977106 954819 632119 343797 619869
  856762 126100  38846 927398  86526  87259 650236 769635 157590 428161
  187998 746597 956997 378366 889977 598787 160977 457493 503368 481518]</t>
         </is>
@@ -3884,7 +3884,7 @@
       <c r="B106" t="inlineStr">
         <is>
           <t>[958178 835772 651344 111574 177243 286974  89537  80655 958192 339218
- 290985 441094  89532 464701 153761 270080 934402  66748  66965 437083
+ 290985 441094  89532 464701 153761 270080 934402  66965  66748 437083
  764256 493113 395080 344446 294419 706805 113916 597874 948060 314516
  136283 507205  12072 826089 901343 881279 764226 576842 555178 361584
  454895 227011 894766 127895 555190 813611 217009 243941  94779 433401
@@ -3922,7 +3922,7 @@
  818175 795890 876155 242583 569887 918654 449295 762564 295966 743164
   60620 895760 892555 646176 305280 371636 242603 318602 592811 421917
  460750 285310 824565 753586 460073 125217 373262 257659 617097 844849
- 135122 820773 653582 210579 405234 454637 801205 287584 134342 380749
+ 820773 135122 653582 210579 405234 454637 801205 287584 134342 380749
  279112 850097 648249 436476 854282  15854 663119 550989 461494 992313
  753845 462912 538685 553147  96575 706667 950760 743305 163422 735785
   13275 212510 892535 251656 355053 528363 909284 578773 983747 871172]</t>
@@ -3950,7 +3950,7 @@
       <c r="B108" t="inlineStr">
         <is>
           <t>[997335 664845 964147 834472 322676 769196 350065 666668 997316 149587
- 974831  91220 398799 278184 245868 973692 215750 714078 713998 534364
+ 974831  91220 398799 278184 973692 245868 215750 714078 713998 534364
  190655 506105 961792 576338 440435  27098 143167 545859 254216 941952
  662705 334785 148671 960351 694723 921165 279126  20245 312473 639688
  511286  47349 635718 254412 492124 629674 163488 638842  61685  80629
@@ -3988,7 +3988,7 @@
  110526 214305 569230 744574 360785  54658 179158  67285 666723  20131
  707892 800404 961139 128436 591686 265880 819332 356120 211031  98176
      82 379804 706872 769184 859704 476403 610096 425232 434669 876564
- 283208 987765 997627 695320 663089 912599 345583 489991 814629 445055
+ 987765 283208 997627 695320 663089 912599 345583 489991 814629 445055
  162073 806840 853800 374204 866654 142275 998941 197392 191208 927651
  793968 990534 215672 548355  35189 713077 617389 317054 202603 432504
  668071   2684 100287 919719 594509 411865  33110  13284 762730 950606]</t>
@@ -4054,7 +4054,7 @@
  165393 941570 218002 637463 707658 348075 381780  82702 344654 263247
  495442 863054 890755 491278 518480 243624 363953 201626 224872 703313
  945330 153039 187222 730524  64159 288752 453979 535222 717781 226315
-  61760 327119 357563 984964 705797 744145  30788 489106 238408 514522
+  61760 327119 984964 357563 705797 744145  30788 489106 238408 514522
  609595 538581 374723 461582 310327  72837 360037 222269 788282 318237
  106124 673825 629785 731196 391773 304575 299291  16006 289177 157789
  688014 955618 807790 382129 537834 882053 376278 255617 263255 301427]</t>
@@ -4118,7 +4118,7 @@
  214894 326416 748742  29286 569776 844122 646886 233377 292783 191680
  935034 555908 581276 143459 806529 486569 807954 854222 139076 634833
  854935 754515 759763 536806 697636 685544 555911 540509  34635 453023
- 519112 667900  38663 208656 944923 712610 434369  38646 316498 387344
+ 519112 667900  38663 208656 944923 712610 434369  38646 387344 316498
  440256 119459 546589  75827 408498 778305 496742  23191 105534 624712
  555907 168683 247704  93269 372453 522841 111573 535546 788381 330618
   34625 408497 886212 241391 337049 752551 330528 884685 648071 250662
@@ -4156,7 +4156,7 @@
  995600 273074 710529 607179 695697 586745  81932 493077 604729 112219
  544753 476353 309575 771103 771095 232841 817180 254322 585929 534914
  471431 321519  51832 474449 165600 209926 510724 150928 906068 355644
- 608213 884465 644685 644712 116364 319230 936548 655192 683793 796572]</t>
+ 608213 884465 644685 644712 116364 319230 936548 655192 683793 796602]</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4218,7 +4218,7 @@
  871694 145541 493890 243165 330213  49278 918620 520926 798477 332598
   22760 262148 328254 669664 441540 894766 817917 495623 938015 988266
  424035 160418 992461 738825 217535 418533 864477 591536 154809 706464
- 415945 351112 351674 758012 644432 506716 857042 635189 654464 869069
+ 415945 351112 758012 351674 644432 506716 857042 635189 654464 869069
  629203 892027 196418 769858 252269 724456 940045 762508 523224 268583
  701554 407112 270527 256082 723228 978909 567594 465076  62876 457062
  692566 611728 478983 864470 177989 451208 936452 990186 618073  10737
@@ -4280,9 +4280,9 @@
       <c r="B118" t="inlineStr">
         <is>
           <t>[126981 905588 248617 771410 812150 415584 312578 616074 301151 507703
- 415574 236875 247311 662199 415578 116357 916561 881217  46447 236873
+ 415574 236875 247311 662199 415578 916561 116357 881217  46447 236873
  665041 415579 840264 507835 221330 244343 417521 559557 235264 315551
- 324828  34398 263293 263377 263408 917411 287073 137260 263316 613905
+ 324828  34398 263377 263408 917411 263293 287073 137260 263316 613905
  653640 528512 921334 239254 184966 120154 811346 864627 626212 768142
  578505 947945 494307 460232 233123 273717 520805 867174 353340 239229
  577024 808092 202509 492630 586561 472028 928161 782746 952961 486414
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[393831 542127 448245 149798 568620 951109 637771 945136 410552 842195
+          <t>[393831 542127 448245 149798 568620 951109 637771 945136 842195 410552
  597876 582825 851497 247113 863681 247186 352084 149797 149782 745495
  637757 927755 884249 749512 581851 866332 324166 409234 262730 652554
  380927 460810 793770 275742  87511  36001 178729 916458 547969 369913
@@ -4649,8 +4649,8 @@
  807123 354666  61934  31918 108923 866962  71155 263904  14887 645053
  508943 284810 885258  94723 965074 159992 593031 458672 854658 359503
  496828 942357 964286 835941 532609 795861 410841 134591  30571 257626
- 258132 448684  99068 998370 648416 612279 457137 480194 203410 905618
- 905672 734642 412497  33897 223253 835127 575494 888641 946100 151133
+ 258132 448684  99068 998370 648416 612279 457137 480194 905672 905618
+ 203410 734642 412497  33897 223253 835127 575494 888641 946100 151133
  798108 544282 121030 396760 274106 936539 302789 329787 548650 723114]</t>
         </is>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="B130" t="inlineStr">
         <is>
           <t>[535729 885957  92978 859595 428263 356905 301759  90824  90818 166773
- 353381 835255 835302 192615 164029 302591 884189 533941 860428 674251
+ 353381 835302 835255 192615 164029 302591 884189 533941 860428 674251
  735596 603439 353971 784782 271855 908362 544619 464026 747352 132431
  628381 437548 667525 719362 968483 130988 656992  65473 592966 574635
  498758 591782 897620 506217 336694 370254 981190 754823 696754 653037
@@ -4748,7 +4748,7 @@
  538546 936271 566537 627564 387857 664444 174034 911463 668528 846683
  206655 339939 364223 315465  97713 894064 583569 183073 118616 415990
  362449 735541 413047 491723 606116  82499 840934 296001 463813 657737
-  78545 704280 233253 903749 140729 748540 148220 249369 675835 199808
+  78545 704280 233253 903749 748540 140729 148220 249369 675835 199808
  324802 326296 755183 649422 578811  24870 784517 564350 458077 523616
  195515 252053 249906 570858 938036 869648 390063 242971 984790 633199]</t>
         </is>
@@ -4778,12 +4778,12 @@
  855026 137164 217589 892372 504336 423810 646935 666912 486131 743484
  646938 129287 614537 817419 619200 312669  36864  94509 533088 957468
  974227  97152 855041 613639 503857  89034 768382 394927 797827 506650
- 217616 326632 326751 898238 818158 633684 888700 946299 621830 437241
+ 217616 326751 326632 898238 818158 633684 888700 946299 621830 437241
  579586 879794 494359 728619 586121 394989 511684  27361 268058 387658
  738638 493399 425975 598004  77052 635125 253417 157290  54597 518530
  664075 766295  67152 670599 850940 795897 410899 905624 648087 914865
  144676 143568 723707 675088 151581 281934 247587 200235 280127 170383
- 427287 218127 810134 976879 103602 817882 767226 809734 529520 271132]</t>
+ 427287 218127 810134 976879 103602 817882 809734 767226 529520 271132]</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4848,7 +4848,7 @@
  886136 326634 837526 100863 588324 918110  62875 933478  75187 354838
  350798 213165 346683 240782 710722 214964 953923 444634  27522 453980
  115516  31757 392554 853410 283260 696689 720432 325681 554228 687576
- 323907 131484 720461 720502 168394 953914 577238 128354 397015 550909
+ 323907 131484 720502 720461 168394 953914 577238 128354 397015 550909
  320573 257165 978094 860460 498729 755584 379977 427819 534098 194206]</t>
         </is>
       </c>
@@ -4877,10 +4877,10 @@
  159964 457641 613162 281515 299867 703832  34037 274136 317693 874411
  258305 426886 384699 264576 694033 256342 224728 603334 204048 707301
  486167 628772 420478 626214 380267 707335 529034 843401 191691 215842
- 599801 369156 619121 961069 667616 667641 548661 174020 504241 824991
+ 599801 369156 619121 961069 667641 667616 548661 174020 504241 824991
  544569 514852 651327 692410 384790 586892 666136 370102 593633 678610
- 563953 824353 770410 936103 750975  50680 410528 461974 371968 315745
- 523725 373994 288833 215839 233508  69358 300547 280665 394391 643963
+ 563953 824353 770410 936103 750975  50680 410528 461974 371968 523725
+ 315745 373994 288833 215839 233508  69358 300547 280665 394391 643963
  135196  12771  12799 260190 586802 405883 313264 115824 777444 504292
  784919 922581 447724  35392 277859 477874 372149 809324 185443 357783]</t>
         </is>
@@ -5013,8 +5013,8 @@
  180301  10786 778743 869762 282499 882996 549432  24078 797723 672019
  412260 919932 355262 516803  67223   8904 915491 565944    714 979545
  448026 907450 250876 460708 291986 665854 860505 265480  89480  24052
- 548498 191820   9196 108316 288546 961098 700863   8973   9152  19570
- 119555 313599 817175 252043 742633 549945 704962 336767 725483  53507]</t>
+ 548498 191820   9196 108316 288546 961098 700863 119555  19570   8973
+   9152 313599 817175 252043 742633 549945 704962 336767 725483  53507]</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5040,13 +5040,13 @@
         <is>
           <t>[977085  42173 805318 758131 992477 733423 819730 753629 874762 749348
  518793   8465 226826 129610  69567 698227 877981 907281 314135 521152
- 864150  47479  47866  95435   8591 526996 155103 189886 515309 348419
+ 864150  47866  95435  47479   8591 526996 155103 189886 515309 348419
  597561 813203 896532 155718 434919 624347 851989 749882 797318  74636
  412647 836125 532372 564348 895977 103886 223753 801327 972517  70193
  532848 508554 491363  58611 114868 652509 385667 284143 605436 339685
  635362 332957 363216 578816 902793  38302 847426 153335 677282 839946
  228643 227946 637858 142786 109416 836222 234210 675429  82513 597975
- 799462 963740 588257 588287 717190 526560 554768 562955 549941 288691
+ 799462 963740 588287 588257 717190 526560 554768 562955 549941 288691
  526200 897287 415660 554704 466256 262994 391381 979804 738302 628224]</t>
         </is>
       </c>
@@ -5075,7 +5075,7 @@
   56001 300078 227238 591717 528047 934579 688960 864866 458911 783616
   62722 840243  51326  53022   5487 614036 457092 708882  34356 833698
   53038 594148 683181  16091 106907 935285 898146 154623 206237  26256
- 258560 108364 108390 259616 988952 596231 904109 239171 455098  53073
+ 258560 108390 108364 259616 988952 596231 904109 239171 455098  53073
  517066 388322 669885 683285 791848 711290   1810  46997 565228 867574
  334153 458529 156291 632484 683870 175068 344814 629955 544370 714406
   12572 351810  97410 280307 954111 764644 276817 968456 567540 174359
@@ -5107,7 +5107,7 @@
           <t>[246722 889258 548703  96196  35023 751517 602601 278876  93013 861669
  550124 930863 111966  86622 244526 969326 845892 132200 311718 449442
  730452 734796 389996 952060 930846 746058 950755   6701 614707 918452
- 614616 741484 292793 916068 895301 950247 448818 705940  60361 165737
+ 614616 741484 292793 916068 950247 895301 448818 705940  60361 165737
  231324 885709 465972 350256 275498 423582 191124 281164 199649 322757
  485301 132202 277217 535441 840005 182572 978299 916387 516032 443300
  214589 426612 348269  87394 297456 238727 241093 782778  50375 943556
@@ -5179,7 +5179,7 @@
  340506   5417 976269 979194 357678 777276 638606 680693 204902 939624
  821879  14023 377060  32794 617733 276044 312049 361480 520066 363305
  135269 105777 672896 980199 320365 397250 848021  19851 783792  68507
- 422388 723004 723037 734185 530364 565312 481462 432142 371191  24831]</t>
+ 422388 723037 723004 734185 530364 565312 481462 432142 371191  24831]</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5204,7 +5204,7 @@
       <c r="B146" t="inlineStr">
         <is>
           <t>[805808 601362   5417 547876 920465 183649 691089 478640 949385  68808
-  68507 537509  74209 680057 180152 421688 183642 723951 625972 643798
+  68507 537509  74209 680057 180152 421688 183642 723951 643798 625972
  840449 196697 575598 198583 792242 760912 279965 149682  10113  13121
   73388 476434 388321 487453 950613 429253 486938 930083  90815 808232
  286776 849810  86973 613085 455866  17833 995156 781078 439543 404840
@@ -5270,7 +5270,7 @@
       <c r="B148" t="inlineStr">
         <is>
           <t>[430647 107972 638382 930349 630533 247611 645004 936514 163422 892873
- 226678 178531 178556 786291 802311 100057 912842  16575 112795  92705
+ 226678 178556 178531 786291 802311 100057 912842 112795  16575  92705
  523880 376746 522084 347744 653028 466786 621523  32456 585863 609522
   88830  32444 495403 302823 343496 679948  81632 367876 837524 729322
   92688 632714 274011  64981 160301 869486 174044 373155  13379 335609
@@ -5375,7 +5375,7 @@
  776144 488136 288155 927612 413775 251706 850639  83336 740894 498047
  817070 994994 461633 215581 381672 201754 643566 274727  89493 801384
  474301 519194 182505 696248 762815 485472 618554 773177 609268  63610
- 162297 572353 104469 376228  84302 424664 960904 111604 600731 263094
+ 162297 572353 376228 104469  84302 424664 960904 111604 600731 263094
  128632 144892 611386 762002  84253 255358 795130 690145 418349 507042
  716140 522791 717899 485563 601152 785600 198414 749693 265200 560871]</t>
         </is>
@@ -5407,7 +5407,7 @@
  871836 758200 574014 905292  35830 839052 697029 944614  20385  79113
  749834 562606 710345 447670 258430 206520 585114  88862  34253 164785
  923240 480132 707545 379617 276257 341125 557552 303197 406598  71302
- 602587 374633 432857 425070  47223  95453 982399 585654 310926  54516
+ 602587 374633 432857 425070  95453  47223 982399 585654 310926  54516
  620716 845685 528785 366373 850013 765492 957454 629330 713562   2884
  364977 178998 922966  18347 727443 744887 287607 224882 733209 539476
  950516 625235 852761 262904  53583 117765 548066 212041 248812  56036]</t>
@@ -5471,7 +5471,7 @@
  199269 271586 289902 541243 259595 367893 750803 542170 526159 320330
  811910 906901  99949 670440 785792 609939 977714 192194 950921  70539
  121685 124368  66546 538746 218232 204314 884189 120677 302736 451164
-  94899 310658 509168  72157 693225 273505 508960 174673 547103 951479
+  94899 509168 310658  72157 693225 273505 508960 174673 547103 951479
  218230 490686 404251 248459 782687 164029 201935 349971 907533 902949
  771190  65613 223412 228463 106453 499840 178969 444492 696464 365322
  154739 609016 993247 116451 339264 429128 359673   9015 561354 719154
@@ -5509,7 +5509,7 @@
  550422 875183 194733 750086 864236 813501 504027 344609 897541 152023
  316468 316493 795787 476588 172536 299067 900385 194678 802776 962855
  223582 548584  83863 565628  25384 427921 340115 934017 367014 221934
- 810076 172016  83829 360012 900334 900391 120528 287319 218471 965226]</t>
+ 810076 172016  83829 360012 900391 900334 120528 287319 218471 965226]</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5571,11 +5571,11 @@
  473278 273861 513123 695849 711167 159808 954939 283453 119732 851677
  274609 951335 996339 933792 714103 470523 334301 673172  44000 222571
  376136 928741 818363 791412 839771 866475 656834 698629 976319 842613
- 971336 613877 648451 722994 683820 723044 531579 502075 502096 931679
- 580665 480229 815111 584681 297719 799210 824218 406362 702293 703085
+ 971336 613877 648451 722994 683820 723044 531579 502096 502075 931679
+ 580665 480229 815111 584681 297719 799210 824218 406362 703085 702293
  933775 595190 662108 367582 957598 455228  80108 955632 799503 659709
  485611  52556 889510 866271 623997 969784 566520 147051 580757 848366
- 485597 973564  38829 894042 438351 438807 216714  37665 576218 101839]</t>
+ 485597 973564  38829 894042 438807 438351 216714  37665 576218 101839]</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5603,7 +5603,7 @@
  755894 443602 718857 940695 349784 817031  82127  13667 276353 213932
  453824 459220 628008 679621 150679 573428 948092 656438 711805 350640
  875652 150650  25878 994787 104980 371305 222481 294568 575503 684212
- 702095 598404 678562 683509 155725 599267 222483    816   4143 776148
+ 702095 598404 678562 683509 155725 599267 222483   4143    816 776148
   86674 409600 252955 458665 658511 937471 590128 624141 423133 551514
  149696 518505 906839 895267 325298 684548 203300 812556 346866 837023
  660461 201524 674687 982362 785827 987998 263886 436906  65641 426614
@@ -5640,8 +5640,8 @@
  992763 577326 740894 180268 523409  95577 242124 487090 511577 399817
  637316  95471 680949 248393  95670 107458 516522 538515  47971 452813
  676644 756351 857281  47625 680021 502183 738715 786261 133526 559218
- 509858  95464 536102 766206  32848  95545  95572 600947 607228  95679
- 453508 413775 401451 532057 705014 615338 780725 461194 820116 880832]</t>
+ 509858  95464 536102 766206  32848  95572  95545 600947 607228  95679
+ 453508 413775 401451 532057 705014 615338 780725 820116 461194 880832]</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5667,14 +5667,14 @@
         <is>
           <t>[409257 562336 863322  71515 948707 648934  59988 997966  72517  87713
  773972 837155 717690 940164  54705 671116 769940 449565 502478 664091
- 233680 213469 266496 266557 190567 822313 176101 224684 851807 140700
+ 233680 266557 213469 266496 190567 822313 176101 224684 851807 140700
  952086 822304 287902  89324 862099  41214 739231 216323 400587 396730
  533045  45480 465538 440692 587198 540688 873271 569069 817329 269400
  981873  96052 193825 880197 746993  24002 285319 961468 944772 421149
  606423 645627 603242 302197  59779 739594  24158 411091 935383 875248
  570800 842410 537866 905911 665911 649474 203151 980760 152620 461816
  716737   8979 348330 947485  72403 853354 365033   3716 847286 888033
-  82777 484285 966693  58036  50579 905387 928036 984066 291315 906670]</t>
+  82777 484285 966693  58036  50579 928036 984066 905387 291315 906670]</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5832,8 +5832,8 @@
         <is>
           <t>[235899 700550 988482 571611 185735  29402 131961 550497 810056 203807
  937748 208953 630850 574598 429089 126247 780078  29316 216089 453791
- 739811 196273 130105 505069 593754 172220 625721  83386 512393  73491
- 281927 403865 926968  88556 676492  24976 259537 922851 548930 952509
+ 739811 196273 130105 505069 593754 172220 625721  83386 512393 281927
+  73491 403865 926968  88556 676492  24976 259537 922851 548930 952509
  541243 800565 884189 648814 782700 429128 485280  65198 532774 383786
  627979 459947 198051 293073 734224 595000 314373 100819 694914 365217
  935403 845553 859753 380700 830079  52370 563809 392823 737533 323069
@@ -5844,7 +5844,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[0.7709 0.7805 0.7976 0.7999 0.8024 0.8056 0.8058 0.8074 0.811  0.8165
+          <t>[0.7709 0.7805 0.7976 0.8    0.8024 0.8056 0.8058 0.8074 0.811  0.8165
  0.8165 0.8183 0.8216 0.8235 0.8242 0.8255 0.8281 0.8301 0.8326 0.838
  0.8401 0.8412 0.8414 0.8429 0.8439 0.8452 0.8462 0.8464 0.8483 0.8486
  0.8486 0.8491 0.8505 0.8508 0.852  0.8522 0.8525 0.8528 0.8531 0.8548
@@ -5934,11 +5934,11 @@
  828604   2149 314596 925549 136062 123668 371234 235330 637245  29872
  456067  71853 967392 671388  73842 348962 531106 414008 112819 362488
  318456 610983 108103 685479 668417 681251 961880 618153 305518 452043
- 187668 272279 967399 108215 169628   9079 520127 478711 555376 120861
+ 272279 187668 967399 108215 169628   9079 520127 478711 555376 120861
  313095 463291 151635  73642 696689  29873 349149 439058 830404 682626
  677122  92087 108129 701092 570117  67259 811099 786749 562356 665354
   20998 450511 571697 735743 405573 677060 400596   8533 173728 317385
-   9081 307598 872208 335730 585404 353219 209383 874267 190409 364414]</t>
+   9081 872208 307598 335730 585404 353219 209383 874267 190409 364414]</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6003,7 +6003,7 @@
  778619 992892 679767 787161  49872 314310 254075 503214 821927  67294
   32330 412650 782891  72328 238515  71726 629585 145480 402545 361767
  111909 246964 283132 469847 585097 899630 407750 306271 429615 355929
- 971721 650530 909015  24635 952051 620518  93255 161665 580357 936214
+ 971721 650530 909015  24635 952051 620518  93255 580357 161665 936214
  649114 337609 835070 843880 949805  93015 161864 189016 323968 978582]</t>
         </is>
       </c>
@@ -6032,7 +6032,7 @@
  808963 364135 584311 911291 910656 952207 548442 411198  73417 604364
  943315 339658  46634 429969 445637 168293 450085 230680 817419 980463
  769718 348120 203426 340029 955376  80648 703371 549231 731006 820443
- 982168  12849 155800 321541 554410 939076 339041 833717 696971 785621
+ 982168  12849 155800 321541 554410 939076 339041 833717 785621 696971
  931667 345339 766295 453096 115957 909977 163469 413038 529520 325094
  745682 895476  89533 371212 461434 970915 550774  40793 592798 458144
  998974 252042 778353 741152 334714 824535 491998 795897  89535 553559
@@ -6096,8 +6096,8 @@
         <is>
           <t>[980756 537645 559072 272986 772807 281660 576788 586593  70975 172362
  565479 627348 182553  31740 359297 560448 915924 238834  31758 307431
- 454662 429096 571184 784569 568495 655841 422970  68715 157120 710760
- 710785  70281 668781 186179 559118 379490 735643 254530 573691 111886
+ 454662 429096 571184 784569 568495 655841 422970  68715 157120 710785
+ 710760  70281 668781 186179 559118 379490 735643 254530 573691 111886
  116472 736317 926672 614882 769217  76353 401751 312713 667743 860689
  750711 848166 108358 458451 500310 687333 241662 193439 949093 933408
  603147 309041 166916 918675 727390 432543 193031 762402 284333 150938
@@ -6130,9 +6130,9 @@
           <t>[430951 312342 646450 258543 433176 855824 210681 746180 746179 191638
  452569 290234 290255 209138 284172 183081 472424   4277 621870 502514
  180961 154111 620687  35980 180152 935618 354183 300592  43703   1132
- 632326 775266 810136 353220 354543 356422 279391 416650 713202 385689
- 300512 819552 849726 759387 877053 656424 195081 778898 364032  16436
- 240908 800252   3056 198402 776244  16433 923482 870620 881957 574834
+ 632326 775266 810136 354543 353220 356422 279391 416650 713202 385689
+ 300512 849726 819552 759387 877053 656424 195081 778898 364032  16436
+ 240908 800252   3056 198402 776244  16433 923482 881957 870620 574834
  150722 230697  97149 762973 559391 300239 125404 565434 443448 830568
  132237 999466 766115 748630 207178  59934 184203 886952 867554 985470
  589735 862642 490363  13491 432616 862711 205786 661279 902534 466006
@@ -6292,10 +6292,10 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[491364 101061 293064 148240 303373 303429 187897 685586 206858 842605
+          <t>[491364 101061 293064 148240 303429 303373 187897 685586 206858 842605
  543668 315092 355458 665862 650042 251636 188203 901267 847938 231404
- 648235 124854 118790 384058 508802 761594 392670 962494 162034 569642
- 170149 591499 845439 786902 237402 731280 741177 795958 696680 693364
+ 648235 124854 118790 508802 384058 761594 392670 962494 162034 569642
+ 170149 591499 845439 786902 237402 741177 731280 795958 696680 693364
   34911 636315 395252 298008 136206 911978 926235 917444 626798 748602
  489918 830715 982124 322871 465170 236199 936721 821783 102565  66485
  860873 871721 258612 137302 846912 697558 314452 117233 534837 414164
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[965807 111915 878283  91801 176554 548693 297552 961464 286187 308634
+          <t>[965807 111915 878283  91801 176554 548693 297552 961464 308634 286187
  528001 588013 244486 971204 240668 893066 518549 960193 649482 606425
  410305 780264 528990    537 379076  65179 278838 332127 137629 350019
  826195 887641 607070 164240 268051 433732 651109 222559 838506 838560
@@ -6427,7 +6427,7 @@
           <t>[167593 531167 209806 984718  71765 464741 594253 541292 923497 155431
  570658 340963 433891 611412 439058 517356 944140 244496 378375 523384
  373855 722397  36360 530579 928723 334128 343751 959159 533967 494166
- 434146 672404 919634 533988 789932 862658 677147 842380 123918 952875
+ 434146 672404 919634 533988 789932 862658 677147 842380 952875 123918
  770165 145681 858953 422310 974316 379928 880383  72781 489088 260281
  886816 665239 550828 313126  32583 385024  41918 159798 342858 466047
  665227 206006 228530 130047 139588 841535 119933 970246 804627 136211
@@ -6524,12 +6524,12 @@
       <c r="B186" t="inlineStr">
         <is>
           <t>[227676 204055 727580 417488 540094 288735 984012 426221 870345 856988
- 919795 160219 209480 405117 870362 131556  56097 159879 249245 278251
+ 919795 160219 209480 405117 870362 131556  56097 249245 278251 159879
  552941 152879 557755 745168 575048 360509 307754 677612 224276 782919
- 702177 647549 558150 986860 760086 882292 698368 290661 463987 949850
- 270983 734550  49723 289254 110412 732729 592100 373219 389216 496862
- 883463 537839 221417 376154 314063 950279  18611 355432 419168 649644
- 911665 531215  47488  91119 676340 582135 362233 386870 367033 514133
+ 702177 647549 986860 558150 760086 882292 698368 290661 463987 949850
+ 270983 734550  49723 289254 110412 732729 592100 373219 496862 389216
+ 883463 537839 221417 376154 314063 950279 419168 355432 649644  18611
+ 911665 531215  47488  91119 676340 582135 362233 386870 514133 367033
  328511 852864 409891 225370 677614 554268 575789 749299 626660 950456
  364948 604292 144677 746092 610001 931913 417626 569772 888219 521887
  841644  26055 125234 806642 346024 817733 871103 146062 494989 724694]</t>
@@ -6560,7 +6560,7 @@
   30669  52220 967050 118848 702319 860631 318282 504081  69041 769149
  539150 162345 932640  11797 162359 479081 336436 298844 820978 591095
  359897 121490  59418 706555 179022 419827 365990 106769  82560 566611
- 188223 993832 542945 480286 646082 865977  91542  91590 296220 435282
+ 188223 993832 542945 480286 646082 865977  91542  91590 435282 296220
   64016 622783 706623 849013 224119 231228 923224 366000 637904 583823
  681654 884307 324385 226035 287486 598248 102705 197212 884627 963125
  151509 602183 702327 777721 372549 810910 745514 138117 344905 844570
@@ -6627,7 +6627,7 @@
  748640 639714 672265 814069 950605 361265 521781 318570 469708 659780
  910568  20561 381948 619496  66714 849503 889881 283203 339552 723822
  499126 380033 212649  91884 409496 612429 609312  42319 948117 150920
- 834470 947388 839476 133993 458093 625558 133748 498632 866962 369060
+ 834470 947388 839476 133993 625558 458093 133748 498632 866962 369060
  555253 855719 667052 153331 995657 367114 996874 124949 799151 850124
  318175 937393 380030 385688  24645 429364 957339 272581 850900 229415
   82381 336711 429522 852276 130964 671534 955435 995412 707583 276170
@@ -6724,13 +6724,13 @@
           <t>[226850 725774  45659 674754 714734 664634 513980 155074 235813 553406
  997941  45667 451424   3389 190013 907946 373191 936698 997927 469284
  691280  43119 626474 134166 224023 902728 851300 838137 304425 415523
- 265878 821662 666004 851276 872934 851312 771007 103188 277028 588284
+ 265878 821662 666004 851276 872934 851312 771007 277028 103188 588284
   85866 509013 162646 379055 714726 140347 853201 925390 411500 706284
  862471 710754 810739 342167 256343 159103 140282 278353 797366 772920
  210609 651706 999235 783505  71479 843440 586349 160090 830204 843678
  675443 572713 505169 926358 850787 373199  45662 972621 915968 100930
  803620 196003 987977  17253 732667 588792 493792 446779 635485 758826
- 843696 149026 384311 793040 983937 329767 457151  42285 278340  42268]</t>
+ 843696 384311 149026 793040 983937 329767 457151  42285 278340  42268]</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6822,8 +6822,8 @@
         <is>
           <t>[514759 449523 733166 916563 916534 139132 749969 825779 963819 509482
  612579 458792 339098 118731 994726 634269 168777 412564 883853 400596
- 258666 379433 855039 979799 137732 974308 123576 813092 110985 353225
- 353698 493697   7128 286864 118721 425201 458782 103016 189190 627981
+ 258666 379433 855039 979799 137732 974308 123576 813092 110985 353698
+ 353225 493697   7128 286864 118721 425201 458782 103016 189190 627981
  782249 919443 761626  84308 608025 489388 332157  41717 882433 782805
  717060 526352 807327 281265 457285 826426  88121 598397 991515 144236
  340411 439430 152106 363792 309741 168139 488837 333684 585151 560605
@@ -6890,12 +6890,12 @@
  539578 182938  63778 609093 609123 479647 281823 225655 981592 141254
   94387 198947 483865 964581 258553 151398 531807 381935 815570 517947
  254338 719020 857528 366689 835514 916659 426447 239743 580210 239750
-  24970 580793 529953 530243  62229 478055 405646 902030 710118 545236
+  24970 580793 530243 529953  62229 478055 405646 902030 710118 545236
  610335 764822 627147 198354 471882 738484 975064 726539 959047 913654
  583114 230557 984524 977371 880543 120344 680189 900676 978768 990563
  226627  45730 473370 943067 955587 815919 977930  64712  59079 813772
- 520208  37046 583143 687255 757306 896557 530350 530391 886365 326159
- 815391 942748 814554 425975 227208 429425 734292 516190 856634 473364]</t>
+ 520208  37046 583143 687255 757306 896557 886365 530391 530350 326159
+ 942748 815391 814554 425975 227208 429425 734292 516190 856634 473364]</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6920,7 +6920,7 @@
       <c r="B198" t="inlineStr">
         <is>
           <t>[562470 286858 627978  38623 711699 480361 241061 619285 392792 484397
- 577074 999299 789841 716108 465551 321403 889287 182536 282797 283073
+ 577074 999299 789841 716108 465551 321403 889287 182536 283073 282797
  954386   4179 754569 878746 339575 867300 784107 675170 681088 782200
  269603  17612 283225 692363 851451 603076 531502 281291 213064 273925
  732123 308988 254385 259005 875408 709410 988845 300788 897238 399743
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[416922 484487 417024 946525 847781 532983 734768 823232 142644 204087
+          <t>[416922 484487 946525 417024 847781 532983 734768 823232 142644 204087
   19376 588319 635447 202555 562437 541076 983611 171837 338051 153641
  939876 720981 111843   7284 342947 933651  59078 956558    545 334646
   86742 295728 190459 500056 537493 212940  66485 326825 261614 588328
@@ -6960,7 +6960,7 @@
  370803 256139 336629 142854 240431 120910 335060  50672 935376 120911
  188213 322157 130832 698219 780029  81840 156842 694994 779310 466003
  211004 762891 590533 176852 343682 191177 365204 409164 334985  70299
- 794499 903044 797966 230639 146518 957404  19100 327520 624239 624448
+ 794499 903044 797966 230639 146518 957404  19100 327520 624448 624239
  700512 936159 587851 729317 703052 654126 627824 865516 666800 632110]</t>
         </is>
       </c>
@@ -6988,7 +6988,7 @@
           <t>[907166 934287 748709 266027  67645 291410 291978 802962 637497 450419
  452187 542328 584758  67670 738153 926548 262368 532051 195803 606886
   16534 645267 899069 453416 624306  40240 501432 415775 742530 502393
- 346995 214766 287208 324770 499812 199574 867974 318573 220953 669549
+ 346995 214766 287208 324770 499812 199574 867974 318573 669549 220953
  201103  72341 285536 285605 355420 337136 337256 723721 116128 285568
  199581 411118 409732 607456 900461 268994 843891 456067 893727 409755
  626437 108974 710564 354893 873001  10870 880375 275669 275726 477793
@@ -7060,7 +7060,7 @@
  167226 652113 948157  99804 249789 293077 912266 449420 747519 919412
  811961 502385 880991 136197 951591 620062 894685 443386 970149 320716
  411136 841264 705707 284884 513186 275147 414779 111360 250357 779399
- 278640 830984 112453 409560 265653 941616 426883 175493 363311 291395]</t>
+ 278640 830984 112453 409560 265653 941616 426883 363311 175493 291395]</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7225,7 +7225,7 @@
  698328 281972 796352 802133 486231 866589 714578 951619 426878 630498
  207177 551419 200828 606856 891293 986091 143086 228537 165287 988921
  735867 794267 305257 802359  84886 135493  23383 494447 208557 366550
-  11440 341767 780078 714326 492989 899428 451118 511910 931432 274924]</t>
+  11440 341767 780078 714326 492989 899428 451118 511910 931432 414034]</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7316,7 +7316,7 @@
       <c r="B210" t="inlineStr">
         <is>
           <t>[952302 713294 535740  31404 679563  98689 370138 640559 341616  31384
- 953100 122352 797158 360611 496762 914770 855203 493714 493831 775574
+ 953100 122352 797158 360611 496762 914770 855203 493831 493714 775574
   92849  23548 774310 167574 444768 174879 940915 775598 292161 496774
  796156 124791 158430 979311 940934 235440 297014 579395 124771 494337
  729152 332618 675386 591756 858123 792795 195412 797332 674869 332621
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[1.3236 1.3421 1.3452 1.3557 1.356  1.3591 1.3626 1.3635 1.3658 1.3725
+          <t>[1.3236 1.3421 1.3452 1.3557 1.356  1.3591 1.3627 1.3635 1.3658 1.3725
  1.3726 1.3751 1.3814 1.3833 1.3859 1.3866 1.3871 1.3871 1.3871 1.3883
  1.3895 1.3896 1.3898 1.3902 1.3908 1.3928 1.3934 1.3936 1.3943 1.3944
  1.3949 1.3971 1.3971 1.3973 1.3977 1.3988 1.399  1.3997 1.4004 1.4007
@@ -7349,7 +7349,7 @@
       <c r="B211" t="inlineStr">
         <is>
           <t>[748665 748704 704666 942181 705106 865679 833465 117166 146250 761396
- 971425 335659 867804 834024 998081 412607 738669 144859 399366 472682
+ 971425 867804 335659 834024 998081 412607 738669 144859 399366 472682
  624394 683754 182574 103326 417040 946546 420898 750495  80946 409789
  641857  29406 756803 454378 991887 723755 321234 794580  14936 158665
  385050 482085 541233 825678 913601 184023 584563 429630 987135 919177
@@ -7382,11 +7382,11 @@
       <c r="B212" t="inlineStr">
         <is>
           <t>[871555 855767 643553 403350 614886 108784 789970 941449  63470  45119
- 189548 144161 762395   4711 628638 586511 986413 986431 445189 893727
+ 189548 144161 762395   4711 628638 586511 986431 986413 445189 893727
  238991  57878 518048 447324 173415 504857 698250 811563 222840  91770
  904107 837040 916387 363331 456083 186785 144154 932706 791648 177172
- 333850 800332 128496 288382 329054 476805 218340 996926 400601 577394
- 577450 375536 199903 316955 543144 115433 730460 342559 279718 806378
+ 333850 800332 128496 288382 329054 476805 218340 996926 400601 577450
+ 577394 375536 199903 316955 543144 115433 730460 342559 279718 806378
  334453  83183 188703    685 954061 229092 946956 817733 317591 628185
  932711 759797  89212 878492 961680 736592 813520 705961 841790 774465
  208903 106768 932724 518468 491513 956308  21260 499753 914448 244344
@@ -7421,7 +7421,7 @@
  967345 499605 380628 651192 404859 186230  75860 363084 823624 579715
  862273 530924  92371 610713 336173 516190 921847 848989 261580 920575
  214865 526503 728288 390663 548178 987314 759221 918499 837962 837993
- 243916 211172 152347 993952 847678  38574 153048 961561 680303 367964
+ 243916 211172 152347 993952 847678  38574 961561 153048 680303 367964
  924630 162008 364674 210694 270399 392905 235085 424309 493255 733642
  905292 587095 590982 979598 159775 835391 321808 157859   2149 214946]</t>
         </is>
@@ -7451,11 +7451,11 @@
  231359 366373 760561 879836 620189 537444 353052 471161 904586 915449
  310491 594199 358573 259005 980548 942348 707028 872070 358555 825046
  400635 577258 465049 487857 410779 249446 150723 523591 617086 594214
- 128245  78178 175846 371396  88740 591750 102710 156905 348892 937604
+ 128245  78178 175846 371396  88740 591750 102710 348892 156905 937604
  733451 678031 465752 189340  37603  85005 147119 953039 358546 801614
- 893519  37584 743784 388570 347229 599849 918073 303787  64708  85001
+ 893519  37584 743784 388570 347229 599849 918073 303787  85001  64708
   37601  83506 867300 499553 349166 696920 297609 518257 612391 153692
- 665099 371806 782673 376224 529264 590718 942161 671974 105225 821478
+ 665099 371806 782673 590718 529264 376224 942161 671974 105225 821478
  219517 205198 358169 576291 343514 932016 852761 742782 753885 458101]</t>
         </is>
       </c>
@@ -7515,7 +7515,7 @@
         <is>
           <t>[490398  35392 883013 619277 274488 232504 197092 355120 140033 370124
  653145 273283  29972 889169  96057 441240 523758  56802 824353 744722
- 546833 692479 692613 847917 672166   3396 575215 821770 142807 884755
+ 546833 692479 692613 847917 672166   3396 821770 575215 142807 884755
   88697 800340 166504 522191 191729 258305 274303 845437  78656 846808
  950505 355780 824991 789564 222962 744527 776176 338849 321871 166824
  951292 625004  24109 922581 355596 880028 122485 317555 111316 462758
@@ -7546,16 +7546,16 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[912622  79518 652751 247825 135527 526567  85596 239919 273895 491584
- 888683 746773 686469 939394 190410 900422 880897 157105 841726 802772
+          <t>[912622  79518 652751 247825 135527 526567  85596 239919 273895 888683
+ 491584 746773 686469 939394 190410 900422 880897 157105 841726 802772
  241424 608753  85604 920611 437242  12607 667579 559534  63099  58705
  237280  63089 833691 369589 190975 652528 429632 854406  94791 554671
- 868063 244329  50714 485312  13593  61104  61133 295513 589684 414511
+ 868063 244329  50714 485312  13593  61133 295513  61104 589684 414511
  231038 617573 693808 403350 635418 341469 938974 825953 164938 523576
  702954 549545 696695 122129 760705 268911  24037    185 659562 361901
  723508 284275 441088 400454 789165 511353 755087 702614  91733  57988
  654825 614043  30280  32554 906219 906470 614824  40883 175752 508544
-   7714 217023 583425 586206 563524 617640 916857  34903 156028 456022]</t>
+   7714 217023 583425 586206 563524 617640 916857 456022  34903 156028]</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7615,7 +7615,7 @@
           <t>[400616 564990  78108 100157 895802 142848 846781 747842 602795 443996
  825622 211896 203231 760288  11993 561542 966420  78224 966442 884439
  824595 244049  75106 212088 252344 400596 196873 211880 197351 533983
-  59771 571400 906452 493224 922304 986921  52363 353225 353698 399013
+  59771 571400 906452 493224 922304 986921  52363 353698 353225 399013
  463511 262335   1160  20333 749694 873778 559604 726969 520863 857595
   14334 463655 366379 894811 197349 966437 639567 668820 708664 687501
  740199 864737 282855 582889 439253 219619 244214 807518 593152 375861
@@ -7753,7 +7753,7 @@
  249574 295869 749015 674950 238762 327233 728451 419047 612235 444848
  686269 920797 438154 301102 192946 176706 960677 973104 228371 221805
  105450 392343 752849 998110 672047 386904 564395 749025 926826 296780
- 528162 763485 212319 616350 832670 343458 343480 544416 364330 888122]</t>
+ 528162 763485 212319 616350 832670 343480 343458 544416 364330 888122]</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7845,7 +7845,7 @@
         <is>
           <t>[434604 254582 992261 557687 930347  29842 619496 796190 837535 173143
  370662  40578 397705  70661 669779 578169 444623 316897 560934 433813
- 725536 106353 715092 589466 338438 197054 502430 669656 620069 841538
+ 725536 715092 106353 589466 338438 197054 669656 502430 620069 841538
  298685 742304 562957  71079 354258 771233 354282 455122 918408 610924
  649521 774626 456783 890667 915281 746841 672231  16834 734882 742067
  484346 874598 308362 480246 231459 730111 415914 938365 266406 419287
@@ -7884,7 +7884,7 @@
  932770 467398 438711 226782 643553 299560 499812  89729 338867 584328
  174607 928473 579296 403350 600012 591989 635006 654828 954061 588460
  455699 298386 790642 315826 669577 582583 271131 923387 539656 268911
- 622999 670147 170419   8806 670821 826135 885020 674323 170401  40926
+ 622999 670147 170419   8806 826135 670821 885020 674323 170401  40926
  898853 364083 358828 943201 212075 948610 100943 610366 572950 712968]</t>
         </is>
       </c>
@@ -7943,7 +7943,7 @@
       <c r="B229" t="inlineStr">
         <is>
           <t>[ 91770 892794   9511 318768    685 681384 904079 643553   4693 647896
- 470429 222847 239149 165156 203928 286066 161860 402700 606886 486595
+ 470429 222847 239149 203928 165156 286066 161860 402700 606886 486595
  551288 780451 559144 605019 657523  54709 107176 439842 152570 274692
  603070 685158 557742 279718 719951 652508 942841 724650 378272 647900
  897358 548324 811344  75394 230060 942648  16056 251590  54700 393256
@@ -8010,7 +8010,7 @@
         <is>
           <t>[361901 169608 224825 819679 912385 247572 620645 162558 800752 993579
  218896 298438 527742 363331 260869 635244 131969 139957 165042 154277
- 405411 296050 702863 827581  74108 925124 185157 628536 998498 768905
+ 405411 296050 827581 702863  74108 925124 185157 628536 998498 768905
  645738 109422 468085 958053  91510 694516 246168 683625 853930 667579
  435294 868668 887797 517722 582303 222183 564395 479848 200855 253107
  491280 264180 973232 575603 735696 717975 153326 776954 507728 307831
@@ -8044,7 +8044,7 @@
           <t>[732229 358546 736343 897782 358573 960307 700492 457181 993167 871103
  547866 545793 679086 654774 453276 202968 444616 560112 274087  64853
  898955 641392 686601 358555 740940 827267 726539 830481 394319 694650
- 159715 796419 422551 702690 659920 675768 703786 384363  50899 742742
+ 159715 796419 422551 702690 675768 659920 703786 384363  50899 742742
  216765 561490 420781 150582 104980 285971 409202 273543 395037 223799
  155430 197796 672925 203300 808244 762814  32646 731744 143774 292323
  310813 683105 604487 429382 590208 503805 130023 397045 462165 582215
@@ -8079,7 +8079,7 @@
  976504 534006 415695 112393 890812 612042 147516 577174 237618 858153
  848713 940747 959438  35685 364756 740013 120722 374077 954360 277401
   71226 344075 505989 244181 119537 322748 125214 119219 676753 326397
- 287616 617323 734277 563694 416196 376129 130008 498138 648246 829581
+ 287616 617323 734277 563694 416196 376129 498138 648246 829581 130008
  962992 312179 349661 280118 516228 314969 997140 509929 777261 184522
  872253 224968 915978 722891 902984 482778 689477 131738 245470 126895
    2204 319653  47496  83611 275188 245478 362765 761285 859873 550561
@@ -8095,7 +8095,7 @@
  1.1897 1.19   1.1906 1.1908 1.1914 1.1914 1.1919 1.1924 1.1926 1.1929
  1.1938 1.1938 1.1941 1.1943 1.1945 1.1946 1.1946 1.1946 1.1946 1.1946
  1.1946 1.1947 1.1949 1.1954 1.1959 1.1963 1.1964 1.1967 1.1976 1.198
- 1.1981 1.1983 1.1989 1.1989 1.1994 1.1998 1.2001 1.2001 1.2003 1.2015
+ 1.1981 1.1983 1.1989 1.199  1.1994 1.1998 1.2001 1.2001 1.2003 1.2015
  1.2016 1.2018 1.202  1.2023 1.2023 1.2025 1.2025 1.2025 1.2027 1.2029
  1.203  1.2031 1.2034 1.2035 1.2045 1.2046 1.2046 1.2047 1.2047 1.2048]</t>
         </is>
@@ -8178,8 +8178,8 @@
   34803 553362 431240 169597 553470 463665 602518 904896 617050 315630
  827160  85680 218670 668371 804663 237508  27491 689411 310856 949646
   47651 100227 704904 504059  17227 685229 622976 152864 313441 593307
- 564781 146977 455655 370991 821803 593615 659598 620902  49550  81144
- 603332 488697 165195  34804 939812 371411 953337 648526 266436 371796
+ 564781 455655 146977 370991 821803 593615 659598 620902  49550  81144
+ 603332 488697 165195 939812  34804 371411 953337 648526 266436 371796
  370055 520242 608483 460514 237525 248837 946785 597328 836182 320284
  625859 596152 222762 748091 123591 367322 100030 100052  24244 795001
  752818 486743 429729 340978 624342 509851 241642 387476 191369 319353]</t>
@@ -8210,7 +8210,7 @@
  253886  96818 189328  27620 107057 900777 714169 216294 551883 959378
  465618 309055 987099 713825 648937 216864 351739 732443 396351  34680
  521008 696510  88973 348709 691411 270975 523422  53130 781406 284627
-  48711 149111 796143 811673 681908 681946 843975 646358 101437 285691
+  48711 149111 811673 796143 681908 681946 843975 646358 101437 285691
  105937 858044 631895 551884 138471 671531 937607  39703 988298 514831
  379370 415670 486276 719813 606234 267778 670448 726502 787557 851244
  119346 894054 485341 518697 760214 495683 119372 119342 603869 628332
@@ -8310,8 +8310,8 @@
  881374 594641 276689 216272 971737 490647 352507 935626  67938 352577
  542625 961900 663224 971028 916105 459803 357744 346400 768094 394439
  242995 529597 975463 557789 315091 496090 307557 346401 731400 722885
-  34969 204762 240836 418587 336468 265788 754053 592668 197827 265784
- 754048 796106 693469 363331  72341 435197  57350   7910 240819 193263
+  34969 204762 240836 418587 336468 754053 265788 592668 197827 754048
+ 265784 796106 693469 363331  72341 435197  57350   7910 240819 193263
  661518 144596 244276 440565 344434  60410 849873 599852 722254 636961
  349008 502529 972973  14788 893185 111159 780966   6701  12676  60792
  461958 256677 357758 182007 377217 957816  80072 332741 262927 184073]</t>
@@ -8325,7 +8325,7 @@
  1.1318 1.1322 1.1327 1.133  1.133  1.133  1.1345 1.1351 1.1351 1.1354
  1.1356 1.1356 1.136  1.1361 1.1371 1.1376 1.1381 1.1384 1.1387 1.1388
  1.1391 1.1395 1.1395 1.1397 1.1406 1.1415 1.1415 1.1418 1.1418 1.1429
- 1.1429 1.1432 1.1437 1.1441 1.1442 1.1442 1.1443 1.1452 1.1456 1.1458
+ 1.1429 1.1432 1.1437 1.1441 1.1441 1.1442 1.1443 1.1452 1.1456 1.1458
  1.1458 1.1467 1.1469 1.147  1.1483 1.1489 1.1491 1.1493 1.1497 1.1498
  1.15   1.1501 1.1507 1.1509 1.1511 1.1514 1.1515 1.1516 1.1519 1.152
  1.153  1.153  1.1532 1.1535 1.1536 1.1537 1.1541 1.1545 1.1548 1.1549]</t>
@@ -8345,14 +8345,14 @@
  346916 415106 546440 920855 368815 734959 430922 162361 593576 882612
   14533 341956 542316 146431 150186 365930 340962 137371  59855 881366
   50715 820496 363775  66299 310038 369079 782515 458722 370524  92625
- 235266  38562 101107  91450 238231 723811 951559 984119 952834 237534
+ 235266 101107  38562  91450 238231 723811 951559 984119 952834 237534
  723232 335654 718377 993832 376716 810791 326082 381433 821498 339791
  900435 824386 973775 220754 351943 458259 422559 906117 727104 383818]</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[1.2548 1.2669 1.2729 1.2763 1.2987 1.2989 1.3011 1.3037 1.3053 1.3067
+          <t>[1.2548 1.2668 1.2729 1.2763 1.2987 1.2989 1.3011 1.3037 1.3053 1.3067
  1.3075 1.3119 1.312  1.3134 1.3138 1.3156 1.3164 1.3168 1.318  1.3186
  1.3197 1.3216 1.3221 1.3226 1.3263 1.3266 1.3267 1.3276 1.3277 1.3289
  1.3291 1.33   1.33   1.3307 1.3329 1.3333 1.3341 1.3345 1.3346 1.3348
@@ -8373,14 +8373,14 @@
         <is>
           <t>[614546 216820 527742 509144 271050 548106  28156 954719 365324 796106
  361901 761266 735696 407828 437726 477116  79706 138847  65258 610273
- 166429 963263 817733 151543 768094 484401 782814 349792 137200 348431
+ 166429 963263 817733 151543 768094 484401 782814 349792 348431 137200
  893751 747642 639076 841838 224845 317636 686962   6701 737242 854505
  868668 363488  27757 520922 196323 963269 321652 198282 925124 382997
  115432 224825 905152 494489 363331 434605 167849 197827 380683 718565
  274577 778212 377217  82513 963265 296087 848244 217561 606176 845434
  313654 532604 323725 643949 583893 532530 844988  45152 702697 319430
  993762 231377 239789 537073 588301 887797 867494 710310 162298 190757
- 354412 269015 557660 957094 343595 259765 807300 265784 754048 338373]</t>
+ 354412 269015 557660 957094 343595 259765 807300 754048 265784 338373]</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8407,7 +8407,7 @@
           <t>[783089 557787 244276 628536 660824 847807 731400 525261 526567 194203
   67938 594641 172466  40659 143567 887797 172706  38555  89897 593725
  822183 768856 938630 204503 667076 712000 350382 191810 520611 592734
-  61709 939840 590982 807923 652243 557789 330730 350409 561143 830693
+  61709 939840 590982 807923 652243 557789 330730 561143 350409 830693
  435197 881374 266027 535989 642657 346400 975424 392905 244090 307601
  377217  72341 842707 468085 741945 779131 346401 704878 191443 520447
  787763 332741  36826 700481 730530 544334 418587  29763 663224 782147
@@ -8438,11 +8438,11 @@
       <c r="B244" t="inlineStr">
         <is>
           <t>[871555 855767 643553 403350 614886 108784 789970 941449  63470  45119
- 189548 144161 762395   4711 628638 586511 986413 986431 445189 893727
+ 189548 144161 762395   4711 628638 586511 986431 986413 445189 893727
  238991  57878 518048 447324 173415 504857 698250 811563 222840  91770
  904107 837040 916387 363331 456083 186785 144154 932706 791648 177172
- 333850 800332 128496 288382 329054 476805 218340 996926 400601 577394
- 577450 375536 199903 316955 543144 115433 730460 342559 279718 806378
+ 333850 800332 128496 288382 329054 476805 218340 996926 400601 577450
+ 577394 375536 199903 316955 543144 115433 730460 342559 279718 806378
  334453  83183 188703    685 954061 229092 946956 817733 317591 628185
  932711 759797  89212 878492 961680 736592 813520 705961 841790 774465
  208903 106768 932724 518468 491513 956308  21260 499753 914448 244344
@@ -8477,7 +8477,7 @@
  305512 644437 605503 552283 964280 953942 399598 968006 702354 657797
  792041 359594 594670 998692 450296 652065 239740 961364 851111 825656
  508561 480690 243537 976764 253110 973334 696854   3578 927000 777870
- 824615 493682 641695 445769 216844 181498 370889 374099 620021 600147
+ 824615 493682 641695 445769 216844 181498 620021 374099 370889 600147
  632569 493959 332724 343994 193766 544377 447503  61507 119171 518058
  887059 815377 963799 332144 850925 578675 760222 760273 162716 460768]</t>
         </is>
@@ -8510,7 +8510,7 @@
  738804 670521 416365 971593 931462 214564 986577 450134 160534 116687
  294568 672443 324866 737949 590128 302307 568859 539594  64195 417080
  379115 254385 360979 390588 475330 980548 358546  79282 218451 857107
-  60813 263056 772166 383670 662372 772142 947243 366554 969714 328161
+  60813 263056 772166 383670 772142 662372 947243 366554 969714 328161
  611389 823423 424929 279018 602587 239008 628115 840066 959226 548341
  327243 435567 108241 218580 702095 674341 650003 462938 774848 955062]</t>
         </is>
@@ -8702,7 +8702,7 @@
       <c r="B252" t="inlineStr">
         <is>
           <t>[381684 275756 745450  29947   6250 841382 743842 327897 123672 169155
- 803629 724516 539604 924564 735042 619342 756985 575888 206325 390050
+ 803629 724516 924564 539604 735042 619342 756985 575888 206325 390050
  415308 432770 470612 727858 939791 244128 205455 654561 584697 541761
  269292 858921 530527 501456 353614 438849 200529 588871 501575 194096
  397705 873046 309401 344699 747665 465103 457358 666318 297381 328146
@@ -8806,7 +8806,7 @@
  988688  85364 656617 481632 463237 726802 480610 625920 825993 105327
  393835 393183 679338 661276 709495 727119 341353 934765 999845 869920
  672270 616582  58047 789911 711849 487502  54722 253261 172116 444785
- 781623 842574 283530 618416 847063 983054 726758 229612 441877   6352
+ 781623 842574 283530 618416 847063 983054 726758 441877 229612   6352
  281078 129972 887281  75595 974398 525905 695054   7883 530786 599173
  467341 516855 936000 586936 352561 113237 548872 974908 189488 458778
  528360 215337 941351 934761 503188 977333 545343 645858 903959 656687]</t>
@@ -8938,10 +8938,10 @@
  199903  48136 262341 186305 860207 387530 776108  24759 450039 161307
  116394 745463 822560 363216 173184 471109 637525 876672 618841 482401
  236537  31324 125744 116362  25031  88051  54443 893887 361901 303472
- 952181 824551 337614 480339 510659 214434 876677 951706  20543 654516
+ 952181 824551 337614 480339 510659 214434 951706 876677  20543 654516
  596714  39584 110473 703005 364750 388403 138539  93213 678587 697930
  558293 835420 654825 733900 105095  70599 520843 119032 124917 231160
- 643622 250690 350256 964930 507825 840248 903686 508397 812006 989860]</t>
+ 643622 250690 350256 964930 507825 903686 840248 508397 812006 989860]</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8973,7 +8973,7 @@
  539667 481888 234337  40739 794165 852422 570563 855160  44518 613007
   27709 981251 921600   9818 578823 796842 489080 218308 706045 121262
  428094  73391 730427 413182 730413 637951 535978 287341 835644 136162
- 995052 843610 851080  91934 163859 124529 445309 978792 111246 633697
+ 995052 851080 843610  91934 163859 124529 445309 978792 111246 633697
  506675 181765  84127 133933 330884 626677 621902 732970 595030 803321]</t>
         </is>
       </c>
@@ -9105,7 +9105,7 @@
  337586 849939 732989 295110 428413 678032 454840 250616 820952 227008
  706577 721903 479172 416042 533494 284267 612225 736446 241809 358053
  677033 365830 608003 973267 250614 970302 922634 713092 201151 415901
- 449523  68672 575453 575485 269857 383942 332202 124692 941206 808446
+ 449523  68672 575485 575453 269857 383942 332202 124692 941206 808446
  134355 892144 891178 519442 179582 136245 281738 828648 410669 612359]</t>
         </is>
       </c>
@@ -9115,7 +9115,7 @@
  1.4544 1.4568 1.4593 1.4603 1.4645 1.466  1.4671 1.4706 1.4775 1.479
  1.4795 1.4813 1.4861 1.4935 1.4938 1.4938 1.4941 1.4945 1.4948 1.4952
  1.4959 1.4969 1.4972 1.4984 1.5006 1.5026 1.5035 1.5048 1.5072 1.5074
- 1.5082 1.5095 1.5105 1.5107 1.5116 1.5122 1.5124 1.5126 1.5133 1.5136
+ 1.5082 1.5095 1.5105 1.5107 1.5116 1.5122 1.5124 1.5127 1.5133 1.5136
  1.5137 1.5141 1.5144 1.5154 1.5156 1.5156 1.5161 1.5181 1.5185 1.5186
  1.519  1.5192 1.5192 1.52   1.5207 1.5209 1.521  1.5214 1.523  1.523
  1.5233 1.5235 1.524  1.5244 1.5249 1.525  1.5251 1.5265 1.5266 1.5266
@@ -9164,14 +9164,14 @@
       <c r="B266" t="inlineStr">
         <is>
           <t>[746180 746179 949813 106435 877905 690123 960205 423600 746163 369546
-  90114 343270 343459 662950 856970 423604 540052 378455 954358 230230
+  90114 343459 343270 662950 856970 423604 540052 378455 954358 230230
  746181 103619 977031 586593 167171   8474 326804 691835 881639 946530
  634676 463212 785204 518786 602120 926982 925796 284333  70281 746178
  350798 560642 353707 690502 866623 232471 284344 827882 387477  61879
  157120 999977 684197 830568 398075 464929  80619 288081  55064 291489
  812561 353220 354543 115107  33361 849722 767749 716840 242903 442936
   55617 719720 646625 242912 543219 612388 303581 206108 281351 271972
- 621917 277020 277291 331328 795463 475487  29748 540035 666790 212479
+ 621917 277291 277020 331328 795463 475487  29748 540035 666790 212479
  501176 474510 927725 739389 837370 721324 901096 652088 135240  94468]</t>
         </is>
       </c>
@@ -9198,7 +9198,7 @@
         <is>
           <t>[361901 169608 224825 819679 620645 912385 247572 800752 363331 218896
  527742 260869  91510 298438 162558 507728 154277 993579 628536 139957
- 645738 468085 635244 165042 131969 702863 827581 517722 831625 887797
+ 645738 468085 635244 165042 131969 827581 702863 517722 831625 887797
  667579 405411 296050 109422 998498 435294 694516 246168 726666  34969
  768905 925124 735696  74108 741107 993564 677330 868668 253107 973232
  853930  80839 717975 185157 663224 798987 683625 444647 575603 224845
@@ -9230,7 +9230,7 @@
       <c r="B268" t="inlineStr">
         <is>
           <t>[864655 557546 126909 416643 213165 410841 830554 360190 706882 111792
- 861736 257561 190756 880583 685892 687836 751728 751719  83808 182678
+ 861736 257561 190756 880583 685892 687836 751728 751719 182678  83808
  959514 412823 176748 866962 489412 356021 412908 708650 305505 763884
  931169 799100 747818   8650 808968 520627 857313 609312 426984  92565
  643926 213150 527753 742583 593031 656357 935323 342272 424081 746484
@@ -9267,7 +9267,7 @@
   92439 740922 241635 220470 327160 246092 688100 849729 359223 740906
  659413 769933 310491 140353 285181 481032 887242  24852 592922 980236
  555983 878604 873860 224058 914415 858482 835987 746690 655709 303472
- 211661 218257  27680  82576 576805 441591 179811 259697 686373  19424
+ 218257 211661  27680  82576 576805 441591 179811 259697 686373  19424
  170392 576800 218288 464927 273447 275097 298389 291129 631708  57500
  717734 661355 997062    689 368927 850493 734006 242012 700605 481332
  993574 812917 396767 211686 653148 928721 516823 760331 247572 545554
@@ -9333,7 +9333,7 @@
  677612 969122 889584 160359 915341 680443 840320  91770 889583 751855
  253383 215758 337535 184238 434844 680442 221417 871910 719534 862957
    2187 517544 130045 703717 290110  19418 962212 876673 804109 731696
- 581962 659584 579290 540094 622026 516190 215523 920344 485209 767753
+ 581962 659584 579290 540094 622026 516190 920344 215523 485209 767753
  526960 393417 117830 433475 474040 337224 434276 253372 169825 726967
  392512 621698 967936 286066 901996 409891 111651 663337 873487 573780
  720927 597568 437971 692920 978406 533211 889643 802530 931240 915355
@@ -9370,7 +9370,7 @@
  531182 174170 872267 542730 642982 770147 967787 659773  28001 685350
  746886 967750 766422 813301  14565 699438 254569 942814 780515 580778
  879995 294801 435835 724304 813044 775822  14564 950613 205786 413831
- 504844 505114 124386 454693 724211 701732 608826 162498 259229 408684]</t>
+ 505114 504844 124386 454693 724211 701732 608826 162498 408684 259229]</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9394,8 +9394,8 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[732607 272635  77438 792873 562016 909119 734442  50085 210254 141977
- 192047 534950 405366 693876 875409 562979 391768  10168 730781  13004
+          <t>[732607 272635  77438 792873 562016 909119 734442  50085 210254 192047
+ 141977 534950 405366 693876 875409 562979 391768  10168 730781  13004
  531992 719255 211835 999019 120559 498516 291301 194039 176208 133745
  192753 750745 855129 936517  46023 506474 133232 207898 766635 422657
  484087 724051 167096 960864 589507 924860 750741 301455  18946 777276
@@ -9432,7 +9432,7 @@
  988256 311934 833872 930448 187141 315826 836155 725394 810360 932396
  724277 543529 654538 681530  18723 751243 290407 762973 519662 920233
  924025  10219 176087   9577 156220 433095 516933 329160 432770 117537
-  47491  27477 449323 423301    185 199656 693688 464044 211937 813577
+  47491 449323  27477 423301    185 199656 693688 464044 211937 813577
  673909 718019  79667 482368 655933 568457  19985 451555 829242 423091
  908366 436323 604833 842983 636753 797209 542354 670022 670209 214225
  545072 658929 893858 137509 620948 841790  24895 496252 353707 504971
@@ -9495,9 +9495,9 @@
         <is>
           <t>[902250 764737   4758 517998 767970 209398 565873 466639 764724 379890
   71197 760493 517529 250653 378600 766002 599296 211508 793863 264296
- 166423 901427 377471   5097   4202 786969 862104 637798 999202 511169
+ 166423 901427 377471   5097   4202 862104 786969 637798 999202 511169
    4760  43977 479185  28013 716857 764497 161680 125556 747464 988881
- 666312 579045 579258 669534 502470 207922 433873  27646 576418 651653
+ 666312 579258 579045 669534 502470 207922 433873  27646 576418 651653
  386395 776151 612546 927930 973407 253318  41591 535222 520065 566726
  392208 505029 845656 998018 156712 851677 580782 608771 669983 804007
  790686 153414 815363 633550 874689 566703 760754 345237 422501 967266
@@ -9560,8 +9560,8 @@
       <c r="B278" t="inlineStr">
         <is>
           <t>[690066 472985 192741 172439 458320  72133 130846 317823  29372 214501
- 214514 402632 226026 118193 866624  38875  78638 154149 360666  10177
- 590634 880830 244036 831976 438448  69023 272452 695592 604456 361244
+ 214514 402632 226026 118193 866624  38875  78638 154149 360666 590634
+  10177 880830 244036 831976 438448  69023 272452 695592 604456 361244
  569439 877017 329716 719493 728164 685187 444695 709378 478707 432043
  802935 728177 175792 503164 742742 357390 862714 778959 719510 391760
  406058 562434 161820 356077 390808 355864 486975 406685 912031 400382
@@ -9630,7 +9630,7 @@
  895630 291318 858849   4301 625729 697299 530206 402736 896237 896271
  295054  98910 577265 384955 526823 524161 406551 858212 165954 308685
  291743 495044 764348 148249  88015 704268 142947 632482 352583 927903
- 299752 902028 572756 564498 674341 511342 153046  25878 271378 801944
+ 299752 902028 572756 564498 674341 511342 153046  25878 801944 271378
  910333 983180 275102 790188 670178 559780 908966 694311 731453 184116
  241635 769933 642667 897041 618833 253308 924556 823280 264032 353006
  714175 596412 499760 397989 336245 596130 575384 227782  23777 404221
@@ -9693,11 +9693,11 @@
         <is>
           <t>[923304 725724 540086 199310  94114 387712 196205 727813 857680 399232
   22700 749154 644213 817328 390334 800273 674560 710388  52099 855229
- 236611 173025 105366 322577 161401 117181 119359 760699  83539 790214
+ 236611 173025 105366 322577 161401 119359 117181 760699  83539 790214
  993064 270260  21051 573236 245954 969064 203543 644202 798666 579348
   52838 969307  52820 117180 487467 415986 615418  21050 516178 639979
- 982073 593461 587318 132948 341833 228334 505380 149286 149346 172793
- 821194 669846 842464 685700 282646 199813  43977 504157 320084 959430
+ 982073 593461 587318 132948 341833 228334 505380 149346 149286 821194
+ 172793 669846 842464 685700 282646 199813  43977 504157 320084 959430
   30768 743341 931993 776728 852905 106103 737228 639973 466936 769856
  763043 606353 731856 801506 156056 693674 307401 786785 185049 873888
  945180 916360 599386 972779 515002 998018 119286 462091 209398 626604]</t>
@@ -9758,10 +9758,10 @@
       <c r="B284" t="inlineStr">
         <is>
           <t>[518866 987056 568592 501176 593162 397705 860207  92653 152749 916223
- 907939 788132  17236 754316 755101  93654 830140 142633  17232 992183
+ 907939 788132  17236 755101 754316  93654 830140 142633  17232 992183
  707348 691835 349173 746841  29838 155434 600996 209797 822318 709145
  564166 812388 564938 582044 752828 544577 967176 624356 247878 460588
- 232231 772861 697930  27184   8950 127687 588098 589319 457358 605813
+ 232231 772861 697930  27184 127687   8950 588098 589319 457358 605813
   21675 755970 250814 634659 588095 957212  52655 146604 628076 415308
  475030 173718 268634 300078 924076 218717 102736 815258 802722 535746
  516195 120277 232471 231618 752066 600994 961870 824446 394535  78588
@@ -9865,7 +9865,7 @@
  308061 268466 771288 504458 834961 262380  48040  51707 713723 745012
  791910 676458 543923 220450  36961 380656 182844 831939 299602 948652
  631699 907123 708670 656601 525161 706617 420805 470721 961480 299187
- 722778 522254  86367  86511 537637 665582  52244 937540 346670 383850]</t>
+ 722778 522254  86511  86367 537637 665582  52244 937540 346670 383850]</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9894,7 +9894,7 @@
  990856 681525  87044 313330 943448 734819 157112 737314 845686 425199
  876162 153713 703624 995449 714523  43704 182657 125231 715819 476481
  362071 550735 439766 226220 110896 957914 445473 251535 421590 779080
-   5786   5876 686648 958416 475763 276516 486231 459201 747733 872703
+   5876   5786 686648 958416 475763 276516 486231 459201 747733 872703
    5124 927038 325131 103624 512505 135045 987208 985729 731550  73279
  361376 139716   5175 184313 314475 584621  88880 560419 836560 389310
  968418 404369 782961 833803 779233 103162 732753 431770  88434 455220
@@ -9929,9 +9929,9 @@
  817688 183574 997392 638023 714994 573942 733141 911048 996447 131356
  455369 606082 943705 523869 350313 350350 165510 204789 256626 147833
  796119 780566 653800 226278  88535 646086  76062 839592 226850  51329
- 968164 226848   4354 188142 350250  81728 525720 525749 803758 968337
+ 968164 226848   4354 188142 350250  81728 803758 525749 525720 968337
  416822 352755 674548 144029 612133  15726 884834  88890  59959 855156
- 778695 482701 981509  93484 571509 788612 776078 363351 307091 409642]</t>
+ 778695 482701 981509  93484 571509 788612 776078 363351 409642 307091]</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9964,7 +9964,7 @@
   33568 716149 136789 285931 939875 918736 762015 277902 628060 785155
  670017 800370 454173 562322 319816 184736 461887 822786 449713 253757
  686622 166405  30082 285897 806710 643705 198941 639560 740831 494578
- 451248 508249 969122 939870 972475 285918 285947 849285 114932 634666]</t>
+ 451248 508249 969122 939870 972475 285947 285918 849285 114932 634666]</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -9991,7 +9991,7 @@
           <t>[612538 433274 144678 624287 377773 458778 220232 273205 149031  97058
  552826 382975 504486 449348 487029 820654 682056 153892 214543 794510
  417300 182248 109037  27641 599205 625761 456855 305064 872067 528360
- 590233 973444 688767 503376 995150 790188 674341 886702  23777  37653
+ 973444 590233 688767 503376 995150 790188 674341 886702  23777  37653
   92668 749981 765035 938056 966596 450124 226102 875775 771652 208094
  189434 216940 303810 533577 747194 718632 106011  68931 659552 882157
  677567 910333 448635 705444 692111 562199 801758 381811 596130 103634
@@ -10025,7 +10025,7 @@
   77840 353681 642676 444155 564581 742073 255250 279182 227795 649957
  557190 847111 292411 991820 444148 323071 735344  78978 346329 534958
  167171 171579 714137 669946 267593  89486 594436  96582 926967 737732
- 383399 636006 282724 735340  33897 244589 877786 170010 928268 418611
+ 636006 383399 282724 735340  33897 244589 877786 170010 928268 418611
  813334  35419 453557 149688 441510 317971 968222 422823 849725 158242
  635603 499596 333261 104061 503130 353085 154126 141035 868644 553386
  814688 934208 969796 718071  31254 619958 365000   8749  80186 611616
@@ -10057,13 +10057,13 @@
           <t>[537598 371609  65573 969204 921209 712383 433740 158957 628148 988027
  132200 114267 700029 138464 435193 259617 979737 744921 692866 435063
  869728 863876 379314 115511 434643 663682 877207 809711 635223 436223
- 574543 978971 844136 730734 438474 753379 794199 574583 260907 648421
+ 574543 978971 844136 730734 438474 794199 753379 574583 260907 648421
  184946 260912 349774 173041 469451  79070 526119  31324 173671 493187
  695971 180696 944578 116956 291028 874765 635701 250787 864976 494440
  728360 416226 416822 152313 992597 799812 669906 413201 300254  39382
   43694 250965 243228 373445 968164 181776 385390 253320 385378 950311
  380771 385405 748555 929438 416364 360411 929893 139921 726147 150884
- 740975 668580 330297 526268 840248 903686 292399 498557 761217  24654]</t>
+ 740975 668580 330297 526268 903686 840248 292399 498557 761217  24654]</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10255,10 +10255,10 @@
           <t>[670217 617309 401304 751287 731747 673278 185273 532122 677718 974501
  173097 352859 432602 935412 687774 216050 969650 979156 467861 532123
  393472 127459 342269 484160 652977 100731 837754 170749 473907 418171
- 277345 388931 771056 484713 532038  70279  73933 322795 322919 396616
- 592618 618655 740092 846847 864785 904637 605484 532108 595257  59384
+ 277345 388931 771056 484713 532038  73933 322919 592618 396616  70279
+ 864785 904637 846847 618655 740092 322795 605484 532108 595257  59384
  772780 485793 428074 515129 941228 941258 742559 881760  91541 519621
- 254026  80022 950755 624824 470496 941166 984825 535350 627546 672835
+ 254026  80022 950755 624824 470496 984825 941166 535350 627546 672835
  261378 218219 296890  23775 917089 939192 427055 761429 768784 729157
  434724 873959 535618 484712 866769 947137 944747 931325 867460 905258
  865412 959134 918452 162494 259777 570262 738428 165459 683144 621457]</t>
@@ -10291,7 +10291,7 @@
  346535 635507 928307 931214 161774 635486 198518  33688 432901 785886
  619193 132233 583796 127598 145884 102724 400596 253341 146909 288068
  370056 451169 385226 161761 725974 343631  25697 385033 812499 164521
- 353225 353698  25160 199029 954117 977700  55479 418630 255093 583498
+ 353698 353225  25160 199029 954117 977700  55479 418630 255093 583498
  976245 833907 635737 611837 465895 814776 212053 761684 375576 810411
  979347 346525 898403  25684 982122 222418 298130 250917 861679 827148
  384279 559462 559495 325394 414783 781136 569328 314749 660713 402315]</t>
@@ -10321,7 +10321,7 @@
           <t>[702379 703013   2204  30763 719533 680665 330605 733340 194128 907896
   91700 587502 273205 479209 763993 464440 851826 801006 442154 221200
  556103 245170 781867 625888 124516 435114 432668 986472 533375  85906
- 768675 944922 447161 684663 687376  44509 671056 995293 988003 390459
+ 944922 768675 447161 684663 687376  44509 671056 995293 988003 390459
  783041 478992  12513  76315 511165 885555  72336 643031 854356 816633
  154572 677998 918022 184522 587482 293149 724376 564688 670178 665203
  254189  64970 129022 928259 268446 147590 880374  68026 869895 319963
@@ -10417,11 +10417,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[630107 289288 726411 486167 382160 275724 218624 882877 949461 177617
- 933718 151786  36763 291503 999033 882327 671444 793833 762610 588924
+          <t>[630107 289288 726411 486167 382160 275724 218624 882877 949461 933718
+ 177617 151786  36763 291503 999033 882327 671444 793833 762610 588924
  257816 261411 324474 406747 130041 127275 444347  36747 793778  91713
  888504 807013 950968 901071 480816 536068 390472 938468 642498 951749
- 913448 275697 512443   3955 815754 423319 733548 799174 284853 920726
+ 913448 275697 512443   3955 815754 423319 733548 799174 920726 284853
  507470 909064 760401 795249  52725 431263 507996 540387 568846 914930
  815761 508180 632434  53380 237406 826383 143706 537342 262418 240686
  898198 753182 799179 727586 260108 852437 782559 381026  72976 829336
@@ -10450,7 +10450,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[658718 403456 684106 916820 203816 857260 138675 654811 682877 525337
+          <t>[658718 684106 403456 916820 203816 857260 138675 654811 682877 525337
  476864 420256 691101 712686 658705 182918 504690 876320 920325 399231
  567757 182939  43326 767821 328404 676284 254282 896199 904445 250211
  238800 735674 670660 933218 813294 203824 991657 129462 349627 530784
@@ -10588,7 +10588,7 @@
  408526 218973  48830 579888 738228 579856 400158 687374 551517 411996
  962376 177390 197394 727085 463648 400489 263168 621814 515398 250638
  340539 959873 367102 111490 687714 461926 634064 367394 413872 401123
- 237114 511099  52396 642858 233548 880309 127784 213175  48464 925372
+ 237114 511099  52396 642858 880309 233548 213175 127784  48464 925372
  787854 762328 801958 957163 406128 624506 414916 231680 974203 825340
  886063 999861 185609 576637 580939 937888 365172 610581 368720 984452
  784910 791925 473089  15883 992684 288596 418564 429712  34084 344767]</t>
@@ -10716,7 +10716,7 @@
         <is>
           <t>[988745 197592 356422 732472 705140 555128 160738 891947 502998  71867
   69404 829259 583484 764157 867425  34026 524113 505520 563286 853975
-  67023 417335 816772 912261 423091 842588 795536 841294 832226 816798
+  67023 417335 912261 816772 423091 842588 795536 841294 832226 816798
  747768 446033 461211 820127 659811 876058 433095 667694 867554 401047
  739342 747770 222181 551984 406486 433176 467342  89987 364205   9577
  636753 497773 888878 822250 496252 528004 711101 174988 329813 516855
@@ -10756,7 +10756,7 @@
  237114 427001 962184 401123  61482 795122 367102 218973  79674 621814
  687714 619209 567294  67470 114999 927625 599708 377078 883291 687464
  621177 887148 992684 984452 615726 376130 310900 825340  48559 972419
- 180563 716572 233548 880309  34082  52396 579884 842368 824272 418564]</t>
+ 180563 716572 880309 233548  34082  52396 579884 842368 824272 418564]</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10783,7 +10783,7 @@
           <t>[665862 252370  41907 395252  78944 552074  50746  24743 332216 903858
  533951 197903 535913 667367  77563 588613 995671  30290 936153 742343
  134727 239797 648235 932875 916204 614497  43238 653498 459733 215328
- 576392 542847 414808 166924  83988 769451 538923 885696 345605 452658
+ 576392 542847 414808 166924 769451  83988 538923 885696 345605 452658
  778766 601574 116867  90776 785113 101061 236362 170149 701023 740415
  491364 977642  56453 170932 633834 311900 961005 795958  70877 427990
  784723 714422 137611 676140 422164 819280 575281 210008 857370 451509
@@ -10886,7 +10886,7 @@
  483895 899723 233857 531872 818925 189228 178656 923842 479244 813635
  561877 611016 475067 923736 399162 809505 812653 183427 932562  32378
  449004 726839 314753 710409 764703 760986 317274 925690 433976 173215
- 895428 528657 504810 809931 531664 721473 575002 144843 519714 513981
+ 895428 528657 504810 809931 531664 721473 575002 519714 144843 513981
  311912 659856 580258  74245 872397 251836 186732  55368 580122 726830
   91009    182 227326 621788 382406 254882 703512 237079 237753 962648]</t>
         </is>
@@ -10915,7 +10915,7 @@
           <t>[504150 521466 516952  79951 715723 392679 669680 505067  76158  45325
  620990 751719 588024 203436 445023 854204 460967 852916 390588  46551
  972681 879656 711805 817696   5281 392697 751728 678509 555390 931552
- 732984 650531 460950 916093 924019 650544 919209  24854 868682 528069
+ 732984 650531 916093 460950 924019 650544 919209  24854 868682 528069
  547117 674932  97861 910583 416788 260172 935403 385920 594137 355743
   28300 582194 361687 644589 434155 970504 776019 134203 866284 508834
  789024 221121 270897 769575 560449  89093 276064 201565 281928 600536
@@ -10945,8 +10945,8 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[465273 533257 362797 438750 485790 776579 144654 686074 815969 962017
- 962224   6461 966409 493254  39855 782555 964661 632241  67051 752643
+          <t>[465273 533257 362797 438750 485790 776579 144654 686074 815969 962224
+ 962017   6461 966409 493254  39855 782555 964661 632241  67051 752643
  205688 241727 839113 826875  17604 448354 140262 377014 401764  55405
  173426 403687 406280 200755  21130 309672 455541 922011 562424 979716
  639644 687075 802548 142224 176384 824367 363485  71740 898996 277232
@@ -10983,7 +10983,7 @@
  894730 172730 875855 996865 456844 988867 477425 196162 483195 583489
  689100 641467 143080   6254 601785 845459 790123 698903 834466 511998
  492869  34018 257726 110154 703945 688878 374022 925291 197612 895287
- 249252 916873 134817 869933 391326 391357 141582 773749 725117  86661
+ 249252 916873 134817 869933 391357 391326 141582 773749 725117  86661
  181779 531093 828433 553955 732136 874338 459501 645057 623478 940735
  729794 188908 986553  85000 373121 950530 282964 633862 210284 385271
  657380 759332  76939 188620 334659  40269 612244 968315 561190 876040
@@ -11081,7 +11081,7 @@
    9955 411986 181605 523764 360979 917485 305107 610901 918245 744411
  348025 411969 276724 423727 595483 119255 869806  69022 933454 272720
  109699 589264 222006 453298 183659 664191 156268 576469 748894 691222
- 376745 854646 199570 153056 276717 844640 400621 627770 946610 250905
+ 376745 854646 199570 276717 153056 844640 400621 627770 946610 250905
  116250 562305  64365  10751 367273 371288 388653 762333 258430 103538
    8744 247969 335876 733316 600193 546871 913270 908909 278884 494091
   53502 933332   8727 820667 593146 789712  32431 808973 514079  88740
@@ -11116,10 +11116,10 @@
  583497 920700 398422 704267 742807 953209  53157 751596 393743 765827
  836312 487551 983995 697406  35805 909733 371318 252863 731719 139433
  812890 770917  55339 289764 548066 548092 879286 575199 679026 837146
- 355573 474754 131397 454989 982399  47223  95453 391396 995760 720886
+ 355573 474754 131397 454989 982399  95453  47223 391396 995760 720886
  882157 517231 185884 437656 923240  18347 626770 124416 177924 968419
- 298901 315988 686963 894876 418651 418671 605169 452431 376183 263672
-  26308 131383 821681 850013 879239 311662 908354 584584  58408 310491]</t>
+ 298901 315988 686963 894876 418671 418651 605169 452431 376183 263672
+  26308 821681 131383 850013 879239 311662 908354 584584  58408 310491]</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11147,7 +11147,7 @@
  375302 140050 943706 449414 159920 765999 176850 572260 987867 442662
  938012 896588 294903 498274 892361 178597 282871 454849 404097 629935
  271596 353611 489936 480087 135366 232486 571891 478332  96320 801677
- 656601    616 849702 254590 311442 627327 464188  29203 597062 933962
+ 656601    616 849702 254590 311442 627327 464188 597062  29203 933962
   57709 356165 745012 453409 422864 352717 982048 855526 170618 308035
  815260 217217 400550 269357 804531 623755 368814 480293  18386 451073
  688377 688407 845247 581094 465512 842149 252799  79991 648097 439207
@@ -11218,7 +11218,7 @@
  119639 466640 642936 642973 254370 134509 582157 395513 476866 859146
  665984 791110 125583 444574 712776 419907 542199 830607 685413 810416
  251784 294801 684647 219301 509504 433177 712683 810431 724145  74240
- 861276 563765 224370   5359 859110 910119 958483 813316 831634 251517]</t>
+ 861276 563765 224370   5359 910119 859110 958483 813316 831634 251517]</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11243,15 +11243,15 @@
       <c r="B329" t="inlineStr">
         <is>
           <t>[685338 902259 420364 420398 127626 902271 712683 142092 119639 723947
- 121914 775795 945567 375598 444574 182928 902247 375331 251399 264862
+ 121914 945567 775795 375598 444574 182928 902247 375331 251399 264862
  563765 452348 685344 835524 481482 831476 685350 966281  42058 531096
- 775817 582184 586050  74240 254263 648063 504790  74257 533639 970950
+ 775817 582184 586050  74240 254263 648063 504790  74257 970950 533639
  113470 216499 294801 902248 831713  43965 292246 808292 814621 166916
  643308 251835 395032 280932  68354 254370 174170 670196 251950 791076
  670195 703548 902269 712763  11031 936306 670135 880489 764197  80309
  812838 290156 563767 775816 420258 392954 125594 609081 785885  28001
  804286 787485 991191 580778 922809 813080 766212 910118 974311 642990
- 608803 220216 966270 133433 420256 587535 107594 413831 942668 361686]</t>
+ 608803 966270 220216 133433 420256 587535 107594 413831 942668 361686]</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11376,7 +11376,7 @@
         <is>
           <t>[ 86675  43655 645681 807981 742598  53959 909760 788042 968800 645630
  835360 109092 557315 752072 255038 314710  67477 557341 851782 751210
-  44723  44751 374763 776885 642796 138842 429535 728076  63333 423975
+  44751  44723 374763 776885 642796 138842 429535 728076  63333 423975
  420991 999432 999521 731856 407812 401947 838737 318192 191060 217083
  606407 375876 861149 217082 827634 548029 814629 664569 857501 660309
  109542 537833 724431 158778 420061 123727 829738 368818 662942 612071
@@ -11743,7 +11743,7 @@
  869066 287489 197501  98304 224904 238713 769285 622762 176107 156031
  810039 318277 302149  85510 897005 767353 536880 420094 509059 200298
  797378  86920 292581 120290 738963 676375 707877 362399 823776  22444
- 796621 120588  53934 107311 380144 586812 413282 941095 515980 150292
+ 796621 120588  53934 107311 586812 380144 413282 941095 515980 150292
  652960 933696 832947 220004  18860  78548 210730 484912 888023 285341
  691115 627289 354058 713016 848461 781085 954339 383415 671828 394122
   22428 496037 642489 803569 919376 740702  38649 731145 840240 627477]</t>
@@ -11775,7 +11775,7 @@
   44186 827148 289083 118567 802731  91358 375576 688052 884121   4591
  670607 233077 808337  43672 466638 934683 516070 751996 152701 877934
  273605 496071 132217 543654 677627  80620 662777 747197 451169 640463
- 567139 305562 875297 659833  19615 293221 298130 588257 588287  70791
+ 567139 305562 875297 659833  19615 293221 298130 588287 588257  70791
  729527 672404 806560 368815 173304 262343 223799 832097 299191 150842
  896031 136533 908991 668462 484238 438580 651890 104989 531343 651351
  744455 130180 825795 885192 839468 451066 254592 254575 526560 787111
@@ -11790,7 +11790,7 @@
  1.4318 1.4331 1.4337 1.4341 1.4353 1.4357 1.4359 1.436  1.4362 1.4362
  1.4366 1.4372 1.4372 1.4373 1.4378 1.4388 1.4389 1.4391 1.4397 1.44
  1.4405 1.441  1.4411 1.4415 1.4416 1.442  1.4421 1.4424 1.4424 1.4429
- 1.4431 1.4431 1.4433 1.4436 1.4437 1.4438 1.4439 1.4441 1.4443 1.4446
+ 1.4431 1.4431 1.4433 1.4436 1.4437 1.4439 1.4439 1.4441 1.4443 1.4446
  1.4448 1.4458 1.4469 1.447  1.4471 1.4488 1.4495 1.4495 1.4496 1.4497
  1.45   1.4501 1.4509 1.451  1.4511 1.4513 1.4514 1.4518 1.4519 1.4521
  1.4521 1.4522 1.4522 1.4525 1.4528 1.4528 1.453  1.4534 1.4534 1.4535]</t>
@@ -11905,13 +11905,13 @@
           <t>[425624 362240 583803 288151 721778 412144 792415 136470 204829 564549
  126451   5649 283953 771339 862537 570908 459836 159868 394402 605134
  265099 609401 414020 760045 958438   1927 194028  90768 593314 605138
- 147309 417778 216261 263755 505461 958426 958456 266527 741030 905286
+ 147309 417778 216261 263755 958426 958456 505461 266527 741030 905286
  870644 418441 964480 938489 325400 287430 218606 275529 759292 126626
  442552 507263  23986 320585 343352 999059  92312 447613 160689 104253
  528754 868444 100736 668152 364594 495136 666509 102309 890312 238928
  176756 629692 266666 748872 985836 819217 386578 222161 584133 605264
  621843 644176 213829 374921 271499 897718 300664 808357 555369 652014
- 892412 461783  47059  47122  95885 994826 149400 537866  90923 189856]</t>
+ 892412 461783  47122  47059  95885 994826 149400 537866  90923 189856]</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -11938,12 +11938,12 @@
           <t>[328313 798360 310419 148786 669144 763433 377479 510259 955473 984555
  161642 441756 893108 610385 937583 953136 740879  64647 561624 660948
  390170 682538 715731 561697 474460 724654 476719 561050 340715 971109
- 518788 759332 551225 587991 161132 414444 166597 762277 762310 178991
+ 518788 759332 551225 587991 161132 414444 166597 762310 762277 178991
   43151 232859 373677 838896 918073 129481 409765 116134 684372 470522
  859793   3081 589593 376045 882157 820945 176061 455405 521745 305096
  862094 560050 643676 317116  41914 764809 474499 101939 810485 459338
- 345059 904569 574384 378265 398643 745838 110154 448148 222426 243985
- 460740 639078 460552 774512 774538 553978  64846 653374 931571 424840
+ 345059 904569 574384 398643 378265 745838 110154 448148 222426 243985
+ 460740 639078 460552 774538 774512 553978  64846 653374 931571 424840
  710008 252951 212129 799765 497824  98922 324260 663581 518062 343030]</t>
         </is>
       </c>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[962184 629672 400550 710305 320157 958914 958936 920877 367102 608390
+          <t>[962184 629672 400550 710305 320157 958936 958914 920877 367102 608390
  855629 301752 986201 637264 832101 122266 258134 163324 329576 564153
  578892 329526 254797 115275 163467 283265 502291   9312 835040 717082
  882992 716312 562729 197339 836542  73916 684223 327767 932991 112846
@@ -12009,7 +12009,7 @@
  886488 444179 446770 891176 249807 853605 514928 716339 204872 152045
  318162 310732 383606 178610  96352 587133 357775 952941 759826  73677
   24838 175401  60802 451337 104856 738165 631596 521550 576648 918140
- 971069 582839 498407 450343 619978 625257   7934 409116 299065 299093
+ 971069 582839 498407 450343 619978 625257   7934 409116 299093 299065
  891235 108270 766814  36996 359408 907960 562734 354761  20155 622076]</t>
         </is>
       </c>
@@ -12036,11 +12036,11 @@
         <is>
           <t>[331067 133842  12790 582258  16821 304840 876304 109194 442615 853491
   30030 695696 330201 349553 615937  45138 987490 954166 114748 440557
-  85290 426716 853480   9509 793550 168815 147207 408397 357198 627208
- 964354 586455 582230 781003  69226  57778 635337 697281 976526 902982
+  85290 426716 853480   9509 793550 168815 147207 408397 357198 964354
+ 627208 586455 582230 781003  69226  57778 635337 697281 976526 902982
   45313 506038 959689 221725 404829 199509  30621 609453 420204  96206
  121983 316968 103383 922367 761385 308449 380825 656373 726265 335689
- 595930 201444 141374 359296 628166 778012 102598  47574 227163 406426
+ 595930 201444 141374 359296 628166 778012 102598 406426  47574 227163
  228548 512931 175490 734492 180427 473728 147696  38440 305338 549401
   74380 243788 773470  71154 306255 781349 194473  30610 557079 711607
  999342 301053 249131 451324 655933 137983 893039 637796 129635 988034]</t>
@@ -12171,8 +12171,8 @@
  788041 196345 463440 774040 872861 645681 788042 699962 537833 987639
  931110 439736 751713 140358 734797 973765 876060 583575  14507 876070
  459484 263624 911102 902772 687519 645630 376046 723892  86783 715805
- 615653 699948 701048 690250 615535 909852  85899 971174 876067 540084
-  53715 627905 723661 734788 772334 888251  11328  24205 665463 685597
+ 615653 701048 699948 690250 615535 909852  85899 971174 876067 540084
+  53715 723661 627905 734788 772334 888251  11328  24205 665463 685597
  394430  19211 967854 621705 987947 984803 467158 968800 203259 195272
   93079 240358 653951 122946 731196 985728 874826 189396 278970 281766
  570509 986274 788008 457481 850791 203148 477608 226233 876083 619039]</t>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[ 58437  85992 560629 779558 685124 290486 387941 931679  29584 965655
+          <t>[560629  85992  58437 779558 685124 290486 387941 931679  29584 965655
  487589 953640 809462 737664 360011 101818 499467  96448 773173 826241
  935364 901505 639799 976138 101839 976164  54840 182080 456166 537567
  917296 161298 359077 132532 456160 461301  55411 943711 832852 550249
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[810562  54912  54971 879735 804766 909330 767894 444300 652029 958488
+          <t>[810562  54971  54912 879735 804766 909330 767894 444300 652029 958488
  710891 958474 433168 263246 121236 745668  52205  96663 398951 307629
  896159 228542 644380 765850 392607 290654 844356 842223 155309 544958
  851736 805252  19531  89655 490261 225189 872534 931786  85439   5715
@@ -12300,13 +12300,13 @@
         <is>
           <t>[866979 283755 108154 648937  88973 568331 459292 470185 350306 721851
  105932 782269 136202 734757 604801 197149 841086 983305 387803 973133
- 648628 628241 868014 868951 952053  77706  70063 539301  88568 852673
- 129713 558379 869987  68570 196593 783685 571108 292562 217263  30903
- 365150 540816 732838 651788 222977 868019 868952 168357 414119 717268
+ 648628 628241 868951 868014 952053  77706  70063 539301  88568 852673
+ 129713 869987 558379  68570 196593 783685 571108 292562 217263  30903
+ 365150 540816 732838 651788 222977 868952 868019 168357 414119 717268
  983147 339053 204403 346301 283937  88896 200029 175596 787557 793500
  918730  89001 774410 149111  48145 671141 851772 192235 605017 564606
  754567 441640 598947 128779 994397 175518 297476 265719  72405 858268
- 595672 609046 748992 302722 222984 573162  44495 656923  38190 146001
+ 595672 609046 748992 302722 222984 573162 656923  44495  38190 146001
  200038 307876 379370 584175 685407 310072 148143 396351 755957 644269]</t>
         </is>
       </c>
@@ -12336,7 +12336,7 @@
  424468 421459 326749 491721  12971 389447 882229 298848 787895 752019
  993224 246694 377022 768700 471449 695135 239947 748487 976836 698709
  666397 470212  12738 193400 978825 969518 246846  94110 306466 469328
- 470221 743409 848500 840186 322220  95541 495590 395522 870129 848498
+ 470221 743409 848500 840186 322220 495590  95541 395522 870129 848498
  822749 900307 279626 772843 185701 913521 112544 180413 293803 113080
   30436 498496 959722 431516 526326 935570 972223 481943 494600 310351
  278336 754787 506083 407958 944340 812594 804053 752773 156861 137505
@@ -12372,8 +12372,8 @@
  492762 830212  78702 550695 197851 534121 719908 372915  13546 158849
  355834 692625 570851  97071  26006 639431 778658 353707 443387 148495
  170297 222108 249109  28443 269223 724456 475961 603800 659811 549545
- 531208 477889 410828 426984   3404 649818 933481  86035 217500 371799
-  29410 849722 824396 209741 988735 425102 163863  92322 629176 409502]</t>
+ 531208 477889 410828 426984 649818   3404 933481  86035 217500 371799
+  29410 849722 824396 209741 988735 425102 163863 629176  92322 409502]</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12398,8 +12398,8 @@
       <c r="B364" t="inlineStr">
         <is>
           <t>[653450 431614 281842  48567 636391 452661 485287 556465 233127 558165
- 472467 786080 884230 470498 337081 550226 887609 697084 570863  49146
-  95949 971738 293751 599804 579097 652835 641200 100535 161309 209224
+ 472467 786080 884230 470498 337081 550226 887609 697084 570863  95949
+  49146 971738 293751 599804 579097 652835 641200 100535 161309 209224
  804434 429162 823466 768199 138985 400700 670543 790547 625878 343153
  897424 261884 521102 895323 384655 964663  72329 207728  32894 469781
  872516 255332 423274 318364  91506 708812 151879  14303 793734 751048
@@ -12503,7 +12503,7 @@
  666003 939862 446768 220466  12239 596751 997047 780810 254414 151232
  103428 769577 225693  93265 933236 180429 162641 322094 674084 372953
  337480 641938 283670 517996  11725 806464 292623 834680 542610  59087
- 425476 929428 271261 631907 876521 502741  59109 960415 279626 772843
+ 425476 929428 271261 631907 876521 502741  59109 960415 772843 279626
  687830 356347  95003  12533 948684 191749 925444 247947 948325 371683
  127093 131180  21921 162138 712699  93270 703715 584204 318930 172419]</t>
         </is>
@@ -12533,7 +12533,7 @@
  222565 836609 856859 599990 779184 253691 163856 175782 463253 190883
  544645 567189 962977 796065 302109 779754 981117 930070 484398 965058
  607086 548702 741408 463363 732028 951082 610027  87892 833016 521493
- 796088 557491 438359 438814 960113 243909 329975 310628 879513 894042
+ 796088 557491 438814 438359 960113 243909 329975 310628 879513 894042
  586100 600584 843858 435656 187372 244012 846801 273375 837956 768101
  860218 899312 950830 443587 577239 214930 822884 837973 983762 378722
  296108 880609 891483 999417 884205 721053 209867 243825 748646   5175
@@ -12631,8 +12631,8 @@
           <t>[421994 680304 722914 980517 731926 722915 186142 278890  13352 485551
  860936 748270 677032 600400 444711  58110 129707 437947 780697 973360
  782806 165451 233867 680446 211711 617929 336678 671734 365468 665434
- 141245 512069 878475 312586 987783  79396 169998 341199  70279  73933
- 322795 322919 396616 592618 618655 740092 846847 864785 904637 440969
+ 141245 512069 878475 312586 987783  79396 169998 341199  73933 322795
+ 740092 864785 904637 592618 396616 618655 322919 846847  70279 440969
  326443 282811 676083 364260 145961 961560 764179 210689 960483 805035
  887039 157399 989481 175373 475380 299247 553766 871694  77364 822842
  148293 162665 599744 138577 712185 340647 511772 243702 599717 543683
@@ -12698,7 +12698,7 @@
  869939 102639 692614 543711 462015 407278  87125  79333 708052 910673
  465386   9136 241305 546881 546878 128027 241694 112758  23841 748891
  348951 378114 855065 340832 746753 187568 901378 803379 828580 962043
- 618529 962184  51005 284523 465398 477812 277130 864331 999751 172731
+ 618529 962184  51005 284523 477812 465398 277130 864331 999751 172731
   56123 313279 310932 959979 207673 325281 884447 666743 335199 680629
  747905 408178   9057 692639  48620 778507 117692 999339 619404 327767
   73808 750875 119247 463199 623150 999509 433771 611719 284272 828495
@@ -12733,10 +12733,10 @@
  835643  70217 258184  63953 441945 296102 752837 968128 963287 710829
  860453 203386 459089 494318 396166 867301 602138 948147 619000 840218
  948169 305497 546221 954608 831790 559359 405535 684540 591341 618606
- 865302 559380 788152 515477 537120 738546 683435   1809 906850 931535
+ 865302 559380 788152 515477 738546 537120 683435   1809 906850 931535
  855490 808507 563424 268877 738073 860104 744385 877970 265990 623912
-  15286 601214 948151 411612 109391 369803  34503  81632 589317 391662
- 391744 957134 396158 887453 930349 788287 992261 107972 529332 488968]</t>
+  15286 601214 948151 411612 109391 369803  34503  81632 589317 391744
+ 391662 957134 396158 887453 930349 788287 992261 107972 529332 488968]</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -12762,7 +12762,7 @@
         <is>
           <t>[777799 847401 882478 462090 616042 399317 666331 949333 755660 367282
  911858 578834 283303 195955 664304 557126 153182 604733 706032 958354
- 392170 515249 720152 298591 609539 542302 605284 443245 129192 704002
+ 392170 515249 720152 298591 609539 605284 542302 443245 129192 704002
  597234  18642 504516  76754 730208 908860 521671 492212 265695 666081
  390376 547739 355720 650921 819903 415508 939209 750211  52531 879358
  321932 209191 211031 430180 468046 435844 284059  33636  18700 609524
@@ -12794,7 +12794,7 @@
       <c r="B376" t="inlineStr">
         <is>
           <t>[554876 894888 465160 772202 856560 122690  30019 830069 811799 888076
- 131451 230639 794086 794120 149391 500249 732504 905526  55277 855010
+ 131451 230639 794120 794086 149391 500249 732504 905526 855010  55277
  524749 184886 244156 405232 143862  59735 490673 263560  37208 236262
  837036   7903 228159 541076 580245 363846 326811 236791 698792 526937
  455117 865857 159196 684675 406641 170911 851017 207775 421395  37184
@@ -12802,7 +12802,7 @@
  600737 643100 633288 798823 769008 329616 605887 326818 869610 157294
  873774 837024 533980 729315 863736  71494  96095 320707 646358 146333
  692478 330200 225880 113340 212940 172030 748031 166685 759456 175159
- 571567  67305 961137  53694  74659 937969  78952 644113 952461 658021]</t>
+ 571567 961137  67305  53694  74659 937969  78952 644113 952461 658021]</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -12830,12 +12830,12 @@
  454090  49488 146214 892637 588411 589706 284835 267700 667186 400023
  565904 564950 269207 831784 753050 890813 944260 104857 962393 175804
  823182 433255 875571 417237 367288 141145 910621  89054 518691 565908
- 585117 997002 152546 835625 822726 873137 244343 747204 329126 573158
+ 585117 997002 835625 152546 822726 873137 244343 747204 329126 573158
  627520 700876 979563  35366 670515 257270 329969 698936  12433  57070
  532336 865247 488241 229196 634697 115943 670505 123928 710097 879264
  927026 625320 540035 320158 217534  64329  36024 738490  28955 584697
  753804 649114  52993 978381 631147 538010 880981 654590 245566 123646
- 708890  87568 645356  23642 400145 585097 220953 669549 200106 508908]</t>
+ 708890  87568 645356  23642 400145 585097 669549 220953 200106 508908]</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[956016 170034 976266 979191 728178 899806 216799 162871 785134  85624
+          <t>[956016 170034 979191 976266 728178 899806 216799 162871 785134  85624
  482431 994492 292623  64856 723496 595957 170035 588768 187506 187497
   50965  99601 722441 217680 805447  89976 590349 222208 994477 964794
  290464 823588 980904 238314 252412 433382 981586 162646 131180 338078
@@ -12881,7 +12881,7 @@
  0.4633 0.4634 0.4634 0.4637 0.4638 0.4639 0.4649 0.465  0.4652 0.4652
  0.4654 0.4655 0.4656 0.4656 0.4662 0.4662 0.4666 0.4668 0.4673 0.4676
  0.4679 0.4682 0.4691 0.4698 0.4698 0.4698 0.4698 0.4699 0.47   0.4702
- 0.4704 0.4706 0.4708 0.471  0.4711 0.4713 0.4713 0.4714 0.4716 0.4717
+ 0.4705 0.4706 0.4708 0.471  0.4711 0.4713 0.4713 0.4714 0.4716 0.4717
  0.4717 0.4717 0.4718 0.472  0.4721 0.4725 0.4728 0.4729 0.4729 0.4729]</t>
         </is>
       </c>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[146047 486894 408614 615111 540954 540999 146035 206333 146054 444168
+          <t>[146047 486894 408614 615111 540999 540954 146035 206333 146054 444168
  994117 146043 327587 664923 805505 106937 442211 106914  14177 838219
  941608 716636 545225 435694 746665 643767 146052 805529 967480 388318
  119436 332313 535151 952016 291705 914577 907820 187000 392616 214678
@@ -12961,13 +12961,13 @@
           <t>[656358 736833 320247 687289 937922 429980 721000 110413 728188 124762
  124632  13948 778824 350581 989966 272851 377340 818445 353664 826862
  322959 692299 750435 497720 838803 249978 661385 308093 417803 250898
- 399250 273855 627876 627908 723668 458332 695456 510508 121895 644559
+ 399250 273855 723668 627876 627908 458332 695456 510508 121895 644559
  253745 705657 789528 276277 117173 841349 736832  52677 537827 654418
  635543 715030 594103 344922 306285 375451 415715 587309 306690 635567
  916436 770285 570255 371466  70627 299689 778342 606362 230519 162853
  289749 429436 933792 470457 585396 799210 709229 559675 230568 135834
   91239 979103 222555 368318 379640 498312 714324 907710 822067  96769
- 206032 178984 693048 460505 438722 316590 650112  47611  47729 944990]</t>
+ 206032 178984 693048 460505 438722 316590 650112  47729  47611 944990]</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -12994,7 +12994,7 @@
           <t>[283084 172735 863732  22177 751667 367411 755941 642887 565436 701107
   16464 523619 284155 820422 521364 623415 446563 233741 392181 853139
  836390 689122 410337 638996 539452 325020 407400 544186 654577 575740
- 598497 922551 824566 825078 301612 656001 442484 881939 133524 517784
+ 598497 922551 825078 824566 301612 656001 442484 881939 133524 517784
   67829 402854 250832 242889 287349 251416 416820 948198 831357 933983
   94904 224669  32143 867357 524557 748463 407856 352489 602954 470038
  677437 657986 629752 265344 449431  43080 580531 108688 399004 834044
@@ -13027,12 +13027,12 @@
           <t>[823826 273409 227207 522975 867364 657523 116133 823244 860076 267700
  942351  96129  43095 319355 736366 426164 829892 585836 726234 796829
  620989 685420 114465 850006 463558 833717 272835 218887  89350 206925
- 736560 540035 541916  56209 941877 189404 335968 119079 355448 582039
+ 736560 540035 541916  56209 941877 335968 189404 119079 355448 582039
  705894 824388  38076 299595 377738 284519 768624 770212 872882 400079
- 290222 845435 516786 652113 482693 853838 642654 504246 519822 413608
+ 290222 845435 516786 652113 853838 482693 642654 504246 519822 413608
  598470 320821 520931 394743 519826 247249  13362 629180 772942 665788
- 648580 366824  82515 756726 765224 377664 211013  89049 655013 284700
- 962077 191462 348606  78747 867264 483283 445981 855424 279488 547981
+ 648580 366824  82515 765224 756726 377664 211013  89049 655013 962077
+ 284700 191462 348606  78747 867264 483283 445981 855424 279488 547981
  141958  37189 666803 566746 666782 568951 335969 548057 821932 263800]</t>
         </is>
       </c>
@@ -13064,7 +13064,7 @@
  755082 623102 612932 958785 957527 516124 332530 106435 172431 812554
  591128 191923 459094 905777 779839 764660 998706 189788 551304 923486
  846744 609088 358957 432162 481964 282202 716108 917373 609047 828127
- 359206 907058 727390 571184 429097 740717  26958 947172 702911 772807
+ 359206 907058 727390 571184 429097 740717 947172  26958 702911 772807
  560998 918066 380505 268309 789841 405265 703590 125335 937077 915061
  397130 201913 358959 410506 150112 496351 295709 862885 345341    608]</t>
         </is>
@@ -13090,16 +13090,16 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[830233 240192 268225 127797 341010 134895 284473 896743 482734 464373
+          <t>[830233 240192 268225 127797 341010 284473 134895 896743 482734 464373
  912038 557767  13921 911743  20470 769866 830771 265855 992937 412859
  112285 590574  31624 769876 834300 384793 783572 912701 324510 102763
  328696 707283 407888 636568 775410 518020 625624 285045 227396 419512
  849066  16131 222112 825652   3205 937600 617078 957396 853450 624604
  791146 129752 112964 321522 136864 452085 671316 144419 668142 680058
- 463684 385249 116848 195899 513149 959805 854843 285628 135164 771246
-  13919  34603 354287 631127 225949 419261 124792 153822 174494 739060
+ 463684 385249 116848 195899 959805 513149 854843 285628 135164 771246
+  13919  34603 354287 631127 225949 419261 124792 174494 153822 739060
  758951 616213 854811 726889 782524   9205 895835 110953 549222 252046
- 100030 100052   9203 961079 112036 526309 511834 225835 345497  48429]</t>
+ 100052 100030   9203 961079 112036 526309 511834 225835 345497  48429]</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13257,8 +13257,8 @@
         <is>
           <t>[313292 357427 548730 452304 501597 712109 483292 390166  34154 939841
  893387 577144 730910 595737 773169 902109 258961 238177 257061 396452
- 756726 765224 566746 294506 508154 686741 417719 554713 894726 904400
- 566560  53239 594543 899215 184124 284206 284205 555761 482693 853838
+ 765224 756726 566746 294506 508154 686741 417719 554713 894726 904400
+ 566560  53239 594543 899215 184124 284206 284205 555761 853838 482693
  979825 248647 630772 745228 849325 821083 742114 352018 743398 998493
  210689 424010 726038 605439 172650 379177 150921 864939 184872 989177
  995335 184876 861218 385001 638860 142710 579920  67624 236635 903262
@@ -13359,7 +13359,7 @@
  120683 260884  64693 290201 696660 685495 569836 694462 637393 664107
  337103  32392 562930 620657 199665 103372 735323 666781 819426 135378
  274254 659086 374745 281992 275176 301775 150762 461730 513157 959814
- 318238 957913 513147 959803 518423 773357 940689 383828 379102 495546
+ 318238 957913 959803 513147 518423 773357 940689 383828 379102 495546
  225799 250872 262124 374746 265699 304694 123677 664104 365031 562320
  589200 228763 559367 563870 383847 961378 135243 364128 608463 440134
  961438 391050 597185 620176 419577 291065  64788  51849 206504 190034
@@ -13394,7 +13394,7 @@
  447343 447378 204481 771288 215797 288544  91748 545219 846840 128022
  857301 961164 213767 278233 400518 494730 278208 593609 584914 200846
  920593 218862  49510 662977 305013 336756 610966 804839 876950 520683
- 560768 593616 404098 119515  23650 321524 676385 748869 624342 701904
+ 560768 593616 404098 119515  23650 676385 321524 748869 624342 701904
  693530 562606 889186 750901 291065 167990 735440  33834 119255 569833
  520145 202385 885999 610949 786193 585672 738959  59418 548055 721980]</t>
         </is>
@@ -13421,10 +13421,10 @@
       <c r="B395" t="inlineStr">
         <is>
           <t>[590540 284817 207704 374394 115709 171757  92020 664827 360187 459242
- 616508  58948 704208 866962 872761 816393 248766 407485 407510   1391
+ 616508  58948 704208 866962 872761 816393 248766 407510 407485   1391
  893748 759844  91624 653028 475916 916924 492015 900076 698913 512256
  985364 405473 272089 503829 509424 802057 945999 801581 901735 274011
- 253722 608521 837592 420539 203410 905618 905672   8466 281959 549910
+ 253722 608521 837592 420539 905672 905618 203410   8466 281959 549910
  664845 784314  45748 348145 896853 223984 831801 384403 726072  45325
  198992 619587 397705 381370 252477 855670 913261  29721  89383 340105
  479998 293962 892582 859488 226811 637399 399367 250867 456512 551382
@@ -13461,7 +13461,7 @@
  742122 901899 406626 926021 251808  32833 767198  55278 530465 285977
  752420 457092 378803 558638 152089 923939  45647 652608 776242 384363
  119091 862717 589282 566246 261335 571998 974312 194380  32052 533786
- 425885 356965 868659 466677 845077 951063 483798 526947 374288 374365
+ 425885 356965 868659 466677 845077 951063 483798 526947 374365 374288
  641354 377853 655551 599215 836033 102205 473118 823423 842945 305208]</t>
         </is>
       </c>
@@ -13535,7 +13535,7 @@
         <is>
           <t>[1.3541 1.3556 1.3601 1.3643 1.3709 1.379  1.3792 1.3806 1.381  1.3861
  1.3864 1.3911 1.3919 1.395  1.3965 1.4026 1.4039 1.4045 1.4057 1.4059
- 1.4071 1.4074 1.4101 1.4115 1.4131 1.4134 1.4138 1.4141 1.4171 1.4191
+ 1.4071 1.4074 1.4101 1.4115 1.4131 1.4134 1.4138 1.4141 1.4171 1.419
  1.4197 1.4213 1.4242 1.4256 1.426  1.4261 1.4263 1.4265 1.4281 1.4289
  1.4291 1.4315 1.4328 1.4342 1.4344 1.4346 1.4348 1.4351 1.4357 1.4358
  1.4358 1.437  1.4377 1.4386 1.4387 1.4387 1.4394 1.4395 1.4404 1.4404
@@ -13592,7 +13592,7 @@
  272222 311236 729656 640270 643587 306444 522524 183634 885623 305941
  247786 794567 466028 330576 451554 809694 145351 979233 293444 298870
  189703 960597 960684 511602 902403 964417 661405 572921 283133 524622
- 311932 311962 757946 463828  63500 955635 489248 425167 363050 633778
+ 311962 311932 757946 463828  63500 955635 489248 425167 363050 633778
  863521 290536 699001 524648 652834 751685 299240 988337 906165 541022
  734138 725519 823135 203938 612025 565766 331182 393928 300792 255780]</t>
         </is>
@@ -13637,7 +13637,7 @@
  1.3665 1.3676 1.3699 1.3708 1.3712 1.3723 1.3724 1.3731 1.3787 1.3815
  1.3816 1.3817 1.3837 1.384  1.3842 1.3848 1.3853 1.3866 1.3876 1.3877
  1.3894 1.3902 1.3909 1.3913 1.3915 1.3924 1.3925 1.394  1.3945 1.3946
- 1.3946 1.3947 1.3956 1.3959 1.3959 1.3961 1.3965 1.3966 1.3979 1.398
+ 1.3946 1.3947 1.3956 1.3959 1.396  1.3961 1.3965 1.3966 1.3979 1.398
  1.3981 1.3982 1.3989 1.3991 1.3993 1.3996 1.3998 1.4    1.4002 1.4005
  1.4014 1.4018 1.4019 1.4023 1.4024 1.4025 1.4033 1.4035 1.4043 1.4046
  1.4058 1.4061 1.4062 1.4062 1.4065 1.4067 1.4074 1.4077 1.4079 1.4081
@@ -13652,7 +13652,7 @@
       <c r="B402" t="inlineStr">
         <is>
           <t>[857775 353983 116241 727722 698073 727737 548461 973115 266735 706936
- 124533 266732  33807 498872 568632 280844 132359 214762 722052 929131
+ 124533 266732  33807 498872 568632 280844 132359 722052 214762 929131
  745544 343314 406310 397015 355001  41123 605418 362542 411521 862222
  985328  62630 740923 211036 443076 207099 818785 981302  73764 912162
  585530 672678 480232 971714 452304 602785 828210 794820 512563 319141
@@ -13750,7 +13750,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[188210 886108 700742 839044 829980  51843  85838 527769 621481 744518
+          <t>[188210 886108 839044 700742 829980  51843  85838 527769 621481 744518
  256664 218127 719493 303188 635800 214893 980792 415732 623107 394787
  904474 256008 408340  64712 703833 446383 441156 722014 355395  31115
  737646  73625 216683 376712 319383 167367 244084 961109 821803   9262
@@ -13785,7 +13785,7 @@
         <is>
           <t>[791416 259275  67625 257036 259265 966086 596211 627546 114493 978109
  751728 814338 555788 751719 752965 789005 436309 629828 837291 639491
- 225502 306042 210971 681633 380702 110955 263746 438940  54237  54268
+ 225502 306042 210971 681633 380702 110955 263746 438940  54268  54237
  675722 151352 812184 452234 315678 451211 234224 101622 960546 626032
  823546 279863   3834 696378 240380  23293  89093 346864 110176 911545
  925912 395840 135923 507621 356422 253172 560859  44119 530273  55985
@@ -13819,7 +13819,7 @@
           <t>[191165 849180 320079 451122 164289 900933 167681 713017 916661 842521
   89742 126018  68737 870850 186016 150921 207725 663266  85885  52752
  509490 120997 660141 813508 855114 990465 233631 150922 486920 654860
- 613857 724198 882125 282349 509485 964528 115431 742346 672903 451253
+ 613857 882125 724198 282349 509485 964528 115431 742346 672903 451253
  172635 457272 180656 652730 638512 719063 459980 723451 590118 110987
   18034  74553 277235 852783 909850 586137 821053 836115 805589 781755
  533859  95246 570512 364916 282588 172022 371137  85063  92353 716840
@@ -13858,7 +13858,7 @@
  567972 112780 975276 902391 770781 816543 141916 377903  31115   6410
  960574 680295 356640 729804 724629 871651 827267  63225 708137 387841
   63077 617844 293920 929680 931053 554598 375702 637624 808449 560587
- 397504 459762 516930 708129 708131 735129 428576 187154 263056 796419]</t>
+ 397504 459762 708129 516930 708131 735129 428576 187154 263056 796419]</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -13889,7 +13889,7 @@
  628058 650955 997765   2279 755447 718905 558553 981532 171024 375259
  113281 360663 785505  31284 698254 757378 920450 945240 506118 969326
  933459 965110 475310 642970 198722 889256 885709 620903 782845 928716
- 421430 661511 725098 845892 145738 580520 163533 628849 897568 897031
+ 421430 661511 725098 845892 580520 145738 163533 628849 897568 897031
  688475 253719 174995 875203 637279 899068 942439  29627 669159 917089
   32883 518100 954285 663288 398261 928617 560575 605127 894994 878307]</t>
         </is>
@@ -13953,9 +13953,9 @@
  344853 879745 968437 550349 832498 311957 829294 891923 822451 662150
  899087  96880 600621   8813 480761 990330 775447 812956 778753 814708
  627567 862553 188654 495048 547417 375565 889221 256044 776578 179333
- 472837 211663 136807 580724 536635 886248 882102 955208 937030 360077
- 521499 766777 438147 347164 499737 681765 873459 282275 600353 892142
- 578271 656813 832263 209687 601083 970584 265051 392189 845351 455341
+ 472837 211663 136807 580724 536635 886248 882102 955208 937030 521499
+ 360077 766777 438147 347164 499737 681765 873459 282275 600353 892142
+ 578271 832263 656813 209687 601083 970584 265051 392189 845351 455341
   73053 394265 334681 966614 760426 337079 137369 916616  52727 719360
  987757 382616 936731 318737 527657 292681  17473 467134 458546 986409]</t>
         </is>
@@ -13981,13 +13981,13 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>[251794  58969 584527 777960 117460 166375 974672 115307 647574 730708
+          <t>[251794  58969 777960 584527 117460 166375 974672 115307 647574 730708
  544300 660558 362640 612995 908560 872372 146512 478756 311739 601719
  915239 530270 888531 790757 608260 272425  12190 138427 259912 155857
  884328  29672 500877 735726 217118 874535 444616 897389 554824 442967
  432551 288331 182557 896622 321199 440933 379748 101062  66143 560112
- 395258 561455 561665 548552 466610 229695 390982 476540 718896 982482
- 375866  67670 146999 380705 304238 227953 899724 769474 776259 975436
+ 395258 561665 561455 548552 466610 229695 390982 476540 718896 982482
+ 375866  67670 380705 146999 304238 227953 899724 769474 776259 975436
  624405 856571 314638 909952 399688 876352 876382 856194 338143 447788
  784744 600907 954996 598746 636986 913201 235141  96564 306366 179278
   70756 726350 902412 338156 938402 729656 719093  51106 438791 915982]</t>
@@ -14051,9 +14051,9 @@
  815829 134529 742882 843894 193708 355468 580892 997005 682753 254583
  964581 871201 815588 815258 600104 579301   5289 427813 209250 730244
  567446 918654 795853 531105 830140 608770 286377 203428 232231 459599
- 461185 820105 147282 527886 527856 132189 465380 958865 966240 604406
+ 820105 461185 147282 527886 527856 132189 465380 958865 966240 604406
  532875 868003 919609 515889 971375 970143 146323 161834 730210 204994
- 458945 978484 600475 978462 180902 673215 232205 532858 404048 724008
+ 458945 978484 978462 600475 180902 673215 232205 532858 404048 724008
  369790 984513 635769 966279 309929 101885 634979 966230 656947 731207
  749742 442967 136660 670756 465379 966220 802057 400324 868020   5458
  431262 584924 348218 124563 978463 550261 670409 430841 720215 522744]</t>
@@ -14118,11 +14118,11 @@
  544300 735921 391132 467118 474166 164224 735440 561852  27196 318669
  230822 875881 308215 678482 576060 686720 489157 641785  33844 247656
  275154 855653 415933  33858 179278 450419  13807 710564 396588 862653
- 405521 405549 696717 744765 216658 409190 460569 307386 722489 370865
+ 405549 696717 405521 744765 216658 409190 460569 307386 722489 370865
  771956 125384 597205 562653 352967 131911 666868  39827 639394 430702
  746184  82528 884973 797836 719686 788709 860261 734581 582903  33872
- 593534 265545 376735 168373 610739 208294  14044  72893 643072 618498
- 853544 445401  26756  88215 258422 131982 357708 357737 808141 191267]</t>
+ 593534 265545 376735 168373 610739 208294  14044  72893 643072 853544
+ 618498 445401  26756  88215 258422 131982 357708 357737 808141 191267]</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14181,11 +14181,11 @@
         <is>
           <t>[210293 422390 440933 187112 923243 519234 238322  12839 711755 150162
  522961 579441 527769 741208 474358 861817 859687 205412 239216 308038
-  73869 935660 595846 942567 168745 979985 962869 903216 197519 197681
+  73869 935660 595846 942567 168745 979985 962869 903216 197681 197519
  625678  11778 688710 890849 601268 886108 559372  82971 621026 146427
  505365 386578 139764 256664 167990 719695 908933 576039 120616  73901
  283910 868470 464895 700754 391766 166432 415492 660101 680114 381656
- 188356 460368 724147 459703 706574 873691 596862 667915 962849 962975
+ 188356 460368 724147 459703 706574 873691 596862 667915 962975 962849
  143774 341956 874535 892317  73852 158900 249798 128870 115314 220823
  735746 771016 305566 982315  25742 306941 504049 262670 560112 306366
  355907 181051 707005 530270  33048 702731 935418 893605 467720 993832]</t>
@@ -14351,7 +14351,7 @@
  284980 950962 481098 316389 743584  70805 692909 714471 515610 292497
  260652 257726 515599 498838 673163 747144 903972 479269 264037 181053
  880645 352568 164053   5144 410176 703539 295150 540332  27641 172221
- 737152 546664 546685 417959  18006 527826 606162  17617 386928 535682
+ 737152 546685 546664 417959  18006 527826 606162  17617 386928 535682
  421049  48059 268554 496171 728643 430010 414840 783330 321093 733999
  367722 609428 910219 550858 620280 941439 694977 529131 641905 613157]</t>
         </is>
@@ -14382,7 +14382,7 @@
  930343 673196 755165 503351 801748 955825 544407 572571 419704 489818
  108636 700575 216153  80844 951349 475773 821531  14525 694865 420301
  517979 281564  52638  12209 999415 635870 365706 954727 158834 109911
- 558009 571191 243067 486258 296044 463236 588212 614287 168312 124512
+ 558009 571191 243067 486258 296044 463236 614287 588212 168312 124512
  106653 859579 514320 411864 365690  46888  89219 212339 137925 318829
  886939 360400 508019 285776 229273 291901 999421  74222  42485  11859
  611644 272512 690696 518177 229583 617410 654488 990088 132555 694859
@@ -14476,7 +14476,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[146478 768513 703750 624896 405103 250875 760265 147090 424309 493255
+          <t>[146478 768513 703750 624896 405103 250875 760265 147090 493255 424309
  305558 585731 205369  26396 752975 977211  26234 186659 465606 497834
  603773 460441 238322 927245 587167 716108 250870  91076 368685 532787
  489309 959865 444634 270897 357915 276710 837146 307825 374589  32436
@@ -14509,13 +14509,13 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>[333115 600455 689880  31432 814298  35560  42386 599663 427635 232273
+          <t>[600455 333115 689880  31432 814298  35560  42386 599663 427635 232273
  310508 112308 204811 100887 373844 351756 925883 777601 103700   3239
  147262 380968 435648 261849 805128 814203 368328 817474 373583  11338
  191764 911381 539667 368269 523753   4912 189016  85488 498589 351751
  930305 317048 481286 795656 282804 554609 243868 228979 735191 275142
  886627 227401    889 669846  88937  41562 632391  64518 457045 685291
- 317878 318037 958246 535445  29478 257947 244474  55222 715590 966194
+ 318037 317878 958246 535445  29478 257947 244474  55222 715590 966194
  488058 733696 631518 836259 676570  93194 211436 293956 578491 990197
  430578  58425 496834 303687 312945 667069 450224 123704 700302 423995
  552238 621006 446636 194965 191773 770409 917149 294433 323574  40562]</t>
@@ -14547,7 +14547,7 @@
  772190 850900 270209 263904 862041 222919 914527 447947 833793 176384
  456512 601214 383969 561854 381940 421866 917931  11898  46072 100874
  447802 588746 848991 732984  53124 905740 787307 107023 776063 563090
-   5281 435567 215559 432276 918085 700902 984019 799710 227593 443387
+   5281 435567 432276 215559 918085 700902 984019 799710 227593 443387
   90196 776019 123585 516195  27526 338438 806433 229355 282818  78586
  395496 848623 630720 767964 904741 632232 593740 721024 756702 873042
  713998 905648 534418 628372  72536 784230 445998 699661 767518 854292
@@ -14616,7 +14616,7 @@
  836971 384734  23753 191422 247669 761549 355000 394927   3404 649818
  742303 523577 141668 520992 585944 190818 247490 904386  10971 364758
  429717 785976 834167 576659 798569 385526 408036 219933 620976 613402
- 877199 520485 249109  57740 981465 119687 899129  13940 692530 504043
+ 877199 520485 249109 981465  57740 119687 899129  13940 692530 504043
    4786 721183 786309 624394 838956  75921 411854 620974 746812 189717]</t>
         </is>
       </c>
@@ -14677,7 +14677,7 @@
           <t>[728953 452754 856376 425599 452148 727005 504485 404958 856126 339935
  433657 474633 680716 937470 447367 385040 205139 911628 417842 406366
  730217 730781 374145 152437 961550  70452 723836 485104 348858 983976
- 883333 737981 738006 457849 320512 489151 672659 110318 752595 260464
+ 883333 738006 737981 457849 320512 489151 672659 110318 752595 260464
  406367 919525 763709 756612 398097 832203 940410 690368 594588 136111
  831368 938333 422833  73095 832115 604939 252959 429250 160000 621182
  655208 415422 128239 315159 990033 515694 980238 714163  51146 656000
@@ -14713,9 +14713,9 @@
  350588 151649  81190 784138 332949 908206 435140 881601 661985 212075
  439653 819250 527929 391197  53462 633254 611587 864694 263885 963706
  812167 103128  46697 360301 807056 274632 569531 996509  61741 153929
- 476739 711630 795175 171219 716514  78522   1936  42834 925783  58620
+ 476739 711630 795175 716514 171219  78522   1936  42834 925783  58620
  515873 787886 505973 424757 153948 277716 905696 681394 882753 506120
- 631152  78517 781724  32918 301785 650524 775488 810729 915931 934344
+ 631152  78517 781724  32918 810729 934344 650524 301785 915931 775488
  242449 797760 441124 570416 132687 670058 557133 131615 958257 770964]</t>
         </is>
       </c>
@@ -14779,10 +14779,10 @@
  860760 154246 244021 706944  57929 865020 738479 501932 890029 201811
  624038 759065  32702 470135 537598 882148 391412 109343 974044 555608
  518936 376530 842238 248721 381521 294830 203482  64834 930220 941797
- 324616 579482  21930 458339 544520 716875 672231 487492   1048 630472
+ 324616 579482 458339  21930 544520 716875 672231 487492   1048 630472
  355382 190362 967951 842264 931559 620271  13099 418411 310661 104437
   39382 617268 291028 614735 189461  48796 383726 805336 595245 683794
- 993164 287612 951259 458338 630329 802791 799449 501927 666985 366873]</t>
+ 993164 287612 951259 458338 802791 630329 799449 501927 666985 366873]</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -14826,7 +14826,7 @@
  2.1202 2.122  2.1233 2.1256 2.1273 2.1287 2.1308 2.1316 2.1331 2.1342
  2.1348 2.1358 2.1359 2.1365 2.1369 2.1378 2.1383 2.139  2.1393 2.1393
  2.1396 2.1399 2.1419 2.1425 2.143  2.1439 2.1467 2.1484 2.1487 2.1491
- 2.1507 2.1516 2.152  2.1539 2.154  2.1546 2.1547 2.155  2.1556 2.1564
+ 2.1507 2.1516 2.1521 2.1539 2.154  2.1546 2.1547 2.155  2.1556 2.1564
  2.158  2.1586 2.1588 2.1601 2.1604 2.1624 2.1624 2.1643 2.1647 2.1648
  2.1648 2.1658 2.1666 2.1676 2.1681 2.1689 2.1704 2.1712 2.1712 2.1713
  2.1713 2.1719 2.1721 2.1724 2.1728 2.1728 2.1735 2.1744 2.1744 2.1752]</t>
@@ -14848,7 +14848,7 @@
  441902 463184 282984 696634 353092 707151 288549 355777 526813 163731
  182665  92540 537940 976810 682324 328081 353078 603472 876517 830660
  349290 898305 937591 665158 410759 795925 585396 314519 808306 104694
- 977095 493304 493522 821820 846877 393512  87239 433762 193889 193948]</t>
+ 977095 493522 493304 821820 846877 393512  87239 433762 193889 193948]</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[296164 149823 871221 251177 245953 640698 789436 612994 147694 457206
+          <t>[296164 149823 871221 251177 789436 640698 245953 612994 147694 457206
   65091 667382 941744 743953 150854 483968  26299  19440 629764 841056
  835017 819065 163017 594327 652505 714290 698214 349738 676579 851465
  833842 127308  12594 602351 659419 513755 680540 623475  67980  45277
@@ -14977,7 +14977,7 @@
  141910 756702 933478  49541 160167 374630 932381 783472  63101 710621
  720122 385678 153048 961561 296932 895045 439574  63109 654219 240037
   34229 257707 847689 516190 443980  32646  32745   8371 509721 159492
- 130384 130318 276603 550199 707348 347932  25704  27216 283500 964306
+ 130384 130318 276603 550199 707348 347932  27216  25704 283500 964306
  384473 659005 580693 270897 783370 374663 704483 694753 592632 384428
  634269 126322 860714 847678 101235 303146 354838 405473 953360 489388
  821982 742867 160534 107709 107133 947852 938402 194423  90523 417786]</t>
@@ -15010,10 +15010,10 @@
  637200 243852 210805 824663  33046 512327 109065 390505 703147 990451
  273850 110699 247135 468740 337554  98202 113402 105708 571624 701093
  756726 765224 734451 748879 566746 433593 636853 992418 644149 164307
- 396739  22672 150307 314047 338661 487062 128465  18500 806411  27275
-  27303 353059 123369 432823 494660 383000 578426 499154 545036 814003
- 741437 362611 791952 602341  73082 692330 449880 302428 594483 753383
- 794203 939283 555826 368609 433398 425041 660282 506966 928226 649136]</t>
+ 396739  22672 150307 314047 338661 487062 128465  18500 806411  27303
+  27275 353059 123369 432823 494660 383000 578426 499154 545036 814003
+ 741437 362611 791952 602341  73082 692330 449880 302428 594483 794203
+ 753383 939283 555826 368609 433398 425041 660282 506966 928226 649136]</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15037,7 +15037,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[459491 230483 530545 685731 813842 434993  65977 198181 228391 987443
+          <t>[459491 230483 530545 685731 813842 434993  65977 198181 987443 228391
  886833 921437 887270 167198 631895 638605  79665 491406 502253 945930
  967542 401954 154233 543183 881018 240479 739339 698764 713084  13959
  711853 387874 822214 454555 169112 945794 162263 366369 658920  85000
@@ -15073,11 +15073,11 @@
           <t>[201124 794627 591558 924831 533202 199099 440453 943490 228233  60305
  370708 310863 515196 994519  73697 186204  66568 569812  35363  73719
  868022  92693 515193 158408 480061 278652 536157   9170 384848  40990
-   4449  66660 987338 419351 928345  22760 903992 415594 686288  41334
+   4449  66660 987338 928345 419351  22760 903992 415594 686288  41334
  987291 115728  65145  65605   8885 175356 896677 252254 274716 673582
  697964 827131 884442 432818 710722 977031 434955 532985 121171 688999
- 178301 684675 348562 854969 133325 751441 175378 555938 553558 190060
- 590457 783310  96138 683665 199858 948260 414167 854853  31590 326849
+ 178301 684675 348562 854969 133325 751441 175378 555938 553558 590457
+ 190060 783310  96138 683665 199858 948260 414167 854853  31590 326849
   67432 955700 560766 720826  34539 133998 904000 127348 272777 415054
  816993 944729 914154 131683  74956   2941  89817  79787 372503   5678]</t>
         </is>
@@ -15137,13 +15137,13 @@
       <c r="B447" t="inlineStr">
         <is>
           <t>[357275 580014 497883 731326 293682   8867 906470 322223 597205 395058
- 534619 225686 497204 870620 881957  96636 398606 210493 363335 990593
+ 534619 225686 497204 881957 870620  96636 398606 210493 363335 990593
  241424 773545  48086 485046 616339 256968 987277 385928 260094 783103
  249660 187454  40391 616230 199787 256995 779159 690489 343573 786590
  616330 560270  56710 131419 695335 308468 884055 162011 188293 108048
  150910 527840 341476 177913 706228 844873 518374 682817 646461 143043
  935626 423128 700272  41330 900076 277351 176675 339897 209293 697038
- 253355  33279  33334 957094 504823 199016 406938 415164 504105  46041
+ 253355  33279  33334 957094 504823 406938 199016 415164 504105  46041
   37325 898440 159591 528918 364767 977423 233612 972292 511654 156218
  603800 934892 521734 200817 959031 827438 620976 923386 860076 292548]</t>
         </is>
@@ -15174,11 +15174,11 @@
  169287  32425 108055 321871 657241 168453 820616 746262 638036 247003
  855724 530047 177781 177867 305644 798258 786744 623788 366545 385495
  523292  73651 460632 605822 528785 289069 171520 629044 410837 340983
- 114523 262361 460627  78322 335648 571489 855618 150993  43898 618498
- 853544   2954 250865 738165 354761 664384 562443 886144 583171 644262
+ 114523 262361 460627  78322 335648 571489 855618 150993  43898 853544
+ 618498   2954 250865 738165 354761 664384 562443 886144 583171 644262
  335696 654915 274263 699292 562166 406977 900594 918333 535873 788677
   98198 242570 199385  75098 867841 923472 587251 287688 756850 666097
- 991929 190160 859870  78656 977189 878446 740004 829712 829746 946980]</t>
+ 991929 190160 859870  78656 977189 878446 740004 829746 829712 946980]</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15210,7 +15210,7 @@
  448476 291008 428436 767020 351233 797425  53929 544093  20337 512316
  164344 997928 801907 260158 732085 954083 382309 155025 520824 643031
  910679 249292 161673 228074 451478 234252 227577 925404  18881 813094
- 855286 798184 698214 638327 284980 845670 373485 794774 794850 884679
+ 855286 798184 698214 638327 284980 845670 373485 794850 794774 884679
  373121 447450 335242 858373 477666 846365 317760 892744 456844 701619]</t>
         </is>
       </c>
@@ -15239,9 +15239,9 @@
  932712 323907 341095 945081 798801 712233 130153 416942 681911 144352
  941964  79612 368167 217924  16960 463586  86273 199491 332000 299595
  521506 431491 983817 537308 647934 209572  22906 344643 364978 367211
- 772047 539072 539167 322471 584583 351937 308079 804416 623004 209552
+ 772047 539167 539072 322471 584583 351937 308079 804416 623004 209552
  583865 243916 435222 539098 561852 191269 990190 264595 216113 237858
- 108103 659344 670015 123657 123719 670016 461404 110650 465205 332827
+ 108103 670015 659344 123657 123719 670016 461404 110650 465205 332827
  349213 622965 966440 284624 326655 983544 367945 207193 106107 411130
  184959 362248 439058 874268 955965 589997 250923 617697  31006  39893
  907927 118386 704500  16975 588299  83640 151054 167674 101927 822175]</t>
@@ -15302,14 +15302,14 @@
       <c r="B452" t="inlineStr">
         <is>
           <t>[  9670 810979 306440 433762 636236 632241  78960  73236 634659 505831
- 358215 841990  14457 701801 619342 554175 969020 216648 376702 976513
- 335597 398746  46860 821828  35087 728197  73214 617862 116808  97248
- 451757 448365  70217 654383  45149 902758 802024   9813 263691 923476
+ 358215 841990  14457 701801 619342 554175 969020 376702 216648 976513
+ 335597 398746  46860 821828  35087 728197  73214 617862 116808 451757
+  97248 448365  70217 654383  45149 902758 802024   9813 263691 923476
  918661 787307 139907 269197 918647 398747  59767 841369 979103 559675
- 100673 453205 868046 162028 902393  21256 352643 400293 696969 708925
+ 100673 453205 868046 162028 902393  21256 352643 708925 696969 400293
  951669 961548 779594 451265 730513 411189 397986 926834 247753 878828
- 926626 355402 708234 860103 926492 948483 961300 808164 945143 353599
- 236758 219874 641973 256521 435144 376409 135253 910378  13927 324275
+ 926626 961300 355402 926492 860103 708234 948483 808164 945143 353599
+ 236758 219874 641973 435144 256521 376409 135253 910378  13927 324275
  365565  42909 870057 878462 376707 443356 294263 748603 583362 411999]</t>
         </is>
       </c>
@@ -15337,12 +15337,12 @@
           <t>[  9670 810979 306440 433762 632241 634659  73236 505831 636236  78960
  358215 554175 701801 969020 841990  14457 619342 216648 376702 976513
  728197 398746 821828  73214 335597  46860 617862  35087 448365 654383
- 116808 802024  45149 902758  70217   9813  97248 451757 263691 923476
+ 116808 802024  45149 902758  70217   9813 451757  97248 263691 923476
  787307 398747 918661 139907  59767 269197 559675 918647 868046 100673
  902393  21256 352643 841369 808164 453205 779594 730513 451265 397986
- 979103 376707 641973 411189 162028 376409 236758 400293 696969 708925
- 951669 961548 411999 247753 412000 353599 945143 256521 435144 748603
- 219874 878828 926626 926834  13927 355402 708234 860103 926492 948483
+ 979103 376707 641973 411189 162028 376409 236758 708925 696969 400293
+ 961548 951669 411999 247753 412000 353599 945143 256521 435144 748603
+ 219874 926626 878828 926834  13927 926492 708234 860103 355402 948483
  961300 878582 365565 331956  42909 253722 870057 583362 135253 910378]</t>
         </is>
       </c>
@@ -15471,11 +15471,11 @@
  785894 285435 950299 711190 120199 697991 380169 656972 380189 109254
  260179 480639  42106 763008 566327 204785 189070 738901 120230 478246
  994546 230152 776019 964831 265936 266408 971456 382907  68135 671974
- 194618 194646 738155 232316 123960 887453 707153 880979 434785 510738
- 890523 364646 231479 955554 110091 776063 800427 167382 355850 448095
+ 194646 194618 738155 232316 123960 887453 707153 880979 434785 510738
+ 890523 364646 231479 955554 110091 776063 800427 167382 448095 355850
  883529 937332 664865 327402 214628 163488 355836 108350 277218 385513
  504033  92750 287777 866131 301312 671288 160600 434914 941946 274840
- 836481 836505 108090 954627 552518 311229 761014 396166 641081 273745]</t>
+ 836505 836481 108090 954627 552518 311229 761014 396166 641081 273745]</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15500,7 +15500,7 @@
       <c r="B458" t="inlineStr">
         <is>
           <t>[647969 519748 674894  67980 787159 652736 594327  32510 886108 852628
- 810417 725812 350913 238231 930498 675682 407574 329494 522650 418905
+ 810417 725812 350913 238231 930498 675682 407574 522650 329494 418905
   77313 260068 421323 121415    441 349738 162573 285989  35967 754873
  331108 632374 547958 567833    351 276627  75763 479326 688710 255392
   61597  10321 760426 961435  12376 272999 209722 645743 400425 719055
@@ -15541,7 +15541,7 @@
  215523 920344  62745 175183 310554  54709 809757 903834 966798 587087
  519358 207724  58728 702550 229635 406628 935817 132205 701134 872893
  441706 292499 529443 892800 181305   4909 769213 801080 792338 537966
- 154893  26006 571683 512443 405612  18294  41364  96751 216611 997989]</t>
+ 154893  26006 571683 512443 405612  41364  18294  96751 216611 997989]</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15568,10 +15568,10 @@
           <t>[255881 941952 979380 511286  49571 484818 241791  34916 940943 768388
  784365 723639 199695 535664 187185 199399 107023 614342 796712 284319
  392931 375875  29918 474792 332740 871688 494012 647567 918239 541063
- 128304 573837 155490 389390 730660 768589  70406   9986 102777 155331
- 641483 614441 326704 489134 389500 241426  39694 965250 389368 736171
- 273373 940953 726745 456205  24987 722246 994669 918604 105043 794759
- 794846 874794 456858 564642 458430 182252 824185 425969  32267 102776
+ 128304 573837 155490 389390 730660 768589  70406   9986 102777 641483
+ 155331 614441 326704 489134 389500 241426  39694 965250 389368 736171
+ 273373 940953 726745 456205  24987 722246 994669 918604 105043 794846
+ 794759 874794 456858 564642 458430 182252 824185 425969 102776  32267
  549825 736238 956393 533958 290022 633354 971447 389514 823516 183504
  515828  41118 370254 852460 719145 839677 941257 354079  24026 929491
  548421 484312 484328 499188 929900 689377 406910 229136 281198 474825]</t>
@@ -15601,7 +15601,7 @@
           <t>[577983 677185 535954 843745 580765 215362 919124 396242 916005 214446
  139412 574018 242973  30655  87482 443081 377416 462718 835666 566233
  944736 223958 896077 945717 501715 775669 452345 949418 197626 844859
- 817791 293196 259246 408708 185243 501706 709133 535847 606216 554926
+ 817791 293196 408708 259246 185243 501706 709133 535847 606216 554926
  458673 250002 427128 457011 643526 697746 881176 356022 349040  28967
  815443 161498 893924 961132 631210 787513 123332 123943 124581 253082
  825185 670215 923691 976795 561702 888064 868571 866372 441175 234308
@@ -15639,7 +15639,7 @@
  873469 727252 725874 389897 913009 426920 198512 822301 935111 967622
  663189  53259 194182 644157  30139 508743 433209 831384 560261 717246
   31884 662293 241813 713483 407649 855874  84136 116209 175012 725722
- 599468 420103 132700  17448 824972 900475 616843  28545 674184 908619
+ 599468 420103 132700  17448 900475 824972 616843  28545 674184 908619
  352254 141390  63306 791744 260587 733757 925712  99740 508441 709990]</t>
         </is>
       </c>
@@ -15698,10 +15698,10 @@
       <c r="B464" t="inlineStr">
         <is>
           <t>[680057 530267 328210 533523 533541 692589 659584 872116 795202 559387
- 552051 501176 878140 820525 127429 277020 277291 560282 828392 570668
+ 552051 501176 878140 820525 127429 277291 277020 560282 828392 570668
  559921 200524 952473 567165 580955 543372 991001 708889 513970 608221
- 675767 952477 532844 580719 901977 484793 675786 648749 788223 253775
- 355798 225992 343447 669779 160359 999386 671790    173 840320 174215
+ 675767 952477 532844 580719 901977 484793 675786 648749 788223 355798
+ 253775 225992 343447 669779 160359 999386 671790    173 840320 174215
  122256 747296 780815 584924 203166  74170 414769 563136 446569 502430
  669656 809705  37883 838277 399312 230690 436374 883654 821301 741263
  353300 163632 215758 573443 817882 284123 637562 674729 704751 152570
@@ -15730,13 +15730,13 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>[807332  96226 405584   2148  61709 829257 283081 148291 200104 369996
- 416022   2149 174096 136061  34841 541879 411136 863174 338371 837546
+          <t>[807332  96226 405584   2148  61709 829257 283081 148291 200104 416022
+ 369996   2149 174096 136061  34841 541879 411136 863174 338371 837546
  381321 619325 516887 942262 362423 544827 621439  43874 214865 162716
  885291 105891 704878 886885 222762 632337 734424 957094 597205  89897
  250315  80359 201510 136062 541858 402545  52695  39827 946996 818396
  506388 907970 489555 400454 569830 910381 925124   8734 901809 314596
- 364655 412709 766200 825648 829234 391425 263508 885296 885327 445857
+ 364655 412709 766200 825648 829234 391425 263508 885327 885296 445857
  623000 475724 562540 125185 966391  60668 221867 966446 432426 369336
  426841  20906 799028 250323 759693 416933 737591 521198 526567 602120
  827082  57510 757381 925021 965338 207283 557476 328271 824585  26384]</t>
@@ -15800,9 +15800,9 @@
  829342  12376 110496 480663 308097 267733 169665 619124  82373 805430
  331937 411076 272769 760356 812875 670258 928747 263282 461968 511436
  844994 595597 167897 266595 730974  83222 466358 188222 511998 804839
- 862232 747351 824838 155583 440933 156629 319134 749829 698322  34155
+ 862232 824838 747351 155583 440933 156629 319134 749829 698322  34155
  740032 463345 792235 293928 937530 520190 194951 710327 565312    356
-  13446 822039 342361 342383 961435  86367  86511 584511 777933 747992
+  13446 822039 342361 342383 961435  86511  86367 777933 584511 747992
  593176 210579 354195 777938 824815  93963  67500 646399 138300 296730
  442562  20082  73700 638097 454268 698214 480761 820747 953434 706398
  711755 848397 822526 708859 273675 573247  39779 431286 419466  77240]</t>
@@ -15829,12 +15829,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>[403074  38197 200029 803074 803099 906614 901271 776914 803076 803103
+          <t>[403074  38197 200029 803099 803074 906614 901271 776914 803076 803103
  706213 445784 200038  38190 610538 965946 316398 546784  99812 743193
  365128 720778 963967 250406  61216 705877 242209 379368 522123 711742
  654393 149396 705148   6816 663751 200044 473692 971445 163316 163393
  843184 339042 868368 743057 936135 245255 247059 215175 482774 101337
- 327699 595621 231955 393816 275500 137683 785781 944955 978322 710148
+ 595621 327699 231955 393816 275500 137683 785781 944955 978322 710148
  547622 742480 923202 428112 983545 106387 400507 913987 374199 966022
  443660  32170 791691 198302 318964 466956 270936 687795 392497 590995
  193184 414060 414231 635962 110617 732953 203698 674204 824843 428063
@@ -15867,8 +15867,8 @@
  833842 214361 185658 739359 751255 950516 944497 246972 209583 369474
  754186 635789 831105  19510 436103 808271 802644 982332 464823  28228
  484528 333974 678096 230721 420225 375466 604487  71257 420796 989528
- 596893 742039 260078 301374 622597 391396 611284 633012 294524 594130
- 620722  80096 594007 571697  77313  49185 841628 988462 529294 698031
+ 596893 742039 260078 622597 301374 391396 611284 633012 294524 594130
+ 620722 594007  80096 571697  77313  49185 841628 988462 529294 698031
  399207  38695  91007 218862 325699 380938 323160 806850 133589  14970
  450505  80678 977983 578659 341956 699207 771652 336563 599213 735979
  265458 603930 265699 772403 550284 494091 570870 265448 597440 850013]</t>
@@ -15969,7 +15969,7 @@
  789317 568443 517366 459060  78289  91709 379639 214764 627602 750875
  772109 738157 597333 918924 721071 160442 333195 523292  36764 933877
   91682 309652 896722 827497  16798 441537 318580 604068 136448 769397
-   9350 937532 508882 180322 228721  99011 249184 917461 112755 477624
+   9350 937532 508882 228721 180322  99011 249184 917461 477624 112755
  343238 330843 374232 926282 425017 799074 357808 587175 178873 318668]</t>
         </is>
       </c>
@@ -16002,7 +16002,7 @@
  353661 869460  92018 477027  90628 222105 320833 350174 209816 944963
  585738 483826 639913 151710 622054 291001 541810 960770 848102  95335
  913718 100677 600750 987234 450589 752850  22174 308243 840475 931068
- 149264 149301 149333 356738 948918 132955  26809 871936 507230 196386
+ 149301 149264 149333 356738 948918 132955  26809 871936 507230 196386
  497830 900706 275905 455644 247773 752865 222076 589392 647402 310293]</t>
         </is>
       </c>
@@ -16029,13 +16029,13 @@
         <is>
           <t>[799992 806766 522016 587614 625688 291190 348706  60765 278701 327767
  747085 510349  55118 855494 582898 800411 647157 905832 822694 396036
-  20773  75072 867815 878436 115104 406056 310893 644342 340982 214866
+  20773  75072 867815 878436 406056 115104 310893 644342 340982 214866
   79750 453709 412003 845650 583957 560046 623790 288824 415004 696671
  376717   2954 249690 344767 414755 228798 659114 216729 703246 340983
-  41226   9072 605225 896777 907183 907231 335199 585531 118798 962043
+  41226   9072 605225 896777 907231 907183 335199 585531 118798 962043
  209589 582839 497559 887834 768644 406825  20382 350348 207395 728291
- 692639 747905  75495   9312 265638 662922 219462 480100 552061 412822
- 631595 487313 191688 231680 918333 958920 378318 958962 206550 899128
+ 692639 747905  75495   9312 265638 662922 219462 480100 552061 631595
+ 412822 487313 191688 231680 918333 958920 378318 958962 206550 899128
  278903 119235 890776 381275 151051 790374 238392 926615 902985  73929]</t>
         </is>
       </c>
@@ -16080,7 +16080,7 @@
  1.0581 1.0591 1.0592 1.0611 1.0614 1.062  1.0635 1.064  1.0649 1.0667
  1.0672 1.0673 1.0686 1.0686 1.0689 1.069  1.0696 1.07   1.0722 1.0729
  1.073  1.0741 1.0747 1.0751 1.0751 1.0756 1.0756 1.076  1.0777 1.0777
- 1.0781 1.0784 1.0786 1.0788 1.0789 1.0793 1.0796 1.0796 1.0798 1.0806
+ 1.0781 1.0784 1.0786 1.0788 1.0789 1.0793 1.0795 1.0796 1.0798 1.0806
  1.0811 1.0814 1.0815 1.0816 1.0816 1.0817 1.0824 1.0824 1.0824 1.0827
  1.0827 1.0837 1.084  1.084  1.0844 1.0845 1.0847 1.0847 1.0848 1.0849
  1.0849 1.085  1.0851 1.0851 1.0852 1.0853 1.0853 1.0853 1.0856 1.0857]</t>
@@ -16165,9 +16165,9 @@
  614482 265950 348418 909855 899691 809757 696689 328590 732820 244494
  444093 634005 513090 313671 508363  92693 605813 947388 577316 397706
  724456 380946 170893 400596 849722 731771 633974 580497 991577 484446
- 872554 183903 731163 353225 353698 251632 258394  65382 887634 368139
+ 872554 183903 731163 353698 353225 251632 258394  65382 887634 368139
  436337 186302 148810 256088 765480  67065  38770 564729 288475 551156
- 297130 175373 380232 612274 958158 789018 285072 998964 190947 408270
+ 297130 175373 380232 612274 958158 789018 998964 285072 190947 408270
  629775 858507 643528 788240  31067 983633 716103 696664 577039 385758]</t>
         </is>
       </c>
@@ -16192,9 +16192,9 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>[849028 949856 521292 672507 580355 691031 931850 581785 175731 463959
+          <t>[849028 949856 521292 672507 691031 580355 931850 581785 175731 463959
  643072 666738 916884  13807 510297 943337 685929 208472 602254 580578
- 913919 617383 875876 515368  69040 618498 853544 192769 860902  14845
+ 913919 617383 875876 515368  69040 853544 618498 192769 860902  14845
  815580 105051 642258 816347   5038 895231 686049 543752 979287 187555
  591004 846215 576060 173736 916872 179278 492713 685132 256678 289637
  146708 488710 404777 715620  55345 898882 511469 468417 492656 113994
@@ -16263,8 +16263,8 @@
  952669 181390 860710 423891  91195 189016  11212 174530 784784 603450
  712078  68746 476897 613960  54868 395872 529473 560457 399379  91628
  441973 697174 677094 399977 330653 226731 317677  26115 325371 855493
- 208492 880927 985458 349090  86129 494768 843613 712077 244200 464545
- 686268 621450 620960 557966  86576 124879 162153 425068 523753 123138
+ 208492 880927 985458 349090  86129 494768 843613 712077 244200 686268
+ 464545 621450 620960 557966  86576 124879 162153 425068 523753 123138
  323819 124460 278333 110072  78355 881876 718254  44782 313979 475542
  968961 737455 939128 977357 115332 297219 161339 428599 114973 952712
  850461 120630 604210 491827  32330 569583 849876  90661 707173  34618]</t>
@@ -16297,10 +16297,10 @@
  398746 987375  59767 841369  46860  45149 654383  73214 139907 902758
  269197 451265 621444 918661 236758  97248 451757 802024 412000  70217
  411999 162028  21256 352643 256521 435144 559675 186580 787307 411189
- 951669 961548 400293 696969 708925  61875 870057 918647 779594 339434
- 904758 398747 945143 878828 926626 355402 708234 860103 926492 948483
- 961300 397986 405287 641973 923649 356021 259548 905740 808164 135253
- 910378 868046 453205 263691 251007 428479 353599 749681 253722 878582]</t>
+ 951669 961548 708925 400293 696969  61875 870057 918647 779594 339434
+ 904758 398747 945143 878828 926626 860103 948483 926492 961300 355402
+ 708234 397986 405287 641973 923649 356021 259548 905740 808164 910378
+ 135253 868046 453205 263691 251007 428479 353599 749681 253722 878582]</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16330,9 +16330,9 @@
   97248 451757   9813  70217 617862 918661 135253 910378 263691  45149
  139907  59767 247753 918647 802024 451265 398747 162028  42909 787307
  411189 269197 100673 116808 621444 453205 559675 841369 352643 779594
- 868046 979103 987375 870057 752828 186580 400293 696969 708925 951669
- 961548 324275 748603 730513  21256 808164 355402 708234 860103 926492
- 948483 961300 397986 125172 878828 926626 194165 256521 435144 902393
+ 868046 979103 987375 870057 752828 186580 708925 400293 696969 961548
+ 951669 324275 748603 730513  21256 808164 948483 961300 355402 926492
+ 860103 708234 397986 125172 878828 926626 194165 435144 256521 902393
  945143 902758 412000 411999 294263  13927 356021 339434 236758 297467]</t>
         </is>
       </c>
@@ -16558,8 +16558,8 @@
           <t>[531168 323903 240161 517289 663125 241826 346110 928549 281607 469615
  678411 377903 542060 151848 145299 733740  64697 929680 773805 312038
  764241 431679 543525 958568 781835 561702 962796 929685 845220 124416
- 473393  23089 566482 636722 697225 120063 282611 193221 515857 784226
- 448009 395351 892486 406763 834086 840387 903280 294988 266903  67525
+ 473393 566482  23089 636722 697225 120063 282611 193221 515857 784226
+ 448009 395351 892486 406763 834086 903280 840387 294988 266903  67525
  267216 744043 662959  81568 245952 246074 528154 332475 425876 861868
  543743 137005 811801 931261 340506 240684 781623 517945 426275 449333
  862207 321273 259772 580170 580169 618959 898175 326865 782415 910482
@@ -16660,7 +16660,7 @@
  572373 582166 728644  27186 593401 504936 251169 521406  89532 980538
  935929  61349 170885 209480 613681 834966 540768 548913 332779 822076
  665283 858117 175685 744784 625719 814783 304230 309581 236991 397069
- 164151 559260 610640 522462 620744 292246 731207 392986 573625 581990
+ 164151 559260 610640 522462 620744 292246 731207 573625 392986 581990
  779026 711276 335014 254916 876924 885454 642855 395145 535771 349989
  687406  43965 282539 637478 954718 910153 784988 798072 419762 799174
  166707 617727 623102 673666 673692  48439 537248 236122 866623 746540]</t>
@@ -16691,7 +16691,7 @@
  758716 901746 307204 161326 366707 438829 733045 862291 951063 756803
  866239 539270 103352 152570 128849 463169 919173 738138 438830 556053
  308648 308193 920176 461434 351757 371485 130052 740617 393377 733509
- 847066 671790  67630 365187 655551 361157 361184 809478 401461  67478
+ 847066 671790  67630 365187 655551 361184 361157 809478 401461  67478
  175379 336048 159241 316256 424058 488157 615638 816437 830995 669142
  519815 825768 494331  98169 789005 297299 791323 966894 507487 811887
  954508 929227 770494 258018 501059 855407 366981 574279 175358 602680
@@ -16723,7 +16723,7 @@
           <t>[917747 196774 711173 462790  36815 601644 482500 619809 419977 987879
   25757 581964 927004 431996 311952 636813 744135 843308 626905 806646
  862079 227614 581128 581111  33048 746168 328675 505083  68507 982449
- 444693 454859 340863 307980 555436 529953 530243  51843 408832  60483
+ 444693 454859 340863 307980 555436 530243 529953  51843 408832  60483
  815170   4290 607026 990365 809466  32871 766918 434850 109039 454840
  335536 557132 243664 719262 897818 493867  27017 923483 232186  12543
  845509 767939 221887 362058 470263 584726 266092 230239 856477 632446
@@ -16757,10 +16757,10 @@
  724968 950405 198186 903108 581052 517635 878170 581021 466084 245284
  864452 927000 602378 223930 756900 836660 581053 804994 730733 747914
  735644 764258 878732 179296 566969 688726 913137 902870 362967 595411
- 796582 796612 581697 567131 880109 420013 124564 989188 844551 903284
+ 796612 796582 581697 567131 880109 420013 124564 989188 844551 903284
  903638  70335 454839 892092 367945 248959  50851 957289 925677 671953
-   4902 366119  70833 670074 114238 537484  13519 439483 439556 960247
- 664386 761769 670069 815941 706464 669728 575452 575484 119908 506721
+   4902 366119  70833 670074 114238 537484  13519 439556 439483 960247
+ 664386 761769 670069 815941 706464 669728 575484 575452 119908 506721
  671906 321410 288940 867401 851481 681671 157115 735958 531352 520748
   16536 270517 530220 908225 772672 398270 670169 438580 983983 254860]</t>
         </is>
@@ -16822,7 +16822,7 @@
           <t>[151314 485827 601293 194174     68 483433 791431 594514 658728 741019
  572869 868327 712670 723903 127630 756666 633257 508742 340207 278365
  480546 810611  12621 149216 792008 142206 565584 545392 495461 458210
- 875732 949754 439466 212880 931857 839080 572128 186706 804266 212886
+ 875732 949754 439466 212880 931857 839080 572128 804266 186706 212886
  483082 829852 858994 181834 712669  27024 439467 362177 375274  98413
  804209 316488 908607 183372 843800 534700  12234 486898 712699 422653
  276203 467583 841440 903194 182114 491498 300996 301023 259985 950362
@@ -16887,10 +16887,10 @@
         <is>
           <t>[236358  88077 211924 873362 211211 398005 858398 891619 483156 601543
  940304  80954 990480  79666 242925 802037 227671 739339 710431  22917
- 392132 340026 737588 239703 492241 930444  23777  35782 639965 311608
+ 392132 737588 340026 239703 492241 930444  23777  35782 639965 311608
  668119 357169  60151  91886 536524 593761 350171 869109 588958 647953
   56315 596690 560062  17958 889055 542575 196294 600569 449348 355414
- 726934 211635 147891 237789 563151 108140 218284 658785 622694 108451
+ 726934 211635 237789 147891 563151 108140 218284 658785 622694 108451
   42494 886298 535709 414626 910988 102889 397570 337312 405468 371415
  982017 883628 877595 222557 362544 396480 543504 827616 758851 521200
  172202 618444  84171 837893 237491 255075  68917 789748 663315 821967
@@ -17025,7 +17025,7 @@
  499130 485494 688605 714360 365733 879404 763007 788526 108263 804386
  919473 448548  37355 838794 989392 385538 595888 191739 399423 715591
  718993 593294 570895 981110  31427 938068 990010 966155 994965 881411
- 802077 114021  61037 682216 907197 377371 727597 651891 483977 570601
+ 802077 114021 682216  61037 907197 377371 727597 651891 483977 570601
  892384 281801 301678 321908 384079 965477 673123  21104  84489 892184]</t>
         </is>
       </c>
@@ -17083,16 +17083,16 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>[429064 471510  31510 786281 124777  78465 687162  78459  12824 548759
+          <t>[429064 471510 786281  31510 124777  78465 687162  78459  12824 548759
  990335 234725 644736 114811 864968 676121 658897 979049 309611 810928
  144986 872065 231402 724804 160955 250267 493935 897048  12231 190085
  191832 741388  31343 876837 326190 588382 301520 731360 117431 486145
  486601 227993 297357 864097 190222 496419 898037 705908 939037 880908
  202405 327443 220437 132327 737465 349542 622045 633908  20100 237219
- 322353  97286 245951 353533 429325 789328 803852 206001 419885 148752
+ 322353  97286 245951 429325 353533 789328 803852 206001 419885 148752
  459786  65045 445718 583893  35018 994981 778679 722883  58202 686511
  533004 717488 605016 999546 264984 132012 160586  64954 957194 597965
- 409738 899577 698741 162471 665426 136707 925555 435220 317212 477155]</t>
+ 899577 409738 698741 162471 665426 136707 925555 435220 317212 477155]</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17118,9 +17118,9 @@
         <is>
           <t>[191793 748122   5586 510651 148323 277236 687393 362616 928634 986499
  950456 761278 204451 519114 519146 989135 464692 984374 436489 352991
- 213151 231767 660124 969209 867744 761879 551516 449981 484181 150367
- 761878 372371 213947 300431  64596 574799 110214 775965 195625 435140
-  50231 565032 273550 413993  55085 195622 459454 587261 895301 950247
+ 213151 231767 660124 969209 867744 761879 551516 449981 484181 761878
+ 150367 372371 213947 300431  64596 574799 110214 775965 195625 435140
+  50231 565032 273550 413993  55085 195622 459454 587261 950247 895301
  907273 887251 364501 998695 591666 937632 301546 905057 907167 120715
  152484 174749 838360 957986 216781  98269 703759 653457 632658 442803
  604919 594483 780352 527334 921083 914861 176210 240844 657505 299111
@@ -17218,7 +17218,7 @@
           <t>[954481  17361 851755 281303 995483 210261 245837 109564 245681 245832
  591652 245741 245895  13067 245730 375933 273561 378151 245743 245889
  155901 245901  24286  78035 570075 477972 609779 155897 146705 913599
- 155885 955441 713628 210436 707404 552846 677589 245679 245871 973698
+ 155885 955441 713628 210436 707404 552846 677589 973698 245871 245679
   59610 937250 174801 280851 515722 750979 363280 470990 407670 488452
  754448 340255 751303 114841 356964  73977 802248   2342 404459 879360
  954637 806731 245688 134012 826361 446800 117356 440568 644871   3551
@@ -17284,9 +17284,9 @@
           <t>[810472  26934 376704 900833 230853 166546 166599 910731 707589 104801
  745257 216653 451364 411854 671758 189722 396332 748574  94272 104811
  653883 176918 315747 637342 688810 998670 633347  57746 829873 636125
- 191635 167350 141509 141660 157801 157822 942972 405521 405549 696717
+ 191635 167350 141660 141509 157801 157822 942972 696717 405549 405521
  176859 797663 855585  79406 516996 199795 331400 340993 516987 399334
- 216668 830340 405532 405561 696739 125185  37582 942139 284562 742666
+ 216668 830340 405561 696739 405532 125185  37582 942139 284562 742666
  411857 367284 111316 265996  77120 350425  58957 350429 116163 284955
  405573 355184 492344 855637 744103 277063 704890  83384 355557 308371
  498721 171735 600420 333344 805901  57740 981465 326699 462526 349159
@@ -17319,7 +17319,7 @@
  611573 686322 599734 599766 914642 450649 940596 434139 128356 256472
  767020 797521 867062  75301 193412 655921 150660 811883 991470 743643
  122726 678719 754509 755317 256424 882161 293787 519750 972776 595874
- 807472 728886 264945  47318 808416 717575 717615 883259 213369  57063
+ 807472 728886 264945  47318 808416 717615 717575 883259 213369  57063
  644918  65199 503273 875890 716885 548077 590852 730279 713894   2275
  814887  52770 789955 418836 390160 611447 959160  95145 854800 202283
  452690 442681 554683 194349 302044 945550 731743  10111 636690 193565
@@ -17353,7 +17353,7 @@
  616340 415398 815586 911867 844248 547700 788666 169073 748473 795380
  571828 449364  64642  65933 263663 950004 151692 762630 353299 391543
  515057 945548  44648 449180 540811 603636 465774 371986 993098 292320
- 173582 193486 777744  32757 752637 434443 434466  52321 244144  44667
+ 173582 193486 777744  32757 752637 434466 434443  52321 244144  44667
  606747 900972 871677 246926  29340 429507 403994 191864 968895 551823
   37398  17540 646865 749581 147079 143952 712616  55962 997123 756595
  837264 537362 582129 495415 797345 208576 984384 475754 613590 373282]</t>
@@ -17384,12 +17384,12 @@
  687702  24217 842418 425979 974087 457982  25183 341556 365782 817688
  987421 795637 597114 646084 788094 864836 923764 780566 992396  92182
  810956 669035 373213 688191 462091 165510 129506 763043 977991 992417
- 588943 518207 928930 259559 259593 975613 428037 333150 333272 877230
+ 588943 518207 928930 259559 259593 975613 428037 333272 333150 877230
  603136 866302 928917 457009 373195 756929 390427 594462  52630 820875
  222643 291212 413209 295586  23489 344555 588545 273019 838124  81728
  767966 978223 335368 628819 487482 270899 952094 857255 547503 398320
  924913 864831 703167 476747 586625 662938 962017 962224 283040 152599
- 567155  94655 168509 943705 897847 637087 680788 366768 620264 307091]</t>
+ 567155  94655 168509 943705 897847 637087 680788 366768 620264 409642]</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17415,7 +17415,7 @@
         <is>
           <t>[960255 106905 499806 634396 794302 663119 612538 773909 581475 643730
  992321  44725 118392 597515 737278 420026 721034 193274 103373 616812
- 979147 731896 385271   4886 872536 461262 461353 134070 654677 942444
+ 979147 731896 385271   4886 872536 461353 461262 134070 654677 942444
  334155 140753 143080 796191 569363   2028 836693 533577 703945 736266
  976051 225261 162253 937143 925281 629764 228599 608446 371710 236696
  788248 590207 650920 226481 332068 831538 352583 570887 875775 828694
@@ -17451,8 +17451,8 @@
  699140 345530 522943 112819 559767 252658 342765 373435 954902 780250
  164739 756202  41611 124922 350859 925303 787573 882575 387271 668413
  907286 549048 534918 845843  42320 283223 225864 253404 195803 887076
- 810645 959569 257290 233482 159888 830946 316949 839836 754311 208167
- 208202 657936 408240 386968 854517 563451 330730 505854 639969 668416
+ 810645 959569 257290 233482 159888 830946 316949 839836 754311 208202
+ 208167 657936 408240 386968 854517 563451 330730 505854 639969 668416
  623004 475001 425203 137708 557742 724561 116411 282239 244617  54709
  391062 947652 303702 243537 236521 740744 686018 306861 873694 916447
  203267 437067 346550 378035 273228 822915 385155 891556 340234 151484]</t>
@@ -17546,7 +17546,7 @@
       <c r="B520" t="inlineStr">
         <is>
           <t>[542682  49287 707424 478920 200237 606755 539826 886265 767791 422598
- 123968 924699  42364 608680 577850 530052 880758 293250 168730 781215
+ 123968 924699  42364 608680 577850 880758 530052 293250 168730 781215
   93499 914092 764466 777106 652065 292334 126694 958873 160486 444409
  422647 511271 226393  77874 192743 546129 673260 173574 465848 473397
    1894 244733 379474 892395 973669 539800 337002 337873 385848 720900
@@ -17584,7 +17584,7 @@
  259536 852166 642618 471269 727285 250669 687305 512631  11932 712371
  344057  16049 306373 349727 115176 869646 837233 830521 381109 431207
  521830 852781 121645 376885 512464 794271 595737 505214  78945  91800
- 675454 560318 386260  24635 973930 933258 239089 991343 739153 843836
+ 675454 560318 386260  24635 973930 933258 991343 239089 739153 843836
  282617 152125  50205 887603 254355 679675 678664 630684 880921 910853
  782819 110563  21796 832204 960266 433616 781049 146008 737553  76530
  990294  60249 532442 699765  12175 889224  54693 379443 232949 809459]</t>
@@ -17615,7 +17615,7 @@
  716584  64874 726634 795137  59188 648035 817066  27644 851465 877325
  556967  17998 731744 908163 982332 702372 919550 689100 920337 197612
  993291 397532 341436 584277 759526 507937 220076  12513 228074 710224
- 701392 795068 497139 762200  23954 754873 717068 353353 463325 604487
+ 701392 795068 497139 762200  23954 754873 717068 463325 353353 604487
  191898 334151 478255 487748 654677 518179 885364 408722 467355 210579
  818102 199321 459835  70997 652650 652682 703778 699657 511998 935967
  532867 308097 167839 569363 282924 184844 130023 523411 590208 679037
@@ -17682,7 +17682,7 @@
  767020 817807  27230 121046 234252 262268 591458 932764 167183 423866
   58474 716885 624535 836187 842474 620418 853085 150660 495755 121035
  590238 193412 651437  64970 261902 401683 418982  59407 390160 284863
- 878194 914642 925404 402627  70034 235800 633735 814863 977470 534919
+ 878194 914642 925404 402627  70034 235800 814863 633735 977470 534919
  731743 994487 328564  65199 883259 504392 179464 437526 366531 270889
  880961 452690 595874 769928 433507 784717 636690 421639 849946 265216
  873028 382606 927299 176385 834351  52606 523387 424286  61950 882161
@@ -17711,12 +17711,12 @@
       <c r="B525" t="inlineStr">
         <is>
           <t>[356422 947388 988371 877970 622475 896709  28300 724789  25031 798251
- 892502 430941 609619 570563  36024 419287   8738 203410 905618 905672
-  26271 279345 629050 457358 741733 964793 127475 693811 267256 272618
+ 892502 430941 609619 570563  36024 419287   8738 905672 905618 203410
+  26271 279345 629050 457358 741733 964793 127475 693811 272618 267256
  214564 462967 276817  58948 611900 954719 832835  86869 743236 548540
  562285 164886 732984 545926 303472 544577   5281 525820 595580 527778
  237678 897610 634659 983731 776108 636036 492015 665619 643170 481600
- 315196 384849 921019 605813 528047 161021 274845 960215 462904 462934
+ 315196 384849 921019 605813 528047 161021 274845 960215 462934 462904
   21675 333070 716261 414204 275759 343450 535823 755970 383278 962843
  962964 460518 921001 564936 219833  13890 250942 432770 831398 993485
  620069 984019 866962 667810 448354 392704  29696 492527 626556 594720]</t>
@@ -17751,7 +17751,7 @@
  285386  73813 765529 975202 204664 760952 118798 429845 406565 326285
  190007 157735 363678 302022 365284  93889 156229 905844 567780  52717
  821273 708176 359708 726184  61389 410332 412022 842212 958067 815664
- 841273 664187  87125 167420 137217 348449 515694 670967 361056 717118
+ 841273 664187  87125 167420 348449 137217 515694 670967 361056 717118
  660732 229904 792221 736013 184123 953371 715583 694067  59770 938066]</t>
         </is>
       </c>
@@ -17782,7 +17782,7 @@
  225036 408531 847678 582074 119216 188222  71658 899724 315165 953684
  516882  26234 581955  64970 652553 114236 584275  30763 419793 673673
  199178 197300   4853 959980 400600 499964 710346 846618 723081 454887
- 667823 988867 207956 333003 547892  19440 326536 115108 406060 666495
+ 667823 988867 207956 333003 547892  19440 326536 406060 115108 666495
  872183 319076 905292 557552  56135 720852 328890 872684 923240 246008
  395278 398105 954333 702379 404032 891501  64234  75525 434321 166228
  860975 332149 508594 823204 726379 800416 753174 990101 449273 695128]</t>
@@ -17814,10 +17814,10 @@
  385517 846276 199321 763611 818782 228467 912330 371727 926193 567857
  637788 994365 991712 837539  41627  61469 566310 295502 953798 943811
  500221 865171  91449 548510 447161 783082 972268 960287 838592 926187
- 924499 320392 421749 341185 977810 568993 312655 392586 298529 926156
+ 924499 320392 421749 977810 341185 568993 312655 392586 298529 926156
  169434 469912 361235 529288 317828 804839 936697 165751 432699 913045
  168541 958148 258583 127482 718955  84064    351 263594 489314 607044
-  27230 121209 343472 669945 814107 115845 480030 771832 357300 702641
+  27230 121209 343472 669945 814107 480030 115845 771832 357300 702641
  937182 341355 765814 468617 960562 655076 169144 991469 304543   3177]</t>
         </is>
       </c>
@@ -17849,7 +17849,7 @@
  353939 257702 794752 566331 588748 380938 552283 846814 767180 312934
  684632 905552 751018   5401 654984 528761 513671 849010 845712 784611
  430824  63992 857738 678387   5712 801674 594486 874474 874384 687455
- 336259 372494 470249 197611 807365 475934 475995 381316   1662 347667
+ 336259 372494 470249 197611 807365 475995 475934 381316   1662 347667
  628032 523847  82516 154868 564990 365074 561101 523270 171348 462937
  603491  25658 963799 241237 824059 769209  78964 273997 794715 181498]</t>
         </is>
@@ -17917,7 +17917,7 @@
  883402 559280 931020 334086 932524 918577   7477 665374 619306 455827
  257475 533606 914011 916824  79327 198873 573572 202101 721136 823441
  814608 272118  92437 555201 376976 761005 349912 694781 737694  92429
- 149430 149461 837915 272956 794959 965426 947341 181491 519952 723826]</t>
+ 149461 149430 837915 272956 794959 965426 947341 181491 519952 723826]</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[241061 918066  25713    137 292588 140810 320468 223564 709410 330650
+          <t>[241061 918066  25713 292588    137 140810 320468 223564 709410 330650
  934778 975365 638840 458451 710958 718857 120147 784672 879815 356344
  979947 689889 531431 256651 388401 601214  72182 872068 879836 261583
   58505 314337 719344 851451 127692 942162 711699 154643   1573  17525
@@ -18076,7 +18076,7 @@
           <t>[859359 716579 865340  99815 932015 450642 455447 668763 295311  24981
   16417 428058 178911 254234 317149   7262 867574 215396 925681 881642
  951248 619724 492317 701793 329464 970436 135947 357388 241829 801173
- 680780 441875 770336  57553 564391 406084 264403  18027 395644 730413
+ 680780 770336 441875  57553 564391 406084 264403  18027 395644 730413
  820526 620082 792291 847162 434003 847181 486212 430984 613677 326287
  481405 183361 344492 808182 924894 299656 329319 614430 609543 272158
  974649 318907 470612 360406 449154 643936  94838 994917 275004 434661
@@ -18108,7 +18108,7 @@
         <is>
           <t>[172876 850419 105538 448154 585108 889511 666983 503525 135941 506169
  680472 377779 612336 170649 750662 629239 348957  20001 415927 877905
-  13491 445001 384729  46990 414674 788132 393686 111594 325822 750353
+  13491 445001 384729 414674  46990 788132 393686 111594 325822 750353
   26006 825717 714664 659858 437711 958214 642004 749344 971624 420580
  170681 964752 705430 429831 262246 292701 581956 674635 634914 899351
  160428 416189 964387  47700 160811  99349 321934 775909 993815 939381
@@ -18144,7 +18144,7 @@
  955667 931300 276787 656111 928741 456827 274086 389182 221478 949381
  557093 931985 663960 375908 964385 759598 699973 242212  85920 607359
  140364 648453 574552 557468  51570 296149 601204 282918 416527 894042
- 182591 746291 321000 955656 380217 880387 698752   4217 745020 484438
+ 746291 182591 321000 955656 380217 880387 698752   4217 745020 484438
  735449 630517 311785 853159 831569 428190  55093 570660 891483 737555
  772890 160430 160671 138984 774115 827411  71707 681915 439719 163780
  175363 881026 252255 329975 803663 589131 257642 257706 375845 274998
@@ -18243,7 +18243,7 @@
  110154 770239 737255 343386 564811 413805 518179 817992 230721 923240
  812597 963362 780242 267645   9955   3081 654095 547953  94980 926313
  295464 722115 575199 838896 726921 218862 899126  15861 745367 865874
- 795078  29537  17508 224345 755476 745592 839052 418905 860610 975038
+ 795078  29537  17508 224345 755476 745592 839052 418905 975038 860610
  303188 547856 547574 990101 990560 866927  88740 216053 450505 874000
  220739 950760 599815 983894 847678 650988 837146   2276 652396 362475
  341836 651001  17407 204771 536770 671056 207407  89552 997726 572680
@@ -18306,7 +18306,7 @@
         <is>
           <t>[967465 291932 534139 692288 510763 353450  91627 265580 157206 340982
  385495 660933  71459 504152 969466 146569 810263 884450 635598 859982
- 175005 303155 461985   7963 907154  75093 867834 979545 354822 343868
+ 175005 303155 461985   7963 907154 867834  75093 979545 354822 343868
  942468 465459 595485 616407 312857 333855 200170 822720 675041  71458
  349145 566422 969440 156889 874534 229396 738161 937927 549305 465461
   22653 897907 188307 534914 440339 968104 170451 220690 519970 400387
@@ -18412,7 +18412,7 @@
  172463 673317 713725 851464  30312 788225 926926 299460 710263    552
  273323 968372 107834 217121 544668 324569 870525 733658 498883 346330
  737607 621657   6978 740973  37732 410298 530029 533841 912339 446789
- 701900 434609 878348 255461 255485 288154 860428   3535 186629   9124]</t>
+ 701900 434609 878348 255485 255461 288154 860428   3535 186629   9124]</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18437,13 +18437,13 @@
       <c r="B547" t="inlineStr">
         <is>
           <t>[748881 345148 830810 854100 805507 462078 225804 362546 206501 919833
- 495463 408271 694920 883001 523553 356456 728051 949400  49542 362499
+ 495463 408271 694920 883001 523553 728051 356456 949400  49542 362499
  796223 305623  64255 445160 518423 836872 360707  29758 182680 191262
- 412985 746251   2895 742799 934863 513147 959803 919812 530219 372492
+ 412985 746251   2895 742799 934863 959803 513147 919812 530219 372492
  318167 314174 274261 305646 749833 652095 883895 275742 146601 964606
  222008 544652  73653 883045 308424 523309 228288 100146 925326  37920
  651887 874384 211275 855487 269237 412957 236759 290201 777424 139681
-  73771 248812 267177 620543 719875 906357 508077 648518 513157 959814
+  73771 248812 267177 620543 719875 906357 508077 648518 959814 513157
  131693 353808 191339 719861  31384 218885 265943 583976  62662 226076
  648514 284324 589031 451198 128014 668954 749490 191237 976442 828492]</t>
         </is>
@@ -18473,9 +18473,9 @@
   48511  45398 488693 174461 813117 329629 475573 613861 248282 897074
   20221 837689 372916 536770 900787 369913 505770 808551 706578 361672
  898043 459889 379077 254813 317830 795700 233598  41296 573796 949680
- 356456 728051 411734 774864 733761 173179 513711 223727 462979 665099
+ 728051 356456 411734 774864 733761 173179 513711 223727 462979 665099
   80649 329746 775537 495068 263939 196734 898788 871736  37877 416176
- 260865 708837 290223 290246 856879 908351 400161  62107 856634 355200
+ 260865 708837 290246 290223 908351 856879 400161  62107 856634 355200
  688683 384103 620595 962045 438102 144672 472234 105290 173271 621298
  991929 719563 562611 476038 751255  26958 558414 845982 455163 178302
  266075 969311 619213 308097 651887 567381 492454 533711 562606 541096]</t>
@@ -18505,7 +18505,7 @@
           <t>[ 92609 960228 904411 334610 669109 996453 925549 923005 559660 199570
  979615 665599 277275 562468 348012 348766 746756 588637 680814 639695
   79760 799174 258219 709061 835613 593534 744765 574014 551255 798449
- 970789 500183 525820 990560 575886 575912 607788  30595 107214 926313
+ 970789 500183 525820 990560 575912 575886 607788  30595 107214 926313
  302450 104790 585114 245116  79564 313998 258107 851984 904914 933332
  125402 447673 353382 177390 170938 462230 859274 959227 834399 944781
  835133 320694 523544  71656 605169 122379  86154   8747 314606 684289
@@ -18541,9 +18541,9 @@
  596585 194990 458159 267755 396388 606948  25026 768895   5824 968726
  243968  41243  22915 340423 879188 990092 578491 953767 966062 972280
   28671 521424 112063 953617 647091 412621 560277 804121 494460 263746
- 627388 409596 218308 176005 108628 533997 953796 135786 283299 497804
+ 627388 409596 218308 176005 108628 953796 533997 135786 283299 497804
  310794 773421 976869 739913 965774 519548 597999  22928 403342 676834
-  92828 129990  38005 598027 343708 849233 518221 770302  48517 609054
+  92828 129990  38005 598027 343708 849233 770302 518221  48517 609054
  815711 796636 351350 147595 140292 112606 323283 638750 396530 448779]</t>
         </is>
       </c>
@@ -18573,7 +18573,7 @@
  296932 442579 992807 954064 556059 995412 788135 411758 927000 539062
  427884 767233  45000 854631 963165  14022 311046 355560 203542 962523
  322190 544480 643541 931234 762803 692160 812318  86739 830693 632337
-  92703 348012 731406  74737 617954 277019 277290 991577 719861 672191
+  92703 348012 731406 617954  74737 277019 277290 991577 719861 672191
  151523 886281 670537 847271 556553 451631 724504 379881 213790 214224
  859503 592657 997628 799151 850124 834190 469470 913245 601428 808634
  357716 855653 811858 254583 164459   1373 429675 402527 385018  44136
@@ -18733,7 +18733,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>[146733 321602 867044 291129 138219 949309 190362 967951 140251 901277
+          <t>[146733 321602 867044 291129 138219 949309 967951 190362 140251 901277
  807459  73702 467347 482701 706485 923028 333108 760403 778417  34503
  480599 944000 819036 720739 869051 156103 664865 928710 104261 159572
  750132 843180 908183 956123 151659  30170 456116 544302 908878 321957
@@ -18773,7 +18773,7 @@
  982151 973782 957506 238938  31714   9016  29790 152147 954111 566326
  609712 381058  46860 309710 359348 900611 868518 716261 672639 909251
  718244  46226 211536 137529 766262 952553 381940 116405 721024  96244
- 526434 812061 402545 242653 905506 918093 437049 343458 343480 466631
+ 526434 812061 402545 242653 905506 918093 437049 343480 343458 466631
  870089 913261 173143 297467 635472 135008 826952 173641 640132 564660
  633343 504695 181946 891337 710829     99 836683 495050 481395 644930]</t>
         </is>
@@ -18833,7 +18833,7 @@
       <c r="B559" t="inlineStr">
         <is>
           <t>[987879 527769 612359    349  96857 831329 198257  27017  51843 681512
- 555403  27038  27259 341337 444693 238322 957060 230217 674309 361706
+ 555403  27259  27038 341337 444693 238322 957060 230217 674309 361706
  176416 831315 892707 663137 898510 280276 384977 327999 818407 207504
  462790 116461  70452 378801 360605 582120 775517 782805 463850 381868
  874415 665287 788965 348875 269900 201228 673768 382673 986028  42506
@@ -18866,12 +18866,12 @@
       <c r="B560" t="inlineStr">
         <is>
           <t>[499812 723310 798281 529693 726843 280121 237505 535003 496418 608368
- 237858 711116 216408 332157 409464   2148 173415 265950 908225 353225
- 353698 114369 400596  29013 308304 559916 942105 893727 736267 745806
+ 237858 711116 216408 332157 409464   2148 173415 265950 908225 353698
+ 353225 114369 400596  29013 308304 559916 942105 893727 736267 745806
   17903 121109 234831 264814 836783 717975   2149 973232 734424 720035
   70791 860890 141066 885535  85112 227908  64397 164521  75526 949228
  611962 528810 877934 439835 211605 721186 996947 888057 680846 606543
- 819679 614779 311352 379303 399318 123581 366382  74575  86975 124882
+ 819679 614779 311352 379303 399318 366382 123581  74575  86975 124882
  825504 110650 266732 987481 355537 931068 483071 403350 753413 222108
  189923 657523 733683 789757 289315 997144  23402 838233 490829 404179
  419946 832833  11101 183903 886270 266735 122130 290682 942083 806543]</t>
@@ -18931,7 +18931,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[589286 321567 189318 623107 576060 197021 269932 320264 477920 964203
+          <t>[589286 321567 189318 623107 576060 269932 197021 320264 477920 964203
  719695 305646 320265 305623 639375 291935 796199 362290 742649 170027
  544300 607799 719861 341004 299602 846909 484371  82971 815864 517462
  858518 585746 140130 601075 214658 267533 692160 189096 151396 362262
@@ -18951,7 +18951,7 @@
  1.1457 1.1464 1.1465 1.1469 1.1488 1.1492 1.1504 1.1507 1.1512 1.1516
  1.152  1.1525 1.1528 1.1536 1.1537 1.1541 1.1541 1.1543 1.1548 1.155
  1.1551 1.1556 1.1562 1.1571 1.1571 1.1573 1.1574 1.1583 1.1584 1.1589
- 1.1589 1.1593 1.16   1.1605 1.1612 1.1613 1.1619 1.1622 1.1629 1.1631
+ 1.1589 1.1593 1.16   1.1605 1.1612 1.1613 1.1619 1.1622 1.1628 1.1631
  1.1631 1.1633 1.1633 1.1634 1.1637 1.1645 1.1647 1.1651 1.1656 1.1659
  1.1659 1.1659 1.1659 1.1664 1.1666 1.167  1.1673 1.1674 1.1679 1.1679
  1.1681 1.1682 1.1682 1.1683 1.1684 1.1685 1.1689 1.169  1.169  1.1693]</t>
@@ -18966,12 +18966,12 @@
         <is>
           <t>[686288 731771 877974  73642  29934 477092 692582 872115 846773 462253
  668809 384190 463863 250875 737591 523834 681613 576208 191632 668813
- 653865 585731 627656 460573 411045 746163 365763 376760 744451 305580
+ 653865 585731 627656 460573 411045 746163 376760 365763 744451 305580
  584409 516190  67703 611000 249924 266095 610974 315692  73590 896533
  836860 914865 668805 256084 878533  83372  14030 745352 269412 193110
  997628 148814 744479 169005 910381 830212 966446 313095 117830 800876
  161858 209110 904503 726451 400324 797776 220609 410517 796746  10786
- 114674 440407 121535 300260 967889 798578 830568 214738 802362 802391
+ 114674 440407 121535 967889 300260 798578 830568 214738 802362 802391
   33361 435311 599765 315705 566087 742690 443622 775197 457567 214739
   75860 562333 491468 567619 504154 398049 722014 182578 966391 392910]</t>
         </is>
@@ -19003,10 +19003,10 @@
   56565    349 831315 888909 241680 990101  91649 725438 339574 987879
  708245 521466 904474 556227 828478 382673 588216 337933 829242 738638
  198257 669779 529369   8902  96888 782426 675141 665287 424447  70452
- 311626 712968 652900 751171 207178 399557 626353 502430 669656 886062
+ 311626 712968 652900 751171 207178 399557 626353 669656 502430 886062
  255396   8891 364831 472738 497671 239610 176384 270209 800252 400340
  814364  90635 527769 321605 441178 189318 555253 358509 607382 375422
- 611053 574267 876673 193249 217118 405518 405547 696721 958573 697491]</t>
+ 611053 574267 876673 193249 217118 696721 405518 405547 958573 697491]</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19067,7 +19067,7 @@
  563357 759488 184316 391396 965872 413104 763493 357513 665099 150679
  882996 562414 176932 585366 543933 121127 261540 831326 537505  81508
  612211 793846 200847 998490 321727  37247 291410  29721 247637 382968
- 520858 759246  34440 575503 136497 324267 905645 222006 453298 928195
+ 520858 759246  34440 575503 136497 324267 905645 453298 222006 928195
  752881 751596 844177 734160 404666 310031 544650 145307 892069 985364
  583963 618619 121152 673016 250819 636196 747350 904594 199252 689726
  329835 831876 305136 300755 932617  58274 529396 852761 775710 314178
@@ -19133,9 +19133,9 @@
    1192 692619 568617 190818 997800 548083 520450 520992  63998 146562
  357075 178768 431842  82355 677297 920445 799974 839012 354523 139650
  216983 962113 508179 150820 504043 717881 394927 483827 719787 324319
- 738292 671641  92400 241428 991666 229236 665692 664162 224884 364601
+ 738292 671641 241428  92400 991666 229236 665692 664162 224884 364601
  688119 974562 883174 848859 750171 730265 460517 886392 553432 354869
- 361618 830677 212342 521623 695478 513284  75085 867837  94250 166190
+ 361618 830677 212342 521623 695478 513284 867837  75085  94250 166190
  902997 707610 451503 799986  33329 883196 220795 243458 262396 316968
  201949 595268 615831 799112 171738 322784 376704 883485 593386 128429
  799100 343299 548595 582943 620994 355403  14046 234040 253722 830535]</t>
@@ -19196,12 +19196,12 @@
       <c r="B570" t="inlineStr">
         <is>
           <t>[849883 546086 959563 504895 708508 810959 462769 451028 483839 696654
- 234976 235842 493792 417857 720935 912297 178458 583120 320463 733204
- 548647  36141 146874 279421 400785 836319 928837 461944 559393 797922
- 349041 978742 919793 337458 373191  48437 275257 569429 699119 669334
- 735936  53858 970257 417853 132269 796495  61117 953233 619254 210609
+ 234976 235842 493792 417857 720935 912297 178458 583120 733204 320463
+ 548647  36141 146874 279421 400785 836319 928837 461944 797922 559393
+ 349041 978742 919793 337458 373191  48437 275257 569429 699119 735936
+ 669334  53858 970257 417853 132269 796495  61117 953233 619254 210609
   86326 510121 496365 975412  45659 355654 836318 444793 988656 389525
- 904994 542338 835620 959118 990093 803620 148184 657238 457319  77115
+ 904994 542338 835620 959118 990093 803620 657238 148184 457319  77115
  507604 999235 843440 731857 741401  89509 688623 247475 904219 349267
  105446 666004 194150 484759 367337 134104 649920 444615 398743 648516
  409569 237076 313575 233564  41118 356082 586349 190013 228324 860685]</t>
@@ -19237,7 +19237,7 @@
  875050 195930 104926 780568 307930 290417 638867 662273 206484 303472
  774487 477319 455681 897610 137651 996870 703518 358569 308362 403350
  682836 341476   7864 217037 106016 289933 560270 450560 290398  72182
-  24498  52707 290413 381868 215081 366352 815317 815986  86262 777308]</t>
+  24498  52707 290413 381868 215081 366352 815986 815317  86262 777308]</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19398,7 +19398,7 @@
  924685  99663 373014 504544 769196 652577 942098 117165 223206 310903
  252204 149436 321319  98779 767563 520541 520603 888641  45466 463036
  396841 710608 442008 353949 141490 277319  21306 988191 397866 929970
- 192589 127687 721008 541941  50765 759431 786411 678700 697165 976916
+ 192589 127687 721008 541941  50765 786411 759431 678700 697165 976916
  393390 571751 163949 163979 989443 873754 283005 141878 588093 602573
  872761 813827 190711 431104 163549 376849 369304 393243 327018 159023
  652250 383717 255664 743761 904542 371395 593167 173289 293576  23440
@@ -19413,7 +19413,7 @@
  0.9644 0.9652 0.9688 0.97   0.9703 0.9703 0.9703 0.9705 0.9705 0.9709
  0.9713 0.9724 0.9725 0.9727 0.9729 0.9731 0.9731 0.9741 0.9747 0.9752
  0.9753 0.9759 0.9761 0.9781 0.9781 0.9787 0.9787 0.979  0.9793 0.9803
- 0.9806 0.9809 0.9815 0.9815 0.9816 0.9817 0.9819 0.9819 0.982  0.9821
+ 0.9806 0.9809 0.9814 0.9814 0.9816 0.9817 0.9819 0.9819 0.982  0.9821
  0.9824 0.9828 0.9828 0.9832 0.9839 0.9845 0.9852 0.9852 0.9857 0.9862
  0.9875 0.9876 0.9882 0.9886 0.9889 0.9891 0.9895 0.9895 0.9896 0.9897
  0.9897 0.9903 0.9922 0.9923 0.9924 0.9925 0.9926 0.9929 0.9931 0.9931]</t>
@@ -19426,7 +19426,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>[908550 107174 615323  17890 532464 769708 457116 818963 570478 935837
+          <t>[908550 615323 107174  17890 532464 769708 457116 818963 570478 935837
  565953  91188 364642 713145 189180 431333  41070 695712 962371 254367
  612823 370323 208554 870943 454076 615341 598849 274713 155209 585284
  467339 137938 109923 460007 533800 321625 110415 779506 220415 245043
@@ -19492,15 +19492,15 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[830912 468578 505082 796246 350658 367836  58411 847335 781793 582030
+          <t>[830912 505082 468578 796246 350658 367836  58411 847335 781793 582030
  605071 319227 108358 533852 232073 441263 127429   5645 426311 243899
  280749 270734 481988 210217 147248 211080 515823 128354  69661 454890
  525611  65008  80818 409706 775099 493592 729736 562835 227502 237957
  965701 113539 719966 180066 524245 575732 834271 533750 650123 749891
  771018 418118 211063 923814 150908 500565 939398 838291 263680 264180
  730872 771740 557532 323196 237716  86820 603387 643380 783252 483136
-  36286  67397 251254 677192 575609 846678 204647 805131 797251 620583
- 988193 205598 323079 494167 785588 162143 613441 719120 166982 210582
+  36286  67397 677192 251254 575609 846678 204647 805131 797251 988193
+ 620583 205598 323079 494167 785588 162143 613441 719120 166982 210582
  576928 641703 977284 351645 869645 494937 358426 542730 865235 111526]</t>
         </is>
       </c>
@@ -19560,7 +19560,7 @@
         <is>
           <t>[259754 967130   8374 300400 339803 356718 133831 407879 762825 510252
  268079 774649  67690 510393 767956 103396 997856  59539 230909 892766
- 712685 219804 951687 761024 813476 506074 631286 766853  49331 385978
+ 712685 219804 951687 813476 761024 506074 631286 766853  49331 385978
  693098 722304 608652 875071 482498 937508 773750 524650 159701 145033
  361244 645926 952463 484375 253438 176802 427128 195301 331814 889389
  813496 637266 337494 635095 322052 908443 637267 387111   1093 672518
@@ -19596,11 +19596,11 @@
  757027 157911 492928 197937 397060 897861  77096 534997 431904  16323
  736264 120406  81874 439885 304130  99225 930474 980150 201978 159006
  897859 399563 831957 696240   8089  67415 378934 788638 277668 549875
- 705519  84867 797768 696257  99463 284358 990474 353053 913565 549628
+ 705519  84867 696257 797768  99463 284358 990474 353053 913565 549628
  386082 635879 696260 696239 485739 906273 666306 210745 990080 805686
  946843  50066  50067 647210 681383 854310 417145 590894 227189 451474
  831955 657111 957208 433368 696253 135978 696249 193846 990961 245222
- 666307 527716 507022 621720  67979 401977 491230 590374 970019 376664]</t>
+ 666307 527716 507022 621720 401977  67979 491230 590374 970019 376664]</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -19627,7 +19627,7 @@
           <t>[703665 881180 323399 951847 486250 323972 428229 744479 610993 864820
  528791  86487 100208 744451 550474 563043 530418 665397 569533 848930
  647300 269726 834176 580049 423600  93761 808896 559921 744088 815623
- 110757 117830 712410 767739 772225 804109   2941 355834  89383 939438
+ 110757 117830 712410 772225 767739 804109   2941 355834  89383 939438
  910380 398563   4382 353094 167976 621842 519511 361024 403436   4429
  291238 602967 831714 602494 524622 785502 615948 752381 440790 835034
  323969  92258 413184 212560 938630  85635 731730 870071 412709  92043
@@ -19758,10 +19758,10 @@
         <is>
           <t>[877265 204688 362341 535979 258405 535977 756504 840010 731474  19002
   56397  92974 503081 927510 598746 223521 898854 402903 643091 354982
- 335303 546293 746975 107854 952483 341621 730761 978477 895055 934529
+ 546293 335303 746975 107854 952483 341621 730761 978477 895055 934529
  788836  83621 681362 430019 632130 261463 328362 428631 645459 965141
  575312 679579 280124 341737 861162  66250 184693 771346 640714 338593
- 357752 303193 837326 797332  49605 103289 342801 377484 561455 561665
+ 357752 303193 837326 797332  49605 103289 342801 377484 561665 561455
  275909 911298 123029 827636 718571 697564 873560 330938 637617 464922
   59163 245508 641410 762212 495781 457380 488672 169862  99719 966041
  195261 646728 678383 678402 387951 342576 391042 401589 121459 563528
@@ -19860,7 +19860,7 @@
  260040 334786 598863 877552 737550 346413 847045 793674 701485 148340
  306415 233865 670147 926796 248684   7218 472963 172880 721856 869417
  827609 431491 160593 877445 594476 802715 714555  44578 330689 239717
- 506870 943207 598858 413368 554566 840161 903533 763102 145608 142237
+ 506870 943207 598858 413368 554566 903533 840161 763102 145608 142237
  697306 749784  22222 212077 539721 230774 677036 234388  87410 736922
   77874 816524 437847 201078 231341 656799 988746 304633 932670 299560
  281901 346816 821271 885623 251588 145893 755744 721656 597483 969986
@@ -19891,7 +19891,7 @@
           <t>[515329 343400 760446 300456 675085 545918  83607 329192 600146 465230
  412140 991470 115348  52606 451295 394243 692752 977043 508850 734305
  723809 677882 411254 612403 546186 923141 507114 919016 598110  52581
- 701271 448776 448804 802437 544382 822536 127753 683540 513608 526246
+ 701271 448804 448776 802437 544382 822536 127753 683540 513608 526246
  941860 981231 114626 618014 681347 150134 666275 723792 163326 637450
  394035 134583 173229 372687 734459 633961  60732 169433 560605 933994
  248639 741045  99871 142470 650587 183708 916682 381828 882268 363460
@@ -19927,7 +19927,7 @@
  705900 373397 122634 210470 228979 351770 560597 628058 309137 277847
  498220 994090 869634 519466 821729 658885 877506 687274 267004  51706
  754202 717402 851036 550266 380706 168880 101649 903833  57582 306376
- 259060 334111 684241 884770 930877 316041 560342 205935 358990  12811
+ 259060 684241 334111 884770 930877 316041 560342 205935 358990  12811
  887097 845742 438097  51896 188131 885230 488678 893711 837478 742059
   46747 293478 109800 787431 421430 955507 939050  87057 156643 272123
  277579 895486 957518 613106 996073 881888 416298 133678 228613 920351]</t>
@@ -19954,7 +19954,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[ 57792 205376 425951 317085 708833 247384 678663 161496 708963 300183
+          <t>[205376  57792 425951 317085 708833 247384 678663 161496 708963 300183
  397688 167031 674845 700768  72054 644401 177432 753369 794189 552406
  623849 626099 866148 637267 324582 563174 125551 224692 637266 806652
  956897 287682  76912 706467 915111 909166 554243 881668 574627 669859
@@ -19990,13 +19990,13 @@
           <t>[634325 627301 962043 126696 359003 238820 700762 937693 957251 583055
  761248 110292 557691 429878 685150 616915 318150  66816 363639 980499
  959484 230235 568833   9312 250956 985338 719933 299124 274158 187814
- 946348  87221 738602 950412 653238 127784 213175 825123 955271 285755
+ 946348  87221 738602 950412 653238 213175 127784 825123 955271 285755
  265356  24265  14743 266876 225844 927376 131458 280833 824042 961078
  146449 589987 205796 486028 989114 578159 346701 249081 884920 745918
- 550115 176263 920282 784910 507988 396349 224150 341592 146426 881705
+ 550115 920282 176263 784910 507988 396349 224150 341592 146426 881705
  814725 734308 383074 177750  56820 629236 160521  39854 162350 884461
  346227 815534 958962 511098 688780 359627 960926 680160  52396 612204
- 894303 998120 160368 152914 115104 406056 572728 821071 547417 565277]</t>
+ 894303 998120 160368 152914 406056 115104 572728 821071 547417 565277]</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20060,7 +20060,7 @@
  436349 755535 129804 870693 301213 855237 251561 194730  32570 311289
  331502 507739 626606 608653 840329 273087 272103 643959 360020 352845
   17046 761510 878070  23289 339523 359504 410477 297564 834804   2760
- 352860 910791 954376 617158 712323 145139 192742 444452 796574 796603
+ 352860 910791 954376 617158 712323 145139 192742 444452 796603 796574
  382977 811173 214485 791916 350617 376450 566607 637268 906079 818868
  868737 375885 305340 162209 610073  57727 586458 482161 353160 239741]</t>
         </is>
@@ -20094,7 +20094,7 @@
  859478 419449 522942  98246  42597 508857 808290  21692 883760 699053
  815928 951611 349296 247238 699062 903147 293552 563420 512497  98984
  114737 500919  15624 796706 978713 897031 559600 991503 249351 289749
- 378148 228005 558118 121010  49407 668322 407015 411869 227026 348129
+ 378148 228005 558118 121010  49407 668322 411869 407015 227026 348129
  201443 327424  17064 335882 420362 740829 212739 508872 792240 228548]</t>
         </is>
       </c>
@@ -20121,7 +20121,7 @@
         <is>
           <t>[164570 878717 133831 181269 143910 757615 918814 375885 184743 305340
  517676 431910 746953   2760 321467 377356 769180 411235 669619  34377
- 926195 174561 164584 746950 800339 529706 834804 389976  44169 198411
+ 926195 174561 164584 800339 746950 529706 834804 389976  44169 198411
  586458 472975 337663 350660 420894 370823 527964 517115 737000 503455
  402145 815731 508984 472795 165581 630376 755535 222074 389957 184202
  192742 216482 823363 884820 667282 866405 369332 184218 613216 187891
@@ -20185,13 +20185,13 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>[213185 448887 132746 785386 886402 806925 485047 732523 389990  69895
+          <t>[213185 448887 785386 132746 886402 806925 485047 732523 389990  69895
  178614  64561 410502 260322 444242 742034 806924 698626 848261 323752
  201465 466120 806927 844355 609229  94817 806930 806931 849544 575244
  157434 525379 653276 459803 210172 632666 806926 487292 911590 172448
  122966 681020 798884 529235 790596 874217  40934 144602 834976 132736
  785380 477383 224642  28885 237497 162694 502446 285727 286988 422683
- 812577 968627  11096 132742 785385 594447 781364 630330 545130   1687
+ 812577 968627  11096 785385 132742 594447 781364 630330 545130   1687
  232816 686715 388366 378165 975010 460638  72736  30454 775907 723262
  578447   3965 552892 434063 593789  76154 944725  14212 110768 677920
  172471 746522 339070 611494 233736 331621 616318 782220 779018 276513]</t>
@@ -20258,7 +20258,7 @@
  102382 243854 775133   2118 453492 156885 344638 937991 116650  50546
  639423  35311 191728 559378 631147 831410 830777 700272 973101 294213
  170834 825221 572110 273418 553463  28128 650188  27923 605135 706466
- 214592 968520 237410 129959 659422 332560   3931 892971 892993 917767
+ 214592 968520 237410 129959 659422 332560   3931 892993 892971 917767
  663733 935033 582453 608441 508664 126611 970789 553899 300090 371485
  443929 651051 368298 279933 650785 971531  78153 103522  58948  87003]</t>
         </is>
@@ -20284,12 +20284,12 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>[535355  12240 835232 998504 280395 245327 917791 994625 848966 785752
+          <t>[535355  12240 835232 998504 280395 917791 245327 994625 848966 785752
  333830 521915 645225 642171 766282 599539 758860 690112 756691 884545
  845584  87777 765915 719092 918222 390453  18574 544806 260668 169855
  686914 818939 393595 572803 956897 116845 626399 572855 417339 611733
  985459 384341 346890  82349 178341 175455 391241 280821  64649 321886
- 276581 428598 145061 579718 366132 763090 238587 333811 214745 214773
+ 276581 428598 145061 579718 366132 763090 238587 333811 214773 214745
  991024 507221 178337 363260 238573 970487 510980 318142 453226 570720
  131170 175082 733699 276554 659352  42914 457563 430510 333824 266488
  620691 390470 825265 840489 328753  54429  93172 733700 201020 161496
@@ -20319,8 +20319,8 @@
         <is>
           <t>[613746 670503 646157 329590 737343  77194 830607  18161 390077 852726
  649559 154067 375305 218916 304344 958041 793971 304331 356736 983970
- 764403 422189 291575 209479 643157  61058 228863 695199 245563 634755
- 871160 250785 983971 600098 297216 256068 486585 721455 512324 901758
+ 764403 422189 291575 209479 643157  61058 228863 695199 245563 871160
+ 634755 250785 983971 600098 297216 256068 486585 721455 512324 901758
  970635 565478 239006 812218 248476 130017 831080 778811 505701  90985
  630361 529709 620398 350159 765973 266572 369009 433492 532690 492317
  713110 852725 361666 549018 734441 935891 361660 338475 543288 919416
@@ -20385,7 +20385,7 @@
         <is>
           <t>[442047 164594 984286 787224 559509 888157 539728 766859 846548 765000
  627144 581203 196854 713240 860306 473396 663178 252295 409862 733971
- 538011 387635 791584 919353 127256 828361   4449 280012  25689  27191
+ 538011 387635 791584 919353 127256 828361   4449 280012  27191  25689
  670065 193610 763972 934304 179195 600506 420201 166595  84861 251421
  223954 662342 727999 365468 234471  58969 241938 149820 973152 440929
  826743 165569 843557 713841 879998 580259  96732 165398  57277 527333
@@ -20420,7 +20420,7 @@
    6084 654638 352114  59420  50925 710115 934154 470924 822584 806254
  875639 610820 829782  28319 227253  73100 455389 878231 382921 829806
  308807 795922 264126 103195 710110 913521 903698 423152 799494 266005
- 758137 615332 302075 791412 876282 873522 873762 806444 577062 449549
+ 758137 615332 302075 791412 876282 873762 873522 806444 577062 449549
  669448 948325 413472 487323 573403  45657 829496 539114 590173 916185
  685503 878157 838260 261320 946645 802730 180243 495971 958694 681483
  255715 201396 275571 980904 826884 672351 226824 978680 100597 439913
@@ -20455,8 +20455,8 @@
   33725 614534 520155 300061 256356 870708 300090 341292 300219 796922
  284728 210718 679081 703617  76441 197327 320768  33927 142563 742566
   21105 103522 706466 455409 433860 112697 776480 249924 191728  52407
- 887766 400049 212962 358190  73590 939957 465262 173106 473355 542481
- 386379 925319 129703 717574 717614 697952 386678 314958 451309 273831
+ 887766 400049 212962 358190  73590 939957 465262 473355 173106 542481
+ 386379 925319 129703 717614 717574 697952 386678 314958 451309 273831
  337322 129959 396391 527052 846875 188386 878314 699140 249249 134184
   57748 425326 287770  26934 203264 243854 479998 896853 961222 561852]</t>
         </is>
@@ -20484,12 +20484,12 @@
         <is>
           <t>[922455 745261  65825 190814 250876 412986 653867 313599 247429  63713
  568388 242031 900547  22653 274294  66504 232072 412690 308272  20897
- 402049 910670  20890 621396 880020 961635 654423 707714 811045 829880
- 376684 415015 679269  71371 849026 315083 907401 719693 786021 417779
+ 402049 910670 621396  20890 880020 961635 654423 707714 811045 829880
+ 376684 415015 679269  71371 849026 907401 315083 719693 786021 417779
  787781 798017 156527 576599  67177 709667  94576  19592 317072 590670
  477658 654416 317419 305651 412005 135266 320136 605515 443469 367197
  238661 671512 770776 568443  96328 112425 303564 942001 286439 325390
- 800323 936582 696677 653876 101822 548656 925368 149999 399334 929306
+ 800323 936582 696677 653876 101822 925368 548656 149999 399334 929306
  625320 101838 771285 576064 555633 491138  35366 193244 354742 526313
  589655 461449 797723 829998 558358  29769  68870 937623 597205 406116]</t>
         </is>
@@ -20554,7 +20554,7 @@
  588350 752689 222573 715028 847815 134260 559251 988145   8283 688767
  479754 163014 813953 596412  83486 991033 363788 981822 991215 312238
  461494 653565 115934 655448 282437 353006 899235 788347 124947 573216
- 824032 848736 286032 848456  80566  80591 947202 927982 780820 921482
+ 824032 848736 286032 848456  80591  80566 947202 927982 780820 921482
  161734 630123 556102 582643 322308  48521 210424 986159 308685 257465
  114159 677189 850912 100361 526823 426660 308677 328962 397960 226653
  397989  94457 116595 924556 794510 762620 499760 961089 389513 404719]</t>
@@ -20584,8 +20584,8 @@
           <t>[355834 689410 810158 711338 846716 322223 888067 984365 883206 889934
  420219 864958 293949 712513 490473 307386 866582 495191 549750 625081
  817629 729405 573616 616330 305266 853626 470931 536034  60776 434496
- 383655 661367 233821 616339 616230 812247 284810 465289  80266 267080
- 267102 521696 328254 565986   1191 229046 879117 315516 998918 432223
+ 383655 661367 233821 616339 616230 812247 284810 465289  80266 267102
+ 267080 521696 328254 565986   1191 229046 879117 315516 998918 432223
  851908 773476 965195 513126  79232 461958 485935 890273 559209 374070
  180986 196272 403463 619463 771746 752621 367114 125190 146511 972891
  202951 113355 990885 232086 115537 199790  23755 315950 966413 349417
@@ -20623,7 +20623,7 @@
  293599 791013 740860 373710 178146 264137 768207 387902 132742 785385
  994409 624421 401440 553906 684736  44527 532345 334247 825248 100496
  351868 289563  88074 270025 169562 483777 342848 379850 303269 100498
- 133831 484375 673917 107649 620999 701674  67690 372579 372608 856696]</t>
+ 133831 484375 673917 107649 620999 701674  67690 372608 372579 856696]</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -20649,7 +20649,7 @@
         <is>
           <t>[ 67618  42233 530280 422185  25871 766441 223359 517782 856426 663428
  260355 715102 795915 465685 454782 379978 528138 530281 442524 704121
- 859888 994095 627903 723656 433864  42217 672996 517979 795900  28475
+ 859888 994095 723656 627903 433864  42217 672996 517979 795900  28475
  815827 739980 980590 277620 441058 390469 166646 627787  15431 433866
  845282 512019 132647 727157 379981 380220 804000 423613 304737 480773
  578852 910151 498589 611032 845272 864831 752304 239085 766104 773207
@@ -20716,11 +20716,11 @@
           <t>[141916 534302 629321 843403 479861 570559 440950 821240  55487 250210
  233266 917747 762006 685137 570790 763041 958573 658151 171775 973732
  823441 743002 368645 193236 762760 547370 923754 397819 189584 643718
- 633738 814850 970455 478658 479178 646949 381541 273317 727383 455253
+ 814850 633738 970455 478658 479178 646949 381541 273317 727383 455253
  672274 310697 164222 924940 428607 647615 552983  91474 674640 614241
  587267 673998 539957 422965 728374 646774 970442 454815 288066 676064
  196427 584728 275629 596830 437741 557850 303883 248792 580687  76153
- 389251 765987 509899 448840 876673 744043 977374 566209 566224 738932
+ 389251 765987 509899 448840 876673 744043 977374 566224 566209 738932
   33460 397589  97268 732593 648783 193311 725987 674729 280035 656688
  180431  35498 291678 762151 795286 617024 900181 336498    263 872252]</t>
         </is>
@@ -20746,14 +20746,14 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>[620520 629698 840268 290917 730775 782550 212604 263527 220241 482021
+          <t>[620520 629698 840268 730775 290917 782550 212604 263527 220241 482021
  775398 210947 987684 217351 782551 243560 192744 634738 630361 298536
  843662 309052 791752 791705 517089 636089 594821 105557 574096 633551
  298459 436420 743609  35439 786279 426062 592228 918832 743612 210951
- 602041 178605 786674 879964 220065 162054 178147 249679  29536 200351
+ 602041 786674 178605 879964 220065 162054 178147 249679  29536 200351
   27795 388344 202357 356736 280703 430715 601377 613747 338031 315838
- 998234 885785 202368 299458 404936  29559 722123 512602 585246 690401
- 244367 561812  22750 757338 241090 386205 828964 933561 133217 542027
+ 998234 885785 202368 299458 404936  29559 722123 512602 690401 585246
+ 244367 561812  22750 757338 241090 386205 933561 828964 133217 542027
  928098 678261 131432 169468 827234 625198  29523 276806 145791 793041
  719363 469160 389322 844337  26135 960226 324322 738029 696157 290516]</t>
         </is>
@@ -20782,7 +20782,7 @@
           <t>[307116 809057 207956 883706 990533 328510 813386 912526 636753 674594
  420315 389513  40638 533630 176503 570809 247110 675436 408034 251783
  556719  58958 620990 434535 340501 247189 686297 420289 878600 916628
- 438705 573790 556188 777836 722935  83512 778406 831868 580486 419712
+ 438705 573790 556188 777836 722935  83512 831868 778406 580486 419712
  356218 684674 176254 748779 898907 206873 716045 940197 123746 717994
  751343 867554 742210 994926 718301 430153 243285 682837 159260 174170
  899763 309253 434945 341481 450604 710010 648497 265977 830852 517371
@@ -20812,12 +20812,12 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>[ 95339 890180 890241 209657 175792 234605 846612 364198 818034 866056
+          <t>[ 95339 890241 890180 209657 175792 234605 846612 364198 818034 866056
  773437 706873 458320 809564 665117 672925 935817 862544 908480  37247
  382016  57677  79931 886267 758422 326005 680442 481241 831862  67625
  557750  45647 581231 116159 769961 878511 886186 691192 591746 366707
  378478 435098 445927 601216 302296  10037 655270 254532 213940 753523
- 916576  58240  75290  12192 334132 123408 986831 986866 957916 636237
+ 916576  58240  75290  12192 334132 123408 986866 986831 957916 636237
  680443  84123 753328 135014 938792 269647 283835 917969 598754 915629
  458316 475269 963565 989437 489999 896982 857112  77291 613477 476529
  949080 716644 896478 299334 384243 817031 401273 327204 621944 764950
@@ -20851,7 +20851,7 @@
  771277 758126 135276  50237 949821 447678   8872 236595 721476 170152
  999977 871382 227311 985449 338304 512579 701894 822990 686053 675501
  571925 976767  86350 972813 399737  86505 119264 550292  65427 407769
- 445206 881180  46354 808915 451191 119278 218655  75057 867805 227293
+ 445206 881180  46354 808915 451191 119278 218655 867805  75057 227293
  227775 579175 893082 124942 507203 520976 429822 460768 308079 388187
   24635 822322 699914 152048 353225 353698 338145 414568 605803 396588
  716872 513804 396074 323907 189630 808941 873791 678705  38700 742659]</t>
@@ -20911,12 +20911,12 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>[765391 875285 804949 685661 767934 251990 670268 848829 824944 925163
+          <t>[875285 765391 804949 685661 767934 251990 670268 848829 824944 925163
  784534 996084 290234 290255  31132 858869  58109 775266 554821 581825
- 731193 955202 734139 881649 446569 115989 328359 977095 724672 367095
+ 731193 955202 734139 881649 446569 328359 115989 977095 724672 367095
  367270 537782 884343 463842 366186 251519 140959 383473 467875 832032
- 913480 702763 258489 262298 974315 108353 108382 669788 648558 969908
- 530986 519104 891507  35742  26242 937085 305466 690640 463472 463496
+ 913480 702763 258489 262298 974315 108382 108353 669788 648558 969908
+ 530986 519104 891507  35742  26242 937085 305466 690640 463496 463472
  193327 134031  56154 614905 184671 516240 498888 490687 759377 533072
  320608 378206 490329 173255 140815 180180 147347 732764 565925 519135
  265977 258402 884337  17689 825753 843518 502514 381070 334521 659510
@@ -20985,7 +20985,7 @@
  482764 296393 268220  78978 611111 927758 795657 767861 700339 168314
  518560 477454 277278 800629 948073  16390 677855 149976 322030 523480
   25211 429141 518164 870220 689918 353178 801170 660003 367983 157391
- 381282 696185  96155 683680 861844 145176 197324   9898 977131 145855
+ 381282 696185 683680  96155 861844 145176 197324   9898 977131 145855
  526522 693822   1851 145005 666877 857752 508035 986445 796549 803874]</t>
         </is>
       </c>
@@ -21045,8 +21045,8 @@
         <is>
           <t>[245198  22392 606604 978492 766871 323278 760349 974073 456663 458207
  251628 683228 399196 749487 123197 218222 464675 258610 351560 672048
- 677093 136888 861559 184220 100498 432636 670551 605895  55179 629858
- 589557 351755 334247  22396  49822 542355 417371 871740 539671 108688
+ 677093 136888 861559 184220 100498 432636 670551 605895 629858  55179
+ 589557 351755 334247  22396  49822 542355 871740 417371 539671 108688
  741881 489926 919047 416820  12193 712171 520808 232358 853155 721675
    6276 965423 310644 111810 730387 173237 812615 615119 303772 530465
  558972 767356 794717 169715 417365 486620 697225 935794 264143 898845
@@ -21078,8 +21078,8 @@
         <is>
           <t>[168669 219628 959845 702222 564775  32342 576578 836870 477815 348868
  292219 195768 709379 704098 284501 927104   2887 394408 147788 251152
- 384416 973374 233306 374262 860178 587028 745782 995773 615731 355271
- 554396  18020 870072 196440 783369  66982 984539 938656 790854 237427
+ 384416 973374 233306 374262 860178 587028 745782 995773 615731 554396
+ 355271  18020 870072 196440 783369  66982 984539 938656 790854 237427
  613569  57139  40162 645714 373543 338179 503794 616132 860005 409224
  671531  73925 408051 816758  82420 619093  71164  18046 650211 650261
  242406 780724 916734 649675 914876 351914 465618 830069 559398 900597
@@ -21180,7 +21180,7 @@
  142710 111959 365252 333726 769383 680368 371137 318727 486202 210493
  340647  75860 141784 904731 103381 581344 578487 357209 158088 630772
  726499 464236 922894   2605 886511 293444 805146 451993 788364 928065
- 871868 243165 281216 364978 367211 772047 972597 128354 836123 103382
+ 871868 243165 281216 367211 364978 772047 972597 128354 836123 103382
  108195 174112 137958  54542 661917 810794 122555 374528 390825  26810
  617929 809836 596921 761461 754496 207607 145687 390549 707131 940897
  388935 314485 446031 836147 541582 434935 991087 821056 542684 253355
@@ -21213,7 +21213,7 @@
  111571 571430 794717 387592 243278 577368 564998 985450 180309 227131
  416820 891776 699605 250838 118190 805070 488287 512744 662663 685408
  716101 859820 685410 581102 498322 761113 110090 725759 276469  81603
- 320054 409234 621509 671887  31288 107120  55982 145714 575514 371723
+ 320054 409234 621509 671887 107120  31288  55982 145714 575514 371723
  741863 573227 641648   2766 200941  29855 598497 667534 348204 984076
  984054 475563 678212 822643 523619   2287 588572 631360 399404 565015
  929435 283933 293157 522280 725461 336624 180328 570720 741838 785504
@@ -21250,7 +21250,7 @@
  726353 856853 768179 456576 553896 519493 439230 792845 666830 499861
  247453 690039 923555 333342 520547  93099 559925  33426 175124 431054
  789211 212096 341280 461331 921818  68409 488207 399952 857208 583590
- 101514  14110 722946 424577 938392  93120 265435 708626 936623 847925]</t>
+ 101514  14110 722946 424577 938392  93120 265435 936623 708626 847925]</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21316,7 +21316,7 @@
  239343 500050 349395 614324 597902 684088 183658 436481 129699 715757
  386290 472899 473865 462786 423477 275433 264889 294976 763041 108574
  770117 626255 278028 116885 717547 245994 752922 212080 991469 355003
- 905198 248187 386078 382645 667613 667638 988152 441482 580793 703436]</t>
+ 905198 248187 386078 382645 667638 667613 988152 441482 580793 703436]</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21412,8 +21412,8 @@
  554846 352082 124407 925487 538125 633454 452254 433094 999845  61164
  754486 573990  58326 684790 379774 723322 985686 630254 395941 819539
  196697  68135 736400 765381 523332  30874 118656 864458  59624 803290
- 703539 826959 674804 931013 108792 516930 708129 598404 250199 606023
- 826987 396414 838484 540288 232649 232679 882680 198235 479865 738795
+ 703539 826959 674804 931013 108792 708129 516930 598404 250199 606023
+ 826987 396414 838484 540288 232679 232649 882680 198235 479865 738795
  490708 546995 392586 111273 153401 634747 871153 352046  30930 986446
   49962 783278 249223  55616 363172 218720 479342 733073 711277 974069]</t>
         </is>
@@ -21476,8 +21476,8 @@
  489987 939931 798389 716889 210579 381336 361203 260922 116203 939801
   98697 582072 629591  34822 834982 495268 991583 494069 552328 145685
  139088 759076  45408 815838 606852 266068 469952 143833 199387 970272
- 296531 500793 856412 394319 471335 393270 547866 408158 513260 599366
- 894008 561680 400340 814364 652942   5442 623066 278911  79028 794774
+ 296531 500793 856412 394319 471335 393270 547866 513260 408158 599366
+ 894008 561680 814364 400340 652942   5442 623066 278911  79028 794774
  794850 516190 210600 410492 630616  25803   1021  42776 801009  69663
  211079 655022 762814 273318 626615 862109 689245  15114 580693  81076
  529274 561684 955107 843068 227827 346791 724639 948512 476643 325494
@@ -21540,7 +21540,7 @@
         <is>
           <t>[174220 905418 809700  24026 699053  50749 699062 730849 152445 808290
  791402 186580 350250 618135 413381 795787 656976 388038 313906 185049
- 482404 554394  48313 146874 897102 379031 290150 256521 435144 611214
+ 482404 554394  48313 146874 897102 379031 290150 435144 256521 611214
  350350 935795 402470  28775 712350 664188 635543  12181 138679 693048
   34538 356685 219023 413200 776078 496365 506344 945962 177653 708319
  287327 155704 558555 282466 275401 134062 255117 642362 337448 690435
@@ -21643,9 +21643,9 @@
  574494 773929 786803  40849 288851 243965 286402 298839 777782 287062
  908483 930498 502988  33189 334659  45816 729489 706874 106324 722997
  354731 455694 575561 308970 885184 853506 146510 719567 627855 176294
-  34472  76488   1024 711613 826805 973775 439288 382407 694961  47041
-  47277  47427  47456  47604  47636  47668  47720  47759  49091  95503
-  95527  95587 734384 655357 627179 109393 539950 768578 579619 655280
+  34472  76488   1024 711613 826805 973775 439288 382407 694961  49091
+  47668  47427  95587  47604  47636  95527  47456  47041  95503  47759
+  47720  47277 734384 655357 627179 109393 539950 768578 579619 655280
  499873 491395  16290 762081 111270   2765 325688 885430 541498 628694]</t>
         </is>
       </c>
@@ -21707,7 +21707,7 @@
  831850 852673 489874 821740 952064 942148  12826 310099 605529 435536
  866979 981705 730640 774410 747501 373437 857065  53327 917320  19100
  776702 311037 414119 112564 537026 299318 668749 571108  10077 489904
- 927011 956625 455808 722762 368616  54511 868019 868952  96449 825600
+ 927011 956625 455808 722762 368616  54511 868952 868019  96449 825600
  376032  88758 769013 169817 346951 676343 787652 227355 240578 779197
  355428  97309 457261 775321 753079 998159  89826 205396 537802 128779
   57530 391330 120911 842627 327028 286018 460508 609046 526557 799537
@@ -21776,7 +21776,7 @@
  375047 146558 797785 668757 559198 670544  16284 710666 640335 694365
  249322 542418 418312 422327  20517 918895  91015  44719 506510 593276
   77287  20531 407503 407531 669290 461772 940906 479317 536296  91391
- 811023 935582 826763 403828 451210 201222 851672 560948 489769 932536
+ 811023 935582 826763 403828 451210 201222 851672 560948 932536 489769
  466871 935493 814366 969285 838617 441967 661783 392206 488207 676316
  215116  83607  45093 521304 910684  43983 229251 753299 671450 224355]</t>
         </is>
@@ -21805,7 +21805,7 @@
           <t>[101338 414491 203173 909675 181579 933200 232716 898537 988372  93069
  220098 953825 598362 884193 306853 950317 341536 940815 617748  10253
  348682 317987 286043 999844 716385 430495 637445 282491 491711 885204
- 588304 880746 299429 868282 727253 746459 940819 714285 942349 595291
+ 588304 880746 299429 868282 727253 940819 746459 714285 942349 595291
  871273 767879 455775 706838 108795 125812 203292 191867 857552  13090
  449294 955693 238791 740927 717242 594076 348641 630410 874003 637444
   51689 997750 950443 297080 143549 291094 865536 414338 646304 555827
@@ -21843,8 +21843,8 @@
  769212   6049 429317 646367 377182 246562 829088 717472 402145 758293
  944571 939269 724158 770137 219477 118594 861706 440747 479840 344179
  964066 651560 426109 308792 529671 902965 646015 690102 299564  63321
- 359634 792019 132820 220143  87630 424805 472110 472257 683583 760894
- 785120 871228 849009 507402 286139 631305 191548 223898 179343 587191]</t>
+ 359634 792019 132820 220143 871228 472110  87630 785120 760894 472257
+ 424805 683583 849009 507402 286139 631305 191548 223898 179343 587191]</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -21940,7 +21940,7 @@
  643027   5229  29170 380064 843068 698674 634396 322869 207051 641301
  861655 841172 441679 220877 310795 292474 872047  42407 465834 866185
  679366 402274 465203 773056 524195 617545 183525  78775 336822 600511
- 286472 927247  75763 843727 591986 635010 647389 386976 927480 520381
+ 286472 927247  75763 843727 635010 591986 647389 386976 927480 520381
  791602 761423 692905 349679 600246 110496 769799 798090 524878   4565
  351861 481184 301373 622594  60887 555008 544592 778642 922569 541987
  136845  81333 113384 104335 186083 654161 310823 838782 185231 165238]</t>
@@ -21974,7 +21974,7 @@
   60887 861655 866185 838111 110496 369906  77313 222874 929238 679366
  804183 142210 618115 198482 853506 583508 348641 846648 870787 203627
  590039 364860 253182 674278 441679 201304 652736 103634  69787 186083
- 927480 455381 658920 637609  93121    117 584761 868112 301373 622594
+ 927480 455381 658920 637609  93121    117 584761 868112 622594 301373
  524878 591986 635010 386069 765035 140753 334151 289536 727402  83075
  124537 341816 950107 694905 104617 694961 674138 798090  18661 386976]</t>
         </is>
@@ -22008,7 +22008,7 @@
  112352 884362 240713 186083 835440 971696 971688 597569 553977 906155
  598205 609862 421370 165065 172017 252937 774147 734266 976051 767815
  765753 325688 782658 588385 796791 940936 419440 986296 434280   1913
- 464890 686609 291817 735624 574957  58409 154351  47484  47691 461348
+ 464890 686609 291817 735624 574957  58409 154351  47691  47484 461348
  920090 494690 718756 856273 816941 482384 842494 796101 991374 787144]</t>
         </is>
       </c>
@@ -22034,9 +22034,9 @@
       <c r="B656" t="inlineStr">
         <is>
           <t>[317210  31271  92054 780345 135366 860321 786238 336822   8841 188549
- 470721 923575 278388 769799 652736 798089 591986 635010 866185 113384
+ 470721 923575 278388 769799 652736 798089 635010 591986 866185 113384
  227352 504706 643027 698674 374711  75410 927247 125734 679366 955734
-  69787 954083 301373 622594 846648 843727  45434 868112 220877 465203
+  69787 954083 622594 301373 846648 843727  45434 868112 220877 465203
   60887 253968 950072 617545 520381 798090 927480 773056 791602 524195
  539950 373869 351861 292474 843068  60654 749016 868803 923313 762594
  457618 634396 351862 273006  29170 512456 310795 848582 126280 494842
@@ -22165,7 +22165,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>[305307 373096 807626 247968 767066 353571 525728 525761 758288 422709
+          <t>[305307 373096 807626 247968 767066 353571 525761 525728 758288 422709
  403063  37839 581734 949493 851258 873449 572653 905213 505799 688837
  571237 913669 190283 481133 130494  78359 972140 682261 596814 808270
  780366  21112 173427 256087 335287 909740 543143  41444 450751  28959
@@ -22235,7 +22235,7 @@
  683006 891555 477787 450726 537638 226322 611447 531346 481132 765932
  594927 444165 680070  97812  22447 629699  34387 592215 742065 158264
  652616 718657  38077 134657 462393 842101 566460 143291 490277 138970
- 729459 732144 659958 659983 619932 866678 884416 670359 767745  20296
+ 729459 732144 659983 659958 619932 866678 884416 670359 767745  20296
   67683 862166 274564 428458 821471 406634 659024  24895 428690 507229
   51926 790626  11041  76187 935560 625366 633289 959160 257629 349223
  722239 321492 990221 671896 368504 293911 814324 574553 778460 944840
@@ -22370,7 +22370,7 @@
   35545 126386 386745 335715 302736 932905 901667 205231 148148 293059
   31341 416515 449996 920180 588013 708856 333175 444492 449814 111724
  476481 936951 212643 577239  89303 185852 173968  30867 564389 188611
- 363718 512874 987982 217100 217113  51564 443311 287327 943721 164029
+ 363718 512874 987982 217113 217100 443311  51564 287327 943721 164029
  333724   5786   5876 578101 859059 444848 918239 441399 247082 997017
  601564 236346 484398 118772 182561 722712 723036 782687 760531 964184]</t>
         </is>
@@ -22429,8 +22429,8 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>[582748 967739 606553 421789 467061 149580 185518 233869 419977 449189
- 449210 733009 763993 733006 733001   5276  21439 810168   5292  73371
+          <t>[582748 967739 606553 421789 467061 149580 185518 233869 419977 449210
+ 449189 733009 763993 733006 733001   5276  21439 810168   5292  73371
  312756   5285 732990 744909 614006 114817 489761 957939  80316 189255
  568857 671698  31548  19424 867554 522852 487881 346286 605458 262619
    3041 613119 123181 435055 243273 808303 673588 419803 766476  45711
@@ -22464,11 +22464,11 @@
         <is>
           <t>[ 15013 680721 897915 934584 989861 728441 699602 554417 971347 954006
  882373 110852 337481 151864 416745 416772 986063 737556 450626 172658
-  94147 306266 632279 992927  46841 162396 351332 245866 973690  50868
+  94147 306266 632279 992927  46841 162396 351332 973690 245866  50868
  636685 100930 868084 179564  46842   5548  50966  94113 558545 884483
  862809 365536 834933 726974 762611 168325 829859 220002 731454 244544
- 842789 571656 413260 110148  74903 126848 443242 126835 676658 210754
- 768699 329784 464864 469284 987568  44975 860685  86326 820408 892023
+ 842789 571656 413260 110148  74903 126848 443242 126835 676658 768699
+ 210754 329784 464864 469284 987568  44975 860685  86326 820408 892023
   95773 744655  33908 566131 976319 723880  94107  94132 309580 611213
  256941 246422 338565 597723 956149 894928 636720 357115 861803 504112
  567130 322226 823394 706192 580136 999462   3536 797513  46557  27879]</t>
@@ -22502,9 +22502,9 @@
  676245 238327  59113 226460 622613 699062 693048 394784 869855 269589
  798540 326109 930516  91239  57614 962596 434572 881026 256947 816201
  683840 952789 121837 189420 400687  19432 565265 503688 380114 615530
- 243658 508962 766616  74227 437965 296742  63365 715362 475279 743098
+ 243658 508962 766616  74227 437965 296742 715362  63365 475279 743098
  382470 757447 379031 521941 847524 787150 550190 258825 584643  25417
- 384633 421492  70627 386490 845758 126472 804777 641569 400705 272851]</t>
+ 421492 384633  70627 386490 845758 126472 804777 641569 400705 272851]</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -22529,12 +22529,12 @@
       <c r="B671" t="inlineStr">
         <is>
           <t>[301588  17879 296013 293418 381684 449501 404764 958522 257722 833668
- 967321 565920 749960 772925 992234  16783 705140 190449 669342 735945
+ 967321 565920 749960 772925 992234  16783 705140 190449 735945 669342
  289045  45238 827465 671152 713756 118435 964315 263833 125202 409961
  352141 728251 578677 269216 849133 275867 135941 686147 565896 240618
  595862  40660  61835 549354 296584 545058 830264 766306 395199 636036
  388904 208050 635194 596321  35980 136131 930347 674926 214977 145901
-  57447 667073 876712  41814 766369 809687 173500 222599 198465 164979
+  57447 667073 876712  41814 809687 766369 173500 222599 198465 164979
  766304 753592 831389 698440 860840 423589 133595 872181 148269 813520
  370235 396758 822971 954130 400017 524112 343897 747818 884580 203105
  795651 607382 797312 191002  58948 465721 959343 601428  92346 920867]</t>
@@ -22561,7 +22561,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>[217300 140530 823993 753369 794189 600085 482552 395327 766065 927830
+          <t>[217300 140530 823993 794189 753369 600085 482552 395327 766065 927830
  657665 716702  19188 252119 875992  17149 110874 699075 272537 717678
   40048 774814 463023 951275 117057 128735 224964 841519 616085 956821
  929839 774372 778306 500713 267962 530192  67018 570898 847412 464774
@@ -22595,7 +22595,7 @@
       <c r="B673" t="inlineStr">
         <is>
           <t>[657665 217300 717678 600085 823993 140530 252119 745115 117057 356926
- 314655 956455  46433  30096 280599 758616 889231 753369 794189 126149
+ 314655 956455  46433  30096 280599 758616 889231 794189 753369 126149
  716702 769556 536347 149656 353045 500713 930872 287023 296505 525803
  910211 894410  67018 847412 787583 300070 464774 514985 912917 177246
  719339  17326 378733 335512 134501 173835 342142 981037 812216 927830
@@ -22669,7 +22669,7 @@
  548593  66957 234908 850109 399308 738161 353234 747711 689586 349145
  576586 738157 183572 746223 576051 313279  75332 952095 796781 291920
  320259 182660 761496 513905 242570  91699 676947 752816 666890 752806
-  56123  75093 867834 597333 480100 290233 290263 412009 597362 348618]</t>
+  56123 867834  75093 597333 480100 290233 290263 412009 597362 348618]</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -22677,7 +22677,7 @@
           <t>[1.1615 1.167  1.167  1.17   1.1795 1.1802 1.1804 1.1829 1.1855 1.1872
  1.1872 1.1894 1.1924 1.1929 1.1934 1.1944 1.1951 1.1954 1.1959 1.1967
  1.1978 1.1987 1.1989 1.199  1.2005 1.2008 1.2036 1.208  1.2083 1.2085
- 1.2088 1.2091 1.2103 1.2106 1.2116 1.2119 1.2121 1.2122 1.2128 1.2136
+ 1.2088 1.2091 1.2103 1.2106 1.2116 1.2119 1.2121 1.2121 1.2128 1.2136
  1.2136 1.214  1.214  1.2142 1.2153 1.2154 1.2154 1.2182 1.2188 1.2203
  1.2209 1.2217 1.222  1.2222 1.2245 1.2248 1.2248 1.2253 1.2256 1.2267
  1.2267 1.2269 1.2271 1.2277 1.2279 1.228  1.2286 1.2287 1.229  1.2297
@@ -22733,7 +22733,7 @@
  272246 738963  94488 781104 363965 519243 239517 673206 441017 883144
  344607 150292 292581 840240 302149 219397 669976  10550 956496 166448
  637457 273046 143719 952413 627486  22428 429490 773503 340451 575351
- 339297 336095 586252 814151 520320 520321 444153 662326 813532 126121
+ 339297 336095 586252 814151 520320 520321 444153 813532 662326 126121
  109867 197501 508885 294864 215548 224674 772309 289216 970871 744211
  766627 827260 296638 580796 531742 565367 165099 486218 825979 165815]</t>
         </is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>[692975 476041 460464 148621 798577 316177 880991 776310 180834 312914
+          <t>[692975 476041 460464 148621 798577 316177 880991 776310 312914 180834
  670022 670209 594453 754669 981395 137962 906957 680303 720167 431380
  910464 564383 353707  41905 378582 921549 133748 103745 402575 935454
  503267 151037 584881 371318 643170 711276 138577 989684 431329 723707
@@ -22863,9 +22863,9 @@
  155879 764982 899048 570668 203504  35137 958473 166179 198345 780579
  769535 235502 685661 511502 376270 671790 698803 938752  10485 828090
  774001 877693 728862 125462 571527    152  63221 728959 944765 719358
- 719379 180184 278051  65118 421816 683298 739389 628090 536025 545116
+ 719379 180184 278051  65118 683298 421816 739389 628090 536025 545116
  853970  88178 165825 175100 410852 597630 556952 548528 745168 120687
- 954718 338455  15431 254553 840320 423478 970203  48451  73872 992297
+ 954718 338455  15431 254553 840320 423478 970203 992297  73872  48451
  499278 306689 127593 209480 550835 229212 534081 950540 932895 828186
   85672 724516 924722 429955 563136 760011 501176  68009 683302 683330]</t>
         </is>
@@ -22962,7 +22962,7 @@
  895191  13795 838420 806090 814419  17702  42068  95337 415998  91125
  968425 133330 317708 988615 677804  81004 459935 459206 213604 988697
  863770 925103 784304 220109 814382 740596 881913 702216  36480 847200
- 548798 688848 127804 240822 500153 100297 634968 884190 451325 491739
+ 688848 548798 127804 240822 500153 100297 634968 884190 451325 491739
  973485 884322 604212 265274  94266 944598 645745 451292  37499 414954
  327164 439260 780159 844856 275276 660018 819342 824901 330866 841048
  556529 150506 375486 230482 871511 992716 581720  94003 950391 811698
@@ -22990,10 +22990,10 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>[768629 407015 411869 407017 411871 526715 642362 337448 384425 384456
+          <t>[768629 411869 407015 411871 407017 526715 642362 337448 384456 384425
  331956 457225 683764 904648 181593 262394 338993 316953 654418 750435
  768237 692979 395200 507475 412750 388038 760818 186580 937922 247238
- 986750 755380 693048 272851 583362 803997 695456 743393 927963 402470
+ 986750 755380 693048 272851 583362 803997 695456 927963 743393 402470
  281355 828811 690771 137953 556123 595269 194326 820833 418871 673780
  461475 112953 418856 740973 460505 595457 124762  13948 588751 731850
  184211 318716 247632 562855 559937 283967 762373 651780 823341 278450
@@ -23060,7 +23060,7 @@
  806320 353230 110884 764186 705788  49312 360952 525505 547359 847348
   33371 395464 843668  32078 607985 705784 869630 806100 879478    651
  683179 923416 241804 817756 389629 129213 930221 162813 847962  94556
- 432029 672931 767507 227006 588862 929697 452468  89690 288310 288312
+ 432029 672931 767507 227006 929697 588862 452468  89690 288310 288312
  966401 706944  36597 801668 731675 364457 609381 147075 677275 254550
  242969 819424 750978 163121  34698  38433 517002 497141 902628 563951
  517097 688331 256249 737682  80337 429569 107235 348248 362831 444145
@@ -23159,7 +23159,7 @@
  420898  74594 139729 215758 669606 501059 845709 474300  51898 240898
   57026 833799 697164  19418 567394 328120 314608 113366   1171 533080
  775807 168733 311179 791231 278865 868986 341163 531827 121073 592675
- 105175 815654 854870 760940 706958  27275  27303 551868 465197 229077
+ 105175 815654 854870 760940 706958  27303  27275 551868 465197 229077
  774269 336377 117830 858507  98421 887634 648204  74138 709240 655201
  766547 669810 809413 213990 809835 150911 117011 975027 144572 669620
  577953 694533 856988  81220 557755 451336 234830 339838   6430 871656
@@ -23258,7 +23258,7 @@
  986667 669878 725038 618525     62   2791 124452  74722  56520 910165
  485050 924372 819978 318769 925888 837692 618841 895463 795378 404339
  691016 608566 736193  92520 490820  12676 922412 172124 291682     86
- 179541 745565 533696 124310 573340 439521 195995 393281 513600 709619
+ 179541 745565 533696 124310 573340 439521 195995 393281 709619 513600
   20104 109913 635624 142766 623853 723913 987181 612414 634261 236703
  563057 473073  86088 587411 653971 916478 284044 455714 995724 254541
  373849  80636 773295 678587 956962  36133 573736 783519 848765 559141
@@ -23327,9 +23327,9 @@
  838711 561416 942351 623791 336377 363981 991887  84245 598004 623812
  817629 173516 304988 913601 419946 634103 460406 830692 249443 438165
  880036  16823 344145 802188 718405  19418 412313 669810 513506 578750
- 856804 737433 520335 565544 376735 657856 503390 429632 208844 858236
+ 856804 737433 520335 565544 376735 657856 503390 429632 858236 208844
  276152 368898 671311 315116 694463 393256  13807 326251 451336 872012
- 193070 171429 568632 282724 344909 952955 266575 698202 170383 353225]</t>
+ 193070 171429 568632 282724 344909 952955 266575 698202 170383 353698]</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -23453,8 +23453,8 @@
       <c r="B699" t="inlineStr">
         <is>
           <t>[291333 991214 344910 752926 857124 150230 661851 611475 711244  67023
- 785940 175469 870620 881957 837044 797036 988065 542601 887941 346466
- 346496 375351 835338 574267  28758 884600 315336 730541 911436  46179
+ 785940 175469 881957 870620 837044 797036 988065 542601 887941 346496
+ 346466 375351 835338 574267  28758 884600 315336 730541 911436  46179
  241727 924278 127934 884141 289123 603824 704965 945829 175081 112068
  913050 459232 548340 869078 899450 813054 538679 948141 907867 955180
  811555 828454 423091 914615 889685 785080 308359 561026 643273  88359
@@ -23489,7 +23489,7 @@
  952464  75584 449778 339871 139713 596152 171568 250874 442480 535860
  263457 129407 722058 696888 651942 806853 119251 498872 956657 567193
  415551 569817 553463 205125 785871 798372 670668 177859 356442 984121
- 674296 197388 150777 480741 318456 293482 130534 364414 311173 918735
+ 674296 197388 150777 480741 318456 293482 130534 364414 918735 311173
  123576 964279 293501 410799 988684 416631 298501 625187 992155 418495
  842335 241182 589264 583588 586448 464354 198617 660766 199665 413776
  453717 368879 535481 882082 425017 154436 923831 255274 453703 246304
@@ -23584,7 +23584,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>[204315 386592  66898 605167 936536  19083 298162 437697 796072 335613
+          <t>[204315 386592  66898 605167 936536 298162  19083 437697 796072 335613
  897039 998740 222494 865596 164056   8811 355620 678668 740618 688137
  562534   1383  98263 965872  25232 912644 783080 833086 636962 896823
  882866 413055 504560 978987 674545 258112 567559 818173 402575 636037
@@ -23592,7 +23592,7 @@
  899053 871829 179708 920700 286408 786185 376528 970175 228400 985422
  395624 602587 201512  64632 490282 918687 393931 811466 919431 267053
  491586 239983 743597 652099 601830 535738 438333 986673 824375 111455
- 912650 982016 761152 852004 624894 678799 981361 418651 418671 428574
+ 912650 982016 761152 852004 624894 678799 981361 418671 418651 428574
  986676 774929 292234 539055 490256 899168  87658 456451 761123  92109]</t>
         </is>
       </c>
@@ -23691,8 +23691,8 @@
  170886 725884 963409 918110 940576  24888 451632 208006 550805 762313
  432271 632690  33644 887734 427315 557062  60813 563337 762761 363084
  959859 602479 705652 354640 327167  52515 827158 369514 324589 161021
- 535614 260578 524358 354034 104146 385243 494105  35980  18514 962843
- 962964  36220 938240 465137 190589 173873 380167 622727 345055 563651]</t>
+ 535614 260578 524358 354034 104146 385243 494105  35980  18514 962964
+ 962843  36220 938240 465137 190589 173873 380167 622727 345055 563651]</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -23750,12 +23750,12 @@
       <c r="B708" t="inlineStr">
         <is>
           <t>[975129 876601 133862 267023 379671 963057 724386  92712 345592 827101
- 257778 704163 937727  90533 960877 405523 405548 696719 960965  94791
+ 257778 704163 937727  90533 960877 405523 696719 405548 960965  94791
  545020 747949 876623  55617 443960 815282 700766 992161 292564 660379
- 860617 576539 354700 488307  92258 776171 112835 110757 920352 465183
+ 860617 576539 488307 354700  92258 776171 112835 110757 920352 465183
  175857 907203 630584 399737 830794 798289 237097 602120 274695 600900
  703561 720466 610266 419131 117830 660360 445235 866623  97375 939438
-  19164 222762 189959 973471 125340 902667 825488 825825 564960 408256
+  19164 222762 189959 973471 125340 902667 825825 825488 564960 408256
  288478 373538 689573 702895 311381 303581   5584 333074 977031 411548
   92027 343343  37459 390197 381315 776439 914864 209566 966109 827878
  209132 642855 785631 641785 790847 530418 148212 480536 100208 669042]</t>
@@ -23791,7 +23791,7 @@
  646605 366210 682587 947071 599464 301698 666074 323903 107226 666207
  802660 136861 701654 854406 745066 474673 120138 860937 806670 854010
    2148 717099 521593 123814 398508 246762 246789  41367 430468 403350
- 912410 265383 265554 358064 433930 901099 137791 172820 129162 246075]</t>
+ 912410 265554 265383 358064 433930 901099 137791 172820 129162 246075]</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -23801,7 +23801,7 @@
  1.243  1.2442 1.2485 1.2494 1.25   1.2507 1.2509 1.251  1.2534 1.254
  1.2545 1.2566 1.2567 1.2586 1.2592 1.26   1.2605 1.2675 1.2696 1.2696
  1.2697 1.2705 1.2709 1.2715 1.2722 1.2727 1.2737 1.2757 1.276  1.2761
- 1.2767 1.2774 1.2775 1.2779 1.2786 1.2808 1.2817 1.2822 1.2823 1.2828
+ 1.2767 1.2774 1.2775 1.2779 1.2787 1.2808 1.2817 1.2822 1.2823 1.2828
  1.2828 1.2831 1.2833 1.2837 1.2841 1.2842 1.2843 1.2846 1.2875 1.2877
  1.2878 1.2884 1.2889 1.2897 1.2898 1.29   1.2908 1.2911 1.2917 1.2918
  1.292  1.2922 1.2925 1.2925 1.2932 1.2938 1.2938 1.2943 1.2952 1.2958
@@ -23819,7 +23819,7 @@
  341971 364373 854355 331050 380160 435817 654817 102937 548020 304396
  980519 115145 378544 889511 939427  46844 346446 807727 447670 147365
  274845 505224 621222 552871  45671 948528 968174 426638  83428 964782
- 955063  25704  27216 503401 603008 401210 842047 938348  91442 403293
+ 955063  27216  25704 503401 603008 401210 842047 938348 403293  91442
  980518  82834 185326 556671 195786 913713  80399 419165 274235 375573
  969660 804818 523758 849782 355410 304086 612485 984556 850383 102794
  557841 672344 418201 274241 760180  10810 955878 895817 746181 248334
@@ -23849,7 +23849,7 @@
       <c r="B711" t="inlineStr">
         <is>
           <t>[331200 132822 512631 680697 654864 824944 535205 632082 765472 701333
- 791009 824107  92904 279756 148526 745300 960693 652203 482483 598206
+ 791009 824107  92904 279756 148526 745300 960693 482483 652203 598206
  855464 172254 712555 922851 429977 577379 998706 180486 541237 912046
  281356 773040 456993 297210 699271 399910 160053 522468 494032 865519
  115031  65104 402731 563206 388266 798175 871997 461434  68759 923901
@@ -23884,7 +23884,7 @@
           <t>[331203 787950 566287 361983 185568 629684  47496 124416 916321 646693
  277317 814219 144678 329183 124022 580888 887270 898233 900879 109609
  852219 982016 480492 345650 974665 309221 374895 264911 823563 681945
- 150679  68135 399204 598089 764033 150650 358849  74153  99931 239562
+ 150679  68135 399204 764033 598089 150650 358849  74153  99931 239562
  133778 567624 442516 106447 894679 397960 371927 297115 680877 778257
    9630 575872 576940 300925 408956 905558 397496 212310 555017 706398
  508594 677973 720577 595441 151848  27187 646063 539583 575503 536647
@@ -23956,7 +23956,7 @@
   93216 539403 338384 869962 267520 735442 518859 341587  91868 609933
  555615 559338 952358 356991 197044 108227 508492 121109 688910 427288
  893669 788763 709742 200572 338946 368909 148301  74731 459617 940151
- 406607 745049 350073  41099 932524   5717 275690  25127 300403 300432]</t>
+ 406607 745049 350073  41099 932524   5717 275690  25127 300432 300403]</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24047,7 +24047,7 @@
       <c r="B717" t="inlineStr">
         <is>
           <t>[799951 192607 344070 925020 119692 363283 639456 232094 362258  77509
- 969895 739932 277172 620485 140648 741876  77488 214663 323141 936742
+ 969895 739932 620485 277172 140648 741876  77488 214663 323141 936742
  963706 747603 380605 234551 368879 138980 476651 591368 144236 196554
  988684  62868 888753 253780 241652 223734 907788 489022 366008 550269
  369664 441693 112136 440076 848809  48580 619743 632115 898613 403534
@@ -24079,16 +24079,16 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>[250735 131220 649271 851917 272635 133232 170440 141977 192047 351677
+          <t>[250735 131220 649271 851917 272635 133232 170440 192047 141977 351677
  244199 751565  88686 688673 700503 895638 203241 244282 325673  64109
  370676 792873 228801 938036 583569 456516 535568 266586 315460 589524
  319891 162784 808391 970260 153253 359710 537252 837794 996502 237225
  133340 896215 484060 484267 484444 919280 238309 995011 133221 724602
  734442 245356 894160 207701 386132 812158 324939 912424 381026 999300
   40701 729338 466865 671838 531200 364149 118377 777276 131219 290631
- 188194  24701 542857 966564 324386 589512 379107 254361 974255  26104
+ 188194  24701 542857 966564 324386 589512 379107 974255 254361  26104
  700321 841060 186588  23461 976586 405845 608256 908725 324804 697144
- 133328 926269 315472 668962 673724 308786 313538 313610 337200 299025]</t>
+ 133328 926269 315472 668962 673724 308786 313610 313538 337200 299025]</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24118,7 +24118,7 @@
  762067 399308 303451 671057 569682 979450 266436 178491 348615 984421
  585347 773335 320272 231630 190408 233529 125317 787997 856496 269419
  463614 265637 463465 691855 320218 966408  78289 346959 376704 249726
- 366312 127584 183593 548598 190977 544300 451662 320263 584915 748673
+ 366312 127584 548598 183593 190977 544300 451662 320263 584915 748673
  371837 557419 335734 667824 143019 321524 676385 666802 815864 415948
  543771 926864 272492 119148 513062 306693 959227 171520 959225 507645
  320265 120544 405568 147157 771030 485517 890762 695596 514854 343238]</t>
@@ -24187,7 +24187,7 @@
  960209 380030 564938  29410  32876 605813 892821 512172 397705 253722
  343454 446317 759091 691772   1192 748214 334123  14864 905648 915864
  860207 347827 446810 542452  55024 237088 130088  90561 142645 385031
- 199790 425982 427125 892804 514393 609312 378146 371810 214449 219833]</t>
+ 199790 427125 425982 892804 514393 609312 378146 371810 214449 219833]</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>[950435  82724 142677 304903 474237 845626 354759 854749 636456 987076
+          <t>[950435  82724 142677 304903 474237 845626 854749 354759 636456 987076
  855693 474868 690101 259324 485552 222339 440702 694381 391559 809183
  496435 278388 314968 828032 256568 258140 233566 422342  80019 358077
  929241  95820  91722  36738 645619 929302 900558 172476 841172 163987
@@ -24442,15 +24442,15 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>[337459 541855 541977 186301 462044 607104 680416 534612  76786  25811
- 905230 364760  89773 463479 463505 280347 383612 913372 463563 904542
+          <t>[337459 541977 541855 186301 462044 607104 680416 534612  76786  25811
+ 905230 364760  89773 463505 463479 280347 383612 913372 463563 904542
   85553 829429 164438 944638 906721 250965 217968 455839 283847 794523
  948248 260026 913374 866528 206844 190204 743912 202570 739077 498874
  557218 439370 714532 507157 374257 739095 847524 397866 468819 186614
  318355 203311 855663  81809  12576 784223 926354 861736 954340 455046
  742602 296742 577883 682415 456594 629062 469708 839705  24161 257826
  797233 801392 699697 274363 648965 318444 948797 609312 229673 562506
- 562592 313756  85480 978169  48271  48296 887039 549464 945762  10984
+ 562592 313756  85480 978169  48296  48271 887039 549464 945762  10984
  402832 547221 136569 231581 245815 471698  85779 741031 274654 487728]</t>
         </is>
       </c>
@@ -24544,7 +24544,7 @@
           <t>[230333 630763  30773 195659 736464 635723 596134 499361 410911 432607
  151557 234897 906324 795458 801895 183611 193161 345624 271677 295059
  531614 233657 351706  40779 556585 235751 588873 929716 270032 300560
- 591637 677587  43902 454182  64046 257673 122474 193164 193197 616519
+ 591637 677587  43902 454182  64046 257673 122474 193197 193164 616519
  268323 728173 985444 434577 339275 982624 955957 338543  14995 199406
   27946  49756 995141 719811 506961 912723 654252  36297 338047 483867
   71468 913539 787256  85431  96896 402826 182383  92377 463117 207572
@@ -24576,11 +24576,11 @@
         <is>
           <t>[686333 399638 151036 693048   6553 644451 421441  91239 928883 115847
    6027 115870 670382 933775 224382 901130 354037 833861 933792 634636
- 229508 517057 771935 803780 809923 699053 561329 518215   6574 829599
- 926418 384633 421492 654418 340027  51970 942286 237682 151007 400687
+ 229508 517057 771935 803780 809923 699053 561329 518215   6574 926418
+ 829599 384633 421492 654418 340027  51970 942286 237682 151007 400687
   84450 506039 226806  63766 419378 393470 596343 101148 475920 462915
  855455 110413 497804 751355 992470 272851 644559 521941 597913  23942
-  29063 752783 189254 868794 117831 449816 906865 760740 760771 826390
+  29063 752783 189254 868794 117831 449816 906865 760771 760740 826390
  935822 682981 627013 831574 174428 699062 609859 781675 640353 385747
  335699  97432 973457 934321 751368  42645 110193 844046 687081 585617
   67427 682526 752788 751374 699065 110611 803694 348129 212412 956022]</t>
@@ -24612,7 +24612,7 @@
  272568 275861 829590 426307 939801 886601 154356 357132 971894 833198
  516928 342660 814708 735199 360966 491303 989504 358506 153188  17369
  781831 454991 666997 209918 646877 440933 368482 708258 774833 709173
- 602038 926910   7574 941590 645217 939707 802513 897936 528904 572840
+ 602038 926910   7574 941590 645217 939707 897936 802513 528904 572840
  405646 676490 236545  26243 394896 900677 455009 789930 621263 192687
  179422 160286 403590 172116 100919  22028 788143 101666 538750 694958
  427279 314397 480276 373738 178898 875645 946854 589264 516190 840319
@@ -24642,7 +24642,7 @@
         <is>
           <t>[528473 884403 349387 562751  75599 938196 338356 271006 426324 845893
  516190 738446 854466 119192 169660 411543 358133 645217 602038 646386
- 696083 874863  36441 358275 219560 746446 794774 794850 330391 669117
+ 696083 874863  36441 358275 219560 746446 794850 794774 330391 669117
  532614 645242 886601 630616 793719 554256 317490  48880 430824 739255
  824790 217614  13723 704445 128012 106194 902161  49673 192687 179996
  134819 141465 217255 283198  90719 169445  56952 185683 288185 646877
@@ -24715,7 +24715,7 @@
  880828 187311 539484 636237  29372 606480 453328 538678 797158 856777
  147872 677294 889572 880830  14281 394094 237766 571838  46716 718951
  166128 918857  64472 394890 774291 390850 119071 322980 862714 903325
- 907182 688129 607228 395795 215523 920344 472985 193603 634611 612539]</t>
+ 907182 688129 607228 395795 920344 215523 472985 193603 634611 612539]</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -24745,7 +24745,7 @@
  147975  80911 793888 137844 876164 706849 544061 986672 472221 828825
  732632 531550 802748  88165 728338 135361 833324 198028  91236 755804
  715015 361670 122136 255064 433690 515999 661169 151849 338079 305417
- 210612  31942 504734 505149 101234 496461 194733 835788 938213 545762
+ 210612  31942 505149 504734 101234 496461 194733 835788 938213 545762
  681158 518601 180833 672937 598488 911713  88182 547117 460754 215222
  145012 342331 516255 766769 234580  30893 212091 112680 176861 806214
  881525 936409 178672    463 449157 641939 865278 228999 198012 450601]</t>
@@ -24841,11 +24841,11 @@
           <t>[311125 311118 170255 772891 314840 964673 648339 835066 224551 195106
  523682 766215 617310 379344 391108 561940 423152 108122 913388 853117
  647597  42518 865521 610099 826840 320291 569228 592992 447181 132378
- 151137  47436  95901 141301 853098 943833 943820 141347 762914 188849
+ 151137  95901  47436 141301 853098 943833 943820 141347 762914 188849
  793021 124707 971365 816122 471374 161001 653863 816114 693953  95810
  512473 195087 761345 717090 532156  57031 698203 882893 468553 186952
  460990 530162  49752 632902 717093 723907 848392 293492 218715 494944
-  44636  44662 654133 796869  31923 896621 627891 723650 536561 444055
+  44662  44636 654133 796869  31923 896621 627891 723650 536561 444055
  885563 374622 903577 130109 396603 695356   6060 439730 968614 916185
  883610  70029 372725 592636 560225 123512 617229 426602 922420 158055]</t>
         </is>
@@ -24877,7 +24877,7 @@
  456079 861874 785172 607867 567265  65198 727940 925606 991833 140344
  759505 316529 582245 201388 965457 933137 155444 810056 729774 600368
  332749 312480 857916 891144 259537 714137  64545 565479 248441 379459
- 125053 281602 709283  75877 650246 988482 423107 675133  92834 847605
+ 125053 709283 281602  75877 650246 988482 423107 675133  92834 847605
  908802 723023 966537 560396 665109 534958  66230 809869 735402 130209
  765819 725499 265230 505174 125335 506390 401269  29517   1485 496437
  681513 323544 612213  32052 354245 613470 172137 673944 188464 800565]</t>
@@ -24941,10 +24941,10 @@
  615644  99316 749099 615292 901914 799392 851083 673631 448725 163566
  259530 889858 440353 967601 778868 692312 918736  25808 109401 973101
  838603 137428 184252 552347 466808 377482 813259 333193 673619 275813
- 889074 339493 337043 850815 320844 824959 275815 150641 375479 930428
+ 889074 339493 337043 850815 824959 320844 275815 150641 375479 930428
  920891 205666 737674 261701 738135 586400 460925 728911  57939 114600
  502820  54709 346421 117017 483071 663619 112623 491635 374555 792428
- 548050 263909 954951 223898 865239 450977 136962 964682 629699 298056
+ 548050 954951 263909 223898 865239 450977 136962 964682 629699 298056
  593050 247412 972832 922824  73081  39224 733424 130052 948180 815758
  739415 548079 810025  15078 990169 863764 179337 132538 936821 640656]</t>
         </is>
@@ -24975,7 +24975,7 @@
  158437 945845 260574 268162  42506 612977 485200 257914 355835 355833
   58208 359588 850896 345650 898373  85324 384201 277709 765412 212310
  399852 454796 485100 844864 542803 255842 838391 483645 798463 299762
- 447168 571343  46278  92405 871569 682724 802513 897936 935627 674944
+ 447168 571343  46278  92405 871569 682724 897936 802513 935627 674944
  457181 967740 919431 137946 520096 709646 262081  16819 242924 253541
  303764 660741 202027 873860 369142 720022 344856 358169 346446 407362
  734052 796909 183157 516190 464927  84861 962120 714119 218250 761639
@@ -25045,7 +25045,7 @@
  589317 664846 560333 251616 412823 589294 978908 949817 356422 811991
  512993 395269 840353 998675 732984 881348 706819 996780 978109     99
  992377 669207 236629 202728 957212  51874   5281 872181 601438 396814
- 418602 106353 715092 254583 394535 620069 950978 436383 688287 275239]</t>
+ 418602 715092 106353 254583 394535 620069 950978 436383 688287 275239]</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25138,8 +25138,8 @@
           <t>[650245 318906 722641 921226  73244 481990 161783 501998 635560 164711
  188608 398724 250789 909758  11338   7262 662029 564182 193251 338440
  804225 331018 954285 155889 912276 656070 139150 612667 295594 442423
- 300254 702367  25031 626503 285049 616216 467535 386171 256626  21930
- 458339 794663 637084 558118 501932 278757 549033 993953 272577  48313
+ 300254 702367  25031 626503 285049 616216 467535 386171 256626 458339
+  21930 794663 637084 558118 501932 278757 549033 993953 272577  48313
  923027 437049 501927 208326  44992 405619 621969 848911 377014 230118
  915316 623617 250787 758112 940910 386154 899994 145022   2613 690882
   62970 248862  88535 131356 380024 518255 770216 820877 952789 188652
@@ -25168,13 +25168,13 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>[631986 642005 452556 855387 218308  56045 288529 317699 133528 755292
+          <t>[642005 631986 452556 855387 218308  56045 288529 317699 133528 755292
   32634 445651 761215 169516 996191 954875 395200 587114 742723  36539
  298891 387950 882919 494310 240380 394877 987543 317683 267755 479176
  953617 194991 135786 311321 311456 133851 178896 675722 299154 445623
  509517 244525 514015 657767 727165 247583 825753 187769 574289 103745
  105577 616868  76895 953767  93732 441902 154648 212355 560277 584697
-  77940 237629 835627 656177 483827 105286 105576 112961  56233  54171
+  77940 237629 835627 656177 483827 105576 105286 112961  56233  54171
  463968 866432 230055  99806 791850  92709 806408 460907 109562 963677
  512406 719128 830623 164457 762544  56374 249978 993554   7952 438937
  383258 494559 899657 853984 460663 328019 145663 220409 881639 280233]</t>
@@ -25203,7 +25203,7 @@
         <is>
           <t>[351788 866203  44136 780821 193694 394255 709400 919177 356756  73446
  916214 877260 603246 169504  17364 970244 562322 895579 612539 700492
- 465967 815763 356630 399713  79851 306963 574051 574075 178302 757586
+ 465967 815763 356630 399713  79851 306963 574075 574051 178302 757586
  634612 994043 640536 139853 171900 457218 932904 504997 298248 831844
  184787 731528 803551 443085 612553    486 381931 507225 508102  74842
  249442 230816 682048 661708 990169  37882 331738 742742 816543 106251
@@ -25375,7 +25375,7 @@
  381522 292225 147322 613085 872068 686751 111072 407706 265840 174181
   91561 168160 472762 780035 262275 120679 136262   1590 913131 637642
  531214  60821 723951 242879 307779 634719 166916 629309 512914 768468
- 531502 533965 214565 484547 411366 595008 261851 800288 211937  62846]</t>
+ 531502 533965 214565 484547 411366 595008 261851 800288 211937 526328]</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -25468,11 +25468,11 @@
           <t>[105638 626540 273906 416094 423908 680745 506870 668032 716650 780697
  247689 412899 392562 970363 173494 242841 958223 209478  11767 203490
  191061 392560 922663 703102 848924 215800 527952 810713 881850 663502
- 645263 331449 495125 273249 922834 354893 698104 327081 601951 602102
- 704759 511847  74577 372754 163788 487038 466808  58188 181734 124736
+ 645263 331449 495125 273249 922834 354893 698104 327081 602102 601951
+ 704759 511847  74577 372754 487038 163788 466808  58188 181734 124736
  327342 754903 233429 337390 339993 943199 562372 123205  18733 556056
  822175 399394 561954 755404 730259 130153 507829 392806 614332 973101
- 167226 570359 480688 748636 926954 128135 782105 260302 123918 952875
+ 167226 570359 480688 748636 926954 128135 782105 260302 952875 123918
  430702 204435 831592 356900 181054 700301 467003 514802 116638 141085
  649622 942351 677036 745951  92049  90135 576847 490818 212508 392563]</t>
         </is>
@@ -25502,9 +25502,9 @@
  609543 493824 816755 927573 159370 385886 291575 652077 230055 695216
  670163 698659 816759 454537 761325 297322 507949 141770 337724 211060
  318343 376269 844007 589322 270033  71245 675648 518489 937059 202775
- 952409 979541 816696 605689 764841 819793 549974 441875 770336 566774
+ 952409 979541 816696 605689 764841 819793 549974 770336 441875 566774
  424119  22346 179162 897314 456903 643456 782894 648914 615807 841014
- 235017 345404 848321 367477 779486 400400 463019 525439  45633 279443
+ 235017 345404 848321 367477 779486 400400 463019 525439 279443  45633
  832830 847162 704557 842803 114903 216062 661512 537057 686604 935856
  676980 431842  45639 466719 345221 980849 800379 230136 272876 808189
  279432 571750 282116 787312  54652 553432 463029  79254 166688 897970]</t>
@@ -25633,10 +25633,10 @@
           <t>[495529 369913 961647 240123 163751 615586 961526 562191 404984 640997
  364177 875775 655404 606936 762700 534006  88740 878746 745430 145018
  255291 277174 770840 672470 875318  49541 585294 959225  20378 225815
- 451161 601369 966426 364174  88854 770822 400049 458101 344075 393270
+ 601369 451161 966426 364174  88854 770822 400049 458101 344075 393270
  735036 139655 303620 216053 925613 950760 659139 900272 720869 892913
  112086 764086 332767 230721 974882 570465 803687 376728 327163 352379
- 702568 606873 972329 355758 550371  49757 222006 453298 918073 536770
+ 702568 606873 972329 355758 550371  49757 453298 222006 918073 536770
  682792 953220 720331 288078 851451 605158 607383 940735 831532 427390
  575199 573440 790123 771642 952699   8562 543781 597351 689811  91899
  708492 282031 195287 879629 834239 540284  94092 839676  97024 160077]</t>
@@ -25697,13 +25697,13 @@
       <c r="B767" t="inlineStr">
         <is>
           <t>[105816 326804 765600 234223 120912 510868 179278 470675 596921  70772
- 860261 288275 518374 171036 550909 267625  98353 833794 543631 683097
+ 860261 288275 518374 171036 550909 267625 833794  98353 543631 683097
  958158 408354 221614 272224 303673 733283 557132 502535 942471 139589
  549545 508180 355134 462231 553885 372144 346911 474166 729462 626374
  382673 860809 886930 980700 380606 771792 221607 765605 594226 229406
  189717 523590 632718 903546 418276 217943 506632 923870 246156 192905
  283893 125185 906771 451338 383616 189920 925334 522640 911436 296238
- 635481 229415 341994 615948 580323 772329 199016 406938 415164 635471
+ 635481 229415 341994 615948 580323 772329 406938 199016 415164 635471
  648839 718416 137428  94005 488484 400369 400363 765610 584289 512459
  265980 250031 569850 240408 568285 438547 506650 111385 695978 639131]</t>
         </is>
@@ -25729,11 +25729,11 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>[862545 761325 182044  34434  34463 588392 745584 137435 799112  13948
+          <t>[862545 761325 182044  34463  34434 588392 745584 137435 799112  13948
  812332 331956 392228 354092 931169 992478  14046 465321 215303  45149
  985999 979400 216983 733298  12019  93393 577075 501932 917831  67909
  211735 673302 917931 909383 865627  74227 877694 827776 144923 286813
- 610113 531097 206844 449751 372943 143452 629182 845422 168306 224927
+ 610113 531097 206844 449751 372943 143452 629182 845422 224927 168306
  508179 280873 365934 948883 707585 624578 441902 860830 762512 810013
  816755 899994 523314 583362 615249 565770 577072 724231 659604 951152
   48313 693069 790855 526434  72588 997545 504970 159370 842803 653177
@@ -25832,8 +25832,8 @@
  823117  90083 870684  62797 974665 996052  18055 346016 888680 805558
  310493 623107 841145 199570 166741 544869 918822  72028  34815 682818
  536845 786025 212962 719401 848384 996035 127290 812205 297821 834209
- 123831  33927 945563  19083 298162  32789 460955 601214 697406 765492
- 824009 593616 717574 717614 404080 320264  58957 421021 368246 247449
+ 123831  33927 945563 298162  19083  32789 460955 601214 697406 765492
+ 824009 593616 717614 717574 404080 320264  58957 421021 368246 247449
  954360 570465  34812 610294 949991   8739 884374  91865 865917 462230
  197275 134252 774208 939972 395624 242279 717575 717615 652900 748465
  300061 156642 853564 456538  24179 559360 229936  85000 189674 937626
@@ -25932,8 +25932,8 @@
  572784 899479 286308 841414 872217 795134 439161 265265 421896 189175
   92333  63620 353195 984864  92331 550051 180716 168504 841057 505446
  445203  46135 661404 353874 433860 853074  22896 277366 150468 242469
- 640788 324394  79763 846591 176754 771350 366283 562715 310117 671838
- 172133 279382 283020 283071 105574 658106 164670 992684 718432 908592
+ 640788 324394  79763 846591 771350 176754 366283 562715 310117 671838
+ 279382 172133 283071 283020 105574 658106 164670 992684 718432 908592
  209997 651519  73320 241022 628977 456905  37804 838048 244934 505434
  763586 900635 308213 740689  76432  70068 580057  37227 858759 489563
  308719 191283 535568 206544  26497 382840  22455 286302 536762  24701]</t>
@@ -25961,7 +25961,7 @@
       <c r="B775" t="inlineStr">
         <is>
           <t>[782906  73563 755970  75499  40582 751439 443794  75338 229415 924076
- 284310 608281  97248 451757 483763 942161 681613 367271 124949 406067
+ 284310 608281 451757  97248 483763 942161 681613 367271 124949 406067
  150381 527778 408591 525820 407303 782900 247878 219874 688791 549793
  357667 412823 234702 919938 956858 161021 602071 474240 265648 956871
  270242 663888 937314 841538 426599 309203 652551  63167 839476 482387
@@ -25996,8 +25996,8 @@
           <t>[ 95616 911518 247462  22767  49104  95573  95557  95516 736660 247442
   95670 247460 507949 598495 631072   4007 888500 141770 642534 125551
  256748 676644 971628 979541  46303  95464 335443 352702 883489 121466
- 980849  95680  45633 279443 847481 613660  95711  95515 457754  95489
- 545420  95545  95572 144091 224618  95609 466288 483124 352691  55715
+ 980849  95680 279443  45633 847481 613660  95711  95515 457754 545420
+  95489  95545  95572 144091 224618  95609 466288 483124 352691  55715
  605934 894822 483271 899432 780952 661117 112295 912107 345624 453768
  816389 504922 689168 545712 351023 399029    460 521182 881669 887554
  887583 366078 809068 727057 708292  60963 459574  83651 421754 730387
@@ -26031,7 +26031,7 @@
   37084 721324 167502 309281 208199 620997 816372 283330 916677 435567
  937264 504336  22431 413295 175358 800415 563140 218118 716525 767498
  461259 120817 335705 441898 891768 294828 320409 439994 513281 494208
- 526567 502430 669656  67478 175379 915429 763732 596309 460803 358191
+ 526567 669656 502430 175379  67478 915429 763732 596309 460803 358191
  333041 417337 108337 569296  25459  24653 415823 336725 429207 543170
  519222 240016 396048 409564 834809 423107  29595 626686 518090 524767
  669779 891755 505181 968980 196916  75561 575603 251185 680511 460812
@@ -26066,7 +26066,7 @@
  161336 312670 358772 800040 659664 493082 244500 493015 323123 153701
  626032 519216 347513 782427 576424  37228 120280 689192 992697 377359
  725187 708253  98665 902895 455698 460803 355322 110955 289809 363132
- 901138 884343  98353 833794  43555 220652  23696 106024 202620 463200
+ 901138 884343  98353 833794  43555 220652  23696 106024 463200 202620
  923245 951828 343242 485045 466360 401211  22165  89121 220707 897191
  434950    549 841364 620680 479792  73590 361258 579006 732557  25195]</t>
         </is>
@@ -26129,7 +26129,7 @@
  285950 432224 521182 935775 524039  37622 775429 570898 210930  95545
   95572 700750  95674  95608 327317 766065 699075 698216 597939  95461
  831602  95515 197806 780952 813498 466288 736660  95577 373499 258492
-  22767 572821 843189 764471 184747 664488 850456 422798  45633 279443
+  22767 572821 843189 764471 184747 664488 850456 422798 279443  45633
  131357 894822 470766 979541 810252 957302 167028 235195 507221  95703
  270060  95612  50708 319959 664489 225830 992923 442060 881669 785600
  215582 905906 536160 735468 105362 857282 888500 125551 143934 333648
@@ -26224,7 +26224,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>[901076 283494 283505 577058 366372 358192 905786 105577 105286 105576
+          <t>[901076 283494 283505 577058 366372 358192 905786 105577 105576 105286
   29410  92010 165199 750903 503214 702638 461970 144765 867649  44008
  237816 912823 424641 794640 978096 794618 892220  28318 450956 892819
  126139 243171 593195  21559 441110 993203 655366 447299 622147 970783
@@ -26232,7 +26232,7 @@
  199191 543355 175852 173273 797233 509495 747326 778634 105198 508326
  593162 489133 428188 746775 522278 830628 247683 497113 635585 381240
  379655 247310 860808  54887 431577 849552 749812 277032 886120 105175
- 293813 672148 320158 918063 320760  89748 998793 547030 751953 512399
+ 293813 672148 320158 918063 320760  89748 998793 751953 547030 512399
    6546 788498 301898 956307 987961  89383   3186 942467 463968  86470]</t>
         </is>
       </c>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>[458999 266436 881366  54050 226780 231251 231272 548931 353219  92087
+          <t>[458999 266436 881366  54050 226780 231272 231251 548931 353219  92087
  401296 901727 549351  94644  34253  82619 250809 812203 537074 620716
  885292 685879 620721 264905 723232 560922 600907 966364 386672 692501
  525010 703564 306963 108337 901179 559246 200753 727944 605169 623291
@@ -26490,9 +26490,9 @@
         <is>
           <t>[356829 166426 460304 377713 808100 585805 245547 289408 771699 804271
  175771 224722 331239 825898 887444 546373 865403 177457 403460 918933
- 237083 844712 555382 774649 330921 330954 512411 704534 336525 491887
+ 237083 844712 555382 774649 330954 330921 512411 704534 336525 491887
  601424 998594 935698 812699 566851 960082 119643 998900 757356 270660
-  75891  86357 883615 866592 886919 775217 724237 724320   4807 662185
+  75891  86357 883615 866592 886919 775217 724320 724237   4807 662185
  288396 185815 946695 637266 997449 637267 469350 255497 173746 510973
  319909 336069 222400   4483 967130 637216 716247 155768 298283 587530
  657156 979344 791313 140183 229300 378350 401788 506495 392372 782913
@@ -26560,7 +26560,7 @@
  542617 429707 881171 552670 206509 315956 516190 318456 443892 784611
  915569 920593 937461 231379 741206 951105 341059 371234 400454 199665
  453852   2149 884536 292089 596279  14970  67000 450996 673894 672967
- 580855 662027  79424 977983  96226 830506 228634 304694  41311 385341
+ 662027 580855  79424 977983  96226 830506 228634 304694  41311 385341
  262923 380938 507409  68593 129121 105010  86719 735669  37247 421584
  857781  74532 427819 138427 612167 605835 854490 857304 139651 232347
  944261 541381 211126 561101 610983 144352 990164 409167 961891  56599]</t>
@@ -26690,7 +26690,7 @@
  237738 219543 395311 972713 556146 243434 385111 300776 765850 318830
  812824 853520 237747 489193 728023 474876 234850 112068 682234 912377
   55419  45570 340402 988375 730886 856514 144698 675557 969846  28375
- 864996  14236 767221 809721 244332 443428 719176 686642   2551 780212
+ 864996  14236 809721 767221 244332 443428 719176 686642   2551 780212
  527640 876641 479074 774389 237732 794691 823653 767789 749438 173033
  985078   9252  53967 739605 376288  94100  94130 771076 797128 855793
  322231  93907 711975 846487 955321 412359 440711  24508 699009  39802
@@ -26721,7 +26721,7 @@
         <is>
           <t>[876244 855445 354441 796512 354439 164715 745601 171900 359100 923243
  401343 137732 833146 669054 262089 783676 238322 903216  28642 946102
-  56786  56811 381185 305013 552218 668956 446126 298596 377229 412945
+  56811  56786 381185 305013 552218 668956 446126 298596 377229 412945
  355907 584476 958921 125430  59418 673894  73198 820607 697344  60441
  461331 899119  32646 129459 751509 382685 922507 422205 804971 691688
   81050 804953 351943 644227 958944 595846 274200  75583 299128 343305
@@ -26761,7 +26761,7 @@
  921464 304991 416817 494459 498758  40654 918239 254721 881853 726888
  236492 323544 612667 922961 648443 760520 851002 180658 995906 694791
  719664 279729  13328 987826 945917 285750 406118  27256 475879 277630
- 608759 667292 268528 450599 161334 407017 411871 186629 126419 208181]</t>
+ 608759 667292 268528 450599 161334 411871 407017 186629 126419 208181]</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -26788,12 +26788,12 @@
           <t>[927738 502490   2416 877128 541852 233504 192003 648320 877113 627901
  723658 558569 701716 434896 337500 857493 410298 735150 954285 723660
  733202 306498 804824  28088 510682 907829 850883 557668 564307 831574
- 567726 445733 529073 258157  48346 428578 551424 637850 238448 238556
+ 567726 529073 445733 258157  48346 428578 551424 637850 238556 238448
   48313 899629  89307  69966 162486 202322 507484 173632  18078 762914
- 143991 485759 714418 114244 241878 228323 195145 484759 627906 723662
- 246288 454547 627299 685076 428189 222748 458421 627902 723654 863631
+ 143991 485759 714418 114244 241878 228323 195145 484759 723662 627906
+ 246288 454547 627299 685076 428189 222748 458421 723654 627902 863631
  457335  89395 876792 729850 476465 811649  69852 901582 348477  50202
- 955669  69961  69981  57047 845126 182885 513488 515859 459833 138119
+ 955669  69981  69961  57047 845126 182885 513488 515859 459833 138119
  276790 413012 417853 104266 337481  91242 521758 930517 802297 307123]</t>
         </is>
       </c>
@@ -26824,7 +26824,7 @@
  319147  73853 890606 858849  73894 676773 430909 254425   9442 458101
  892913 327163 123577 254724 187432 511153  48964 996679 585294 211439
  959570 659139 592340 785176  37603 395000 153076  35410 289704 566095
- 396852 757915  15253 820435 698947 683606 847990 742788 438354 438809
+ 396852 757915  15253 820435 698947 683606 847990 742788 438809 438354
  620019 295061 392792 850908 975287 512272 813120 548913 876243 878746
  480211 165593 287146 563144 959019 770840 653619 935346 396582 214647
  485443 352259 735604  29879 495186 536770 520909 958785 812355 539716]</t>
@@ -26952,7 +26952,7 @@
         <is>
           <t>[854705 659677 988987  39531 984208 128650 320919 479572 151867 909660
  341531 708218 698659 255358 958434 824118 434896 103670 176165 255426
- 627892 723651 982933 698655 996568 741298  66109 589555 283496 750094
+ 723651 627892 982933 698655 996568 741298  66109 589555 283496 750094
  140584 707066 960020  93122 482234 172349 668110 282665  72002 926835
  871366   7872 964258 583658 584605 539888 358135 575629 271792 456808
  352316    195 835198 165530   7865 625736 458489 495406 824640 884664
@@ -27023,7 +27023,7 @@
  314703  52921 502917 331966 632020 712935 713409 422625  38781 305989
  339973 806079  81965 103373 990076 940377 750915 428801 206222 457181
  942370 662537 373672 292116 529294 907293  16354  29610 864392  37045
- 299018 699242 361671 329990 411007 226102 750898 822790 938656 386138
+ 299018 699242 361671 411007 329990 226102 750898 822790 938656 386138
  223037 124532 323137   9574  69144 429143 592806  17933 710801 548741
  969051 575503 637931 338638 939046 535738 170587 938827 290997 540202]</t>
         </is>
@@ -27053,7 +27053,7 @@
  783360 273205 377185 672905 333729  48109 692110 784441 182344 210240
  190378 797523 378385 330747 352516 561749 479198 632980 551019 978985
  703946 770440 436373 558803 805241 251776 683281 378784 396895 100004
- 831914 377673 627136 514999 323498 323518 528903  70354 497236 253934
+ 831914 377673 627136 514999 323518 323498 528903  70354 497236 253934
  370578 560992 924261 254056  74532  40685 974478 412255 727119 336620
   80311  14943 295843 168441 187921 791923 545078 961655 815598  68487
  703289 144891 749859 641486 486988 278015 842843 577314 208238 333204
@@ -27087,7 +27087,7 @@
  645748 747937 156558 205175 888703  59962 379206  80429 241169 747523
  719878 716427 874531  50383 379199 461723  92426 223371 249464 239143
  665707  80491 385838 882952 465426 343513 362509 249230 798032 854529
- 128032 827162 125013 797970 475934 475995 474420 431092 154642 747235
+ 128032 827162 125013 797970 475995 475934 474420 431092 154642 747235
  960140 904247 639681 462459 262041 364444 830676 828868 520214 321532
  473473  43951 736540 480286 201417 443710 232157 411029  57351 341361
   61929 617696  75581 930556 275529 778232 543514 886076 904250 849049
@@ -27115,7 +27115,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>[149577 659744 796246 720006 869645 155817 107758 742218 902239  79105
+          <t>[659744 149577 796246 720006 869645 155817 107758 742218 902239  79105
  117386 128090 547908 360036 729551 872561 815759 969870 584383  75860
  124584 562470 296988 587850  96590 310380 891755 302725 673539 916183
  361888 823723 597440 730015 225917 791563 411143 180030 147983 998345
@@ -27254,9 +27254,9 @@
  665627  44193 369313 665620 668694 950391  52681 473475 478249 924275
  123995 141723 973366 808068  34154 470162 324069 487021 196127 700553
  165581 992411 419361 952773 423742  91358 417049 946552 157111 902963
- 115210 173371 794238 347511  17005 123581 366382 533305  38340 782803
+ 173371 115210 794238 347511  17005 123581 366382 533305  38340 782803
  788669 256074 570327  11270 967025 409458 314000  63540 979278 856804
- 400596 726969 212468 908462 600691 241018 353225 353698 736267 263817]</t>
+ 400596 726969 212468 908462 600691 241018 353698 353225 736267 263817]</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -27285,7 +27285,7 @@
   36565 406685 322053 557736 917969 179062 938792 322003 764670 802935
  123408 124571 903312 809902  46716 835666 593944 218390 209657 812582
  213940 922392 575514 836390 691192 530465 607228 976517 210908 694678
- 649390  72133 765244 957916 846663 139415 505103 505140 536782 376914
+ 649390  72133 765244 957916 846663 139415 505140 505103 536782 376914
  765032 742742 566999 545335 857904 660508 237766 758493 834797 886579
  409600 416648 147872 680543 317823 536783 685826 831976 985450 751770
  983352 855213 489999   2496 458320  29372 730272 331804 574025 477823
@@ -27322,7 +27322,7 @@
  532596 529576 643918 621961  86871 785631 103585 167289 148801 404029
  156734 591455 916563 322442 885841 740861 256084 855039 459703 189776
  625854 242974 886090 227872 732917 222714 813092 804839 351724 198509
- 131091 717574 717614 703750 287815 529543 137391 846263  57274 681824]</t>
+ 131091 717614 717574 703750 287815 529543 137391 846263  57274 681824]</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -27353,7 +27353,7 @@
  248700 575881 253080 733264  79487 533952 462784  67384 259178 217665
  522524 963615 688382 727637 332200 891132 129079 829380 133288 916183
  301689 976310 187708 682917 592520 439330 333914 361032 782705 356392
- 981002 907729 689765 199282 964922 333093 600438 102278 461318 668269
+ 981002 907729 689765 199282 964922 600438 333093 102278 461318 668269
  422267 323399 271007  53956 398696 683350 286937 427648  42199 965701
  379937 721038 129272 230816 375379 155972 332779 614361 220441 305346]</t>
         </is>
@@ -27417,7 +27417,7 @@
  419975 730921 116999 373502 732753 313330 824669 871997 630498 652807
   94899 490697 782961 682954 505068 823745  45635 632950 398160 921834
  132465 103162 248844 881876 311627 794270 897051 639025 384864 888411
- 251535 421590 335113 775613 359196 459201 330382 671385 670192 109966
+ 421590 251535 335113 775613 359196 459201 330382 671385 670192 109966
  782423 937255 836572 739835 611203 980780 844906 631879 603595 492989
  848594 230264 209198 399918 144150 887603 446444 966079 750845 399921
  983553 284982 189635  35470 796815 494033 463166 757427 627764 753635
@@ -27451,7 +27451,7 @@
  812582 361244 621958 611369  36029 930428 559437  42914 929612 809068
  581539 706467 145689 549937  72133 440356 821467  74430 933260 778868
  378610 636442 765032 852088 792430 699251 332874 787283 300425 313766
- 529759 685826 159238 673631 566750 418653 384426 384466 331814 300400
+ 529759 685826 159238 673631 566750 418653 384466 384426 331814 300400
  201303 358701 841187 761643 779598 354032 263975 154501 866148 865354
  730272 713454 921220 612558 178391 690066 411524 836390 762153 757356
  381408 536022  62619 645926 966303 586148 645740 758433 811575  43386]</t>
@@ -27611,7 +27611,7 @@
       <c r="B825" t="inlineStr">
         <is>
           <t>[326558 715973 826144 226937 856560 520375  88752 739465 450502  35427
- 105780 266057 463072 403085 593030 543668 769878 273619 582985  72784
+ 105780 266057 463072 593030 403085 543668 769878 273619 582985  72784
  702125  56767 137625 111964 918964 173525 917077 885588 537310 191171
  500277  75096   6466 484700 431617 839657 383865 256533 551217 409439
  943009 228741  54505 523167 516164 625602 262340 898531 289019 903079
@@ -27619,7 +27619,7 @@
  863721 556926 582012 762168 951564 884444 144576 811581 870046 834120
  671928 171382 699440 302723 586514  90393 193250 958796 109208 783821
  716000 820442 336654 572704 596530 268531 266072 199568 983237 672287
- 732906 709728 282196 840503 199728 735239  44783 432500 210902 993117]</t>
+ 732906 709728 840503 282196 199728 735239  44783 432500 210902 993117]</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -27646,13 +27646,13 @@
           <t>[ 10971 742566 832140 357158  45700 968055 370370 997005  58957 484198
  846808 145873 368879 925356 952265 576567 232501 835435 409173 250876
  642277 959855 111384 904510 211282 674910 836509  56195 541655 535834
-  10704  58532 610359 597205 284728  75057 867805 240806 504319 287147
+  10704  58532 610359 597205 284728 867805  75057 240806 504319 287147
  639430 131137 125377 882996 655076  10786 570367 610291 198000 394950
  326071  58948 136272 396829 835424 900076  94254 694920 882916 405999
  529060 664201 835409 335700 777353 250875 780413 124736 460914 298636
  229009 907935 511654 218869 166503  35386 310456 904327 326826 297374
- 970789 515353  88697 548656 925368 186372 555631 286895  96123 190818
- 367100 462202  53530  16754 577048 406112 141509 141660 777261 634457]</t>
+ 970789 515353  88697 925368 548656 186372 555631 286895  96123 190818
+ 367100 462202  53530  16754 577048 406112 141660 141509 777261 634457]</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -27680,7 +27680,7 @@
  777302 601675 792264 653369 876040 897782 779369 798867 705235 672918
  494317 824152 576268 333767 259285 861253 579617 851465 728035 314106
    1793 695677 702371 387314 566309 170153 592048 174255 731367 382451
- 742438 574407  18037 725812 136585 231586 438686 767237 359434 514327
+ 742438 574407  18037 725812 231586 136585 438686 767237 359434 514327
  390170  22061 189437 720314 323922 742782 940377 618533 651265 456745
  957564 594130 571304 334155  39952  30690 140753 129424  82607 842494
  626706 401321 946787 163529 600237 148159 883757  62443  23190 510582
@@ -27777,14 +27777,14 @@
         <is>
           <t>[690066 817031 472985 175792 609041 356965 294739 402601 124571 749803
  818034 812582 949157 427134  78638 764670 836390 765244 575514 809902
- 581539 922392  36565 612803 842037 139415 557736 835666 322053 758511
+ 581539 922392  36565 842037 612803 139415 557736 835666 322053 758511
  218390 645926  46716 938792 538587  59162 181824 123408 857904 322003
  376914 287668 834797 903325 530465 406685 427128 346309 285736 536783
  846663 903312 685826 179062 691192 210908 680543  79791 317823 273752
  416648 237766 607228 612392 154670 458207 331814  59539 204351 249311
  667534 147872 831953 403767 917969 646968 758493 786096 802935 923154
  213940 959651 224955  29372 612977 545335 985450 798995  66675 593944
- 726139 505103 505140 957916 504925 315616 536782 603667 855213 987343]</t>
+ 726139 505140 505103 957916 504925 315616 536782 603667 855213 987343]</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -27811,7 +27811,7 @@
           <t>[159335 129826 404384 181390 184399 622917 655434 529507 262763  56455
  952728  66769 416854 720331 689192 680652  13659 990983 737686 842960
  201477  53686 776362 949982 674479 933137 525399 642779 243905 518456
- 804302 614375 750838 952109 512998 817900 750848 360859 560474 116061
+ 804302 614375 750838 952109 817900 512998 750848 360859 560474 116061
  223728 371137 244942 864263 735043 504722 319265 910380 688583 872813
  891643 698025 340685 649957 122924 972943 446257 259191  42265 283573
  961111 333559 524360 863158  39101 279552 150115 240958 458817 696158
@@ -27849,7 +27849,7 @@
  826390 609241 609240 400103 856909 854333 379655 807954 284055 258358
  225102    978 347746 347777 450956 543445 804865 363599 537460 276191
  433555 381240 469129 491972 247704 292846 571894  99499 944474 408964
- 123525 533997 953796 379669 394785 192027 219685 253935  33662 795222
+ 123525 953796 533997 379669 394785 192027 219685 253935  33662 795222
  574551 852595 816192 475378 108544  30726 283867 632331 200750 411218]</t>
         </is>
       </c>
@@ -27915,7 +27915,7 @@
  218103 464169 318342 882575 567858 333728 934675 902836  17765 778231
  138166  74534 894753 142237 961883 768856 627503 934207 243682 221867
  881784 601525 787573 472510 604574 603309 851107 860936 461167  24207
- 968006 804110 691154 784620 161835 489970 674816 256701 915003 522070
+ 968006 804110 691154 784620 161835 674816 489970 256701 915003 522070
  331379 128989 708968 576265 148340 294154 134905 595739 263794 923526]</t>
         </is>
       </c>
@@ -27949,7 +27949,7 @@
  811242 433027 169073 486716 145103 814294 746893 370996 419686 902579
  624684  64468 273546  21495  84265 912946 666680 326811 952585  15291
  145292 356755 526064 427568 710167 643305 851017 559091  78423 723652
- 668447 860821  94622 504371 667307  37184 916128 330861 667030 333027]</t>
+ 668447 860821 504371  94622 667307  37184 916128 330861 667030 333027]</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -28008,8 +28008,8 @@
         <is>
           <t>[893916 293493 293497 723009 171354 167816  34329 582013 363959 572793
  990581 996211 885762   4147 536780 121965 598067 542699 209410 925511
-  32696 588969 558038 238912 209800 201687 201309 819006   7459 347745
- 347776 594113 241333 276190 501552  42700 768112 125007 729603 875363
+  32696 588969 558038 238912 209800 201687 201309 819006   7459 347776
+ 347745 594113 241333 276190 501552  42700 768112 125007 729603 875363
  509857 428237  28035 469678 327894 459066  77004 729663 827560 263863
  255744 811205 390505 105682  16599 614105 611216 363952 241354 756608
   25755 313667 994224 175905 973164 400103 768351 140996 870193 804050
@@ -28047,8 +28047,8 @@
  672792 680543 363271 918736 118193 903311 923692  95464 916729 272452
  208705 453759 871294 593944 748757 208602 145689  72133 281731 416648
  574025 483826 220467 676644 788224 748738 507944 626399 347463  46716
- 646968   3171 227871 634611 952720 953884  17132 559218  95609 529934
- 530231 229130  88501 404687 595001 903325 100677 764670  29372 740651]</t>
+ 646968   3171 227871 634611 952720 953884  17132 559218  95609 530231
+ 529934 229130  88501 404687 595001 903325 100677 764670  29372 740651]</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28079,7 +28079,7 @@
  861630 937725    441 649056 915426 146618 958785 803441 774109 590245
  857112 506122 690782 823436 414283 248659 888160 257310 323341 563870
  382215  83915 676458  55257 958207 940321 760164 628027 723232 529253
- 247662 637968 834484 121494 259231 408682 224823 845311 859125 418905
+ 247662 637968 834484 121494 408682 259231 224823 845311 859125 418905
  855826  51939  64022 254461 837036 149639 817294 156654 466368 933954
  473004 980380  28877 940290 594130 828062 634913 908604 656720 101396]</t>
         </is>
@@ -28127,7 +28127,7 @@
  1.4091 1.4094 1.4096 1.4097 1.4103 1.4111 1.4111 1.4115 1.4118 1.4119
  1.4122 1.4126 1.4131 1.4132 1.4133 1.4135 1.4136 1.4151 1.4151 1.4154
  1.4155 1.4158 1.4159 1.4167 1.4174 1.4175 1.4179 1.4188 1.4193 1.4196
- 1.4198 1.4198 1.4203 1.4203 1.4204 1.4216 1.4217 1.4217 1.4218 1.4218
+ 1.4198 1.4198 1.4203 1.4203 1.4204 1.4216 1.4217 1.4218 1.4218 1.4218
  1.4218 1.4222 1.4223 1.4223 1.4226 1.4228 1.423  1.4231 1.4235 1.4238]</t>
         </is>
       </c>
@@ -28147,7 +28147,7 @@
  808468 532772 239791 635566 158849 430951 853089 568617 664714 812184
  628517 751728  71355 879188 756638 211371 133540 770374 343514  57657
  164463 749791  58425 460812 151204 794427  22426 605115 704202 278401
- 751719 374276 374370 251352 272799 816437 774125 500310 954875 818332]</t>
+ 751719 374370 374276 251352 272799 816437 774125 500310 954875 818332]</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -28179,8 +28179,8 @@
  760630 509926 306216 253704 323368 247567 132365 680176 582209 888598
  748385 794771 531043 105339  46329 398982 889597 378529 932995   2308
  927636 542535 408505 358700 513729 935437 329450 748486 813289 476462
-  89005 296226 435271 911550 435303 589036 717798 959631 961952 859311
- 911879 634475 598011  35731 547803 686971 915622 294351 877999  24503]</t>
+  89005 435271 296226 911550 435303 589036 717798 959631 961952 859311
+ 911879 634475 598011  35731 547803 686971 915622 294351 877999 699008]</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28239,14 +28239,14 @@
         <is>
           <t>[827103  56576  80410 206879 562788 962169 214251 208870 465238 511124
  447517 962172 411029 148248  40091 314175 265843  56808 668773  20805
- 405947  79862 306848 523726 267394 463741 497545 234107 286512 141349
+ 405947  79862 306848 523726 267394 497545 463741 234107 286512 141349
  218868 914208 185294 904343 717936 466657 255895 772490 761698 359419
  882906 125456 154462 610934 668823 770770 694506 386174 295637 919012
- 199029 954117 216660 148255 442146  14054  86492 583079 284966 694504
+ 954117 199029 216660 148255 442146  14054  86492 583079 284966 694504
   69092  40992 849012 958939 593511 888018 953025 893282 518652 900618
  430001 782893 375142 628921 171737  79680 651942  83827 856090 611954
  214943 786007 371412 223749 174807 745368 295666 694489 961522 708647
- 940165 422107 716427 467731 927522  70260 827093 966917 584376 295686]</t>
+ 940165 422107 716427 467731 927522  70260 966917 827093 584376 295686]</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -28311,7 +28311,7 @@
  358914 304709  15078 524936 959949 258961 655924 519822 367145 461888
  669834 519826 990636 912350 158666 483962    731 889401 529695 468129
  115787 153697 523781 462474    557  64329 394392  38068 266554 661705
- 828606 374628 654996 913601  65075 246323 522903 175493 363311 476863
+ 828606 374628 654996 913601  65075 246323 522903 363311 175493 476863
  758129 282276 338587 583792 977929 873488 878602 660360 975575 867284]</t>
         </is>
       </c>
@@ -28402,8 +28402,8 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>[907055 183165 412451 652623 264908 750228 374236 458898 924448  67483
- 175400 670668 110759 690247 919712 451617 333728 518210 934325 566589
+          <t>[907055 183165 412451 652623 264908 750228 374236 458898 924448 175400
+  67483 670668 110759 690247 919712 451617 333728 518210 934325 566589
  945757 392806 722915 505854 878475  49859   2285 880062 291304 662777
  532829 506013 286109 768628 672994 828134 960385 632333 234648 723715
   44471  81714  26153 801774 541292  40725 253385 465076 257106 896950
@@ -28438,7 +28438,7 @@
           <t>[930220  45204 532282 259763 203413 150723 801215 679952 337817 892786
  500473 486955 848027 790149 946036 679951 960743 909002  49578 745452
  841845 713821 446884 734156 522950  93228 563484 416345 250868  46924
- 422414  71027 697486 311048 428419 635140 348782 714257 791402 883493
+ 422414  71027 697486 428419 311048 635140 348782 714257 791402 883493
  209167 992053 937003 255505 902758 258599 896257 775603  78586 269289
  297008 324875 181662 957065  67066 689353 633281 498880 154638 548958
  908878 529824  27012 422020 940091  27039  88535 188407 255117 565140
@@ -28469,7 +28469,7 @@
       <c r="B851" t="inlineStr">
         <is>
           <t>[835528 717675 533070  38717 139415 477846 181824 764293 337905 337904
- 912690 617915 505103 505140 924961 700492 144020 538740 769965 787123
+ 912690 617915 505140 505103 924961 700492 144020 538740 769965 787123
  348510 296675 388202 504835 147454   1794 482741 720455 519298 690066
    1796 715336 113230 778974 961997 816918 709400 720476 612585 581899
  130846 558135 751284 519165  42896 272452 100677 512947  15291 454786
@@ -28503,7 +28503,7 @@
         <is>
           <t>[  9577 676439 573201 351216 342613 290184  44231 604788 800598 308110
   47965 315309 617325 505828 755893 765303 755868  85834  23353  74813
- 481502 495362  44645  44679 213281 456783 192859 896584 236088 818247
+ 481502 495362  44679  44645 213281 456783 192859 896584 236088 818247
  879119 125892 135960  29615 676397 550168 697563 810019 664869 602298
  816154  47744 116063 199399  91395 497465 450036 751035 436379 932993
  817398 746994  57865 199977 238613 714542 862867 816424 352710 989831
@@ -28517,7 +28517,7 @@
         <is>
           <t>[0.9718 0.9797 0.999  1.0059 1.006  1.0073 1.0134 1.0199 1.0263 1.0286
  1.0301 1.0302 1.0307 1.0319 1.0319 1.0362 1.037  1.0375 1.0376 1.0395
- 1.0399 1.0409 1.0419 1.0419 1.0431 1.0441 1.0447 1.0463 1.0463 1.0464
+ 1.0399 1.0409 1.0419 1.0419 1.0431 1.0441 1.0447 1.0463 1.0463 1.0463
  1.0475 1.0504 1.0513 1.0518 1.0529 1.0542 1.0546 1.0549 1.0549 1.0552
  1.0554 1.0554 1.0566 1.0569 1.0572 1.0597 1.0598 1.0606 1.061  1.0612
  1.0614 1.0617 1.0617 1.0618 1.0625 1.0634 1.0642 1.0646 1.0651 1.0653
@@ -28570,7 +28570,7 @@
           <t>[268255 902677 221867 111324 755094 900957 804110 722795 653302 168334
  825953 152791 612943 588308 330648 651351 892054 388405 435962 686774
   43271  61042 782295 262539 171159 445200 505403 579715 312816 312840
- 286414 603451 338538 797959 640500 520479 256082 667579 883752  74106
+ 286414 603451 797959 338538 640500 520479 256082 667579 883752  74106
  769213 198358 611342 837277 961873 839723 439966 725653 152779 403070
  831682 127616 518077 312586 818208 979483 699914 747633 602479 149432
  410986 465103 841264 596152 169111 843897 153629 935084 415823 445183
@@ -28603,7 +28603,7 @@
           <t>[939929 644758 769386 256003 989143 554611 928775 374546 618304 932978
   29409  34884 822271 347786 206255 529428 720643  56612 831314 594591
  609422 676935 628741 874143 686952 980031 584436 113828 449393 411347
- 396225 448185 817376 872100 655959 132945   9903 416453 530348 886376
+ 396225 448185 817376 872100 655959 132945   9903 416453 886376 530348
  479983 750537  72496 130692 241061 503769 894974 480477 570679 588559
  686067 890640 526549 426392 932096 314808 387153 270345 200142 532778
  436859 936011 223564 393955 804080 812767 456355 874105 878712   4123
@@ -28642,7 +28642,7 @@
  858699 880645 763006 842483 911547 559123 238622 719461 908898 417300
  149210 415325 963582 933946 225386 433545 707367 228594 381937 591217
  291894 656119 715701 890453 661132 638183 841056 174401 991376 132694
- 323919  43991 274077 880746 328494  98538 437857 694961  73523  65123]</t>
+ 323919 274077  43991 880746 328494  98538 437857 694961  73523  65123]</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -28666,13 +28666,13 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>[724170 672896 831315   4417 375333 580284 385958 370700 571861 889372
+          <t>[724170 672896 831315 375333   4417 580284 385958 370700 571861 889372
  418498 732306 732308 567089 259868 121202 772379 198460 208387 947142
   20492 481724  84607 894774 560069 648396 369420   4930  84356 433918
  397123 819498 126940 963978 236364 878497 301351 297256 840836 950303
  336507 287916 607964 406152 832280 969909 542730 212515 468896 180152
- 520365 795406  68788   4928 679888 272140  14609 198465 702518 461211
- 820127 472191 669129 436175 985626 127502 301208 402235 908568 666495
+ 520365 795406  68788   4928 679888 272140  14609 198465 702518 820127
+ 461211 472191 669129 436175 985626 127502 301208 402235 908568 666495
  104359 812952 950613 686792 504856 225036 571192  22232 752684  55856
  669342 735945 822971 520393 137542 903953 851846 702355 172590 351645
  187143 543459 419750 322349 603076 996632 532773 373801  55860 782945]</t>
@@ -28705,9 +28705,9 @@
   95543 843178  47816 271728 347245 493795  47415  47085 480563  42038
  980208 177230 994712  64873  47892  47851 927953 694375 102482 625979
  857462 406232  95566 309232 525891 489354 639010 452740  47530 628470
- 626145 438715  47118 997290   5018  18728 124340 140229 142315 254917
- 416448 418626 504941 509531 662296 670223 723962 724316 765078 813232
- 813257 814035 831351 838913 863639 923746 361063  49099 738253  47264
+ 626145 438715  47118 997290 814035 142315 662296  18728 724316 418626
+   5018 765078 504941 813232 723962 416448 254917 140229 124340 838913
+ 670223 509531 923746 813257 863639 831351 361063  49099 738253  47264
  266767 900147 548494 917689 143521 652713 680342 521738 595122  95511]</t>
         </is>
       </c>
@@ -28735,7 +28735,7 @@
           <t>[157960 763146 232268 867299 194044 546455 622205  74265 421723 234850
  596369 551948 665367 235115 989727 948058 713803 224591 452569 837762
  185315 609420 451460 172583 328865 383020 521179 824185 259662 338856
- 991918 444750 680210 367095 367270 373289 508835 348664 663902 180329
+ 991918 444750 680210 367095 367270 373289 508835 663902 348664 180329
   80539 621514 940197 700380 513402 635071 539742 958562 244031 588569
  712782 517936 209718 114093 639589 290725  28375 259207 518208 895927
  248859 395010 401764 957982 924018 321603    298 193327 391435 259254
@@ -28755,7 +28755,7 @@
  0.9491 0.9493 0.9493 0.9495 0.9496 0.9498 0.9502 0.9509 0.9518 0.9521
  0.9529 0.953  0.9531 0.9532 0.9534 0.9534 0.9535 0.9538 0.9538 0.954
  0.9543 0.9543 0.9544 0.9545 0.9547 0.9548 0.9548 0.9551 0.9552 0.9553
- 0.9555 0.9556 0.9557 0.9562 0.9567 0.957  0.9573 0.9573 0.9582 0.9583]</t>
+ 0.9555 0.9556 0.9557 0.9561 0.9567 0.957  0.9573 0.9573 0.9582 0.9583]</t>
         </is>
       </c>
     </row>
@@ -28772,7 +28772,7 @@
  800430 245815 197105 614619   9822   9872 515263 955365 600461 812420
  578101 759559 633451 101147 679028 200301 540683 394785 742735 512497
  984816 184211 767788 292845 487728   1606 989864 390999 522942 347237
- 517078 517200 740816 987042 889258 188712  49298 423582 400637 426044
+ 517200 517078 740816 987042 889258 188712  49298 423582 400637 426044
  646300 420981 568258   1603 471386 414793  70996 126757 941187 470496
  772731 345807 847524 986863 281700 777555  69999 742143 599962   3676]</t>
         </is>
@@ -28799,7 +28799,7 @@
       <c r="B861" t="inlineStr">
         <is>
           <t>[679031 948736 186869 444626 478458 544071 356344 694808 388323 139890
- 625441 340289 679140 298847 950124 563709 397989 646010 877843 955817
+ 625441 340289 679140 950124 298847 563709 397989 646010 877843 955817
  543146 935531 893809 927903 765977 794468 209255  11903 258618 331196
  312957 825965 979168 930983 427153 664496 397960  20524 398425 565948
  897253 904067 676096 709565 832978 656311 979174 889105  10241 487493
@@ -28837,7 +28837,7 @@
  232951 429046 270915 360779 275665 684732 842805 507055 401598 920197
  947831 980601 224799 725414 585170   2001 803956  17480 934564 270916
  302673 662397 514282 515688 986777 672820 446649 559274 680342 619391
- 920965 107281 167012 970999 317967 272359 272638 820410 699488 856339
+ 920965 107281 167012 970999 317967 272638 272359 820410 699488 856339
   28622 118148 586296   5967 456182 384237 571027 799662 596391 511070
  901068 518933 249077 706356 917689 432889 394736  34312 841848 579893
    1895 640426 144155 970390 311470 657557 272628  95384  28636 805903]</t>
@@ -28933,7 +28933,7 @@
           <t>[483140 273101 798801  56140  17005 570658  83748 439058  86271 147838
  149224  31467  25693 163708 223898 168859 619053 147528 277439 824611
  974787 442146 961685 890530 974693  72030 518294 292316 194902 243502
- 457185 384208 588257 588287 477749 624979 342883  16295 666180 298812
+ 457185 384208 588257 588287 624979 477749 342883  16295 666180 298812
   95280 162823 503774 684381 426278 936882  75839 897162 504812 770563
  263633 338040 133208 141318 569563 946603 259684 860166 904029 141304
  468786 313126 737000 175719 247634 106207 494062 182773 104989 610657
@@ -28971,8 +28971,8 @@
  132554 331196 474081 185319 848257 381765 859793 865764 918151 366684
  819831 669144 888342 823280 703804 231479 613085 252782 718012  65092
  930290 807358 426152 279819 458451 972334 588350 561050 693856  27420
- 969051 102342 774429 593347 711699 645508 817399 697480 115908 778406
- 831868 512272  85184 520440 178550 171910 993237 149707 486543 146343]</t>
+ 969051 102342 774429 593347 711699 645508 817399 697480 115908 831868
+ 778406 512272  85184 520440 178550 171910 993237 149707 486543 146343]</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -28998,7 +28998,7 @@
         <is>
           <t>[927245 224271 804192 613711 402710 570563 302405 600093  72992 103456
  625946 234388 710612 757972  77312 853014 660343 889218 287325 492637
- 802626 918932 443708 928641 704483 930483  40468 725200 602592 402378
+ 918932 802626 443708 928641 704483 930483  40468 725200 602592 402378
  361823 965390 962073 722795 845382 364027 970496 807274 870927 802922
  930480  74106 187456 104460 110562 607380 977206  11794 420880 345167
  790524 586673 436885 438982 361281 301552 448434 388405 325179 260307
@@ -29032,8 +29032,8 @@
           <t>[376578 709400 539936 661713 511918 620411  38717  42896 477846 847028
    1796 593495 944591 210649 100677  21072 593478   9736 550280 784771
  734929 764293 472850 103173 985656 313884 581899 617915 282140 346889
-  47332  47748 460318 647384 801388 754304 755085  97635 500292 598131
-  50543 446546 458666 243813 473467 210633 924961 720476  86988 112580
+  47748  47332 460318 647384 801388 755085 754304  97635 500292 598131
+  50543 446546 458666 243813 473467 210633 924961 720476 112580  86988
  533070 624009 399687 860233 897124 413978 702501 226535 178575 720455
  495253 642663 976779 489603 326919 117505  21867 588036 662100 853287
  771762 176191 688487 700492 917957 352733 588033 454883  26809 612585
@@ -29064,7 +29064,7 @@
         <is>
           <t>[565744 254891 978985 503289 826819 853981 858849 913477 475890 839076
  148249 353052 349161 350891 924556  44200  30763 493696 991215 621744
- 525730 525762 139365 616142 588954 949004  77870  25726 369810 531108
+ 525762 525730 616142 139365 588954 949004  77870  25726 369810 531108
   17699 334496 594836 173455 534582  25878 468499 854461 573216 573018
  954492 626572 229209 625729 446142 543146 427961 285105 949609 229225
  748759 632215 471648 139346 477777 889058 848257 901564 390172 904067
@@ -29098,13 +29098,13 @@
           <t>[696332 734521 832198 856778 948160 286073 610420 634835 983391 239146
  401547 136533 422377 468598 649191 740624 346207  25051 863109 260219
   69815 684393 993272 809407 401546 823965  30833 415162  58863 255176
- 392524 392647 610419 497567 246858 286092 150842 909721 730188 795487
+ 392647 392524 610419 497567 246858 286092 150842 909721 730188 795487
  898601 401304 228674 116158 779361 111144 461167 542684 415143 392535
  451388 472510 933141 638860 150192 454879 476261 158952  11408 468596
  864470 907862  40171 102902 429050 953965 651890 384674  53761 188041
   45950 838369 977734 366396 919779 607766 421303 886079 371844 944419
  357379 655916 240095 269340 109663 770437 586641 476262 204718 885192
- 511896 250006 730118 991212 661036 999554 433675 143906  80457  80517]</t>
+ 511896 250006 730118 991212 661036 999554 433675 143906  80457 385851]</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -29299,9 +29299,9 @@
  326801 286295  33847 234964 432131 362515 326671 407278 586930 737943
  157675 895606 520557 371420 762304 634444 961530 207395 287294 275219
  433771 786615 409736 150340 519277 651859 690097 926513 258482 566517
- 249272 904686 399469 866973 582819  52426 519970 224376 586184 592474
+ 249272 904686 399469 866973 582819  52426 519970 586184 224376 592474
  280702 364432 980454  94009 745260 305528 658210   7974 988512 577578
- 115104 406056 707727 197725 657189  82326 704791 265580 516361 371850
+ 406056 115104 707727 197725 657189  82326 704791 265580 516361 371850
  318908 906718 425186 639391 541126 692559 367250 273953 597409 569870]</t>
         </is>
       </c>
@@ -29365,10 +29365,10 @@
  220492 381475 218447 942321 880487 259098 193221 929273 596360 416123
  583274 655206 150391 718943 978703 772852 212316 874312 188521 119516
  260153 297241 466693 787984 874338 450134 450673 751610 505906 535744
-  99179 667817 883656 223602 604723 135506 576780 477430 687460 898718
+  99179 667817 883656 223602 604723 576780 135506 477430 687460 898718
  737981 738006 908604 680312 653077 626665 484371 638965 694703  20319
  576940 574365 561860 185010 463700 767464 750589 270150 985861 801758
- 407924 273038 815177 519214 680473 988867 255457 255483 333326 914304]</t>
+ 407924 273038 815177 519214 680473 988867 255483 255457 333326 914304]</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -29400,7 +29400,7 @@
   46849 552133  32852  52793 328262 307831 111454 467355 919140 180248
  310735 823423  44889 418513 792000 451513  80837 515823 922004 162562
  562835 588216 872283 902573 718347 653040 683553 643196 765122 905292
- 468697 280100 900437 180187 914681 861789 406152 826112 290234 290255
+ 468697 280100 900437 180187 914681 861789 406152 826112 290255 290234
  241680 990530 251358 817164 380972 319144 767198 319227 674685 748685]</t>
         </is>
       </c>
@@ -29434,7 +29434,7 @@
   94650 829468 270897 552235 527753 440790 457765 560084 466993 931826
   62264 385243 731730 763078 639714 712072 873563  17754 929749 352362
  459089 950817 331169 429794 158503 506235 315705 205036 218972 441629
- 152524 746181 383655 249647 495479 686626 928268  82381 523268 601754]</t>
+ 152524 746181 383655 495479 249647 686626 928268  82381 523268 601754]</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -29458,7 +29458,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>[124114 149804 717575 717615 626444 926821 567857 578499 910604 385041
+          <t>[124114 149804 717615 717575 626444 926821 567857 578499 910604 385041
  188258 812203 544497 196774 417317 221041 651455 402286  37770  19440
  765035 606197 706561 581128 865917 263849 765223 636472 428842 230360
  478711 633264 509245 653655 750282 466009 836976 101773 296707 662946
@@ -29466,7 +29466,7 @@
  174222 696712 947231 358529   5411 523551 483477 544300 220743 778260
  589268 921769 511218 914302 914347 900259 777270 400064 146062 475332
  189318 123582 610797 419977 901879  59882 526538 477908 179278 873328
- 770307 794866 404111 256346 279805 168317 259080 598089 764033 908626
+ 770307 794866 404111 256346 279805 168317 259080 764033 598089 908626
  985510 418598 251330 700936 979776 499642 572503 717528 378582 843584]</t>
         </is>
       </c>
@@ -29529,7 +29529,7 @@
  888909 139644 230051 828851 961931 420195 698417 244310 138448 802355
  757831 289013 150717 626353 664332 539453   4437 642169 251276 239921
  924368  31912 631370 315899 894235  96686 848683 463687 610007  45590
- 378145 370372 772788  72104 867374 745454 573308 219558 365629 466430
+ 378145 370372 772788  72104 867374 745454 573308 219558 466430 365629
  766384 512669 870580 634534 706473 708152 502174 461765 451868 377736
  112613 617218 197194 236943 365943  62197  72182 510721 761756 459748
  931875 361625 379407 158500 575779 516823 686952 381506 780347 263710
@@ -29594,11 +29594,11 @@
  322371 264345 566778 382497 396414 887182 270147 727941 562903 642692
  292919  51709 391013 688386 471872 212308 109609 124416 709775 974471
  152625 746383 830808  51732  27366 224202 306819 557796 178079 179715
- 814875 418982 673135  25878 921583 277601 527369 542279 129053 229731
+ 814875 418982 673135  25878 921583 277601 542279 527369 129053 229731
  673133 581919 407340 931273 871614 804424 592751 429250  88123 352338
  573924 629269 136523 251658 370295 679566 479031  45572 771319 844336
  289474 669980 425462 727005 862193 940220 100748 347397 735020 198876
- 232859 466134 732868 583008 180834 312914 431787 340449 442245 580440
+ 232859 466134 732868 583008 312914 180834 431787 340449 442245 580440
  992123 919016 553389 873443 990030 634066 163169 312640 468636 258583]</t>
         </is>
       </c>
@@ -29695,7 +29695,7 @@
  771513 219782 221416 530887 122611 416796 284426 383726 849487  25097
   15913 348673  18604 932124 158793 778328 968395 916875 592391 355744
  237285 711994  55346 138832 610078 833324 510515 761223 321253   3118
- 772328  44807 142224 133798 536537 972314 312480 237261 545168 833326
+ 772328  44807 142224 536537 133798 972314 312480 237261 545168 833326
     671 305052 978051 128341 557713 615558 385314 415552 170575 405809
  421305  57553 949402  57506   4219 107782 425571  13152 277273 921622
  951957 859042 133705 792291  51549 277011 525427 819795 513924 959707]</t>
@@ -29722,10 +29722,10 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>[199681 463852 519284 335830 445935 895741 899145 817516 717351  79012
+          <t>[199681 463852 519284 335830 445935 899145 895741 817516 717351  79012
  716101 522366 447417 694958 324522 862235 189599 654261 654273 157205
  447103 651239 378580 156433 477823 119415 938198 644291 526481 735069
- 316686 669901  32028 313938 858259 412061 313515  85225 571068 834943
+ 316686 669901  32028 858259 313938 412061 313515  85225 571068 834943
  932329 812213 578533 644204 418712 239859 873149 665179 939522 364917
  477352 582225 360472 992321 226681  94158 850674 204462 783585 656785
  146383 167215   2155 912286 685826 112679 541802 540885 998323 665165
@@ -29759,12 +29759,12 @@
  967074 307779 159278 620899 749058 123796 491420 996489 230721 126286
  155245 132438 364177 458451 720630  25713 641799 572888  34907 635154
  997013 498610 533158 210543 455210 274969 370173 516913  27644 580698
- 160534 329676 995294 611803 955220 193566 134072 731719 914349    137
- 292588  62276 525010  10892  15358 801850 308981 364174 371806 930068
+ 160534 329676 995294 611803 955220 193566 134072 731719 914349 292588
+    137  62276 525010  10892  15358 801850 308981 364174 371806 930068
  220500 645365 924139 659139 839676 460361   2105 877227 646537 380764
   50993 361071  30694 563379 956728 727889 806458 655247 448185 870245
  519767 430909 870238 990560   9669 896357 861457 906147 647923  54598
- 745277 279183  64875 528066 182949 146436 377933 447813 524491 359348]</t>
+ 745277 279183  64875 528066 182949 146436 447813 524491 377933 359348]</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -29858,7 +29858,7 @@
  747773 120143 747771 171479 695091 278483 241727   5203 326003 808569
  125404 676765 579537 200849 178768 978804 888285  60046 906197 670743
   24413 922885 169645 564167 150092 977155 748779 793772 721870 504167
- 453684  44023 495359 798334 641947 463258 211693  27477 449323 660337
+ 453684  44023 495359 798334 641947 463258 211693 449323  27477 660337
  625458 345383 700874 136083  68849 717727 118429 152016 817645 504168
  176208 140834 294361 698166  63972  58498 564740 811571 764357 894673
   26384 865760 383957 300519 241970 382754 833872 930448 981575 389575
@@ -29892,9 +29892,9 @@
  625983 542549 360589 926476 565824 283836 423943 450691 464240 846968
  981140 965521 194945 830225 717575 717615 298967 933709 651157 139950
  800646 526352 431599 855728 122751 269845 396459 832988 959845 633223
-  89645 565842 651156 651319  20644  67352 717574 717614  44737  44753
+ 651319 565842  89645 651156  20644  67352 717614 717574  44737  44753
  230240  82971 994726 294524 639305 510663 966422 428842 211309 573267
-  80453 385846 350525 918353  68507 765223 266895 560448 479135 957161
+ 385846  80453 350525 918353  68507 765223 266895 560448 479135 957161
   66777 527052 368885 309741 357915 267322 409492 549351 237491  59934
  171520 310111 415339 831805  63101 335790 398005 804405 907849 496087]</t>
         </is>
@@ -29928,7 +29928,7 @@
  580840 711122 618583 911353 411083 131150 542560 636690 285213 786606
  235586 209087 758350  51853 138504 925613 368870 750702  12747 238322
  284233 914594 820491 730112 229078 136070 622296 870725 989374 785997
- 306961 977980 228552 834129 797731 400660 582645 313124  89415 180046
+ 306961 977980 228552 834129 797731 582645 400660 313124  89415 180046
  266050 529294 558798 582659 226065 576666 185633 222993 903573 879629]</t>
         </is>
       </c>
@@ -29955,10 +29955,10 @@
         <is>
           <t>[995709 373796 212612 385944 395383  32538 521026 862352 654947 790767
  545005  71335  56565 844979 477884 522707 741180 524125 571761 651144
- 180054 212311 609641 891164 743359  98768 663412 287923 609593 609686
+ 180054 212311 609641 891164 743359  98768 663412 287923 609686 609593
  262301 340556 647812 761705 388742 924367 857152 740725 678938 230078
   36899 644730 898972 368394 649354  51300 185855 811517 158303 906238
- 249069 572503 555253 573270 697974 383989 808504 519950 764383 764501
+ 249069 572503 555253 573270 697974 383989 808504 519950 764501 764383
   26988 629412 899249 982808 608644 723928 466009 222724  53394 898477
  990950 983849 991450 913246  23117 212615  26748  46371 392205 359446
  617880 220639 198221  83598 980814 718454 880478 688808 572456 976207
@@ -30056,10 +30056,10 @@
  113237 589426 781617 290300 453850 566039 891700 802355 998239 397504
  877843 746468 116394 345966 251276  24859 511688 809815 588963 472701
  808808 116362 684790 253973 266193 679140  70688  92178 398425 826748
- 407362 512281 558595 888751 934718 492279 608658 945296 692890 471416
+ 407362 558595 888751 512281 934718 492279 608658 945296 692890 471416
  318872 232877  72104  46705 628066 359678 441022 596071 361216 340289
  694717 639819 169084  65573 799842 508864 358361 765977 251482 471351
- 705812 539080 539168 978442 430941 619921 179377 564893 391025 584897
+ 705812 539168 539080 978442 430941 619921 179377 564893 391025 584897
  570563 356422 743323 539104  13417  11903  94090 764089  90562 613443
  486239 764241 471369 364187 340338 108430 470646 964286  53053 360774]</t>
         </is>
@@ -30118,7 +30118,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>[277089 741350 764004 292571 479375 604119 901470  31836  31860 369094
+          <t>[277089 741350 764004 292571 479375 901470 604119  31836  31860 369094
  768055 772008 512187 880659 663622 924551 583497 814907 482012 425830
  861813 103974 160478 958260 212295 647126 277203 575993 325136  31880
  954521 369093 694958 159608 291803 403833 147483 873045 536968 574984
@@ -30191,8 +30191,8 @@
  333265 775601 325541 818808 219962  51231 898518 279512 212674 505916
  599657 949484 218315 881586 185070 751511 243613 862122 781489 239536
  338413 949291  38092 699402 763734 730816 243526 455228 851385 563321
- 885212 400142 312334 164314 936404 655811 429807 293570 724541 438351
- 438807 981657 830290 542157 317267 636244 688543 621440 900955 597981
+ 885212 400142 312334 164314 936404 655811 429807 293570 724541 438807
+ 438351 981657 830290 542157 317267 636244 688543 621440 900955 597981
  441413 466344 711989 476160 129529  87965  99404 819812 300942 455062]</t>
         </is>
       </c>
@@ -30220,12 +30220,12 @@
           <t>[321090 940675 729928 876583 345242 320070 875426 940673 768769 594867
  437428 482061 294935 112724 416249 421708 764014 377109 737564 870884
   97859 544953 274168 967419 232027 266308 421764 334827 214102 345244
-  73021 190759  17004 359614 237262 723640 348560 460316 768755   3502
+  73021 190759  17004 359614 723640 237262 348560 460316 768755   3502
   11009 439659 818765 400749 643162 700884 741795  18561 123733 654851
  315124 449188 379578 965955  31545  51960 360456 913883 239381 458713
  660884 231656 451382 278318 309138 909656 245648 216864 720701 171147
  666300 228228 985799 107118 801130 716478 644142 776938 542606 460319
- 170149 950937 250491 367746 459502 197866 384058 508802 799394 175185
+ 170149 950937 250491 367746 459502 197866 508802 384058 799394 175185
  947438 563414 377405 534859 997575 708705 490980 914333 761685 324208]</t>
         </is>
       </c>
@@ -30319,7 +30319,7 @@
           <t>[313210 226460   9861 944265  30651 749642 549458 790470  27986 310296
  805031 807234 733672 385215 850586 489387 770365 751368 179210 876530
  491720 361723 751374 751355 719667 455241 941296 806974 160430  12314
- 231066 657996 954645 467498 881586 174197 812822 312047 318881 778475
+ 231066 657996 954645 467498 881586 812822 174197 312047 318881 778475
  548885  30838 596100 976983 455021 439512 548888 101153 350154 403707
  541174 573980 423788 987991 228738 513796 451799 218749 101148 171612
  859824  18261 951520 484703  58234 781489 256947 477353 811966 599657
@@ -30351,7 +30351,7 @@
         <is>
           <t>[627706 432564 105036 779456 597987 260601 180986 312924 628925 650134
  149786 889467  56443 171330 830624 395427  66954 736366 403811 207729
- 698086 244573  88324 384199 264457 810286  21013 105020 951814 391652
+ 698086 244573  88324 384199 264457 810286 105020  21013 951814 391652
   23367  55702 528428 898909 961024 331242 196272 321551 694209  27522
  650512 224498 749879 564023 989471 152627 260539 217631 167171 860737
  555630 616339 243515 535837 804200 181531 909803 468608 206581 332284
@@ -30387,7 +30387,7 @@
  800944 345951 105893 607266 962327 934416 990606 198880 761291 331712
  896228 764862 670008 288207 996212 986953 741133 198933 410059 614591
  358449 335035 323453 955501  76664 619633 481942 899365 212020 461739
-  51378 587994  94927 365638 421776 757781 627312 235630 235753 235783
+  51378 587994  94927 365638 421776 757781 627312 235753 235783 235630
    3606  62223 809147 262229 767038 348239 344681  15617 199418 262215
   46469 566410 111162 437341 279185 795242 121919 464566 503220 585627
  348466 732731 743818 436972 546540 296629 858856 420123 142027 515651
@@ -30451,7 +30451,7 @@
           <t>[118735 588552 503225 284882 717466 556987 276228 767205 676825 222854
  521466 444156  29516 537318 159917  26580 454758 180662 270901 485299
  294976 750827 242043 262701  73393 453723  96926  21559 580865 995193
- 925614 196375  29554 432536 419945 345682  47057  95751 279704 250454
+ 925614 196375  29554 432536 419945 345682  95751  47057 279704 250454
   14233 638655 495471 984382 203610 440213 985575 917385  46203 506925
  775551 428203 500050  30823 746816 440196 321032 169710 250760 128141
  853175 141513 155702 340648  39025 491702 687466 118724 812542 206090
@@ -30549,9 +30549,9 @@
         <is>
           <t>[ 68967 409726 987955 695694 404321  20413 986750 987375 931169 227061
  527829 614594 328371 614441 708622 141179 375876 893863 612113 764686
- 742192 836674 511286 907726 407015 411869 620652 345182 453789 704390
- 189765 555314  97254 543636 527641 777217 684597 163494 860258 727810
- 731615 278048 503227 405324 315634 576572 384425 384456 352643 678556
+ 742192 836674 511286 907726 411869 407015 620652 345182 453789 704390
+ 189765 555314 543636  97254 527641 777217 684597 163494 860258 727810
+ 731615 278048 503227 405324 315634 576572 384456 384425 352643 678556
  145548 679391 794019 215750 429526 290585 651722 105023 507922  58428
  871994 250428 110176 509890 148314 185445 469608 981727 744700 499188
  954036 504342 951031 715845 676392 682388 830738   8622 295272 536084
@@ -30583,8 +30583,8 @@
           <t>[248368 533336 911441 783508  65297 183574 850954  52820 236445 671503
   52841 106403 906683 737228 902675 494218 693674  52838 511953 545089
  297381 965274 675443 727330 741334 104399  95148 565278 144029 417127
- 361922 265011 798171  72599 370170 902728 783505 570259 796616 542621
- 904025 738421 283167 942797 850960 250005 324652 282436 773054 579659
+ 361922 265011 798171  72599 370170 902728 783505 570259 796616 904025
+ 542621 738421 283167 942797 850960 250005 324652 282436 773054 579659
  289099 858525 347838 473745 626474 850217 309721 459467 953123 610108
  723381 987773 170054 595457 794245 136977 992049 175953  66578 279399
  595478 309698 706337 106422 332596 987977 486228 324773 424048 707593
@@ -30621,7 +30621,7 @@
  591284 733073 431396 139709  33145 766770 626181 626184 200959 607463
  769717 670695 261055 990573 761532 497640  66532 799860 928893 322706
  384148 915354 413430 974303 316177 424628 763287 881153 524782 351474
- 449452 986885  19399 514990 687264 100523  90428 328092 973463  32947
+ 449452 986885  19399 687264 514990 100523  90428 328092 973463  32947
  240149 352244 381504  34627 518157  58439 335435 180266 109188 866979]</t>
         </is>
       </c>
@@ -30684,7 +30684,7 @@
  706655 895436 368483  63655  45350 549518 602700 211326 598980 399486
  353692 340091 687556 788686 269536 875451 816618 325084 409500 893862
  549901 462326 889529  62631 727473 794712 129666 465249 603910 987726
- 838234 694504  96103 220675 694506  34426  34449 510237 274284 462062
+ 838234 694504  96103 220675 694506  34449  34426 510237 274284 462062
  276754  57390 844181 415120  75581 755521  74783 937960  73812 176667
  624717 400416 104869 825767 203254 477654 991849 727459  19169 816882
  222346 334101 334192 299103 942343 188236 216660 456640 481516 102388
@@ -30751,9 +30751,9 @@
  684539 627710 925787 666650 233109 437136 630559 507926 244788 920180
  880930 981430 986932 422416 955980 507395 541251 996293 115685  70047
  219962 278247 654864 293893 665236 789133 284068 204904  51058 106874
- 596435 681883 728947 784375 352614 493001 667759 534981  86818 806189
+ 596435 681883 728947 784375 352614 667759 493001 534981  86818 806189
  965372 691633 240196 960173 394610 116794 563216 443301 773133  83677
- 169516 130280 130308 787076 262229 316643 902121 337717 171100 360109
+ 169516 130308 130280 787076 262229 316643 902121 337717 360109 171100
  407015 411869 780125 294843 933792 958809 234717 407219  33157 281065]</t>
         </is>
       </c>
@@ -30782,10 +30782,10 @@
  448625 983732 273319 753967 256482 855865  62073 862113 252341 608135
  440193 812561 529833 263702 749242 365943 434495 924602 427127 823344
  383483 340648 379648 160095 245927 996084 525031 655547 724063 348239
- 626494 427547 548022 503225 724111 784674  88658 332018 152656 756638
+ 626494 427547 548022 503225 784674 724111  88658 332018 152656 756638
  885220 749194 335133 533079 899125 225065 809900 402731 152168 485299
  103177 463212 396472 101624 765106 945307 495729 397260 732555 968597
- 329193 173526 351033 283613  18318 495471 914983 621450  17911 225059
+ 329193 173526 351033 283613  18318 495471 914983 621450 225059  17911
  347321 133048 923245 454758 299317 397565 523843 493267 477883 337174
  182122 434420 198283 825913 317575 702317 634297 954122 291489 111681]</t>
         </is>
@@ -30917,7 +30917,7 @@
  206267 306730 934493 702062 182084 196782 236371 399973 577512 725470
  777187 208441 794787 129359 429089 586120 375531 674752  69151 399230
  799544 887073 535351 417207 442974 246218 411493 985325 781865 160139
- 435653 463675 952509 836247 725499 824107 823519 496707 496891 496922
+ 435653 463675 952509 836247 725499 824107 823519 496891 496707 496922
  438612 396705 329193 383786 203477 281269  72155 372729 116320 128397
   19071  51437 965457 367897 198051 104359  55374 284834 870166 215386]</t>
         </is>
@@ -30943,7 +30943,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>[628954 121560 245324 873944 893566 928820 669933 445314 190704 638375
+          <t>[628954 873944 121560 893566 245324 928820 669933 445314 190704 638375
  372526 775907 863768 666473 267700 617929 537294 281030 775242 722617
  985575 521584 560599 388872 113402 670071 942478 928819 770412 289209
  697615 340647 233382  63595 840153 195995 722633  71212 287172  79396
@@ -31043,7 +31043,7 @@
       <c r="B929" t="inlineStr">
         <is>
           <t>[812358  77491 401686 187888 776441 947552 190985 383439 322502 662157
- 662156 183437 749538 759485 453652 257840 573853 231869 772914 573874
+ 662156 749538 183437 759485 453652 257840 573853 231869 772914 573874
  936127  72728 994596 444748 270794    916  90408 840087  71936 606017
  452345 401412 143691 896019 198082 619549 413775 526366 558869 207154
  464779 613419 485563 551016 146472 971541 345569 273731 910390 662178
@@ -31081,7 +31081,7 @@
  984077 476282 775020 305684 984025 407326 467279 758601 362673 657909
  470215 793500 414919 552068 604801 489422 854119 121656 558030 494151
  734757 481796 818890 535553 988778 968277 242548 152947  67136 611397
- 626651 944180 592913 924410 595762 671141 607245 453062 713549  18255
+ 626651 944180 592913 924410 595762 671141 607245 713549 453062  18255
    7050 180310 228723 471686  98675 341313 865603 709325 418824 400529
  880106 602470 180182 721340 245032  58685 758600 563356 279171 642623
  336595 821173 733272 644142 872220 427971  16397 581729 204797 157268]</t>
@@ -31109,7 +31109,7 @@
       <c r="B931" t="inlineStr">
         <is>
           <t>[942860 645827 467958 925589 215764 411161 161349 438778 860362 997014
- 273028 285351 648832 270312 257061 933091 934148 386019 909608 960127
+ 273028 285351 648832 270312 257061 934148 933091 386019 909608 960127
  686413 205650 273045 495707 478715 686490 331365 771407 769819 740599
   11418 768247 980215 199953 338358 460194 909045 428405  62027 974201
  992681 217560 757750 755261 424080 587898 137249 527269 796718 724597
@@ -31117,7 +31117,7 @@
  471791 808749 595737 565447 646883 460370 137274 820527  96687 106808
  745134 644391 109101 346728 780606 613876 638003 556632 201426 184124
  874406 470462 349999 563968  54871 395401  55887 622895 887911 388262
- 922677  59741 961821 976589 108955 780632 579920 979899 383610 163959]</t>
+ 922677 961821  59741 976589 108955 780632 579920 979899 383610 163959]</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -31142,7 +31142,7 @@
       <c r="B932" t="inlineStr">
         <is>
           <t>[185011 267755 800275 538365 176005 516979 377343 954601 150080 154138
- 323453 920445 176530 564383 676877 750360 976540 308447 244031 407004
+ 323453 920445 176530 564383 750360 676877 976540 308447 244031 407004
   99882 475961 189016 882919 416754 561054 147963 657767 222311 208661
  482528 963677 670222  54171 597630 411856 461434 751728 796679 494768
  935323 158849  63537 147757 421723 668542 375180 461970 147977 161099
@@ -31178,7 +31178,7 @@
  123754 360302 868135 262413 927713 537018 652245 196868 549674 456388
  968422 199124 974499 569904 776292 453452 207120  73756 409439 586232
  563759 704813 560060 553471 441205 641958 722762 214947 445601 530357
- 739739 998181 174023 899500 881400 236514 208415 639567 516026 832363
+ 739739 998181 899500 174023 881400 236514 208415 639567 516026 832363
  384445 384472 915247 241173 974902 766758 915225 918324 270791 958797
  146305 995725 197148 761594 712321 983344 451669 982676 612482 946836
  786902 136051 977069 713410 547384 271309 995747 940006 895924 146001
@@ -31341,13 +31341,13 @@
         <is>
           <t>[530287 526620 672197 884937 533373 749700  10702 633451 247790 978116
  163902 530761 339014 291438 530995 671782 247778 909346 522638 169641
-    205   5118 809423 805587 993653 673041 525882 743217 753980 216399
- 354459 796537 881501 807424 386266 464723 579583  92522 671366 805363
+   5118    205 809423 805587 993653 673041 525882 743217 753980 216399
+ 796537 354459 881501 807424 386266 464723 579583  92522 671366 805363
  230119 813126 581997 668974 975264 361355 730116 322457 708778 995882
  114161 426406 487380 481769 800451 393239 772629 425514 748853 565969
  978102 317345 675342 744310 922807 199151 163903  57490 831819 100861
  917155 500546 756479 766104 189016 881509 766837  47294 218101  34625
- 554609 439365 524800 709824 563137 908732 222664 233982 580761 729749
+ 554609 524800 439365 709824 563137 908732 222664 233982 580761 729749
  214536 464056 806529 832026  61014 811270 734467 307466 554605 930845]</t>
         </is>
       </c>
@@ -31372,8 +31372,8 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>[ 85596 454815 584728  85604 353225 353698 570117 892306 400596   4116
- 595255 642666 379355 767642 262841 262894 748669 468458 276826  59147
+          <t>[ 85596 454815 584728  85604 353698 353225 570117 892306 400596   4116
+ 595255 642666 379355 767642 262894 262841 748669 468458 276826  59147
    1019 683042 876673 847187  85679 753293 856495 369334 381868 646229
   91358 668917 467736 515393 289307 234831 635185 750240 991350 208144
  196774 174805 742867 635631 763320  56870 779863 306963 681384 478679
@@ -31407,7 +31407,7 @@
         <is>
           <t>[287026 270809 270781 239381 106919 270771 768207 685783 287024 169934
  791031 524422 592919 435951 868148 445390 270380 624162 994122 270235
- 287025 920536 740860 682690 893419 893451 791013 527677  26055 874712
+ 287025 920536 740860 682690 893451 893419 791013 527677  26055 874712
  699043 665239 421904 712930 201379 392493 611369 178402 464893 434844
  460268 882784 286999 331630 665227 828317 937444 680120 818804  94148
  537495 686622 791032 727936 991812 152548 402595 769051 983904 198002
@@ -31443,10 +31443,10 @@
  702381  67644 924623 141771  56131 828606 321541  45647 494006 522772
  934820 688487 814510  41022 661943 809878 937089 515991 123408 886467
  544563 491998  80143 760814 917374 512307 130987 952207 975006 745122
- 976544 420632 968651 460951 916085 725436 350359  80648 505067 566198
- 566229  28955 388296 509503 299703 299317 551298 809900 597618 919196
+ 976544 420632 968651 460951 916085 725436 350359  80648 505067 566229
+ 566198  28955 388296 509503 299703 299317 551298 809900 597618 919196
  197634 703371   1990 460793  74149 386203 814339 504353 339041 514394
- 920891 304342 336761 150343 761858 283733 951734 194472 769294 387658
+ 920891 304342 336761 761858 150343 283733 951734 194472 769294 387658
  285230 674729 541976 537519 256244   5879 976488 130041 577801 450085]</t>
         </is>
       </c>
@@ -31504,7 +31504,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>[646357 201886 571412 345128 364182 124903 904417 303648  93255 771280
+          <t>[646357 201886 571412 364182 345128 124903 904417 303648  93255 771280
  326842 356155 474510 314168 582044 149645 349173 621050 231459 680819
  923649 874656 884799 144783 835612 290020 122542 788117 461858  52655
  412901 616591 672830 135223 563878 571416 261406 860140 997893  70217
@@ -31575,7 +31575,7 @@
  777710 146351 632470 124531 198518  18991 457251 339523 215072 775958
  161479  25206 908443 622069 120818 244909 157145 312227 556556 557689
  807903 333969 180601 295154 440933 843933 963799 877511 771760 135072
- 533828 253826 559462 559495  14053 945077 680442 471933 696614 120795
+ 533828 253826 559495 559462  14053 945077 680442 471933 696614 120795
   59545 446600  73917 731180 270077 910709 402720 305263  50206  64106
  836901 194730 579638 606442 521323 383546 733459 316713 978406 822488
  150907 125435 774706 762830 493699  55011 597563 848947 583302 715181
@@ -31604,10 +31604,10 @@
       <c r="B946" t="inlineStr">
         <is>
           <t>[518906 894674  93741 886090 482591 329313 929246 948867 354199 612120
-  15157 886186 540364 511592 942192 922573 563797 530804 678526 678552
+  15157 886186 540364 511592 942192 922573 563797 530804 678552 678526
  574856 447243 584563 512307 279947 339041 854236 443256 828740 686140
   63515  48719 119172   8163 833465 951828 934893 655228 767948 141771
- 816214 436355 123826 139277 506896 892124 213192 796214 208917 442392
+ 816214 436355 123826 139277 506896 892124 796214 213192 208917 442392
  595320 381119 714683 557785 517504 247412  67644 498593 656751 431665
  636271 909861 681523 256244 414538 299703 592327  55819 632161 128326
  699089 130052 675422 306029  88817 541110 225356 469986 482630 185154
@@ -31636,11 +31636,11 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>[932315 220402 752229 347935 979981 341967 490645 791563  44878 655269
+          <t>[932315 220402 752229 347935 979981 341967 490645 791563 655269  44878
  995224 874105 526539 927045 925288 625851 770445 449992 809447 923344
  977997 254385 916212 351022 500069 281440 540755 675170 411701 968048
  532766 529420 306332  31701 691164 173029 593754 259382 481314 688474
- 797981 158408 114016 851065 843291 281291 754569 630347 464327 231360
+ 797981 158408 851065 114016 843291 281291 754569 630347 464327 231360
  691165 575678  43257 797496 665877 637235 359835 652761 695420 780426
  523370 910298 435687 601688 223534 419688 281183 262414 857916 652291
  520874 757915 399557 150489 765897 268770 209603 765819 800204 217177
@@ -31705,7 +31705,7 @@
           <t>[256082  61571 562992 795116 164063 951625 859064 589733 579715 293473
  305870 792338 325561 667579 580073 978094 387530 301942 765699 293501
  470981 526567 289642 361513 724561 871694 819679 893656 825953 960223
- 925124 293482 808088 455924 528993  18294  41364 760322 394538 735341
+ 925124 293482 808088 455924 528993  41364  18294 760322 394538 735341
  356422 919264 453004 527742   2148 959315 113082 162716 415184 542958
  208660 235141 712311 266030 403350 714119 449654 595739 984943 296081
   22760 781903 512993 902344 286414 602105 677190 809757 261697 413539
@@ -31770,7 +31770,7 @@
         <is>
           <t>[ 13499 354742  23642 685729 625320  11033 289043 419212 347410 222853
   11050 245517 564620   6601 852282 548083 443469 725135 615221  79217
- 277063 350267 824197 168717 504172 510966 115785 305154 223480 633347
+ 277063 824197 350267 168717 504172 510966 115785 305154 223480 633347
  708997 190835 370137 370883 313599 214634 992703  55363 206680 910372
  904526 104318 692642 269207 735146 720450 295547 558358 342175 333864
   86503 707430 223232 745266 315747 783089 799257 470684 916866 978255
@@ -31809,8 +31809,8 @@
  115210 173371 873875 873898 374523 289083 152667 749719 948460 641696
  277189  27522 533988 311763 493713 824530  61773 202967 647644  37178
  762502 923031 962265 546232 453239 244269 731601 829416 551345 970554
- 749879 614332 911128 890327 936882 233077 343274 681384 246858 353225
- 353698 189632 252344  44754 908075 427819  16104 528791 130047 921467]</t>
+ 749879 614332 911128 890327 936882 233077 343274 681384 246858 353698
+ 353225 189632 252344  44754 908075 427819  16104 528791 130047 921467]</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -31873,7 +31873,7 @@
  205862  74687 759739 161855 503643 494766 506718 957523 281781 337320
  241061 173314 775549 279965 422970 308478 536570 620555 950640 167064
  923650 654123 620170 911108 851549 757584 786205 786539  12009 893270
- 584042 956053 137735 641192 415700 415727 308477 703830 272829 332588
+ 584042 956053 137735 641192 415727 415700 308477 703830 272829 332588
  378053 560998 192696  53501 891035 103420 281732 808171 708451 735604
  422730 125726 371106 493578 922500 677230  61642 796246 417191 149645
  209795 594601 182713 728619  43703 463099 642659 836860  53540 556287]</t>
@@ -31907,8 +31907,8 @@
  637264 685375 518179 558670 612010 202643 436721 636383 989174 720096
  659326 150196 649972 462790 405589 701646 202656 833842 196269 836312
  658920 981947 124610 704166 822451 150409 495416 235869  42506 691625
- 125987 602351 167356 812728 702344 788545 535904 632104 702379 136340
- 813370 307455  76076 529193 619940 494964  66346 352540 640766 513922
+ 125987 602351 167356 812728 702344 788545 535904 632104 702379 813370
+ 136340 307455  76076 529193 619940 494964  66346 352540 640766 513922
  662377 917438 461411 352850 915511 635639 772403 320546 579702 722525]</t>
         </is>
       </c>
@@ -31969,12 +31969,12 @@
           <t>[805084 919033 662248 166731 882135 995363 485584  63470 995412 191733
  547575 873017 898955  22222 723508 893665  86739 971533  17604 172950
  735828 186483 766028 726748 984905 201228 286122 292327 563041 215518
- 636036 110055 480215 842291 986413 986431 160534 714557 448656  75860
+ 636036 110055 480215 842291 986431 986413 160534 714557 448656  75860
  464251  51007  51038 180607 733642 555524 667485   2835 843880 716543
  602479 430580 268796 237495 237678 181276 783442 321926 444014 911445
  677044 619916  27873 949798 154789 401659 685485 126430  75187  58408
   70385 232732 681971 137689 858105 528047  84268 286414   3030 688493
- 906267 395297 620127 895815 861757 185370 606727  70272 482896 588433
+ 906267 395297 620127 895815 861757 185370 606727  70272 588433 482896
  465692 906305 252458 354568 763046 624923 146050 754316 755101 541004]</t>
         </is>
       </c>
@@ -32002,7 +32002,7 @@
           <t>[233579 172774 525311 713145 949084 548362 563547 569038 147025 174424
  149677 858292 228487 892009 694880 936174 682384 631096 119799 413517
  810295 372519 198297 281909 553952 365207 888905 368526 630208 124337
- 460885  61280 717271 320442  31228 796098 552143 142713 596214 630993
+ 460885 717271  61280 320442  31228 796098 552143 142713 596214 630993
  843879  99008 698756 357518 851001  12493 562533 144364 310805 549078
  915056 851062 947615 755764 608325 320443 695067 469202 523078 884609
  361567 500960 919055 866241 876672 520460 850917 693007  10142 580296
@@ -32105,7 +32105,7 @@
  356593 842295  45935 770448 444229 301645  38594 949012  95332 853629
  711108  98249 841148 263014 303789 214321 330649 556353 218566  27800
  615527 993898 453690 344458 273659 724953 129349 171040 524358 543130
- 665122 734081 880956  83736 352380 102886 498017 584454 733917 356405
+ 665122 734081 880956  83736 352380 102886 498017 733917 584454 356405
  655697  67023 439988 795269 112542 148976 771159 275101 589846 280917
  504552  60566 791176 441985 448161 766056 291594 179297 497773 311636]</t>
         </is>
@@ -32181,7 +32181,7 @@
           <t>[0.4508 0.5398 0.6719 0.6793 0.8028 0.8772 0.8833 0.9133 0.934  1.0824
  1.0937 1.1545 1.2064 1.3595 1.4591 1.4688 1.4863 1.4989 1.6025 1.637
  1.6791 1.6988 1.7117 1.7896 1.8112 1.8702 1.9085 1.9507 1.9753 2.0175
- 2.08   2.0864 2.1014 2.1108 2.1123 2.1899 2.2047 2.2136 2.2442 2.2666
+ 2.08   2.0864 2.1014 2.1108 2.1123 2.1899 2.2047 2.2135 2.2442 2.2666
  2.4192 2.4845 2.4996 2.5035 2.5092 2.5097 2.5238 2.5326 2.5331 2.5438
  2.5924 2.5981 2.6075 2.6253 2.6286 2.6331 2.6365 2.6542 2.6717 2.6728
  2.6803 2.7241 2.7324 2.7343 2.7354 2.7411 2.7436 2.7488 2.7545 2.7596
@@ -32250,7 +32250,7 @@
  1.2856 1.2865 1.2874 1.2875 1.2878 1.2899 1.2906 1.2907 1.2909 1.2916
  1.292  1.293  1.2935 1.2942 1.2944 1.2947 1.295  1.2966 1.2969 1.2975
  1.2977 1.2983 1.2984 1.2986 1.2999 1.3002 1.3007 1.3012 1.3017 1.3019
- 1.3021 1.3025 1.3025 1.3028 1.3031 1.3033 1.3038 1.3042 1.3043 1.3043
+ 1.3021 1.3025 1.3025 1.3028 1.3031 1.3033 1.3038 1.3042 1.3043 1.3044
  1.3049 1.3054 1.3055 1.3069 1.3071 1.3072 1.3073 1.3073 1.3078 1.3081
  1.3082 1.3082 1.3084 1.3087 1.3089 1.3089 1.3099 1.3102 1.3103 1.3108
  1.3108 1.311  1.311  1.311  1.3114 1.3114 1.3116 1.3117 1.3118 1.3122]</t>
@@ -32370,8 +32370,8 @@
  287347 565239  10109 431881 840978 482253 882597 326190 814537 250364
  686103  51233 874601 801313  29131 888222  86419  94887 537063 109239
  299820 831473 888960 391558  92467  51142 287334 434390 867973 143727
- 244280 730351 986342 645985 938795 889521 399790 632209 362714 515639
- 867038  86590 574067 704626 340238 209915 316424 120883  38991 243293]</t>
+ 244280 730351 986342 645985 938795 889521 399790 632209 362714 867038
+ 515639  86590 574067 704626 340238 209915 316424 120883  38991 243293]</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -32468,7 +32468,7 @@
  724430 291323 721954 664982 901947 889292 937153 851826 584407 195766
  750291 430565 904956 646537 120025 387537 351949 311918 553292 792655
   60781 688995   2202 679344 430873 966156 807260 607038  32950 567371
- 875828 309253 208810 744578 744629 257650 554979 580367 668347 923843
+ 875828 309253 208810 744629 744578 257650 554979 580367 668347 923843
  675136 144943 333670 793909 907058 411366 842162  67904 799471 759681
   40662 566275 791112 328409 486913  70523 429512 772443 906037 673617]</t>
         </is>
@@ -32503,7 +32503,7 @@
  273420 866962 389737 616371 709787 443980 764943 301985 117787 565724
  174221 759846 845202 685340  98697 149470 576471 809457  10757 952390
  901737 947243 897610 153165 387530  89729 273450 631417 588573 640774
-  88750 248828 637336  75634 312640 622917 895090 337811 457739  30763]</t>
+ 248828  88750 637336  75634 312640 622917 895090 337811 457739  30763]</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -32563,7 +32563,7 @@
           <t>[844999 490261 544959 237742 238816 531670 338395 234261 212227 108353
  108382 544958 300840 619190 544957 524567 612233 198494 212228 544970
  912270 488211 257409 996834 280393 982263  73304 655485 629825 268579
- 642936 642973 194964 676177 314097 750302 543643 125431  55421 564322
+ 642973 642936 194964 676177 314097 750302 543643 125431  55421 564322
  331347  54721 811530 703612 664869 452428 630549 766257 629703 982560
  618370 607430 609420 975370 762878 508887 879570 420114 388882 509880
   76698 254479 891423 156963 956430  11595 807972 697899 294974  79661
@@ -32627,7 +32627,7 @@
       <c r="B977" t="inlineStr">
         <is>
           <t>[896520 858507 395718 718395 280467  60664 898613 220983 960878 702763
- 749056 877848 748270 313019 390222 668228 479641 200534 157677 962868
+ 877848 749056 748270 313019 390222 668228 479641 200534 157677 962868
  524013 167438 470204 615067 602494  77276   9658 389600 717694 391425
  167449 781795 724456 317132 789757 459783 235545 415632 502017 373771
  214934  25061 717717 507487 629795 105510  37318 381320 921128 564089
@@ -32679,7 +32679,7 @@
  1.3641 1.3651 1.3657 1.3662 1.367  1.3682 1.3683 1.3696 1.3701 1.3708
  1.3719 1.3722 1.373  1.373  1.3744 1.3748 1.3752 1.3753 1.3754 1.3754
  1.377  1.3772 1.3776 1.3776 1.3791 1.3792 1.3795 1.3795 1.3804 1.3822
- 1.3826 1.3829 1.383  1.3834 1.3835 1.3835 1.3836 1.3839 1.3841 1.385
+ 1.3826 1.3829 1.383  1.3834 1.3835 1.3835 1.3836 1.3839 1.384  1.385
  1.3851 1.3851 1.3851 1.3855 1.3856 1.3856 1.3861 1.3861 1.3863 1.3866
  1.387  1.387  1.3872 1.3873 1.3875 1.388  1.388  1.3886 1.3889 1.3892
  1.3895 1.3896 1.3897 1.3899 1.3905 1.3905 1.3905 1.3907 1.3908 1.3911]</t>
@@ -32694,7 +32694,7 @@
         <is>
           <t>[931699 490123 104391 408021  60549 408555 569417 193656 272010 228106
  626792 518919 537814 960025 487297 178486 302397 176481 379192 110266
- 827279 194714 247485 669068 837410 217046 423714 128138 102123 953367
+ 827279 247485 194714 669068 837410 217046 423714 128138 102123 953367
  402614 624806  77398 213616 363966 342484 452504 983158   6727 939168
  626659  51446  42692 393336 555266 175065 102138  43296 452515 342748
    1843 294554 771215 807694 517127 716729  43284 242858 897134 342483
@@ -32727,8 +32727,8 @@
         <is>
           <t>[115546 491922 122887 115358 112382 491923 115347 115561 115361 885438
  861340  77382 532436 912137 443975 515257 568851  80641 269473 711225
- 979030 249208 310333 319379 319378  63292 411184 428582 349498 320496
-  92312 883170 428583 284598 106681 449921  66298  99112 647161 115891
+ 979030 319379 310333 249208 319378  63292 411184 428582 349498 320496
+  92312 883170 428583 284598 106681 449921  99112  66298 647161 115891
  671819 854964 621537 982326 498169 100687 462905 554646 791337 904171
   66297 854971 375141 775207 639821 987017 870268 631668 231931 579913
  434122 661872 107742 565965 854529 201418 614583  36312 627757  82174
@@ -32748,7 +32748,7 @@
  2.4459 2.4463 2.4469 2.4473 2.4473 2.4475 2.4477 2.449  2.4494 2.4496
  2.4508 2.4514 2.4515 2.4515 2.4528 2.4533 2.4542 2.4543 2.4543 2.4543
  2.4547 2.455  2.4551 2.4552 2.4555 2.4557 2.4568 2.4569 2.4571 2.4572
- 2.4585 2.4586 2.4587 2.4594 2.4605 2.4609 2.4624 2.4624 2.4628 2.4628]</t>
+ 2.4585 2.4586 2.4587 2.4594 2.4605 2.461  2.4624 2.4624 2.4628 2.4628]</t>
         </is>
       </c>
     </row>
@@ -32796,11 +32796,11 @@
  154386 714493 747362  39634 122648 594613 326425 393195 958313 754726
  531455 196625 225513 920217 139459 466182 253577 516356 320657 952837
  977485 139081 476931 979202 586300 335467 268394 851187 911297 230071
- 445767 911170 976256 979181 157652 105788 685287 921272 546777 426321
-  88322 732019 939623 109615 822366 403919 934553 235020 560357 560424
- 886832 958580 206304 942772 952892  26338   7172 420518 877708 492011
+ 445767 911170 979181 976256 157652 105788 685287 921272 546777 426321
+  88322 732019 939623 109615 822366 403919 934553 560424 560357 235020
+ 886832 958580 206304 952892 942772  26338   7172 420518 877708 492011
  823025 732034 956257 393212 663219 268055 183349  11836 296266  35293
- 313428 407817 458964  25389  87496 139478  73938 847423 704990 417547]</t>
+ 313428 407817 458964  87496  25389 139478  73938 847423 704990 417547]</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -32824,14 +32824,14 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>[297154 453996 993616 600787 911419 911444  27626   9813 168008 503436
+          <t>[297154 453996 993616 600787 911444 911419  27626   9813 168008 503436
  580296 428541 287214 338053 712807  40539 886042 232746  46293 369175
  258599 377911 697489 479041 152732 902373  24927 608325  25781 994697
  569799 145983 952339 294200 521853 127474 225500  50401 299047 299163
  947139 357518 580301 127455 150689 184586 694806 408729 609611 198327
  338068 947527 781086 968184 945143 736817 451927 893043 272601 458720
  941946 985205 437517 751198 485747 125850 537346 160887 534420 420904
- 536400 271559 627620 300601 722492 191507 929985 198897 198936 137473
+ 536400 271559 627620 300601 722492 191507 929985 198936 198897 137473
  133063 928351 959579  76349 635186 353918 255277 991221 534418 275749
  953472 232316 973874 791411 103034    483 263691 962234 959397 655436]</t>
         </is>
@@ -32859,8 +32859,8 @@
         <is>
           <t>[115545  60544 717589 182433 216836 827270 558397 134085  85568 182434
  391937 158882 208659 952839 807749 350263 619542 827255 541288 344155
- 491919 471326 927995 408936 523176 544608 840982 509842 408942 154889
- 224484 783458 182436 642510 627258 827256 643322 830353 304712 875032
+ 491919 471326 927995 408936 523176 544608 840982 509842 408942 224484
+ 154889 783458 182436 642510 627258 827256 830353 643322 304712 875032
  966816 149777  81645 574159 491927 214953 921373 221688 465900 840987
  505334  59838 472703 519751 144211 178977 327893 648824 402425 963528
  525226 523169 495434 356084 325942 781129 739137 484770 175905 471094
@@ -32930,7 +32930,7 @@
    1869 604182 755519 508247 516945  53797  16582 681002 118528 373576
   85399 811229  20700 575525 594393 497568 129439 628650 909847 106826
  401106 604183 229456 389570  60314 255948 343400 364148 518722 831142
- 382519 576000 598110 646009 570528 570553 446271 360096  19440 949451
+ 382519 576000 598110 646009 570553 570528 446271 360096  19440 949451
  453329 995252 146058 314277 934023  60030  52606 164053 983828 848324
  424267 977752 636547  77839 546483 148736 556862 875324 556732 302633]</t>
         </is>
@@ -32938,7 +32938,7 @@
       <c r="C986" t="inlineStr">
         <is>
           <t>[1.869  1.8712 1.8712 1.8717 1.8807 1.8815 1.887  1.8878 1.8882 1.9045
- 1.906  1.9082 1.9088 1.9161 1.9169 1.9172 1.92   1.9205 1.9236 1.9242
+ 1.906  1.9082 1.9088 1.9162 1.9169 1.9172 1.92   1.9205 1.9236 1.9242
  1.9263 1.9292 1.9297 1.9302 1.9311 1.9332 1.9333 1.935  1.937  1.9378
  1.938  1.9385 1.9463 1.9463 1.9466 1.9471 1.9485 1.9496 1.95   1.9512
  1.952  1.953  1.9539 1.955  1.9551 1.9568 1.9577 1.9588 1.9594 1.9624
@@ -32990,11 +32990,11 @@
       <c r="B988" t="inlineStr">
         <is>
           <t>[930231 834761 954475 848767 468983 375477  85357  26395 699411 519626
- 235020 560357 560424 376647 930230 740480 616527  23167 271477 690066
+ 560424 560357 235020 376647 930230 740480 616527  23167 271477 690066
  471821 178461  32842 778959 948531 405182 791947 806237 459106  17935
  350791 428283 696544  84398 837615 600975 948511 667533 151272 879439
  835837 291689 484779  25389  87496 214629 557899 356630 410557 859244
- 336626 800345 662130 133526 226227 313835 582443 863759 896183 322964
+ 336626 800345 662130 133526 863759 226227 582443 313835 896183 322964
  727406 562885 806236 204029 396198 471308 311693 234298 208602 915355
  695878 806238 957209  31886 174252 834517 876200 413665 504733 364080
  876273 660424 499456 521159 286939 985333 917364 635027 270380 833234
@@ -33056,12 +33056,12 @@
       <c r="B990" t="inlineStr">
         <is>
           <t>[960965 959441 785989 104808 605813 633272 798364 244307 310585 199723
- 381304 415054 978909 337178 300260 967889 520583 477109 920805 621419
+ 381304 415054 978909 337178 967889 300260 520583 477109 920805 621419
  651950 202375 751475 373188 621536 443157 274716 919633 688813 624035
  240878 300147 824396 411662 117018 624229 383326 790342 114280 374068
  749742 425631 461825 874092 638675 771140   1302 343288 634005 258875
  916223 535569  19888  92365 415621 120277  69428 699914 761479  95774
- 270243 687576 323721 323901 205125 409466 632690 288126 106353 715092
+ 270243 687576 323721 323901 205125 409466 632690 288126 715092 106353
  450338 652520 305498 634457 601428 262279 441110 772116 293482 276303
  741911 235365 761840 887734 634659 675767 952477 465449 159839 174215
  293473 411663 320720 633974 960732 747542 809705 673313 352387 716497]</t>
@@ -33090,7 +33090,7 @@
         <is>
           <t>[931619 104111 217293 895732  85771  10115 513766 697167  21674 316836
  143600  94196 768980  80122 316850 906665 842277 382135 188710 755527
- 511957 493506 211717 700257 212090 490919  53877 959101 839412  22042
+ 511957 493506 700257 211717 212090 490919  53877 959101 839412  22042
  990106 775224 451894 372248 401311 441087 958029 547004 268557 960791
  972270  32011 236685 183010 947313 486375 756396 653467 701785 543087
  235793 187043 198388 969078 115230 834404 779391 834459 425921  26863
@@ -33123,13 +33123,13 @@
         <is>
           <t>[612531 835541 267043 418536 582495 835556 835563 122222 561376 603998
   10790 618673 981814 937391 496554 276722 995629 131802 550986 600081
- 148444 754354 215827  88516 863069 141172 136088 314613 676799 559725
+ 148444 754354 215827  88516 863069 141172 314613 136088 676799 559725
  182411 612471 202492 919471 247335 636953  88540 506356 248886 748869
  732157 522181 102240 234501 508532 686182 424267   5676 601314  46232
  791255 354650 184092 591388  51909 512432 512521 721850 890828 641833
  531494 534201 613736 905940 508535 146966 716177 372112 235364 988226
  616969 149318 541490 857343 299190 636162 150647 717805 938907  98840
- 829731 806967 462494 355421 675013 263337  33800  59898 150609 298363
+ 829731 806967 462494 675013 355421 263337  33800  59898 150609 298363
  585963 602164 604036  67471 745755 759886 349386 701904 674997 153239]</t>
         </is>
       </c>
@@ -33155,7 +33155,7 @@
       <c r="B993" t="inlineStr">
         <is>
           <t>[102794 310697 137733 277164 657640 436004 943211 213960  85372 119184
- 441275 482504 389962 406084 906807 235341 213279 310259 239007 174550
+ 482504 441275 389962 406084 906807 235341 213279 310259 239007 174550
  110562  13465 933951 324786 180248 958520 533171 793923 429723 906003
  387792 145381 170575  54545 712332 587266 335658 349802 889287 978341
  338438 290262 942293 896349 516913  42081 221675 849160 417572 933420
@@ -33191,7 +33191,7 @@
  834966 472094 552836 868087 170744 681632 111072 369420 563672 844337
  418555 266880 765125 906991 868232 554389 470448 364981 919140  29409
  756098 265983 316728 792699 942927 137508 240970  52522 486625 511449
- 133287 607754 960620 981868 415257 833872 930448 914724 352355 228077
+ 133287 607754 960620 981868 415257 930448 833872 914724 352355 228077
  539570  55853 975720 134503 606036 922839 773602 449256 523441 746370
  109923 446149 555540 126041 377103 213130 127708 141819 406105    137
  292588 264781 509452 815781 872569  28079 652702 750362 815802 872344
@@ -33259,7 +33259,7 @@
  434205 294253 294280 188957 863330 908286 515113   8864  56729 943468
   33541 908287  15102 100559  88531 426074 590021   2784 242870 275920
  595817 190537 402725  38373 998835 842986 219042 237881 460916 887960
- 254926 403033 673367  44464 203401 434074  50887 181633 197492 665118
+ 254926 403033 673367  44464 203401 434074  50887 197492 181633 665118
  977650 707888 898206 538873 602247 778948 340362 544488  78379 250861
  647694 128946 280389 354224 431579 531811  43338 440029 148288 384580
  574276 822644 601184 959348 676011  47979 195079 396234  72589 222146]</t>
@@ -33287,10 +33287,10 @@
       <c r="B997" t="inlineStr">
         <is>
           <t>[489572 533385 583508 180236 593912 670095 881552 739036 560161 259813
- 593909 881557 283212 662022 184693  41024 834552 475057 767013  64996
+ 881557 593909 283212 662022 184693  41024 834552 475057 767013  64996
  361457 135788 470721  19952 902335 178974 790304 369906 617137 213248
- 575521 871952 330658 614772 570533 604910 681036  63589 525356 103284
- 524836 995838 732352 736797 212162 393294 963340 508089 640535 601174
+ 575521 871952 330658 614772 570533 604910 681036 525356  63589 103284
+ 995838 524836 732352 736797 212162 393294 963340 508089 640535 601174
  774233  80773 499913 901670 301373 622594 176976 458814 684668 537637
  689579 310377 455261 566392 349133 677290 338834 288327 854272 452972
  286558 323923 527683 178238 803914 772648 239611 952613 237943 369565
@@ -33325,7 +33325,7 @@
  901993 367092 137001 567973 577559 104169 452556 700644 730855 703340
  950403 563047 127300 348378 201464 574404 437594  37859 158606 251449
  901992 796876 444661 823826  72166 588783 577590 370785 427389 772532
- 687093 990606 634262 502556 968705 905949 202620 463200 318330 318361
+ 687093 990606 634262 502556 968705 905949 463200 202620 318330 318361
  968597 952473 120334 181260 722336 162516 894314 835051 236870 922851
  680076 182122 375412 130097 630549 716426 430745 161775 565726 856344
  976839 858028 381677 699654 966069 765106 276822 251519 258489 367658]</t>
@@ -33359,7 +33359,7 @@
  782802  86826 634487 387486 288076 396094 247437  62740 731969 732473
  392560 735114 140699  88814 531813 460907 491590 562804 716103 373272
  344600 253761 557754 244126 260786 202286   1847 201623 965565 444156
- 782801 803380 445651  17772 749507 925015 311321 311456 691232 151018
+ 782801 803380 445651  17772 749507 925015 311456 311321 691232 151018
  144883 446254 472854  48681 333832 349200 517519 597089 257226 596704
  211207 832146 340029 684130 656665 166417 130052 452884 719686 968676]</t>
         </is>
@@ -33423,7 +33423,7 @@
  364949 900278 101137 288686 338496 142426 995759 540849   8130 512692
  656986 920324 181687 356594 646207 928801 704953 549656 248490 975164
  848161 928966 182969 116644 536902 552477 601539 695732 827796 973063
- 253681 248500 458527 396003  14007 944446 549540 464615 655593 929440
+ 253681 248500 458527 396003  14007 944446 549540 655593 464615 929440
  238064 182986 372511 529461 113517 775626 505118 318871 607611 943616
  905374 105247   7210 142422 767386 680362  41119 210865 763042 631559
   80157 246290 743426 523389 628348  49166 992042 750110 964671 571833
